--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9013600</v>
+        <v>8495100</v>
       </c>
       <c r="E8" s="3">
-        <v>8793100</v>
+        <v>9211900</v>
       </c>
       <c r="F8" s="3">
-        <v>7666000</v>
+        <v>8986500</v>
       </c>
       <c r="G8" s="3">
-        <v>7952700</v>
+        <v>7834700</v>
       </c>
       <c r="H8" s="3">
-        <v>7888500</v>
+        <v>8127600</v>
       </c>
       <c r="I8" s="3">
-        <v>8469900</v>
+        <v>8062000</v>
       </c>
       <c r="J8" s="3">
+        <v>8656200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8405700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8306000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7494500</v>
+        <v>7099400</v>
       </c>
       <c r="E9" s="3">
-        <v>7284800</v>
+        <v>7659400</v>
       </c>
       <c r="F9" s="3">
-        <v>6264500</v>
+        <v>7445100</v>
       </c>
       <c r="G9" s="3">
-        <v>6671500</v>
+        <v>6402300</v>
       </c>
       <c r="H9" s="3">
-        <v>6763800</v>
+        <v>6818300</v>
       </c>
       <c r="I9" s="3">
-        <v>7221200</v>
+        <v>6912600</v>
       </c>
       <c r="J9" s="3">
+        <v>7380000</v>
+      </c>
+      <c r="K9" s="3">
         <v>7152200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7114000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1519000</v>
+        <v>1395700</v>
       </c>
       <c r="E10" s="3">
-        <v>1508200</v>
+        <v>1552400</v>
       </c>
       <c r="F10" s="3">
-        <v>1401500</v>
+        <v>1541400</v>
       </c>
       <c r="G10" s="3">
-        <v>1281100</v>
+        <v>1432400</v>
       </c>
       <c r="H10" s="3">
-        <v>1124600</v>
+        <v>1309300</v>
       </c>
       <c r="I10" s="3">
-        <v>1248700</v>
+        <v>1149400</v>
       </c>
       <c r="J10" s="3">
+        <v>1276200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1253400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1192000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>156900</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>140900</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>160300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>144000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>127100</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>129100</v>
+        <v>129900</v>
       </c>
       <c r="J12" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K12" s="3">
         <v>148600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>133600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,50 +887,56 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>84300</v>
+        <v>42400</v>
       </c>
       <c r="E14" s="3">
-        <v>134900</v>
+        <v>86100</v>
       </c>
       <c r="F14" s="3">
-        <v>123000</v>
+        <v>137800</v>
       </c>
       <c r="G14" s="3">
-        <v>162600</v>
+        <v>125700</v>
       </c>
       <c r="H14" s="3">
-        <v>87600</v>
+        <v>166200</v>
       </c>
       <c r="I14" s="3">
-        <v>114500</v>
+        <v>89500</v>
       </c>
       <c r="J14" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K14" s="3">
         <v>37400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>212800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>24200</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>23500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>24800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>24100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -925,15 +947,18 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>36500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8726600</v>
+        <v>8318600</v>
       </c>
       <c r="E17" s="3">
-        <v>8520700</v>
+        <v>8918600</v>
       </c>
       <c r="F17" s="3">
-        <v>7437900</v>
+        <v>8708100</v>
       </c>
       <c r="G17" s="3">
-        <v>7868800</v>
+        <v>7601500</v>
       </c>
       <c r="H17" s="3">
-        <v>7813600</v>
+        <v>8041900</v>
       </c>
       <c r="I17" s="3">
-        <v>8353000</v>
+        <v>7985500</v>
       </c>
       <c r="J17" s="3">
+        <v>8536800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8281600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8374700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>287000</v>
+        <v>176500</v>
       </c>
       <c r="E18" s="3">
-        <v>272400</v>
+        <v>293300</v>
       </c>
       <c r="F18" s="3">
-        <v>228100</v>
+        <v>278400</v>
       </c>
       <c r="G18" s="3">
-        <v>83900</v>
+        <v>233100</v>
       </c>
       <c r="H18" s="3">
-        <v>74900</v>
+        <v>85700</v>
       </c>
       <c r="I18" s="3">
-        <v>116900</v>
+        <v>76500</v>
       </c>
       <c r="J18" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K18" s="3">
         <v>124100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-68700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75100</v>
+        <v>149300</v>
       </c>
       <c r="E20" s="3">
-        <v>131600</v>
+        <v>76800</v>
       </c>
       <c r="F20" s="3">
-        <v>57800</v>
+        <v>134500</v>
       </c>
       <c r="G20" s="3">
-        <v>144200</v>
+        <v>59000</v>
       </c>
       <c r="H20" s="3">
-        <v>108400</v>
+        <v>147400</v>
       </c>
       <c r="I20" s="3">
-        <v>81800</v>
+        <v>110800</v>
       </c>
       <c r="J20" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K20" s="3">
         <v>38600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>133500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>601400</v>
+        <v>598900</v>
       </c>
       <c r="E21" s="3">
-        <v>632700</v>
+        <v>613800</v>
       </c>
       <c r="F21" s="3">
-        <v>498800</v>
+        <v>645900</v>
       </c>
       <c r="G21" s="3">
-        <v>439800</v>
+        <v>509000</v>
       </c>
       <c r="H21" s="3">
-        <v>388300</v>
+        <v>448800</v>
       </c>
       <c r="I21" s="3">
-        <v>454700</v>
+        <v>396200</v>
       </c>
       <c r="J21" s="3">
+        <v>463800</v>
+      </c>
+      <c r="K21" s="3">
         <v>484700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>419800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37000</v>
+        <v>40200</v>
       </c>
       <c r="E22" s="3">
-        <v>36200</v>
+        <v>37900</v>
       </c>
       <c r="F22" s="3">
-        <v>31700</v>
+        <v>36900</v>
       </c>
       <c r="G22" s="3">
-        <v>33800</v>
+        <v>32400</v>
       </c>
       <c r="H22" s="3">
-        <v>36300</v>
+        <v>34500</v>
       </c>
       <c r="I22" s="3">
-        <v>41400</v>
+        <v>37100</v>
       </c>
       <c r="J22" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K22" s="3">
         <v>46100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>325000</v>
+        <v>285700</v>
       </c>
       <c r="E23" s="3">
-        <v>367800</v>
+        <v>332200</v>
       </c>
       <c r="F23" s="3">
-        <v>254200</v>
+        <v>375900</v>
       </c>
       <c r="G23" s="3">
-        <v>194300</v>
+        <v>259800</v>
       </c>
       <c r="H23" s="3">
-        <v>147000</v>
+        <v>198600</v>
       </c>
       <c r="I23" s="3">
-        <v>157300</v>
+        <v>150200</v>
       </c>
       <c r="J23" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K23" s="3">
         <v>116600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30100</v>
+        <v>109200</v>
       </c>
       <c r="E24" s="3">
-        <v>74100</v>
+        <v>30700</v>
       </c>
       <c r="F24" s="3">
-        <v>50300</v>
+        <v>75700</v>
       </c>
       <c r="G24" s="3">
-        <v>72200</v>
+        <v>51400</v>
       </c>
       <c r="H24" s="3">
-        <v>60800</v>
+        <v>73800</v>
       </c>
       <c r="I24" s="3">
-        <v>82200</v>
+        <v>62200</v>
       </c>
       <c r="J24" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K24" s="3">
         <v>64000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>294900</v>
+        <v>176500</v>
       </c>
       <c r="E26" s="3">
-        <v>293700</v>
+        <v>301400</v>
       </c>
       <c r="F26" s="3">
-        <v>203900</v>
+        <v>300200</v>
       </c>
       <c r="G26" s="3">
-        <v>122200</v>
+        <v>208400</v>
       </c>
       <c r="H26" s="3">
-        <v>86100</v>
+        <v>124900</v>
       </c>
       <c r="I26" s="3">
-        <v>75100</v>
+        <v>88000</v>
       </c>
       <c r="J26" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K26" s="3">
         <v>52600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-86400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>264600</v>
+        <v>163900</v>
       </c>
       <c r="E27" s="3">
-        <v>259500</v>
+        <v>270400</v>
       </c>
       <c r="F27" s="3">
-        <v>159700</v>
+        <v>265200</v>
       </c>
       <c r="G27" s="3">
-        <v>91000</v>
+        <v>163200</v>
       </c>
       <c r="H27" s="3">
-        <v>66900</v>
+        <v>93000</v>
       </c>
       <c r="I27" s="3">
-        <v>51000</v>
+        <v>68300</v>
       </c>
       <c r="J27" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K27" s="3">
         <v>32500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75100</v>
+        <v>-149300</v>
       </c>
       <c r="E32" s="3">
-        <v>-131600</v>
+        <v>-76800</v>
       </c>
       <c r="F32" s="3">
-        <v>-57800</v>
+        <v>-134500</v>
       </c>
       <c r="G32" s="3">
-        <v>-144200</v>
+        <v>-59000</v>
       </c>
       <c r="H32" s="3">
-        <v>-108400</v>
+        <v>-147400</v>
       </c>
       <c r="I32" s="3">
-        <v>-81800</v>
+        <v>-110800</v>
       </c>
       <c r="J32" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-133500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>264600</v>
+        <v>163900</v>
       </c>
       <c r="E33" s="3">
-        <v>259500</v>
+        <v>270400</v>
       </c>
       <c r="F33" s="3">
-        <v>159700</v>
+        <v>265200</v>
       </c>
       <c r="G33" s="3">
-        <v>91000</v>
+        <v>163200</v>
       </c>
       <c r="H33" s="3">
-        <v>66900</v>
+        <v>93000</v>
       </c>
       <c r="I33" s="3">
-        <v>51000</v>
+        <v>68300</v>
       </c>
       <c r="J33" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K33" s="3">
         <v>32500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>264600</v>
+        <v>163900</v>
       </c>
       <c r="E35" s="3">
-        <v>259500</v>
+        <v>270400</v>
       </c>
       <c r="F35" s="3">
-        <v>159700</v>
+        <v>265200</v>
       </c>
       <c r="G35" s="3">
-        <v>91000</v>
+        <v>163200</v>
       </c>
       <c r="H35" s="3">
-        <v>66900</v>
+        <v>93000</v>
       </c>
       <c r="I35" s="3">
-        <v>51000</v>
+        <v>68300</v>
       </c>
       <c r="J35" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K35" s="3">
         <v>32500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,55 +1645,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>405700</v>
+        <v>504400</v>
       </c>
       <c r="E41" s="3">
-        <v>460300</v>
+        <v>414100</v>
       </c>
       <c r="F41" s="3">
-        <v>428700</v>
+        <v>469900</v>
       </c>
       <c r="G41" s="3">
-        <v>477300</v>
+        <v>437700</v>
       </c>
       <c r="H41" s="3">
-        <v>272800</v>
+        <v>487200</v>
       </c>
       <c r="I41" s="3">
-        <v>242900</v>
+        <v>278500</v>
       </c>
       <c r="J41" s="3">
+        <v>248000</v>
+      </c>
+      <c r="K41" s="3">
         <v>284500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21600</v>
+        <v>8300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>200</v>
       </c>
       <c r="I42" s="3">
         <v>200</v>
@@ -1617,221 +1706,245 @@
         <v>200</v>
       </c>
       <c r="K42" s="3">
+        <v>200</v>
+      </c>
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1984000</v>
+        <v>1774900</v>
       </c>
       <c r="E43" s="3">
-        <v>2028200</v>
+        <v>2025400</v>
       </c>
       <c r="F43" s="3">
-        <v>1796500</v>
+        <v>2070600</v>
       </c>
       <c r="G43" s="3">
-        <v>1687200</v>
+        <v>1834000</v>
       </c>
       <c r="H43" s="3">
-        <v>1718700</v>
+        <v>1722500</v>
       </c>
       <c r="I43" s="3">
-        <v>1798800</v>
+        <v>1754600</v>
       </c>
       <c r="J43" s="3">
+        <v>1836400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2010800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1998800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1117100</v>
+        <v>1075200</v>
       </c>
       <c r="E44" s="3">
-        <v>1034400</v>
+        <v>1140400</v>
       </c>
       <c r="F44" s="3">
-        <v>948600</v>
+        <v>1056000</v>
       </c>
       <c r="G44" s="3">
-        <v>846900</v>
+        <v>968400</v>
       </c>
       <c r="H44" s="3">
-        <v>903900</v>
+        <v>864600</v>
       </c>
       <c r="I44" s="3">
-        <v>851400</v>
+        <v>922800</v>
       </c>
       <c r="J44" s="3">
+        <v>869200</v>
+      </c>
+      <c r="K44" s="3">
         <v>947600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>857800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>294200</v>
+        <v>220900</v>
       </c>
       <c r="E45" s="3">
-        <v>350700</v>
+        <v>300400</v>
       </c>
       <c r="F45" s="3">
-        <v>301700</v>
+        <v>358000</v>
       </c>
       <c r="G45" s="3">
-        <v>297500</v>
+        <v>308000</v>
       </c>
       <c r="H45" s="3">
-        <v>457000</v>
+        <v>303700</v>
       </c>
       <c r="I45" s="3">
-        <v>379200</v>
+        <v>466600</v>
       </c>
       <c r="J45" s="3">
+        <v>387100</v>
+      </c>
+      <c r="K45" s="3">
         <v>326100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>368300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3822500</v>
+        <v>3583700</v>
       </c>
       <c r="E46" s="3">
-        <v>3783200</v>
+        <v>3902400</v>
       </c>
       <c r="F46" s="3">
-        <v>3476000</v>
+        <v>3862300</v>
       </c>
       <c r="G46" s="3">
-        <v>3309000</v>
+        <v>3548700</v>
       </c>
       <c r="H46" s="3">
-        <v>3352600</v>
+        <v>3378200</v>
       </c>
       <c r="I46" s="3">
-        <v>3272500</v>
+        <v>3422600</v>
       </c>
       <c r="J46" s="3">
+        <v>3340900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3569100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3526400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1129100</v>
+        <v>986800</v>
       </c>
       <c r="E47" s="3">
-        <v>1246500</v>
+        <v>1152700</v>
       </c>
       <c r="F47" s="3">
-        <v>1191300</v>
+        <v>1272500</v>
       </c>
       <c r="G47" s="3">
-        <v>1029600</v>
+        <v>1216200</v>
       </c>
       <c r="H47" s="3">
-        <v>1253100</v>
+        <v>1051100</v>
       </c>
       <c r="I47" s="3">
-        <v>1236700</v>
+        <v>1279300</v>
       </c>
       <c r="J47" s="3">
+        <v>1262600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1047700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>934400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2084900</v>
+        <v>2359200</v>
       </c>
       <c r="E48" s="3">
-        <v>2190900</v>
+        <v>2128500</v>
       </c>
       <c r="F48" s="3">
-        <v>1867900</v>
+        <v>2236700</v>
       </c>
       <c r="G48" s="3">
-        <v>1786600</v>
+        <v>1906900</v>
       </c>
       <c r="H48" s="3">
-        <v>1810900</v>
+        <v>1823900</v>
       </c>
       <c r="I48" s="3">
-        <v>1736800</v>
+        <v>1848700</v>
       </c>
       <c r="J48" s="3">
+        <v>1773100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2546000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2369600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>110900</v>
+        <v>149400</v>
       </c>
       <c r="E49" s="3">
-        <v>102800</v>
+        <v>113300</v>
       </c>
       <c r="F49" s="3">
-        <v>88600</v>
+        <v>104900</v>
       </c>
       <c r="G49" s="3">
-        <v>77400</v>
+        <v>90400</v>
       </c>
       <c r="H49" s="3">
-        <v>82100</v>
+        <v>79000</v>
       </c>
       <c r="I49" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="J49" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K49" s="3">
         <v>114700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>288400</v>
+        <v>295000</v>
       </c>
       <c r="E52" s="3">
-        <v>303100</v>
+        <v>294400</v>
       </c>
       <c r="F52" s="3">
-        <v>194900</v>
+        <v>309500</v>
       </c>
       <c r="G52" s="3">
-        <v>212400</v>
+        <v>199000</v>
       </c>
       <c r="H52" s="3">
-        <v>174600</v>
+        <v>216800</v>
       </c>
       <c r="I52" s="3">
-        <v>164700</v>
+        <v>178300</v>
       </c>
       <c r="J52" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K52" s="3">
         <v>173600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>185800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7435800</v>
+        <v>7374000</v>
       </c>
       <c r="E54" s="3">
-        <v>7350500</v>
+        <v>7591200</v>
       </c>
       <c r="F54" s="3">
-        <v>6818600</v>
+        <v>7504100</v>
       </c>
       <c r="G54" s="3">
-        <v>6415000</v>
+        <v>6961200</v>
       </c>
       <c r="H54" s="3">
-        <v>6673200</v>
+        <v>6549100</v>
       </c>
       <c r="I54" s="3">
-        <v>6497900</v>
+        <v>6812700</v>
       </c>
       <c r="J54" s="3">
+        <v>6633800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7451100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7142600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1194600</v>
+        <v>1035500</v>
       </c>
       <c r="E57" s="3">
-        <v>1130700</v>
+        <v>1219600</v>
       </c>
       <c r="F57" s="3">
-        <v>982500</v>
+        <v>1154300</v>
       </c>
       <c r="G57" s="3">
-        <v>912600</v>
+        <v>1003000</v>
       </c>
       <c r="H57" s="3">
-        <v>1003600</v>
+        <v>931700</v>
       </c>
       <c r="I57" s="3">
-        <v>948800</v>
+        <v>1024500</v>
       </c>
       <c r="J57" s="3">
+        <v>968600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1210100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1102900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>970000</v>
+        <v>1164800</v>
       </c>
       <c r="E58" s="3">
-        <v>1057000</v>
+        <v>990300</v>
       </c>
       <c r="F58" s="3">
-        <v>911800</v>
+        <v>1079100</v>
       </c>
       <c r="G58" s="3">
-        <v>1125400</v>
+        <v>930900</v>
       </c>
       <c r="H58" s="3">
-        <v>970300</v>
+        <v>1149000</v>
       </c>
       <c r="I58" s="3">
-        <v>1090900</v>
+        <v>990600</v>
       </c>
       <c r="J58" s="3">
+        <v>1113700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1157900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1432100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>849800</v>
+        <v>766000</v>
       </c>
       <c r="E59" s="3">
-        <v>815100</v>
+        <v>867600</v>
       </c>
       <c r="F59" s="3">
-        <v>772400</v>
+        <v>832100</v>
       </c>
       <c r="G59" s="3">
-        <v>683000</v>
+        <v>788500</v>
       </c>
       <c r="H59" s="3">
-        <v>636300</v>
+        <v>697200</v>
       </c>
       <c r="I59" s="3">
-        <v>631600</v>
+        <v>649600</v>
       </c>
       <c r="J59" s="3">
+        <v>644800</v>
+      </c>
+      <c r="K59" s="3">
         <v>612300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>590100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3014400</v>
+        <v>2966300</v>
       </c>
       <c r="E60" s="3">
-        <v>3002700</v>
+        <v>3077400</v>
       </c>
       <c r="F60" s="3">
-        <v>2666700</v>
+        <v>3065500</v>
       </c>
       <c r="G60" s="3">
-        <v>2721000</v>
+        <v>2722400</v>
       </c>
       <c r="H60" s="3">
-        <v>2610200</v>
+        <v>2777900</v>
       </c>
       <c r="I60" s="3">
-        <v>2671300</v>
+        <v>2664700</v>
       </c>
       <c r="J60" s="3">
+        <v>2727100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2980300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3125100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1266200</v>
+        <v>1165300</v>
       </c>
       <c r="E61" s="3">
-        <v>1292800</v>
+        <v>1292700</v>
       </c>
       <c r="F61" s="3">
-        <v>1383800</v>
+        <v>1319900</v>
       </c>
       <c r="G61" s="3">
-        <v>1243500</v>
+        <v>1412700</v>
       </c>
       <c r="H61" s="3">
-        <v>1525100</v>
+        <v>1269500</v>
       </c>
       <c r="I61" s="3">
-        <v>1434800</v>
+        <v>1557000</v>
       </c>
       <c r="J61" s="3">
+        <v>1464800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1755400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1507900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>610800</v>
+        <v>708700</v>
       </c>
       <c r="E62" s="3">
-        <v>668300</v>
+        <v>623500</v>
       </c>
       <c r="F62" s="3">
-        <v>613400</v>
+        <v>682200</v>
       </c>
       <c r="G62" s="3">
-        <v>645300</v>
+        <v>626200</v>
       </c>
       <c r="H62" s="3">
-        <v>585900</v>
+        <v>658800</v>
       </c>
       <c r="I62" s="3">
-        <v>576300</v>
+        <v>598100</v>
       </c>
       <c r="J62" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K62" s="3">
         <v>689700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>723500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5184600</v>
+        <v>5144200</v>
       </c>
       <c r="E66" s="3">
-        <v>5200500</v>
+        <v>5293000</v>
       </c>
       <c r="F66" s="3">
-        <v>4939600</v>
+        <v>5309200</v>
       </c>
       <c r="G66" s="3">
-        <v>4841000</v>
+        <v>5042900</v>
       </c>
       <c r="H66" s="3">
-        <v>4939400</v>
+        <v>4942200</v>
       </c>
       <c r="I66" s="3">
-        <v>4886900</v>
+        <v>5042600</v>
       </c>
       <c r="J66" s="3">
+        <v>4989000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5944500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5834500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1379400</v>
+        <v>1532100</v>
       </c>
       <c r="E72" s="3">
-        <v>1164700</v>
+        <v>1408200</v>
       </c>
       <c r="F72" s="3">
-        <v>944800</v>
+        <v>1189000</v>
       </c>
       <c r="G72" s="3">
-        <v>820900</v>
+        <v>964600</v>
       </c>
       <c r="H72" s="3">
-        <v>756900</v>
+        <v>838100</v>
       </c>
       <c r="I72" s="3">
-        <v>720100</v>
+        <v>772700</v>
       </c>
       <c r="J72" s="3">
+        <v>735200</v>
+      </c>
+      <c r="K72" s="3">
         <v>692000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>655200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2251200</v>
+        <v>2229800</v>
       </c>
       <c r="E76" s="3">
-        <v>2150000</v>
+        <v>2298300</v>
       </c>
       <c r="F76" s="3">
-        <v>1879000</v>
+        <v>2194900</v>
       </c>
       <c r="G76" s="3">
-        <v>1574100</v>
+        <v>1918300</v>
       </c>
       <c r="H76" s="3">
-        <v>1733800</v>
+        <v>1607000</v>
       </c>
       <c r="I76" s="3">
-        <v>1611100</v>
+        <v>1770100</v>
       </c>
       <c r="J76" s="3">
+        <v>1644800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1506600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1308000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>264600</v>
+        <v>163900</v>
       </c>
       <c r="E81" s="3">
-        <v>259500</v>
+        <v>270400</v>
       </c>
       <c r="F81" s="3">
-        <v>159700</v>
+        <v>265200</v>
       </c>
       <c r="G81" s="3">
-        <v>91000</v>
+        <v>163200</v>
       </c>
       <c r="H81" s="3">
-        <v>66900</v>
+        <v>93000</v>
       </c>
       <c r="I81" s="3">
-        <v>51000</v>
+        <v>68300</v>
       </c>
       <c r="J81" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K81" s="3">
         <v>32500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>238800</v>
+        <v>273300</v>
       </c>
       <c r="E83" s="3">
-        <v>228200</v>
+        <v>244100</v>
       </c>
       <c r="F83" s="3">
-        <v>212400</v>
+        <v>233200</v>
       </c>
       <c r="G83" s="3">
-        <v>211200</v>
+        <v>217100</v>
       </c>
       <c r="H83" s="3">
-        <v>204600</v>
+        <v>215900</v>
       </c>
       <c r="I83" s="3">
-        <v>255500</v>
+        <v>209100</v>
       </c>
       <c r="J83" s="3">
+        <v>261100</v>
+      </c>
+      <c r="K83" s="3">
         <v>321300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>354500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>424300</v>
+        <v>394200</v>
       </c>
       <c r="E89" s="3">
-        <v>353000</v>
+        <v>433700</v>
       </c>
       <c r="F89" s="3">
-        <v>377600</v>
+        <v>360800</v>
       </c>
       <c r="G89" s="3">
-        <v>387100</v>
+        <v>385900</v>
       </c>
       <c r="H89" s="3">
-        <v>379700</v>
+        <v>395600</v>
       </c>
       <c r="I89" s="3">
-        <v>42000</v>
+        <v>388100</v>
       </c>
       <c r="J89" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K89" s="3">
         <v>500500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>278200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-391400</v>
+        <v>-439500</v>
       </c>
       <c r="E91" s="3">
-        <v>-312200</v>
+        <v>-400000</v>
       </c>
       <c r="F91" s="3">
-        <v>-258500</v>
+        <v>-319100</v>
       </c>
       <c r="G91" s="3">
-        <v>-233100</v>
+        <v>-264200</v>
       </c>
       <c r="H91" s="3">
-        <v>-251600</v>
+        <v>-238300</v>
       </c>
       <c r="I91" s="3">
-        <v>-357800</v>
+        <v>-257100</v>
       </c>
       <c r="J91" s="3">
+        <v>-365700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-415900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-277000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-282200</v>
+        <v>-307700</v>
       </c>
       <c r="E94" s="3">
-        <v>-312000</v>
+        <v>-288400</v>
       </c>
       <c r="F94" s="3">
-        <v>-330500</v>
+        <v>-318800</v>
       </c>
       <c r="G94" s="3">
-        <v>17700</v>
+        <v>-337800</v>
       </c>
       <c r="H94" s="3">
-        <v>-213900</v>
+        <v>18100</v>
       </c>
       <c r="I94" s="3">
-        <v>-366200</v>
+        <v>-218600</v>
       </c>
       <c r="J94" s="3">
+        <v>-374300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-408500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-183100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51300</v>
+        <v>-55700</v>
       </c>
       <c r="E96" s="3">
-        <v>-35300</v>
+        <v>-52500</v>
       </c>
       <c r="F96" s="3">
-        <v>-25700</v>
+        <v>-36100</v>
       </c>
       <c r="G96" s="3">
-        <v>-19200</v>
+        <v>-26200</v>
       </c>
       <c r="H96" s="3">
-        <v>-19200</v>
+        <v>-19600</v>
       </c>
       <c r="I96" s="3">
-        <v>-19300</v>
+        <v>-19600</v>
       </c>
       <c r="J96" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-176500</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-17700</v>
+        <v>-180400</v>
       </c>
       <c r="F100" s="3">
-        <v>-94300</v>
+        <v>-18100</v>
       </c>
       <c r="G100" s="3">
-        <v>-190400</v>
+        <v>-96400</v>
       </c>
       <c r="H100" s="3">
-        <v>-141200</v>
+        <v>-194600</v>
       </c>
       <c r="I100" s="3">
-        <v>271900</v>
+        <v>-144300</v>
       </c>
       <c r="J100" s="3">
+        <v>277900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-103600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-206500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>-8600</v>
       </c>
       <c r="E101" s="3">
-        <v>9500</v>
+        <v>7900</v>
       </c>
       <c r="F101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H101" s="3">
-        <v>13300</v>
+        <v>-13200</v>
       </c>
       <c r="I101" s="3">
-        <v>5400</v>
+        <v>13600</v>
       </c>
       <c r="J101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K101" s="3">
         <v>15200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26500</v>
+        <v>76300</v>
       </c>
       <c r="E102" s="3">
-        <v>32800</v>
+        <v>-27100</v>
       </c>
       <c r="F102" s="3">
-        <v>-50100</v>
+        <v>33500</v>
       </c>
       <c r="G102" s="3">
-        <v>201500</v>
+        <v>-51200</v>
       </c>
       <c r="H102" s="3">
-        <v>37900</v>
+        <v>206000</v>
       </c>
       <c r="I102" s="3">
-        <v>-46900</v>
+        <v>38700</v>
       </c>
       <c r="J102" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-118500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8495100</v>
+        <v>8632300</v>
       </c>
       <c r="E8" s="3">
-        <v>9211900</v>
+        <v>9360600</v>
       </c>
       <c r="F8" s="3">
-        <v>8986500</v>
+        <v>9131600</v>
       </c>
       <c r="G8" s="3">
-        <v>7834700</v>
+        <v>7961200</v>
       </c>
       <c r="H8" s="3">
-        <v>8127600</v>
+        <v>8258900</v>
       </c>
       <c r="I8" s="3">
-        <v>8062000</v>
+        <v>8192200</v>
       </c>
       <c r="J8" s="3">
-        <v>8656200</v>
+        <v>8796000</v>
       </c>
       <c r="K8" s="3">
         <v>8405700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7099400</v>
+        <v>7214000</v>
       </c>
       <c r="E9" s="3">
-        <v>7659400</v>
+        <v>7783100</v>
       </c>
       <c r="F9" s="3">
-        <v>7445100</v>
+        <v>7565300</v>
       </c>
       <c r="G9" s="3">
-        <v>6402300</v>
+        <v>6505700</v>
       </c>
       <c r="H9" s="3">
-        <v>6818300</v>
+        <v>6928400</v>
       </c>
       <c r="I9" s="3">
-        <v>6912600</v>
+        <v>7024300</v>
       </c>
       <c r="J9" s="3">
-        <v>7380000</v>
+        <v>7499200</v>
       </c>
       <c r="K9" s="3">
         <v>7152200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1395700</v>
+        <v>1418300</v>
       </c>
       <c r="E10" s="3">
-        <v>1552400</v>
+        <v>1577500</v>
       </c>
       <c r="F10" s="3">
-        <v>1541400</v>
+        <v>1566300</v>
       </c>
       <c r="G10" s="3">
-        <v>1432400</v>
+        <v>1455500</v>
       </c>
       <c r="H10" s="3">
-        <v>1309300</v>
+        <v>1330400</v>
       </c>
       <c r="I10" s="3">
-        <v>1149400</v>
+        <v>1167900</v>
       </c>
       <c r="J10" s="3">
-        <v>1276200</v>
+        <v>1296800</v>
       </c>
       <c r="K10" s="3">
         <v>1253400</v>
@@ -830,14 +830,14 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>162200</v>
       </c>
       <c r="E12" s="3">
-        <v>160300</v>
+        <v>162900</v>
       </c>
       <c r="F12" s="3">
-        <v>144000</v>
+        <v>146400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>129900</v>
+        <v>132000</v>
       </c>
       <c r="J12" s="3">
-        <v>131900</v>
+        <v>134000</v>
       </c>
       <c r="K12" s="3">
         <v>148600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="E14" s="3">
-        <v>86100</v>
+        <v>87500</v>
       </c>
       <c r="F14" s="3">
-        <v>137800</v>
+        <v>140100</v>
       </c>
       <c r="G14" s="3">
-        <v>125700</v>
+        <v>127700</v>
       </c>
       <c r="H14" s="3">
-        <v>166200</v>
+        <v>168900</v>
       </c>
       <c r="I14" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="J14" s="3">
-        <v>117000</v>
+        <v>118900</v>
       </c>
       <c r="K14" s="3">
         <v>37400</v>
@@ -929,14 +929,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>31700</v>
       </c>
       <c r="E15" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="F15" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8318600</v>
+        <v>8452900</v>
       </c>
       <c r="E17" s="3">
-        <v>8918600</v>
+        <v>9062600</v>
       </c>
       <c r="F17" s="3">
-        <v>8708100</v>
+        <v>8848700</v>
       </c>
       <c r="G17" s="3">
-        <v>7601500</v>
+        <v>7724300</v>
       </c>
       <c r="H17" s="3">
-        <v>8041900</v>
+        <v>8171700</v>
       </c>
       <c r="I17" s="3">
-        <v>7985500</v>
+        <v>8114400</v>
       </c>
       <c r="J17" s="3">
-        <v>8536800</v>
+        <v>8674600</v>
       </c>
       <c r="K17" s="3">
         <v>8281600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>176500</v>
+        <v>179400</v>
       </c>
       <c r="E18" s="3">
-        <v>293300</v>
+        <v>298000</v>
       </c>
       <c r="F18" s="3">
-        <v>278400</v>
+        <v>282900</v>
       </c>
       <c r="G18" s="3">
-        <v>233100</v>
+        <v>236900</v>
       </c>
       <c r="H18" s="3">
-        <v>85700</v>
+        <v>87100</v>
       </c>
       <c r="I18" s="3">
-        <v>76500</v>
+        <v>77800</v>
       </c>
       <c r="J18" s="3">
-        <v>119500</v>
+        <v>121400</v>
       </c>
       <c r="K18" s="3">
         <v>124100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>149300</v>
+        <v>151700</v>
       </c>
       <c r="E20" s="3">
-        <v>76800</v>
+        <v>78000</v>
       </c>
       <c r="F20" s="3">
-        <v>134500</v>
+        <v>136700</v>
       </c>
       <c r="G20" s="3">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="H20" s="3">
-        <v>147400</v>
+        <v>149800</v>
       </c>
       <c r="I20" s="3">
-        <v>110800</v>
+        <v>112600</v>
       </c>
       <c r="J20" s="3">
-        <v>83600</v>
+        <v>84900</v>
       </c>
       <c r="K20" s="3">
         <v>38600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>598900</v>
+        <v>607700</v>
       </c>
       <c r="E21" s="3">
-        <v>613800</v>
+        <v>623000</v>
       </c>
       <c r="F21" s="3">
-        <v>645900</v>
+        <v>655500</v>
       </c>
       <c r="G21" s="3">
-        <v>509000</v>
+        <v>516600</v>
       </c>
       <c r="H21" s="3">
-        <v>448800</v>
+        <v>455300</v>
       </c>
       <c r="I21" s="3">
-        <v>396200</v>
+        <v>401900</v>
       </c>
       <c r="J21" s="3">
-        <v>463800</v>
+        <v>470500</v>
       </c>
       <c r="K21" s="3">
         <v>484700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40200</v>
+        <v>40800</v>
       </c>
       <c r="E22" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="F22" s="3">
-        <v>36900</v>
+        <v>37500</v>
       </c>
       <c r="G22" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>34500</v>
+        <v>35100</v>
       </c>
       <c r="I22" s="3">
-        <v>37100</v>
+        <v>37700</v>
       </c>
       <c r="J22" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="K22" s="3">
         <v>46100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>285700</v>
+        <v>290300</v>
       </c>
       <c r="E23" s="3">
-        <v>332200</v>
+        <v>337500</v>
       </c>
       <c r="F23" s="3">
-        <v>375900</v>
+        <v>382000</v>
       </c>
       <c r="G23" s="3">
-        <v>259800</v>
+        <v>264000</v>
       </c>
       <c r="H23" s="3">
-        <v>198600</v>
+        <v>201800</v>
       </c>
       <c r="I23" s="3">
-        <v>150200</v>
+        <v>152600</v>
       </c>
       <c r="J23" s="3">
-        <v>160700</v>
+        <v>163300</v>
       </c>
       <c r="K23" s="3">
         <v>116600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109200</v>
+        <v>111000</v>
       </c>
       <c r="E24" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="F24" s="3">
-        <v>75700</v>
+        <v>76900</v>
       </c>
       <c r="G24" s="3">
-        <v>51400</v>
+        <v>52200</v>
       </c>
       <c r="H24" s="3">
-        <v>73800</v>
+        <v>74900</v>
       </c>
       <c r="I24" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="J24" s="3">
-        <v>84000</v>
+        <v>85300</v>
       </c>
       <c r="K24" s="3">
         <v>64000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176500</v>
+        <v>179300</v>
       </c>
       <c r="E26" s="3">
-        <v>301400</v>
+        <v>306300</v>
       </c>
       <c r="F26" s="3">
-        <v>300200</v>
+        <v>305100</v>
       </c>
       <c r="G26" s="3">
-        <v>208400</v>
+        <v>211700</v>
       </c>
       <c r="H26" s="3">
-        <v>124900</v>
+        <v>126900</v>
       </c>
       <c r="I26" s="3">
-        <v>88000</v>
+        <v>89400</v>
       </c>
       <c r="J26" s="3">
-        <v>76800</v>
+        <v>78000</v>
       </c>
       <c r="K26" s="3">
         <v>52600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163900</v>
+        <v>166500</v>
       </c>
       <c r="E27" s="3">
-        <v>270400</v>
+        <v>274800</v>
       </c>
       <c r="F27" s="3">
-        <v>265200</v>
+        <v>269500</v>
       </c>
       <c r="G27" s="3">
-        <v>163200</v>
+        <v>165900</v>
       </c>
       <c r="H27" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="I27" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="J27" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="K27" s="3">
         <v>32500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149300</v>
+        <v>-151700</v>
       </c>
       <c r="E32" s="3">
-        <v>-76800</v>
+        <v>-78000</v>
       </c>
       <c r="F32" s="3">
-        <v>-134500</v>
+        <v>-136700</v>
       </c>
       <c r="G32" s="3">
-        <v>-59000</v>
+        <v>-60000</v>
       </c>
       <c r="H32" s="3">
-        <v>-147400</v>
+        <v>-149800</v>
       </c>
       <c r="I32" s="3">
-        <v>-110800</v>
+        <v>-112600</v>
       </c>
       <c r="J32" s="3">
-        <v>-83600</v>
+        <v>-84900</v>
       </c>
       <c r="K32" s="3">
         <v>-38600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163900</v>
+        <v>166500</v>
       </c>
       <c r="E33" s="3">
-        <v>270400</v>
+        <v>274800</v>
       </c>
       <c r="F33" s="3">
-        <v>265200</v>
+        <v>269500</v>
       </c>
       <c r="G33" s="3">
-        <v>163200</v>
+        <v>165900</v>
       </c>
       <c r="H33" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="I33" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="J33" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="K33" s="3">
         <v>32500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163900</v>
+        <v>166500</v>
       </c>
       <c r="E35" s="3">
-        <v>270400</v>
+        <v>274800</v>
       </c>
       <c r="F35" s="3">
-        <v>265200</v>
+        <v>269500</v>
       </c>
       <c r="G35" s="3">
-        <v>163200</v>
+        <v>165900</v>
       </c>
       <c r="H35" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="I35" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="J35" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="K35" s="3">
         <v>32500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>504400</v>
+        <v>513100</v>
       </c>
       <c r="E41" s="3">
-        <v>414100</v>
+        <v>421300</v>
       </c>
       <c r="F41" s="3">
-        <v>469900</v>
+        <v>478000</v>
       </c>
       <c r="G41" s="3">
-        <v>437700</v>
+        <v>445200</v>
       </c>
       <c r="H41" s="3">
-        <v>487200</v>
+        <v>495600</v>
       </c>
       <c r="I41" s="3">
-        <v>278500</v>
+        <v>283300</v>
       </c>
       <c r="J41" s="3">
-        <v>248000</v>
+        <v>252200</v>
       </c>
       <c r="K41" s="3">
         <v>284500</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E42" s="3">
-        <v>22000</v>
+        <v>22400</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1774900</v>
+        <v>1805500</v>
       </c>
       <c r="E43" s="3">
-        <v>2025400</v>
+        <v>2060300</v>
       </c>
       <c r="F43" s="3">
-        <v>2070600</v>
+        <v>2106300</v>
       </c>
       <c r="G43" s="3">
-        <v>1834000</v>
+        <v>1865700</v>
       </c>
       <c r="H43" s="3">
-        <v>1722500</v>
+        <v>1752200</v>
       </c>
       <c r="I43" s="3">
-        <v>1754600</v>
+        <v>1784800</v>
       </c>
       <c r="J43" s="3">
-        <v>1836400</v>
+        <v>1868000</v>
       </c>
       <c r="K43" s="3">
         <v>2010800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1075200</v>
+        <v>1093700</v>
       </c>
       <c r="E44" s="3">
-        <v>1140400</v>
+        <v>1160100</v>
       </c>
       <c r="F44" s="3">
-        <v>1056000</v>
+        <v>1074200</v>
       </c>
       <c r="G44" s="3">
-        <v>968400</v>
+        <v>985100</v>
       </c>
       <c r="H44" s="3">
-        <v>864600</v>
+        <v>879500</v>
       </c>
       <c r="I44" s="3">
-        <v>922800</v>
+        <v>938700</v>
       </c>
       <c r="J44" s="3">
-        <v>869200</v>
+        <v>884200</v>
       </c>
       <c r="K44" s="3">
         <v>947600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>220900</v>
+        <v>224700</v>
       </c>
       <c r="E45" s="3">
-        <v>300400</v>
+        <v>305600</v>
       </c>
       <c r="F45" s="3">
-        <v>358000</v>
+        <v>364200</v>
       </c>
       <c r="G45" s="3">
-        <v>308000</v>
+        <v>313300</v>
       </c>
       <c r="H45" s="3">
-        <v>303700</v>
+        <v>309000</v>
       </c>
       <c r="I45" s="3">
-        <v>466600</v>
+        <v>474600</v>
       </c>
       <c r="J45" s="3">
-        <v>387100</v>
+        <v>393800</v>
       </c>
       <c r="K45" s="3">
         <v>326100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3583700</v>
+        <v>3645500</v>
       </c>
       <c r="E46" s="3">
-        <v>3902400</v>
+        <v>3969600</v>
       </c>
       <c r="F46" s="3">
-        <v>3862300</v>
+        <v>3928800</v>
       </c>
       <c r="G46" s="3">
-        <v>3548700</v>
+        <v>3609800</v>
       </c>
       <c r="H46" s="3">
-        <v>3378200</v>
+        <v>3436400</v>
       </c>
       <c r="I46" s="3">
-        <v>3422600</v>
+        <v>3481600</v>
       </c>
       <c r="J46" s="3">
-        <v>3340900</v>
+        <v>3398500</v>
       </c>
       <c r="K46" s="3">
         <v>3569100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>986800</v>
+        <v>1003800</v>
       </c>
       <c r="E47" s="3">
-        <v>1152700</v>
+        <v>1172600</v>
       </c>
       <c r="F47" s="3">
-        <v>1272500</v>
+        <v>1294500</v>
       </c>
       <c r="G47" s="3">
-        <v>1216200</v>
+        <v>1237100</v>
       </c>
       <c r="H47" s="3">
-        <v>1051100</v>
+        <v>1069300</v>
       </c>
       <c r="I47" s="3">
-        <v>1279300</v>
+        <v>1301400</v>
       </c>
       <c r="J47" s="3">
-        <v>1262600</v>
+        <v>1284300</v>
       </c>
       <c r="K47" s="3">
         <v>1047700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2359200</v>
+        <v>2399800</v>
       </c>
       <c r="E48" s="3">
-        <v>2128500</v>
+        <v>2165200</v>
       </c>
       <c r="F48" s="3">
-        <v>2236700</v>
+        <v>2275200</v>
       </c>
       <c r="G48" s="3">
-        <v>1906900</v>
+        <v>1939800</v>
       </c>
       <c r="H48" s="3">
-        <v>1823900</v>
+        <v>1855400</v>
       </c>
       <c r="I48" s="3">
-        <v>1848700</v>
+        <v>1880600</v>
       </c>
       <c r="J48" s="3">
-        <v>1773100</v>
+        <v>1803700</v>
       </c>
       <c r="K48" s="3">
         <v>2546000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>149400</v>
+        <v>151900</v>
       </c>
       <c r="E49" s="3">
-        <v>113300</v>
+        <v>115200</v>
       </c>
       <c r="F49" s="3">
-        <v>104900</v>
+        <v>106700</v>
       </c>
       <c r="G49" s="3">
-        <v>90400</v>
+        <v>92000</v>
       </c>
       <c r="H49" s="3">
-        <v>79000</v>
+        <v>80400</v>
       </c>
       <c r="I49" s="3">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="J49" s="3">
-        <v>89100</v>
+        <v>90600</v>
       </c>
       <c r="K49" s="3">
         <v>114700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>295000</v>
+        <v>300100</v>
       </c>
       <c r="E52" s="3">
-        <v>294400</v>
+        <v>299500</v>
       </c>
       <c r="F52" s="3">
-        <v>309500</v>
+        <v>314800</v>
       </c>
       <c r="G52" s="3">
-        <v>199000</v>
+        <v>202400</v>
       </c>
       <c r="H52" s="3">
-        <v>216800</v>
+        <v>220600</v>
       </c>
       <c r="I52" s="3">
-        <v>178300</v>
+        <v>181300</v>
       </c>
       <c r="J52" s="3">
-        <v>168100</v>
+        <v>171000</v>
       </c>
       <c r="K52" s="3">
         <v>173600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7374000</v>
+        <v>7501200</v>
       </c>
       <c r="E54" s="3">
-        <v>7591200</v>
+        <v>7722100</v>
       </c>
       <c r="F54" s="3">
-        <v>7504100</v>
+        <v>7633500</v>
       </c>
       <c r="G54" s="3">
-        <v>6961200</v>
+        <v>7081200</v>
       </c>
       <c r="H54" s="3">
-        <v>6549100</v>
+        <v>6662000</v>
       </c>
       <c r="I54" s="3">
-        <v>6812700</v>
+        <v>6930100</v>
       </c>
       <c r="J54" s="3">
-        <v>6633800</v>
+        <v>6748100</v>
       </c>
       <c r="K54" s="3">
         <v>7451100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1035500</v>
+        <v>1053400</v>
       </c>
       <c r="E57" s="3">
-        <v>1219600</v>
+        <v>1240600</v>
       </c>
       <c r="F57" s="3">
-        <v>1154300</v>
+        <v>1174200</v>
       </c>
       <c r="G57" s="3">
-        <v>1003000</v>
+        <v>1020300</v>
       </c>
       <c r="H57" s="3">
-        <v>931700</v>
+        <v>947800</v>
       </c>
       <c r="I57" s="3">
-        <v>1024500</v>
+        <v>1042200</v>
       </c>
       <c r="J57" s="3">
-        <v>968600</v>
+        <v>985300</v>
       </c>
       <c r="K57" s="3">
         <v>1210100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1164800</v>
+        <v>1199600</v>
       </c>
       <c r="E58" s="3">
-        <v>990300</v>
+        <v>1007300</v>
       </c>
       <c r="F58" s="3">
-        <v>1079100</v>
+        <v>1097700</v>
       </c>
       <c r="G58" s="3">
-        <v>930900</v>
+        <v>946900</v>
       </c>
       <c r="H58" s="3">
-        <v>1149000</v>
+        <v>1168800</v>
       </c>
       <c r="I58" s="3">
-        <v>990600</v>
+        <v>1007700</v>
       </c>
       <c r="J58" s="3">
-        <v>1113700</v>
+        <v>1132900</v>
       </c>
       <c r="K58" s="3">
         <v>1157900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>766000</v>
+        <v>764500</v>
       </c>
       <c r="E59" s="3">
-        <v>867600</v>
+        <v>882500</v>
       </c>
       <c r="F59" s="3">
-        <v>832100</v>
+        <v>846500</v>
       </c>
       <c r="G59" s="3">
-        <v>788500</v>
+        <v>802100</v>
       </c>
       <c r="H59" s="3">
-        <v>697200</v>
+        <v>709300</v>
       </c>
       <c r="I59" s="3">
-        <v>649600</v>
+        <v>660800</v>
       </c>
       <c r="J59" s="3">
-        <v>644800</v>
+        <v>655900</v>
       </c>
       <c r="K59" s="3">
         <v>612300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2966300</v>
+        <v>3017500</v>
       </c>
       <c r="E60" s="3">
-        <v>3077400</v>
+        <v>3130500</v>
       </c>
       <c r="F60" s="3">
-        <v>3065500</v>
+        <v>3118400</v>
       </c>
       <c r="G60" s="3">
-        <v>2722400</v>
+        <v>2769400</v>
       </c>
       <c r="H60" s="3">
-        <v>2777900</v>
+        <v>2825800</v>
       </c>
       <c r="I60" s="3">
-        <v>2664700</v>
+        <v>2710700</v>
       </c>
       <c r="J60" s="3">
-        <v>2727100</v>
+        <v>2774100</v>
       </c>
       <c r="K60" s="3">
         <v>2980300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1165300</v>
+        <v>1246400</v>
       </c>
       <c r="E61" s="3">
-        <v>1292700</v>
+        <v>1315000</v>
       </c>
       <c r="F61" s="3">
-        <v>1319900</v>
+        <v>1342600</v>
       </c>
       <c r="G61" s="3">
-        <v>1412700</v>
+        <v>1437100</v>
       </c>
       <c r="H61" s="3">
-        <v>1269500</v>
+        <v>1291400</v>
       </c>
       <c r="I61" s="3">
-        <v>1557000</v>
+        <v>1583900</v>
       </c>
       <c r="J61" s="3">
-        <v>1464800</v>
+        <v>1490000</v>
       </c>
       <c r="K61" s="3">
         <v>1755400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>708700</v>
+        <v>659900</v>
       </c>
       <c r="E62" s="3">
-        <v>623500</v>
+        <v>634300</v>
       </c>
       <c r="F62" s="3">
-        <v>682200</v>
+        <v>694000</v>
       </c>
       <c r="G62" s="3">
-        <v>626200</v>
+        <v>637000</v>
       </c>
       <c r="H62" s="3">
-        <v>658800</v>
+        <v>670200</v>
       </c>
       <c r="I62" s="3">
-        <v>598100</v>
+        <v>608400</v>
       </c>
       <c r="J62" s="3">
-        <v>588400</v>
+        <v>598500</v>
       </c>
       <c r="K62" s="3">
         <v>689700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5144200</v>
+        <v>5232900</v>
       </c>
       <c r="E66" s="3">
-        <v>5293000</v>
+        <v>5384200</v>
       </c>
       <c r="F66" s="3">
-        <v>5309200</v>
+        <v>5400700</v>
       </c>
       <c r="G66" s="3">
-        <v>5042900</v>
+        <v>5129800</v>
       </c>
       <c r="H66" s="3">
-        <v>4942200</v>
+        <v>5027400</v>
       </c>
       <c r="I66" s="3">
-        <v>5042600</v>
+        <v>5129500</v>
       </c>
       <c r="J66" s="3">
-        <v>4989000</v>
+        <v>5075000</v>
       </c>
       <c r="K66" s="3">
         <v>5944500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1532100</v>
+        <v>1558600</v>
       </c>
       <c r="E72" s="3">
-        <v>1408200</v>
+        <v>1432500</v>
       </c>
       <c r="F72" s="3">
-        <v>1189000</v>
+        <v>1209500</v>
       </c>
       <c r="G72" s="3">
-        <v>964600</v>
+        <v>981200</v>
       </c>
       <c r="H72" s="3">
-        <v>838100</v>
+        <v>852600</v>
       </c>
       <c r="I72" s="3">
-        <v>772700</v>
+        <v>786000</v>
       </c>
       <c r="J72" s="3">
-        <v>735200</v>
+        <v>747800</v>
       </c>
       <c r="K72" s="3">
         <v>692000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2229800</v>
+        <v>2268200</v>
       </c>
       <c r="E76" s="3">
-        <v>2298300</v>
+        <v>2337900</v>
       </c>
       <c r="F76" s="3">
-        <v>2194900</v>
+        <v>2232700</v>
       </c>
       <c r="G76" s="3">
-        <v>1918300</v>
+        <v>1951400</v>
       </c>
       <c r="H76" s="3">
-        <v>1607000</v>
+        <v>1634700</v>
       </c>
       <c r="I76" s="3">
-        <v>1770100</v>
+        <v>1800600</v>
       </c>
       <c r="J76" s="3">
-        <v>1644800</v>
+        <v>1673100</v>
       </c>
       <c r="K76" s="3">
         <v>1506600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163900</v>
+        <v>166500</v>
       </c>
       <c r="E81" s="3">
-        <v>270400</v>
+        <v>274800</v>
       </c>
       <c r="F81" s="3">
-        <v>265200</v>
+        <v>269500</v>
       </c>
       <c r="G81" s="3">
-        <v>163200</v>
+        <v>165900</v>
       </c>
       <c r="H81" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="I81" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="J81" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="K81" s="3">
         <v>32500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>273300</v>
+        <v>277800</v>
       </c>
       <c r="E83" s="3">
-        <v>244100</v>
+        <v>248000</v>
       </c>
       <c r="F83" s="3">
-        <v>233200</v>
+        <v>237000</v>
       </c>
       <c r="G83" s="3">
-        <v>217100</v>
+        <v>220600</v>
       </c>
       <c r="H83" s="3">
-        <v>215900</v>
+        <v>219300</v>
       </c>
       <c r="I83" s="3">
-        <v>209100</v>
+        <v>212500</v>
       </c>
       <c r="J83" s="3">
-        <v>261100</v>
+        <v>265300</v>
       </c>
       <c r="K83" s="3">
         <v>321300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>394200</v>
+        <v>400600</v>
       </c>
       <c r="E89" s="3">
-        <v>433700</v>
+        <v>440700</v>
       </c>
       <c r="F89" s="3">
-        <v>360800</v>
+        <v>366600</v>
       </c>
       <c r="G89" s="3">
-        <v>385900</v>
+        <v>392200</v>
       </c>
       <c r="H89" s="3">
-        <v>395600</v>
+        <v>402000</v>
       </c>
       <c r="I89" s="3">
-        <v>388100</v>
+        <v>394300</v>
       </c>
       <c r="J89" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="K89" s="3">
         <v>500500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-439500</v>
+        <v>-446600</v>
       </c>
       <c r="E91" s="3">
-        <v>-400000</v>
+        <v>-406400</v>
       </c>
       <c r="F91" s="3">
-        <v>-319100</v>
+        <v>-324300</v>
       </c>
       <c r="G91" s="3">
-        <v>-264200</v>
+        <v>-268500</v>
       </c>
       <c r="H91" s="3">
-        <v>-238300</v>
+        <v>-242100</v>
       </c>
       <c r="I91" s="3">
-        <v>-257100</v>
+        <v>-261300</v>
       </c>
       <c r="J91" s="3">
-        <v>-365700</v>
+        <v>-371600</v>
       </c>
       <c r="K91" s="3">
         <v>-415900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-307700</v>
+        <v>-312600</v>
       </c>
       <c r="E94" s="3">
-        <v>-288400</v>
+        <v>-293000</v>
       </c>
       <c r="F94" s="3">
-        <v>-318800</v>
+        <v>-324000</v>
       </c>
       <c r="G94" s="3">
-        <v>-337800</v>
+        <v>-343200</v>
       </c>
       <c r="H94" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I94" s="3">
-        <v>-218600</v>
+        <v>-222200</v>
       </c>
       <c r="J94" s="3">
-        <v>-374300</v>
+        <v>-380300</v>
       </c>
       <c r="K94" s="3">
         <v>-408500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55700</v>
+        <v>-56600</v>
       </c>
       <c r="E96" s="3">
-        <v>-52500</v>
+        <v>-53300</v>
       </c>
       <c r="F96" s="3">
-        <v>-36100</v>
+        <v>-36700</v>
       </c>
       <c r="G96" s="3">
-        <v>-26200</v>
+        <v>-26600</v>
       </c>
       <c r="H96" s="3">
-        <v>-19600</v>
+        <v>-19900</v>
       </c>
       <c r="I96" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="J96" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -3433,22 +3433,22 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-180400</v>
+        <v>-183300</v>
       </c>
       <c r="F100" s="3">
-        <v>-18100</v>
+        <v>-18300</v>
       </c>
       <c r="G100" s="3">
-        <v>-96400</v>
+        <v>-98000</v>
       </c>
       <c r="H100" s="3">
-        <v>-194600</v>
+        <v>-197700</v>
       </c>
       <c r="I100" s="3">
-        <v>-144300</v>
+        <v>-146700</v>
       </c>
       <c r="J100" s="3">
-        <v>277900</v>
+        <v>282400</v>
       </c>
       <c r="K100" s="3">
         <v>-103600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="E101" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="I101" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="J101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K101" s="3">
         <v>15200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76300</v>
+        <v>77600</v>
       </c>
       <c r="E102" s="3">
-        <v>-27100</v>
+        <v>-27600</v>
       </c>
       <c r="F102" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="G102" s="3">
-        <v>-51200</v>
+        <v>-52000</v>
       </c>
       <c r="H102" s="3">
-        <v>206000</v>
+        <v>209300</v>
       </c>
       <c r="I102" s="3">
-        <v>38700</v>
+        <v>39300</v>
       </c>
       <c r="J102" s="3">
-        <v>-47900</v>
+        <v>-48700</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8632300</v>
+        <v>8787800</v>
       </c>
       <c r="E8" s="3">
-        <v>9360600</v>
+        <v>9529200</v>
       </c>
       <c r="F8" s="3">
-        <v>9131600</v>
+        <v>9296100</v>
       </c>
       <c r="G8" s="3">
-        <v>7961200</v>
+        <v>8104500</v>
       </c>
       <c r="H8" s="3">
-        <v>8258900</v>
+        <v>8407600</v>
       </c>
       <c r="I8" s="3">
-        <v>8192200</v>
+        <v>8339700</v>
       </c>
       <c r="J8" s="3">
-        <v>8796000</v>
+        <v>8954400</v>
       </c>
       <c r="K8" s="3">
         <v>8405700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7214000</v>
+        <v>7344000</v>
       </c>
       <c r="E9" s="3">
-        <v>7783100</v>
+        <v>7923300</v>
       </c>
       <c r="F9" s="3">
-        <v>7565300</v>
+        <v>7701600</v>
       </c>
       <c r="G9" s="3">
-        <v>6505700</v>
+        <v>6622800</v>
       </c>
       <c r="H9" s="3">
-        <v>6928400</v>
+        <v>7053200</v>
       </c>
       <c r="I9" s="3">
-        <v>7024300</v>
+        <v>7150800</v>
       </c>
       <c r="J9" s="3">
-        <v>7499200</v>
+        <v>7634300</v>
       </c>
       <c r="K9" s="3">
         <v>7152200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1418300</v>
+        <v>1443800</v>
       </c>
       <c r="E10" s="3">
-        <v>1577500</v>
+        <v>1605900</v>
       </c>
       <c r="F10" s="3">
-        <v>1566300</v>
+        <v>1594500</v>
       </c>
       <c r="G10" s="3">
-        <v>1455500</v>
+        <v>1481700</v>
       </c>
       <c r="H10" s="3">
-        <v>1330400</v>
+        <v>1354400</v>
       </c>
       <c r="I10" s="3">
-        <v>1167900</v>
+        <v>1189000</v>
       </c>
       <c r="J10" s="3">
-        <v>1296800</v>
+        <v>1320200</v>
       </c>
       <c r="K10" s="3">
         <v>1253400</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>162200</v>
+        <v>165100</v>
       </c>
       <c r="E12" s="3">
-        <v>162900</v>
+        <v>165800</v>
       </c>
       <c r="F12" s="3">
-        <v>146400</v>
+        <v>149000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>132000</v>
+        <v>134400</v>
       </c>
       <c r="J12" s="3">
-        <v>134000</v>
+        <v>136400</v>
       </c>
       <c r="K12" s="3">
         <v>148600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="E14" s="3">
-        <v>87500</v>
+        <v>89100</v>
       </c>
       <c r="F14" s="3">
-        <v>140100</v>
+        <v>142600</v>
       </c>
       <c r="G14" s="3">
-        <v>127700</v>
+        <v>130000</v>
       </c>
       <c r="H14" s="3">
-        <v>168900</v>
+        <v>171900</v>
       </c>
       <c r="I14" s="3">
-        <v>91000</v>
+        <v>92600</v>
       </c>
       <c r="J14" s="3">
-        <v>118900</v>
+        <v>121100</v>
       </c>
       <c r="K14" s="3">
         <v>37400</v>
@@ -930,13 +930,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="E15" s="3">
-        <v>25200</v>
+        <v>25600</v>
       </c>
       <c r="F15" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8452900</v>
+        <v>8605100</v>
       </c>
       <c r="E17" s="3">
-        <v>9062600</v>
+        <v>9225800</v>
       </c>
       <c r="F17" s="3">
-        <v>8848700</v>
+        <v>9008100</v>
       </c>
       <c r="G17" s="3">
-        <v>7724300</v>
+        <v>7863400</v>
       </c>
       <c r="H17" s="3">
-        <v>8171700</v>
+        <v>8318900</v>
       </c>
       <c r="I17" s="3">
-        <v>8114400</v>
+        <v>8260600</v>
       </c>
       <c r="J17" s="3">
-        <v>8674600</v>
+        <v>8830800</v>
       </c>
       <c r="K17" s="3">
         <v>8281600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>179400</v>
+        <v>182600</v>
       </c>
       <c r="E18" s="3">
-        <v>298000</v>
+        <v>303400</v>
       </c>
       <c r="F18" s="3">
-        <v>282900</v>
+        <v>288000</v>
       </c>
       <c r="G18" s="3">
-        <v>236900</v>
+        <v>241200</v>
       </c>
       <c r="H18" s="3">
-        <v>87100</v>
+        <v>88700</v>
       </c>
       <c r="I18" s="3">
-        <v>77800</v>
+        <v>79200</v>
       </c>
       <c r="J18" s="3">
-        <v>121400</v>
+        <v>123600</v>
       </c>
       <c r="K18" s="3">
         <v>124100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>151700</v>
+        <v>154500</v>
       </c>
       <c r="E20" s="3">
-        <v>78000</v>
+        <v>79400</v>
       </c>
       <c r="F20" s="3">
-        <v>136700</v>
+        <v>139100</v>
       </c>
       <c r="G20" s="3">
-        <v>60000</v>
+        <v>61100</v>
       </c>
       <c r="H20" s="3">
-        <v>149800</v>
+        <v>152500</v>
       </c>
       <c r="I20" s="3">
-        <v>112600</v>
+        <v>114600</v>
       </c>
       <c r="J20" s="3">
-        <v>84900</v>
+        <v>86400</v>
       </c>
       <c r="K20" s="3">
         <v>38600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>607700</v>
+        <v>619300</v>
       </c>
       <c r="E21" s="3">
-        <v>623000</v>
+        <v>634700</v>
       </c>
       <c r="F21" s="3">
-        <v>655500</v>
+        <v>667900</v>
       </c>
       <c r="G21" s="3">
-        <v>516600</v>
+        <v>526300</v>
       </c>
       <c r="H21" s="3">
-        <v>455300</v>
+        <v>464000</v>
       </c>
       <c r="I21" s="3">
-        <v>401900</v>
+        <v>409600</v>
       </c>
       <c r="J21" s="3">
-        <v>470500</v>
+        <v>479600</v>
       </c>
       <c r="K21" s="3">
         <v>484700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="E22" s="3">
-        <v>38500</v>
+        <v>39200</v>
       </c>
       <c r="F22" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H22" s="3">
-        <v>35100</v>
+        <v>35700</v>
       </c>
       <c r="I22" s="3">
-        <v>37700</v>
+        <v>38400</v>
       </c>
       <c r="J22" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="K22" s="3">
         <v>46100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>290300</v>
+        <v>295500</v>
       </c>
       <c r="E23" s="3">
-        <v>337500</v>
+        <v>343600</v>
       </c>
       <c r="F23" s="3">
-        <v>382000</v>
+        <v>388900</v>
       </c>
       <c r="G23" s="3">
-        <v>264000</v>
+        <v>268700</v>
       </c>
       <c r="H23" s="3">
-        <v>201800</v>
+        <v>205500</v>
       </c>
       <c r="I23" s="3">
-        <v>152600</v>
+        <v>155400</v>
       </c>
       <c r="J23" s="3">
-        <v>163300</v>
+        <v>166300</v>
       </c>
       <c r="K23" s="3">
         <v>116600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>111000</v>
+        <v>113000</v>
       </c>
       <c r="E24" s="3">
-        <v>31200</v>
+        <v>31800</v>
       </c>
       <c r="F24" s="3">
-        <v>76900</v>
+        <v>78300</v>
       </c>
       <c r="G24" s="3">
-        <v>52200</v>
+        <v>53200</v>
       </c>
       <c r="H24" s="3">
-        <v>74900</v>
+        <v>76300</v>
       </c>
       <c r="I24" s="3">
-        <v>63200</v>
+        <v>64300</v>
       </c>
       <c r="J24" s="3">
-        <v>85300</v>
+        <v>86900</v>
       </c>
       <c r="K24" s="3">
         <v>64000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>179300</v>
+        <v>182600</v>
       </c>
       <c r="E26" s="3">
-        <v>306300</v>
+        <v>311800</v>
       </c>
       <c r="F26" s="3">
-        <v>305100</v>
+        <v>310500</v>
       </c>
       <c r="G26" s="3">
-        <v>211700</v>
+        <v>215600</v>
       </c>
       <c r="H26" s="3">
-        <v>126900</v>
+        <v>129200</v>
       </c>
       <c r="I26" s="3">
-        <v>89400</v>
+        <v>91100</v>
       </c>
       <c r="J26" s="3">
-        <v>78000</v>
+        <v>79400</v>
       </c>
       <c r="K26" s="3">
         <v>52600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>166500</v>
+        <v>169500</v>
       </c>
       <c r="E27" s="3">
-        <v>274800</v>
+        <v>279700</v>
       </c>
       <c r="F27" s="3">
-        <v>269500</v>
+        <v>274300</v>
       </c>
       <c r="G27" s="3">
-        <v>165900</v>
+        <v>168800</v>
       </c>
       <c r="H27" s="3">
-        <v>94500</v>
+        <v>96200</v>
       </c>
       <c r="I27" s="3">
-        <v>69400</v>
+        <v>70700</v>
       </c>
       <c r="J27" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="K27" s="3">
         <v>32500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-151700</v>
+        <v>-154500</v>
       </c>
       <c r="E32" s="3">
-        <v>-78000</v>
+        <v>-79400</v>
       </c>
       <c r="F32" s="3">
-        <v>-136700</v>
+        <v>-139100</v>
       </c>
       <c r="G32" s="3">
-        <v>-60000</v>
+        <v>-61100</v>
       </c>
       <c r="H32" s="3">
-        <v>-149800</v>
+        <v>-152500</v>
       </c>
       <c r="I32" s="3">
-        <v>-112600</v>
+        <v>-114600</v>
       </c>
       <c r="J32" s="3">
-        <v>-84900</v>
+        <v>-86400</v>
       </c>
       <c r="K32" s="3">
         <v>-38600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>166500</v>
+        <v>169500</v>
       </c>
       <c r="E33" s="3">
-        <v>274800</v>
+        <v>279700</v>
       </c>
       <c r="F33" s="3">
-        <v>269500</v>
+        <v>274300</v>
       </c>
       <c r="G33" s="3">
-        <v>165900</v>
+        <v>168800</v>
       </c>
       <c r="H33" s="3">
-        <v>94500</v>
+        <v>96200</v>
       </c>
       <c r="I33" s="3">
-        <v>69400</v>
+        <v>70700</v>
       </c>
       <c r="J33" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="K33" s="3">
         <v>32500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>166500</v>
+        <v>169500</v>
       </c>
       <c r="E35" s="3">
-        <v>274800</v>
+        <v>279700</v>
       </c>
       <c r="F35" s="3">
-        <v>269500</v>
+        <v>274300</v>
       </c>
       <c r="G35" s="3">
-        <v>165900</v>
+        <v>168800</v>
       </c>
       <c r="H35" s="3">
-        <v>94500</v>
+        <v>96200</v>
       </c>
       <c r="I35" s="3">
-        <v>69400</v>
+        <v>70700</v>
       </c>
       <c r="J35" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="K35" s="3">
         <v>32500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>513100</v>
+        <v>522400</v>
       </c>
       <c r="E41" s="3">
-        <v>421300</v>
+        <v>428900</v>
       </c>
       <c r="F41" s="3">
-        <v>478000</v>
+        <v>486600</v>
       </c>
       <c r="G41" s="3">
-        <v>445200</v>
+        <v>453300</v>
       </c>
       <c r="H41" s="3">
-        <v>495600</v>
+        <v>504600</v>
       </c>
       <c r="I41" s="3">
-        <v>283300</v>
+        <v>288400</v>
       </c>
       <c r="J41" s="3">
-        <v>252200</v>
+        <v>256800</v>
       </c>
       <c r="K41" s="3">
         <v>284500</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E42" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1805500</v>
+        <v>1838000</v>
       </c>
       <c r="E43" s="3">
-        <v>2060300</v>
+        <v>2097400</v>
       </c>
       <c r="F43" s="3">
-        <v>2106300</v>
+        <v>2144200</v>
       </c>
       <c r="G43" s="3">
-        <v>1865700</v>
+        <v>1899300</v>
       </c>
       <c r="H43" s="3">
-        <v>1752200</v>
+        <v>1783800</v>
       </c>
       <c r="I43" s="3">
-        <v>1784800</v>
+        <v>1817000</v>
       </c>
       <c r="J43" s="3">
-        <v>1868000</v>
+        <v>1901700</v>
       </c>
       <c r="K43" s="3">
         <v>2010800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1093700</v>
+        <v>1113400</v>
       </c>
       <c r="E44" s="3">
-        <v>1160100</v>
+        <v>1181000</v>
       </c>
       <c r="F44" s="3">
-        <v>1074200</v>
+        <v>1093500</v>
       </c>
       <c r="G44" s="3">
-        <v>985100</v>
+        <v>1002800</v>
       </c>
       <c r="H44" s="3">
-        <v>879500</v>
+        <v>895300</v>
       </c>
       <c r="I44" s="3">
-        <v>938700</v>
+        <v>955600</v>
       </c>
       <c r="J44" s="3">
-        <v>884200</v>
+        <v>900100</v>
       </c>
       <c r="K44" s="3">
         <v>947600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224700</v>
+        <v>228700</v>
       </c>
       <c r="E45" s="3">
-        <v>305600</v>
+        <v>311100</v>
       </c>
       <c r="F45" s="3">
-        <v>364200</v>
+        <v>370700</v>
       </c>
       <c r="G45" s="3">
-        <v>313300</v>
+        <v>319000</v>
       </c>
       <c r="H45" s="3">
-        <v>309000</v>
+        <v>314500</v>
       </c>
       <c r="I45" s="3">
-        <v>474600</v>
+        <v>483100</v>
       </c>
       <c r="J45" s="3">
-        <v>393800</v>
+        <v>400900</v>
       </c>
       <c r="K45" s="3">
         <v>326100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3645500</v>
+        <v>3711200</v>
       </c>
       <c r="E46" s="3">
-        <v>3969600</v>
+        <v>4041100</v>
       </c>
       <c r="F46" s="3">
-        <v>3928800</v>
+        <v>3999600</v>
       </c>
       <c r="G46" s="3">
-        <v>3609800</v>
+        <v>3674800</v>
       </c>
       <c r="H46" s="3">
-        <v>3436400</v>
+        <v>3498300</v>
       </c>
       <c r="I46" s="3">
-        <v>3481600</v>
+        <v>3544300</v>
       </c>
       <c r="J46" s="3">
-        <v>3398500</v>
+        <v>3459700</v>
       </c>
       <c r="K46" s="3">
         <v>3569100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1003800</v>
+        <v>1021900</v>
       </c>
       <c r="E47" s="3">
-        <v>1172600</v>
+        <v>1193700</v>
       </c>
       <c r="F47" s="3">
-        <v>1294500</v>
+        <v>1317800</v>
       </c>
       <c r="G47" s="3">
-        <v>1237100</v>
+        <v>1259400</v>
       </c>
       <c r="H47" s="3">
-        <v>1069300</v>
+        <v>1088500</v>
       </c>
       <c r="I47" s="3">
-        <v>1301400</v>
+        <v>1324800</v>
       </c>
       <c r="J47" s="3">
-        <v>1284300</v>
+        <v>1307500</v>
       </c>
       <c r="K47" s="3">
         <v>1047700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2399800</v>
+        <v>2443000</v>
       </c>
       <c r="E48" s="3">
-        <v>2165200</v>
+        <v>2204100</v>
       </c>
       <c r="F48" s="3">
-        <v>2275200</v>
+        <v>2316200</v>
       </c>
       <c r="G48" s="3">
-        <v>1939800</v>
+        <v>1974800</v>
       </c>
       <c r="H48" s="3">
-        <v>1855400</v>
+        <v>1888800</v>
       </c>
       <c r="I48" s="3">
-        <v>1880600</v>
+        <v>1914500</v>
       </c>
       <c r="J48" s="3">
-        <v>1803700</v>
+        <v>1836200</v>
       </c>
       <c r="K48" s="3">
         <v>2546000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>151900</v>
+        <v>154700</v>
       </c>
       <c r="E49" s="3">
-        <v>115200</v>
+        <v>117300</v>
       </c>
       <c r="F49" s="3">
-        <v>106700</v>
+        <v>108600</v>
       </c>
       <c r="G49" s="3">
-        <v>92000</v>
+        <v>93600</v>
       </c>
       <c r="H49" s="3">
-        <v>80400</v>
+        <v>81800</v>
       </c>
       <c r="I49" s="3">
-        <v>85200</v>
+        <v>86700</v>
       </c>
       <c r="J49" s="3">
-        <v>90600</v>
+        <v>92200</v>
       </c>
       <c r="K49" s="3">
         <v>114700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300100</v>
+        <v>305500</v>
       </c>
       <c r="E52" s="3">
-        <v>299500</v>
+        <v>304900</v>
       </c>
       <c r="F52" s="3">
-        <v>314800</v>
+        <v>320500</v>
       </c>
       <c r="G52" s="3">
-        <v>202400</v>
+        <v>206100</v>
       </c>
       <c r="H52" s="3">
-        <v>220600</v>
+        <v>224500</v>
       </c>
       <c r="I52" s="3">
-        <v>181300</v>
+        <v>184600</v>
       </c>
       <c r="J52" s="3">
-        <v>171000</v>
+        <v>174100</v>
       </c>
       <c r="K52" s="3">
         <v>173600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7501200</v>
+        <v>7636300</v>
       </c>
       <c r="E54" s="3">
-        <v>7722100</v>
+        <v>7861200</v>
       </c>
       <c r="F54" s="3">
-        <v>7633500</v>
+        <v>7771000</v>
       </c>
       <c r="G54" s="3">
-        <v>7081200</v>
+        <v>7208700</v>
       </c>
       <c r="H54" s="3">
-        <v>6662000</v>
+        <v>6782000</v>
       </c>
       <c r="I54" s="3">
-        <v>6930100</v>
+        <v>7054900</v>
       </c>
       <c r="J54" s="3">
-        <v>6748100</v>
+        <v>6869700</v>
       </c>
       <c r="K54" s="3">
         <v>7451100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1053400</v>
+        <v>1072300</v>
       </c>
       <c r="E57" s="3">
-        <v>1240600</v>
+        <v>1263000</v>
       </c>
       <c r="F57" s="3">
-        <v>1174200</v>
+        <v>1195400</v>
       </c>
       <c r="G57" s="3">
-        <v>1020300</v>
+        <v>1038700</v>
       </c>
       <c r="H57" s="3">
-        <v>947800</v>
+        <v>964800</v>
       </c>
       <c r="I57" s="3">
-        <v>1042200</v>
+        <v>1061000</v>
       </c>
       <c r="J57" s="3">
-        <v>985300</v>
+        <v>1003100</v>
       </c>
       <c r="K57" s="3">
         <v>1210100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1199600</v>
+        <v>1221200</v>
       </c>
       <c r="E58" s="3">
-        <v>1007300</v>
+        <v>1025500</v>
       </c>
       <c r="F58" s="3">
-        <v>1097700</v>
+        <v>1117400</v>
       </c>
       <c r="G58" s="3">
-        <v>946900</v>
+        <v>964000</v>
       </c>
       <c r="H58" s="3">
-        <v>1168800</v>
+        <v>1189800</v>
       </c>
       <c r="I58" s="3">
-        <v>1007700</v>
+        <v>1025900</v>
       </c>
       <c r="J58" s="3">
-        <v>1132900</v>
+        <v>1153300</v>
       </c>
       <c r="K58" s="3">
         <v>1157900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>764500</v>
+        <v>778300</v>
       </c>
       <c r="E59" s="3">
-        <v>882500</v>
+        <v>898400</v>
       </c>
       <c r="F59" s="3">
-        <v>846500</v>
+        <v>861700</v>
       </c>
       <c r="G59" s="3">
-        <v>802100</v>
+        <v>816500</v>
       </c>
       <c r="H59" s="3">
-        <v>709300</v>
+        <v>722000</v>
       </c>
       <c r="I59" s="3">
-        <v>660800</v>
+        <v>672700</v>
       </c>
       <c r="J59" s="3">
-        <v>655900</v>
+        <v>667700</v>
       </c>
       <c r="K59" s="3">
         <v>612300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3017500</v>
+        <v>3071800</v>
       </c>
       <c r="E60" s="3">
-        <v>3130500</v>
+        <v>3186900</v>
       </c>
       <c r="F60" s="3">
-        <v>3118400</v>
+        <v>3174500</v>
       </c>
       <c r="G60" s="3">
-        <v>2769400</v>
+        <v>2819200</v>
       </c>
       <c r="H60" s="3">
-        <v>2825800</v>
+        <v>2876700</v>
       </c>
       <c r="I60" s="3">
-        <v>2710700</v>
+        <v>2759500</v>
       </c>
       <c r="J60" s="3">
-        <v>2774100</v>
+        <v>2824100</v>
       </c>
       <c r="K60" s="3">
         <v>2980300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1246400</v>
+        <v>1268800</v>
       </c>
       <c r="E61" s="3">
-        <v>1315000</v>
+        <v>1338700</v>
       </c>
       <c r="F61" s="3">
-        <v>1342600</v>
+        <v>1366800</v>
       </c>
       <c r="G61" s="3">
-        <v>1437100</v>
+        <v>1463000</v>
       </c>
       <c r="H61" s="3">
-        <v>1291400</v>
+        <v>1314700</v>
       </c>
       <c r="I61" s="3">
-        <v>1583900</v>
+        <v>1612400</v>
       </c>
       <c r="J61" s="3">
-        <v>1490000</v>
+        <v>1516900</v>
       </c>
       <c r="K61" s="3">
         <v>1755400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>659900</v>
+        <v>671800</v>
       </c>
       <c r="E62" s="3">
-        <v>634300</v>
+        <v>645700</v>
       </c>
       <c r="F62" s="3">
-        <v>694000</v>
+        <v>706500</v>
       </c>
       <c r="G62" s="3">
-        <v>637000</v>
+        <v>648500</v>
       </c>
       <c r="H62" s="3">
-        <v>670200</v>
+        <v>682300</v>
       </c>
       <c r="I62" s="3">
-        <v>608400</v>
+        <v>619400</v>
       </c>
       <c r="J62" s="3">
-        <v>598500</v>
+        <v>609300</v>
       </c>
       <c r="K62" s="3">
         <v>689700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5232900</v>
+        <v>5327200</v>
       </c>
       <c r="E66" s="3">
-        <v>5384200</v>
+        <v>5481200</v>
       </c>
       <c r="F66" s="3">
-        <v>5400700</v>
+        <v>5498000</v>
       </c>
       <c r="G66" s="3">
-        <v>5129800</v>
+        <v>5222200</v>
       </c>
       <c r="H66" s="3">
-        <v>5027400</v>
+        <v>5117900</v>
       </c>
       <c r="I66" s="3">
-        <v>5129500</v>
+        <v>5221900</v>
       </c>
       <c r="J66" s="3">
-        <v>5075000</v>
+        <v>5166400</v>
       </c>
       <c r="K66" s="3">
         <v>5944500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1558600</v>
+        <v>1586600</v>
       </c>
       <c r="E72" s="3">
-        <v>1432500</v>
+        <v>1458300</v>
       </c>
       <c r="F72" s="3">
-        <v>1209500</v>
+        <v>1231300</v>
       </c>
       <c r="G72" s="3">
-        <v>981200</v>
+        <v>998900</v>
       </c>
       <c r="H72" s="3">
-        <v>852600</v>
+        <v>867900</v>
       </c>
       <c r="I72" s="3">
-        <v>786000</v>
+        <v>800200</v>
       </c>
       <c r="J72" s="3">
-        <v>747800</v>
+        <v>761300</v>
       </c>
       <c r="K72" s="3">
         <v>692000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2268200</v>
+        <v>2309100</v>
       </c>
       <c r="E76" s="3">
-        <v>2337900</v>
+        <v>2380000</v>
       </c>
       <c r="F76" s="3">
-        <v>2232700</v>
+        <v>2272900</v>
       </c>
       <c r="G76" s="3">
-        <v>1951400</v>
+        <v>1986500</v>
       </c>
       <c r="H76" s="3">
-        <v>1634700</v>
+        <v>1664100</v>
       </c>
       <c r="I76" s="3">
-        <v>1800600</v>
+        <v>1833000</v>
       </c>
       <c r="J76" s="3">
-        <v>1673100</v>
+        <v>1703200</v>
       </c>
       <c r="K76" s="3">
         <v>1506600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>166500</v>
+        <v>169500</v>
       </c>
       <c r="E81" s="3">
-        <v>274800</v>
+        <v>279700</v>
       </c>
       <c r="F81" s="3">
-        <v>269500</v>
+        <v>274300</v>
       </c>
       <c r="G81" s="3">
-        <v>165900</v>
+        <v>168800</v>
       </c>
       <c r="H81" s="3">
-        <v>94500</v>
+        <v>96200</v>
       </c>
       <c r="I81" s="3">
-        <v>69400</v>
+        <v>70700</v>
       </c>
       <c r="J81" s="3">
-        <v>52900</v>
+        <v>53900</v>
       </c>
       <c r="K81" s="3">
         <v>32500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277800</v>
+        <v>282800</v>
       </c>
       <c r="E83" s="3">
-        <v>248000</v>
+        <v>252500</v>
       </c>
       <c r="F83" s="3">
-        <v>237000</v>
+        <v>241300</v>
       </c>
       <c r="G83" s="3">
-        <v>220600</v>
+        <v>224600</v>
       </c>
       <c r="H83" s="3">
-        <v>219300</v>
+        <v>223300</v>
       </c>
       <c r="I83" s="3">
-        <v>212500</v>
+        <v>216300</v>
       </c>
       <c r="J83" s="3">
-        <v>265300</v>
+        <v>270100</v>
       </c>
       <c r="K83" s="3">
         <v>321300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400600</v>
+        <v>407800</v>
       </c>
       <c r="E89" s="3">
-        <v>440700</v>
+        <v>448600</v>
       </c>
       <c r="F89" s="3">
-        <v>366600</v>
+        <v>373200</v>
       </c>
       <c r="G89" s="3">
-        <v>392200</v>
+        <v>399200</v>
       </c>
       <c r="H89" s="3">
-        <v>402000</v>
+        <v>409300</v>
       </c>
       <c r="I89" s="3">
-        <v>394300</v>
+        <v>401400</v>
       </c>
       <c r="J89" s="3">
-        <v>43700</v>
+        <v>44400</v>
       </c>
       <c r="K89" s="3">
         <v>500500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-446600</v>
+        <v>-454700</v>
       </c>
       <c r="E91" s="3">
-        <v>-406400</v>
+        <v>-413700</v>
       </c>
       <c r="F91" s="3">
-        <v>-324300</v>
+        <v>-330100</v>
       </c>
       <c r="G91" s="3">
-        <v>-268500</v>
+        <v>-273300</v>
       </c>
       <c r="H91" s="3">
-        <v>-242100</v>
+        <v>-246500</v>
       </c>
       <c r="I91" s="3">
-        <v>-261300</v>
+        <v>-266000</v>
       </c>
       <c r="J91" s="3">
-        <v>-371600</v>
+        <v>-378300</v>
       </c>
       <c r="K91" s="3">
         <v>-415900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312600</v>
+        <v>-318300</v>
       </c>
       <c r="E94" s="3">
-        <v>-293000</v>
+        <v>-298300</v>
       </c>
       <c r="F94" s="3">
-        <v>-324000</v>
+        <v>-329800</v>
       </c>
       <c r="G94" s="3">
-        <v>-343200</v>
+        <v>-349400</v>
       </c>
       <c r="H94" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="I94" s="3">
-        <v>-222200</v>
+        <v>-226200</v>
       </c>
       <c r="J94" s="3">
-        <v>-380300</v>
+        <v>-387200</v>
       </c>
       <c r="K94" s="3">
         <v>-408500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-56600</v>
+        <v>-57600</v>
       </c>
       <c r="E96" s="3">
-        <v>-53300</v>
+        <v>-54300</v>
       </c>
       <c r="F96" s="3">
-        <v>-36700</v>
+        <v>-37300</v>
       </c>
       <c r="G96" s="3">
-        <v>-26600</v>
+        <v>-27100</v>
       </c>
       <c r="H96" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="I96" s="3">
-        <v>-20000</v>
+        <v>-20300</v>
       </c>
       <c r="J96" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -3433,22 +3433,22 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-183300</v>
+        <v>-186600</v>
       </c>
       <c r="F100" s="3">
-        <v>-18300</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>-98000</v>
+        <v>-99700</v>
       </c>
       <c r="H100" s="3">
-        <v>-197700</v>
+        <v>-201300</v>
       </c>
       <c r="I100" s="3">
-        <v>-146700</v>
+        <v>-149300</v>
       </c>
       <c r="J100" s="3">
-        <v>282400</v>
+        <v>287500</v>
       </c>
       <c r="K100" s="3">
         <v>-103600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="E101" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="F101" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G101" s="3">
         <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-13400</v>
+        <v>-13700</v>
       </c>
       <c r="I101" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="J101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K101" s="3">
         <v>15200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="E102" s="3">
-        <v>-27600</v>
+        <v>-28100</v>
       </c>
       <c r="F102" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="G102" s="3">
-        <v>-52000</v>
+        <v>-53000</v>
       </c>
       <c r="H102" s="3">
-        <v>209300</v>
+        <v>213100</v>
       </c>
       <c r="I102" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="J102" s="3">
-        <v>-48700</v>
+        <v>-49600</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8787800</v>
+        <v>8376300</v>
       </c>
       <c r="E8" s="3">
-        <v>9529200</v>
+        <v>9083000</v>
       </c>
       <c r="F8" s="3">
-        <v>9296100</v>
+        <v>8860800</v>
       </c>
       <c r="G8" s="3">
-        <v>8104500</v>
+        <v>7725000</v>
       </c>
       <c r="H8" s="3">
-        <v>8407600</v>
+        <v>8013900</v>
       </c>
       <c r="I8" s="3">
-        <v>8339700</v>
+        <v>7949200</v>
       </c>
       <c r="J8" s="3">
-        <v>8954400</v>
+        <v>8535100</v>
       </c>
       <c r="K8" s="3">
         <v>8405700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7344000</v>
+        <v>7000100</v>
       </c>
       <c r="E9" s="3">
-        <v>7923300</v>
+        <v>7552200</v>
       </c>
       <c r="F9" s="3">
-        <v>7701600</v>
+        <v>7340900</v>
       </c>
       <c r="G9" s="3">
-        <v>6622800</v>
+        <v>6312700</v>
       </c>
       <c r="H9" s="3">
-        <v>7053200</v>
+        <v>6722900</v>
       </c>
       <c r="I9" s="3">
-        <v>7150800</v>
+        <v>6815900</v>
       </c>
       <c r="J9" s="3">
-        <v>7634300</v>
+        <v>7276800</v>
       </c>
       <c r="K9" s="3">
         <v>7152200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1443800</v>
+        <v>1376200</v>
       </c>
       <c r="E10" s="3">
-        <v>1605900</v>
+        <v>1530700</v>
       </c>
       <c r="F10" s="3">
-        <v>1594500</v>
+        <v>1519800</v>
       </c>
       <c r="G10" s="3">
-        <v>1481700</v>
+        <v>1412300</v>
       </c>
       <c r="H10" s="3">
-        <v>1354400</v>
+        <v>1291000</v>
       </c>
       <c r="I10" s="3">
-        <v>1189000</v>
+        <v>1133300</v>
       </c>
       <c r="J10" s="3">
-        <v>1320200</v>
+        <v>1258300</v>
       </c>
       <c r="K10" s="3">
         <v>1253400</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>165100</v>
+        <v>157400</v>
       </c>
       <c r="E12" s="3">
-        <v>165800</v>
+        <v>158100</v>
       </c>
       <c r="F12" s="3">
-        <v>149000</v>
+        <v>142000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>134400</v>
+        <v>128100</v>
       </c>
       <c r="J12" s="3">
-        <v>136400</v>
+        <v>130100</v>
       </c>
       <c r="K12" s="3">
         <v>148600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="E14" s="3">
-        <v>89100</v>
+        <v>84900</v>
       </c>
       <c r="F14" s="3">
-        <v>142600</v>
+        <v>135900</v>
       </c>
       <c r="G14" s="3">
-        <v>130000</v>
+        <v>123900</v>
       </c>
       <c r="H14" s="3">
-        <v>171900</v>
+        <v>163900</v>
       </c>
       <c r="I14" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="J14" s="3">
-        <v>121100</v>
+        <v>115400</v>
       </c>
       <c r="K14" s="3">
         <v>37400</v>
@@ -930,13 +930,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="E15" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="F15" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8605100</v>
+        <v>8202200</v>
       </c>
       <c r="E17" s="3">
-        <v>9225800</v>
+        <v>8793800</v>
       </c>
       <c r="F17" s="3">
-        <v>9008100</v>
+        <v>8586300</v>
       </c>
       <c r="G17" s="3">
-        <v>7863400</v>
+        <v>7495200</v>
       </c>
       <c r="H17" s="3">
-        <v>8318900</v>
+        <v>7929400</v>
       </c>
       <c r="I17" s="3">
-        <v>8260600</v>
+        <v>7873800</v>
       </c>
       <c r="J17" s="3">
-        <v>8830800</v>
+        <v>8417300</v>
       </c>
       <c r="K17" s="3">
         <v>8281600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182600</v>
+        <v>174100</v>
       </c>
       <c r="E18" s="3">
-        <v>303400</v>
+        <v>289200</v>
       </c>
       <c r="F18" s="3">
-        <v>288000</v>
+        <v>274500</v>
       </c>
       <c r="G18" s="3">
-        <v>241200</v>
+        <v>229900</v>
       </c>
       <c r="H18" s="3">
-        <v>88700</v>
+        <v>84500</v>
       </c>
       <c r="I18" s="3">
-        <v>79200</v>
+        <v>75500</v>
       </c>
       <c r="J18" s="3">
-        <v>123600</v>
+        <v>117800</v>
       </c>
       <c r="K18" s="3">
         <v>124100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>154500</v>
+        <v>147200</v>
       </c>
       <c r="E20" s="3">
-        <v>79400</v>
+        <v>75700</v>
       </c>
       <c r="F20" s="3">
-        <v>139100</v>
+        <v>132600</v>
       </c>
       <c r="G20" s="3">
-        <v>61100</v>
+        <v>58200</v>
       </c>
       <c r="H20" s="3">
-        <v>152500</v>
+        <v>145300</v>
       </c>
       <c r="I20" s="3">
-        <v>114600</v>
+        <v>109200</v>
       </c>
       <c r="J20" s="3">
-        <v>86400</v>
+        <v>82400</v>
       </c>
       <c r="K20" s="3">
         <v>38600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>619300</v>
+        <v>592000</v>
       </c>
       <c r="E21" s="3">
-        <v>634700</v>
+        <v>606600</v>
       </c>
       <c r="F21" s="3">
-        <v>667900</v>
+        <v>638100</v>
       </c>
       <c r="G21" s="3">
-        <v>526300</v>
+        <v>503100</v>
       </c>
       <c r="H21" s="3">
-        <v>464000</v>
+        <v>443600</v>
       </c>
       <c r="I21" s="3">
-        <v>409600</v>
+        <v>391700</v>
       </c>
       <c r="J21" s="3">
-        <v>479600</v>
+        <v>458800</v>
       </c>
       <c r="K21" s="3">
         <v>484700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41600</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="3">
-        <v>39200</v>
+        <v>37300</v>
       </c>
       <c r="F22" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="G22" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="H22" s="3">
-        <v>35700</v>
+        <v>34000</v>
       </c>
       <c r="I22" s="3">
-        <v>38400</v>
+        <v>36600</v>
       </c>
       <c r="J22" s="3">
-        <v>43700</v>
+        <v>41700</v>
       </c>
       <c r="K22" s="3">
         <v>46100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>295500</v>
+        <v>281700</v>
       </c>
       <c r="E23" s="3">
-        <v>343600</v>
+        <v>327500</v>
       </c>
       <c r="F23" s="3">
-        <v>388900</v>
+        <v>370700</v>
       </c>
       <c r="G23" s="3">
-        <v>268700</v>
+        <v>256200</v>
       </c>
       <c r="H23" s="3">
-        <v>205500</v>
+        <v>195800</v>
       </c>
       <c r="I23" s="3">
-        <v>155400</v>
+        <v>148100</v>
       </c>
       <c r="J23" s="3">
-        <v>166300</v>
+        <v>158500</v>
       </c>
       <c r="K23" s="3">
         <v>116600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="E24" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="F24" s="3">
-        <v>78300</v>
+        <v>74700</v>
       </c>
       <c r="G24" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="H24" s="3">
-        <v>76300</v>
+        <v>72700</v>
       </c>
       <c r="I24" s="3">
-        <v>64300</v>
+        <v>61300</v>
       </c>
       <c r="J24" s="3">
-        <v>86900</v>
+        <v>82800</v>
       </c>
       <c r="K24" s="3">
         <v>64000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>182600</v>
+        <v>174000</v>
       </c>
       <c r="E26" s="3">
-        <v>311800</v>
+        <v>297200</v>
       </c>
       <c r="F26" s="3">
-        <v>310500</v>
+        <v>296000</v>
       </c>
       <c r="G26" s="3">
-        <v>215600</v>
+        <v>205500</v>
       </c>
       <c r="H26" s="3">
-        <v>129200</v>
+        <v>123100</v>
       </c>
       <c r="I26" s="3">
-        <v>91100</v>
+        <v>86800</v>
       </c>
       <c r="J26" s="3">
-        <v>79400</v>
+        <v>75700</v>
       </c>
       <c r="K26" s="3">
         <v>52600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169500</v>
+        <v>161600</v>
       </c>
       <c r="E27" s="3">
-        <v>279700</v>
+        <v>266600</v>
       </c>
       <c r="F27" s="3">
-        <v>274300</v>
+        <v>261500</v>
       </c>
       <c r="G27" s="3">
-        <v>168800</v>
+        <v>160900</v>
       </c>
       <c r="H27" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="I27" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="J27" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="K27" s="3">
         <v>32500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-154500</v>
+        <v>-147200</v>
       </c>
       <c r="E32" s="3">
-        <v>-79400</v>
+        <v>-75700</v>
       </c>
       <c r="F32" s="3">
-        <v>-139100</v>
+        <v>-132600</v>
       </c>
       <c r="G32" s="3">
-        <v>-61100</v>
+        <v>-58200</v>
       </c>
       <c r="H32" s="3">
-        <v>-152500</v>
+        <v>-145300</v>
       </c>
       <c r="I32" s="3">
-        <v>-114600</v>
+        <v>-109200</v>
       </c>
       <c r="J32" s="3">
-        <v>-86400</v>
+        <v>-82400</v>
       </c>
       <c r="K32" s="3">
         <v>-38600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169500</v>
+        <v>161600</v>
       </c>
       <c r="E33" s="3">
-        <v>279700</v>
+        <v>266600</v>
       </c>
       <c r="F33" s="3">
-        <v>274300</v>
+        <v>261500</v>
       </c>
       <c r="G33" s="3">
-        <v>168800</v>
+        <v>160900</v>
       </c>
       <c r="H33" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="I33" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="J33" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="K33" s="3">
         <v>32500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169500</v>
+        <v>161600</v>
       </c>
       <c r="E35" s="3">
-        <v>279700</v>
+        <v>266600</v>
       </c>
       <c r="F35" s="3">
-        <v>274300</v>
+        <v>261500</v>
       </c>
       <c r="G35" s="3">
-        <v>168800</v>
+        <v>160900</v>
       </c>
       <c r="H35" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="I35" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="J35" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="K35" s="3">
         <v>32500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>522400</v>
+        <v>497900</v>
       </c>
       <c r="E41" s="3">
-        <v>428900</v>
+        <v>408800</v>
       </c>
       <c r="F41" s="3">
-        <v>486600</v>
+        <v>463800</v>
       </c>
       <c r="G41" s="3">
-        <v>453300</v>
+        <v>432000</v>
       </c>
       <c r="H41" s="3">
-        <v>504600</v>
+        <v>480900</v>
       </c>
       <c r="I41" s="3">
-        <v>288400</v>
+        <v>274900</v>
       </c>
       <c r="J41" s="3">
-        <v>256800</v>
+        <v>244700</v>
       </c>
       <c r="K41" s="3">
         <v>284500</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="E42" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1838000</v>
+        <v>1751900</v>
       </c>
       <c r="E43" s="3">
-        <v>2097400</v>
+        <v>1999200</v>
       </c>
       <c r="F43" s="3">
-        <v>2144200</v>
+        <v>2043800</v>
       </c>
       <c r="G43" s="3">
-        <v>1899300</v>
+        <v>1810300</v>
       </c>
       <c r="H43" s="3">
-        <v>1783800</v>
+        <v>1700200</v>
       </c>
       <c r="I43" s="3">
-        <v>1817000</v>
+        <v>1731900</v>
       </c>
       <c r="J43" s="3">
-        <v>1901700</v>
+        <v>1812600</v>
       </c>
       <c r="K43" s="3">
         <v>2010800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1113400</v>
+        <v>1061300</v>
       </c>
       <c r="E44" s="3">
-        <v>1181000</v>
+        <v>1125700</v>
       </c>
       <c r="F44" s="3">
-        <v>1093500</v>
+        <v>1042300</v>
       </c>
       <c r="G44" s="3">
-        <v>1002800</v>
+        <v>955900</v>
       </c>
       <c r="H44" s="3">
-        <v>895300</v>
+        <v>853400</v>
       </c>
       <c r="I44" s="3">
-        <v>955600</v>
+        <v>910900</v>
       </c>
       <c r="J44" s="3">
-        <v>900100</v>
+        <v>858000</v>
       </c>
       <c r="K44" s="3">
         <v>947600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>228700</v>
+        <v>218000</v>
       </c>
       <c r="E45" s="3">
-        <v>311100</v>
+        <v>296500</v>
       </c>
       <c r="F45" s="3">
-        <v>370700</v>
+        <v>353400</v>
       </c>
       <c r="G45" s="3">
-        <v>319000</v>
+        <v>304000</v>
       </c>
       <c r="H45" s="3">
-        <v>314500</v>
+        <v>299800</v>
       </c>
       <c r="I45" s="3">
-        <v>483100</v>
+        <v>460500</v>
       </c>
       <c r="J45" s="3">
-        <v>400900</v>
+        <v>382100</v>
       </c>
       <c r="K45" s="3">
         <v>326100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3711200</v>
+        <v>3537400</v>
       </c>
       <c r="E46" s="3">
-        <v>4041100</v>
+        <v>3851900</v>
       </c>
       <c r="F46" s="3">
-        <v>3999600</v>
+        <v>3812300</v>
       </c>
       <c r="G46" s="3">
-        <v>3674800</v>
+        <v>3502800</v>
       </c>
       <c r="H46" s="3">
-        <v>3498300</v>
+        <v>3334500</v>
       </c>
       <c r="I46" s="3">
-        <v>3544300</v>
+        <v>3378400</v>
       </c>
       <c r="J46" s="3">
-        <v>3459700</v>
+        <v>3297700</v>
       </c>
       <c r="K46" s="3">
         <v>3569100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1021900</v>
+        <v>974000</v>
       </c>
       <c r="E47" s="3">
-        <v>1193700</v>
+        <v>1137800</v>
       </c>
       <c r="F47" s="3">
-        <v>1317800</v>
+        <v>1256100</v>
       </c>
       <c r="G47" s="3">
-        <v>1259400</v>
+        <v>1200400</v>
       </c>
       <c r="H47" s="3">
-        <v>1088500</v>
+        <v>1037600</v>
       </c>
       <c r="I47" s="3">
-        <v>1324800</v>
+        <v>1262800</v>
       </c>
       <c r="J47" s="3">
-        <v>1307500</v>
+        <v>1246200</v>
       </c>
       <c r="K47" s="3">
         <v>1047700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2443000</v>
+        <v>2328600</v>
       </c>
       <c r="E48" s="3">
-        <v>2204100</v>
+        <v>2100900</v>
       </c>
       <c r="F48" s="3">
-        <v>2316200</v>
+        <v>2207700</v>
       </c>
       <c r="G48" s="3">
-        <v>1974800</v>
+        <v>1882300</v>
       </c>
       <c r="H48" s="3">
-        <v>1888800</v>
+        <v>1800300</v>
       </c>
       <c r="I48" s="3">
-        <v>1914500</v>
+        <v>1824800</v>
       </c>
       <c r="J48" s="3">
-        <v>1836200</v>
+        <v>1750200</v>
       </c>
       <c r="K48" s="3">
         <v>2546000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>154700</v>
+        <v>147400</v>
       </c>
       <c r="E49" s="3">
-        <v>117300</v>
+        <v>111800</v>
       </c>
       <c r="F49" s="3">
-        <v>108600</v>
+        <v>103500</v>
       </c>
       <c r="G49" s="3">
-        <v>93600</v>
+        <v>89200</v>
       </c>
       <c r="H49" s="3">
-        <v>81800</v>
+        <v>78000</v>
       </c>
       <c r="I49" s="3">
-        <v>86700</v>
+        <v>82700</v>
       </c>
       <c r="J49" s="3">
-        <v>92200</v>
+        <v>87900</v>
       </c>
       <c r="K49" s="3">
         <v>114700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>290600</v>
+      </c>
+      <c r="F52" s="3">
         <v>305500</v>
       </c>
-      <c r="E52" s="3">
-        <v>304900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>320500</v>
-      </c>
       <c r="G52" s="3">
-        <v>206100</v>
+        <v>196400</v>
       </c>
       <c r="H52" s="3">
-        <v>224500</v>
+        <v>214000</v>
       </c>
       <c r="I52" s="3">
-        <v>184600</v>
+        <v>175900</v>
       </c>
       <c r="J52" s="3">
-        <v>174100</v>
+        <v>166000</v>
       </c>
       <c r="K52" s="3">
         <v>173600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7636300</v>
+        <v>7278700</v>
       </c>
       <c r="E54" s="3">
-        <v>7861200</v>
+        <v>7493100</v>
       </c>
       <c r="F54" s="3">
-        <v>7771000</v>
+        <v>7407100</v>
       </c>
       <c r="G54" s="3">
-        <v>7208700</v>
+        <v>6871200</v>
       </c>
       <c r="H54" s="3">
-        <v>6782000</v>
+        <v>6464400</v>
       </c>
       <c r="I54" s="3">
-        <v>7054900</v>
+        <v>6724600</v>
       </c>
       <c r="J54" s="3">
-        <v>6869700</v>
+        <v>6548000</v>
       </c>
       <c r="K54" s="3">
         <v>7451100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1072300</v>
+        <v>1022100</v>
       </c>
       <c r="E57" s="3">
-        <v>1263000</v>
+        <v>1203800</v>
       </c>
       <c r="F57" s="3">
-        <v>1195400</v>
+        <v>1139400</v>
       </c>
       <c r="G57" s="3">
-        <v>1038700</v>
+        <v>990100</v>
       </c>
       <c r="H57" s="3">
-        <v>964800</v>
+        <v>919600</v>
       </c>
       <c r="I57" s="3">
-        <v>1061000</v>
+        <v>1011300</v>
       </c>
       <c r="J57" s="3">
-        <v>1003100</v>
+        <v>956100</v>
       </c>
       <c r="K57" s="3">
         <v>1210100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1221200</v>
+        <v>1164000</v>
       </c>
       <c r="E58" s="3">
-        <v>1025500</v>
+        <v>977500</v>
       </c>
       <c r="F58" s="3">
-        <v>1117400</v>
+        <v>1065100</v>
       </c>
       <c r="G58" s="3">
-        <v>964000</v>
+        <v>918800</v>
       </c>
       <c r="H58" s="3">
-        <v>1189800</v>
+        <v>1134100</v>
       </c>
       <c r="I58" s="3">
-        <v>1025900</v>
+        <v>977800</v>
       </c>
       <c r="J58" s="3">
-        <v>1153300</v>
+        <v>1099300</v>
       </c>
       <c r="K58" s="3">
         <v>1157900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>741800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>856400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>821400</v>
+      </c>
+      <c r="G59" s="3">
         <v>778300</v>
       </c>
-      <c r="E59" s="3">
-        <v>898400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>861700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>816500</v>
-      </c>
       <c r="H59" s="3">
-        <v>722000</v>
+        <v>688200</v>
       </c>
       <c r="I59" s="3">
-        <v>672700</v>
+        <v>641200</v>
       </c>
       <c r="J59" s="3">
-        <v>667700</v>
+        <v>636400</v>
       </c>
       <c r="K59" s="3">
         <v>612300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3071800</v>
+        <v>2928000</v>
       </c>
       <c r="E60" s="3">
-        <v>3186900</v>
+        <v>3037600</v>
       </c>
       <c r="F60" s="3">
-        <v>3174500</v>
+        <v>3025900</v>
       </c>
       <c r="G60" s="3">
-        <v>2819200</v>
+        <v>2687200</v>
       </c>
       <c r="H60" s="3">
-        <v>2876700</v>
+        <v>2742000</v>
       </c>
       <c r="I60" s="3">
-        <v>2759500</v>
+        <v>2630300</v>
       </c>
       <c r="J60" s="3">
-        <v>2824100</v>
+        <v>2691800</v>
       </c>
       <c r="K60" s="3">
         <v>2980300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1268800</v>
+        <v>1209400</v>
       </c>
       <c r="E61" s="3">
-        <v>1338700</v>
+        <v>1276000</v>
       </c>
       <c r="F61" s="3">
-        <v>1366800</v>
+        <v>1302800</v>
       </c>
       <c r="G61" s="3">
-        <v>1463000</v>
+        <v>1394500</v>
       </c>
       <c r="H61" s="3">
-        <v>1314700</v>
+        <v>1253100</v>
       </c>
       <c r="I61" s="3">
-        <v>1612400</v>
+        <v>1536900</v>
       </c>
       <c r="J61" s="3">
-        <v>1516900</v>
+        <v>1445800</v>
       </c>
       <c r="K61" s="3">
         <v>1755400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>671800</v>
+        <v>640300</v>
       </c>
       <c r="E62" s="3">
-        <v>645700</v>
+        <v>615500</v>
       </c>
       <c r="F62" s="3">
-        <v>706500</v>
+        <v>673400</v>
       </c>
       <c r="G62" s="3">
-        <v>648500</v>
+        <v>618100</v>
       </c>
       <c r="H62" s="3">
-        <v>682300</v>
+        <v>650300</v>
       </c>
       <c r="I62" s="3">
-        <v>619400</v>
+        <v>590400</v>
       </c>
       <c r="J62" s="3">
-        <v>609300</v>
+        <v>580800</v>
       </c>
       <c r="K62" s="3">
         <v>689700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5327200</v>
+        <v>5077700</v>
       </c>
       <c r="E66" s="3">
-        <v>5481200</v>
+        <v>5224500</v>
       </c>
       <c r="F66" s="3">
-        <v>5498000</v>
+        <v>5240600</v>
       </c>
       <c r="G66" s="3">
-        <v>5222200</v>
+        <v>4977700</v>
       </c>
       <c r="H66" s="3">
-        <v>5117900</v>
+        <v>4878300</v>
       </c>
       <c r="I66" s="3">
-        <v>5221900</v>
+        <v>4977400</v>
       </c>
       <c r="J66" s="3">
-        <v>5166400</v>
+        <v>4924500</v>
       </c>
       <c r="K66" s="3">
         <v>5944500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1586600</v>
+        <v>1512300</v>
       </c>
       <c r="E72" s="3">
-        <v>1458300</v>
+        <v>1390000</v>
       </c>
       <c r="F72" s="3">
-        <v>1231300</v>
+        <v>1173700</v>
       </c>
       <c r="G72" s="3">
-        <v>998900</v>
+        <v>952100</v>
       </c>
       <c r="H72" s="3">
-        <v>867900</v>
+        <v>827300</v>
       </c>
       <c r="I72" s="3">
-        <v>800200</v>
+        <v>762700</v>
       </c>
       <c r="J72" s="3">
-        <v>761300</v>
+        <v>725600</v>
       </c>
       <c r="K72" s="3">
         <v>692000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2309100</v>
+        <v>2201000</v>
       </c>
       <c r="E76" s="3">
-        <v>2380000</v>
+        <v>2268600</v>
       </c>
       <c r="F76" s="3">
-        <v>2272900</v>
+        <v>2166500</v>
       </c>
       <c r="G76" s="3">
-        <v>1986500</v>
+        <v>1893500</v>
       </c>
       <c r="H76" s="3">
-        <v>1664100</v>
+        <v>1586200</v>
       </c>
       <c r="I76" s="3">
-        <v>1833000</v>
+        <v>1747200</v>
       </c>
       <c r="J76" s="3">
-        <v>1703200</v>
+        <v>1623500</v>
       </c>
       <c r="K76" s="3">
         <v>1506600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169500</v>
+        <v>161600</v>
       </c>
       <c r="E81" s="3">
-        <v>279700</v>
+        <v>266600</v>
       </c>
       <c r="F81" s="3">
-        <v>274300</v>
+        <v>261500</v>
       </c>
       <c r="G81" s="3">
-        <v>168800</v>
+        <v>160900</v>
       </c>
       <c r="H81" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="I81" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="J81" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="K81" s="3">
         <v>32500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>282800</v>
+        <v>269500</v>
       </c>
       <c r="E83" s="3">
-        <v>252500</v>
+        <v>240600</v>
       </c>
       <c r="F83" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="G83" s="3">
-        <v>224600</v>
+        <v>214100</v>
       </c>
       <c r="H83" s="3">
-        <v>223300</v>
+        <v>212800</v>
       </c>
       <c r="I83" s="3">
-        <v>216300</v>
+        <v>206200</v>
       </c>
       <c r="J83" s="3">
-        <v>270100</v>
+        <v>257500</v>
       </c>
       <c r="K83" s="3">
         <v>321300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>407800</v>
+        <v>388700</v>
       </c>
       <c r="E89" s="3">
-        <v>448600</v>
+        <v>427600</v>
       </c>
       <c r="F89" s="3">
-        <v>373200</v>
+        <v>355700</v>
       </c>
       <c r="G89" s="3">
-        <v>399200</v>
+        <v>380500</v>
       </c>
       <c r="H89" s="3">
-        <v>409300</v>
+        <v>390100</v>
       </c>
       <c r="I89" s="3">
-        <v>401400</v>
+        <v>382600</v>
       </c>
       <c r="J89" s="3">
-        <v>44400</v>
+        <v>42400</v>
       </c>
       <c r="K89" s="3">
         <v>500500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-454700</v>
+        <v>-433400</v>
       </c>
       <c r="E91" s="3">
-        <v>-413700</v>
+        <v>-394400</v>
       </c>
       <c r="F91" s="3">
-        <v>-330100</v>
+        <v>-314600</v>
       </c>
       <c r="G91" s="3">
-        <v>-273300</v>
+        <v>-260500</v>
       </c>
       <c r="H91" s="3">
-        <v>-246500</v>
+        <v>-234900</v>
       </c>
       <c r="I91" s="3">
-        <v>-266000</v>
+        <v>-253500</v>
       </c>
       <c r="J91" s="3">
-        <v>-378300</v>
+        <v>-360600</v>
       </c>
       <c r="K91" s="3">
         <v>-415900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-318300</v>
+        <v>-303400</v>
       </c>
       <c r="E94" s="3">
-        <v>-298300</v>
+        <v>-284300</v>
       </c>
       <c r="F94" s="3">
-        <v>-329800</v>
+        <v>-314400</v>
       </c>
       <c r="G94" s="3">
-        <v>-349400</v>
+        <v>-333100</v>
       </c>
       <c r="H94" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="I94" s="3">
-        <v>-226200</v>
+        <v>-215600</v>
       </c>
       <c r="J94" s="3">
-        <v>-387200</v>
+        <v>-369100</v>
       </c>
       <c r="K94" s="3">
         <v>-408500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-57600</v>
+        <v>-54900</v>
       </c>
       <c r="E96" s="3">
-        <v>-54300</v>
+        <v>-51700</v>
       </c>
       <c r="F96" s="3">
-        <v>-37300</v>
+        <v>-35600</v>
       </c>
       <c r="G96" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="H96" s="3">
-        <v>-20300</v>
+        <v>-19300</v>
       </c>
       <c r="I96" s="3">
-        <v>-20300</v>
+        <v>-19400</v>
       </c>
       <c r="J96" s="3">
-        <v>-20400</v>
+        <v>-19400</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -3433,22 +3433,22 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-186600</v>
+        <v>-177800</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>-17800</v>
       </c>
       <c r="G100" s="3">
-        <v>-99700</v>
+        <v>-95100</v>
       </c>
       <c r="H100" s="3">
-        <v>-201300</v>
+        <v>-191800</v>
       </c>
       <c r="I100" s="3">
-        <v>-149300</v>
+        <v>-142300</v>
       </c>
       <c r="J100" s="3">
-        <v>287500</v>
+        <v>274000</v>
       </c>
       <c r="K100" s="3">
         <v>-103600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="E101" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H101" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="I101" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="J101" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K101" s="3">
         <v>15200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79000</v>
+        <v>75300</v>
       </c>
       <c r="E102" s="3">
-        <v>-28100</v>
+        <v>-26700</v>
       </c>
       <c r="F102" s="3">
-        <v>34700</v>
+        <v>33100</v>
       </c>
       <c r="G102" s="3">
-        <v>-53000</v>
+        <v>-50500</v>
       </c>
       <c r="H102" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="I102" s="3">
-        <v>40100</v>
+        <v>38200</v>
       </c>
       <c r="J102" s="3">
-        <v>-49600</v>
+        <v>-47200</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8376300</v>
+        <v>7458600</v>
       </c>
       <c r="E8" s="3">
-        <v>9083000</v>
+        <v>8403700</v>
       </c>
       <c r="F8" s="3">
-        <v>8860800</v>
+        <v>9112700</v>
       </c>
       <c r="G8" s="3">
-        <v>7725000</v>
+        <v>8889800</v>
       </c>
       <c r="H8" s="3">
-        <v>8013900</v>
+        <v>7750300</v>
       </c>
       <c r="I8" s="3">
-        <v>7949200</v>
+        <v>8040100</v>
       </c>
       <c r="J8" s="3">
+        <v>7975200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8535100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8405700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8306000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7000100</v>
+        <v>6270200</v>
       </c>
       <c r="E9" s="3">
-        <v>7552200</v>
+        <v>7023000</v>
       </c>
       <c r="F9" s="3">
-        <v>7340900</v>
+        <v>7577000</v>
       </c>
       <c r="G9" s="3">
-        <v>6312700</v>
+        <v>7365000</v>
       </c>
       <c r="H9" s="3">
-        <v>6722900</v>
+        <v>6333400</v>
       </c>
       <c r="I9" s="3">
-        <v>6815900</v>
+        <v>6744900</v>
       </c>
       <c r="J9" s="3">
+        <v>6838200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7276800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7152200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7114000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1376200</v>
+        <v>1188400</v>
       </c>
       <c r="E10" s="3">
-        <v>1530700</v>
+        <v>1380700</v>
       </c>
       <c r="F10" s="3">
-        <v>1519800</v>
+        <v>1535700</v>
       </c>
       <c r="G10" s="3">
-        <v>1412300</v>
+        <v>1524800</v>
       </c>
       <c r="H10" s="3">
-        <v>1291000</v>
+        <v>1417000</v>
       </c>
       <c r="I10" s="3">
-        <v>1133300</v>
+        <v>1295200</v>
       </c>
       <c r="J10" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1258300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1253400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1192000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>157400</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>158100</v>
+        <v>157900</v>
       </c>
       <c r="F12" s="3">
-        <v>142000</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>158600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>142500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>128100</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K12" s="3">
         <v>130100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>148600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>133600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,56 +906,62 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>41800</v>
+        <v>96200</v>
       </c>
       <c r="E14" s="3">
-        <v>84900</v>
+        <v>41900</v>
       </c>
       <c r="F14" s="3">
-        <v>135900</v>
+        <v>85200</v>
       </c>
       <c r="G14" s="3">
-        <v>123900</v>
+        <v>136400</v>
       </c>
       <c r="H14" s="3">
-        <v>163900</v>
+        <v>124300</v>
       </c>
       <c r="I14" s="3">
-        <v>88300</v>
+        <v>164400</v>
       </c>
       <c r="J14" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K14" s="3">
         <v>115400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>212800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>30800</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>24400</v>
+        <v>30900</v>
       </c>
       <c r="F15" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>24500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -950,15 +972,18 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>36500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8202200</v>
+        <v>7477300</v>
       </c>
       <c r="E17" s="3">
-        <v>8793800</v>
+        <v>8229100</v>
       </c>
       <c r="F17" s="3">
-        <v>8586300</v>
+        <v>8822600</v>
       </c>
       <c r="G17" s="3">
-        <v>7495200</v>
+        <v>8614400</v>
       </c>
       <c r="H17" s="3">
-        <v>7929400</v>
+        <v>7519700</v>
       </c>
       <c r="I17" s="3">
-        <v>7873800</v>
+        <v>7955300</v>
       </c>
       <c r="J17" s="3">
+        <v>7899500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8417300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8281600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8374700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>174100</v>
+        <v>-18700</v>
       </c>
       <c r="E18" s="3">
-        <v>289200</v>
+        <v>174600</v>
       </c>
       <c r="F18" s="3">
-        <v>274500</v>
+        <v>290100</v>
       </c>
       <c r="G18" s="3">
-        <v>229900</v>
+        <v>275400</v>
       </c>
       <c r="H18" s="3">
-        <v>84500</v>
+        <v>230600</v>
       </c>
       <c r="I18" s="3">
-        <v>75500</v>
+        <v>84800</v>
       </c>
       <c r="J18" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K18" s="3">
         <v>117800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>147200</v>
+        <v>247600</v>
       </c>
       <c r="E20" s="3">
-        <v>75700</v>
+        <v>147700</v>
       </c>
       <c r="F20" s="3">
-        <v>132600</v>
+        <v>75900</v>
       </c>
       <c r="G20" s="3">
-        <v>58200</v>
+        <v>133000</v>
       </c>
       <c r="H20" s="3">
-        <v>145300</v>
+        <v>58400</v>
       </c>
       <c r="I20" s="3">
-        <v>109200</v>
+        <v>145800</v>
       </c>
       <c r="J20" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K20" s="3">
         <v>82400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>133500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592000</v>
+        <v>524700</v>
       </c>
       <c r="E21" s="3">
-        <v>606600</v>
+        <v>593000</v>
       </c>
       <c r="F21" s="3">
-        <v>638100</v>
+        <v>607700</v>
       </c>
       <c r="G21" s="3">
-        <v>503100</v>
+        <v>639400</v>
       </c>
       <c r="H21" s="3">
-        <v>443600</v>
+        <v>504000</v>
       </c>
       <c r="I21" s="3">
-        <v>391700</v>
+        <v>444400</v>
       </c>
       <c r="J21" s="3">
+        <v>392400</v>
+      </c>
+      <c r="K21" s="3">
         <v>458800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>484700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>419800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="3">
-        <v>37300</v>
+        <v>39800</v>
       </c>
       <c r="F22" s="3">
-        <v>36400</v>
+        <v>37400</v>
       </c>
       <c r="G22" s="3">
-        <v>31900</v>
+        <v>36500</v>
       </c>
       <c r="H22" s="3">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="I22" s="3">
-        <v>36600</v>
+        <v>34100</v>
       </c>
       <c r="J22" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K22" s="3">
         <v>41700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281700</v>
+        <v>195900</v>
       </c>
       <c r="E23" s="3">
-        <v>327500</v>
+        <v>282600</v>
       </c>
       <c r="F23" s="3">
-        <v>370700</v>
+        <v>328600</v>
       </c>
       <c r="G23" s="3">
-        <v>256200</v>
+        <v>371900</v>
       </c>
       <c r="H23" s="3">
-        <v>195800</v>
+        <v>257000</v>
       </c>
       <c r="I23" s="3">
-        <v>148100</v>
+        <v>196500</v>
       </c>
       <c r="J23" s="3">
+        <v>148600</v>
+      </c>
+      <c r="K23" s="3">
         <v>158500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>107700</v>
+        <v>84700</v>
       </c>
       <c r="E24" s="3">
-        <v>30300</v>
+        <v>108000</v>
       </c>
       <c r="F24" s="3">
-        <v>74700</v>
+        <v>30400</v>
       </c>
       <c r="G24" s="3">
-        <v>50700</v>
+        <v>74900</v>
       </c>
       <c r="H24" s="3">
-        <v>72700</v>
+        <v>50900</v>
       </c>
       <c r="I24" s="3">
-        <v>61300</v>
+        <v>73000</v>
       </c>
       <c r="J24" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K24" s="3">
         <v>82800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>174000</v>
+        <v>111200</v>
       </c>
       <c r="E26" s="3">
-        <v>297200</v>
+        <v>174600</v>
       </c>
       <c r="F26" s="3">
-        <v>296000</v>
+        <v>298200</v>
       </c>
       <c r="G26" s="3">
-        <v>205500</v>
+        <v>297000</v>
       </c>
       <c r="H26" s="3">
-        <v>123100</v>
+        <v>206100</v>
       </c>
       <c r="I26" s="3">
-        <v>86800</v>
+        <v>123500</v>
       </c>
       <c r="J26" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K26" s="3">
         <v>75700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-86400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>161600</v>
+        <v>91900</v>
       </c>
       <c r="E27" s="3">
-        <v>266600</v>
+        <v>162100</v>
       </c>
       <c r="F27" s="3">
-        <v>261500</v>
+        <v>267500</v>
       </c>
       <c r="G27" s="3">
-        <v>160900</v>
+        <v>262300</v>
       </c>
       <c r="H27" s="3">
-        <v>91700</v>
+        <v>161500</v>
       </c>
       <c r="I27" s="3">
-        <v>67400</v>
+        <v>92000</v>
       </c>
       <c r="J27" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K27" s="3">
         <v>51400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-147200</v>
+        <v>-247600</v>
       </c>
       <c r="E32" s="3">
-        <v>-75700</v>
+        <v>-147700</v>
       </c>
       <c r="F32" s="3">
-        <v>-132600</v>
+        <v>-75900</v>
       </c>
       <c r="G32" s="3">
-        <v>-58200</v>
+        <v>-133000</v>
       </c>
       <c r="H32" s="3">
-        <v>-145300</v>
+        <v>-58400</v>
       </c>
       <c r="I32" s="3">
-        <v>-109200</v>
+        <v>-145800</v>
       </c>
       <c r="J32" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-82400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-133500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>161600</v>
+        <v>91900</v>
       </c>
       <c r="E33" s="3">
-        <v>266600</v>
+        <v>162100</v>
       </c>
       <c r="F33" s="3">
-        <v>261500</v>
+        <v>267500</v>
       </c>
       <c r="G33" s="3">
-        <v>160900</v>
+        <v>262300</v>
       </c>
       <c r="H33" s="3">
-        <v>91700</v>
+        <v>161500</v>
       </c>
       <c r="I33" s="3">
-        <v>67400</v>
+        <v>92000</v>
       </c>
       <c r="J33" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K33" s="3">
         <v>51400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>161600</v>
+        <v>91900</v>
       </c>
       <c r="E35" s="3">
-        <v>266600</v>
+        <v>162100</v>
       </c>
       <c r="F35" s="3">
-        <v>261500</v>
+        <v>267500</v>
       </c>
       <c r="G35" s="3">
-        <v>160900</v>
+        <v>262300</v>
       </c>
       <c r="H35" s="3">
-        <v>91700</v>
+        <v>161500</v>
       </c>
       <c r="I35" s="3">
-        <v>67400</v>
+        <v>92000</v>
       </c>
       <c r="J35" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K35" s="3">
         <v>51400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,61 +1731,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>497900</v>
+        <v>775300</v>
       </c>
       <c r="E41" s="3">
-        <v>408800</v>
+        <v>499500</v>
       </c>
       <c r="F41" s="3">
-        <v>463800</v>
+        <v>410100</v>
       </c>
       <c r="G41" s="3">
-        <v>432000</v>
+        <v>465300</v>
       </c>
       <c r="H41" s="3">
-        <v>480900</v>
+        <v>433400</v>
       </c>
       <c r="I41" s="3">
-        <v>274900</v>
+        <v>482500</v>
       </c>
       <c r="J41" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K41" s="3">
         <v>244700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>284500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>26900</v>
       </c>
       <c r="E42" s="3">
-        <v>21700</v>
+        <v>8300</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>21800</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>200</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1709,242 +1798,266 @@
         <v>200</v>
       </c>
       <c r="L42" s="3">
+        <v>200</v>
+      </c>
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1751900</v>
+        <v>1755600</v>
       </c>
       <c r="E43" s="3">
-        <v>1999200</v>
+        <v>1757700</v>
       </c>
       <c r="F43" s="3">
-        <v>2043800</v>
+        <v>2005800</v>
       </c>
       <c r="G43" s="3">
-        <v>1810300</v>
+        <v>2050500</v>
       </c>
       <c r="H43" s="3">
-        <v>1700200</v>
+        <v>1816200</v>
       </c>
       <c r="I43" s="3">
-        <v>1731900</v>
+        <v>1705800</v>
       </c>
       <c r="J43" s="3">
+        <v>1737600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1812600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2010800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1998800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1061300</v>
+        <v>1110500</v>
       </c>
       <c r="E44" s="3">
-        <v>1125700</v>
+        <v>1064800</v>
       </c>
       <c r="F44" s="3">
-        <v>1042300</v>
+        <v>1129300</v>
       </c>
       <c r="G44" s="3">
-        <v>955900</v>
+        <v>1045700</v>
       </c>
       <c r="H44" s="3">
-        <v>853400</v>
+        <v>959000</v>
       </c>
       <c r="I44" s="3">
-        <v>910900</v>
+        <v>856200</v>
       </c>
       <c r="J44" s="3">
+        <v>913900</v>
+      </c>
+      <c r="K44" s="3">
         <v>858000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>947600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>857800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>218000</v>
+        <v>281700</v>
       </c>
       <c r="E45" s="3">
-        <v>296500</v>
+        <v>218700</v>
       </c>
       <c r="F45" s="3">
-        <v>353400</v>
+        <v>297500</v>
       </c>
       <c r="G45" s="3">
-        <v>304000</v>
+        <v>354500</v>
       </c>
       <c r="H45" s="3">
-        <v>299800</v>
+        <v>305000</v>
       </c>
       <c r="I45" s="3">
-        <v>460500</v>
+        <v>300800</v>
       </c>
       <c r="J45" s="3">
+        <v>462000</v>
+      </c>
+      <c r="K45" s="3">
         <v>382100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>326100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>368300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3537400</v>
+        <v>3950000</v>
       </c>
       <c r="E46" s="3">
-        <v>3851900</v>
+        <v>3549000</v>
       </c>
       <c r="F46" s="3">
-        <v>3812300</v>
+        <v>3864500</v>
       </c>
       <c r="G46" s="3">
-        <v>3502800</v>
+        <v>3824800</v>
       </c>
       <c r="H46" s="3">
-        <v>3334500</v>
+        <v>3514200</v>
       </c>
       <c r="I46" s="3">
-        <v>3378400</v>
+        <v>3345400</v>
       </c>
       <c r="J46" s="3">
+        <v>3389400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3297700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3569100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3526400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>974000</v>
+        <v>1007600</v>
       </c>
       <c r="E47" s="3">
-        <v>1137800</v>
+        <v>977200</v>
       </c>
       <c r="F47" s="3">
-        <v>1256100</v>
+        <v>1141500</v>
       </c>
       <c r="G47" s="3">
-        <v>1200400</v>
+        <v>1260200</v>
       </c>
       <c r="H47" s="3">
-        <v>1037600</v>
+        <v>1204400</v>
       </c>
       <c r="I47" s="3">
-        <v>1262800</v>
+        <v>1041000</v>
       </c>
       <c r="J47" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1246200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1047700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>934400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2328600</v>
+        <v>2267600</v>
       </c>
       <c r="E48" s="3">
-        <v>2100900</v>
+        <v>2336300</v>
       </c>
       <c r="F48" s="3">
-        <v>2207700</v>
+        <v>2107800</v>
       </c>
       <c r="G48" s="3">
-        <v>1882300</v>
+        <v>2215000</v>
       </c>
       <c r="H48" s="3">
-        <v>1800300</v>
+        <v>1888500</v>
       </c>
       <c r="I48" s="3">
-        <v>1824800</v>
+        <v>1806200</v>
       </c>
       <c r="J48" s="3">
+        <v>1830800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1750200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2546000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2369600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>147400</v>
+        <v>186100</v>
       </c>
       <c r="E49" s="3">
-        <v>111800</v>
+        <v>147900</v>
       </c>
       <c r="F49" s="3">
-        <v>103500</v>
+        <v>112200</v>
       </c>
       <c r="G49" s="3">
-        <v>89200</v>
+        <v>103900</v>
       </c>
       <c r="H49" s="3">
-        <v>78000</v>
+        <v>89500</v>
       </c>
       <c r="I49" s="3">
-        <v>82700</v>
+        <v>78300</v>
       </c>
       <c r="J49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K49" s="3">
         <v>87900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>114700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>291200</v>
+        <v>235300</v>
       </c>
       <c r="E52" s="3">
-        <v>290600</v>
+        <v>292100</v>
       </c>
       <c r="F52" s="3">
-        <v>305500</v>
+        <v>291600</v>
       </c>
       <c r="G52" s="3">
-        <v>196400</v>
+        <v>306500</v>
       </c>
       <c r="H52" s="3">
-        <v>214000</v>
+        <v>197100</v>
       </c>
       <c r="I52" s="3">
-        <v>175900</v>
+        <v>214700</v>
       </c>
       <c r="J52" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K52" s="3">
         <v>166000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>173600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7278700</v>
+        <v>7646500</v>
       </c>
       <c r="E54" s="3">
-        <v>7493100</v>
+        <v>7302500</v>
       </c>
       <c r="F54" s="3">
-        <v>7407100</v>
+        <v>7517600</v>
       </c>
       <c r="G54" s="3">
-        <v>6871200</v>
+        <v>7431300</v>
       </c>
       <c r="H54" s="3">
-        <v>6464400</v>
+        <v>6893700</v>
       </c>
       <c r="I54" s="3">
-        <v>6724600</v>
+        <v>6485600</v>
       </c>
       <c r="J54" s="3">
+        <v>6746600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6548000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7451100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7142600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1022100</v>
+        <v>1061500</v>
       </c>
       <c r="E57" s="3">
-        <v>1203800</v>
+        <v>1025500</v>
       </c>
       <c r="F57" s="3">
-        <v>1139400</v>
+        <v>1207800</v>
       </c>
       <c r="G57" s="3">
-        <v>990100</v>
+        <v>1143100</v>
       </c>
       <c r="H57" s="3">
-        <v>919600</v>
+        <v>993300</v>
       </c>
       <c r="I57" s="3">
-        <v>1011300</v>
+        <v>922700</v>
       </c>
       <c r="J57" s="3">
+        <v>1014600</v>
+      </c>
+      <c r="K57" s="3">
         <v>956100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1210100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1102900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1164000</v>
+        <v>1227100</v>
       </c>
       <c r="E58" s="3">
-        <v>977500</v>
+        <v>1167800</v>
       </c>
       <c r="F58" s="3">
-        <v>1065100</v>
+        <v>980700</v>
       </c>
       <c r="G58" s="3">
-        <v>918800</v>
+        <v>1068600</v>
       </c>
       <c r="H58" s="3">
-        <v>1134100</v>
+        <v>921800</v>
       </c>
       <c r="I58" s="3">
-        <v>977800</v>
+        <v>1137800</v>
       </c>
       <c r="J58" s="3">
+        <v>981000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1099300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1157900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1432100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>741800</v>
+        <v>608200</v>
       </c>
       <c r="E59" s="3">
-        <v>856400</v>
+        <v>744300</v>
       </c>
       <c r="F59" s="3">
-        <v>821400</v>
+        <v>859200</v>
       </c>
       <c r="G59" s="3">
-        <v>778300</v>
+        <v>824100</v>
       </c>
       <c r="H59" s="3">
-        <v>688200</v>
+        <v>780800</v>
       </c>
       <c r="I59" s="3">
-        <v>641200</v>
+        <v>690500</v>
       </c>
       <c r="J59" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K59" s="3">
         <v>636400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>612300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>590100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2928000</v>
+        <v>2896700</v>
       </c>
       <c r="E60" s="3">
-        <v>3037600</v>
+        <v>2937600</v>
       </c>
       <c r="F60" s="3">
-        <v>3025900</v>
+        <v>3047600</v>
       </c>
       <c r="G60" s="3">
-        <v>2687200</v>
+        <v>3035800</v>
       </c>
       <c r="H60" s="3">
-        <v>2742000</v>
+        <v>2696000</v>
       </c>
       <c r="I60" s="3">
-        <v>2630300</v>
+        <v>2750900</v>
       </c>
       <c r="J60" s="3">
+        <v>2638900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2691800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2980300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3125100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1209400</v>
+        <v>1443700</v>
       </c>
       <c r="E61" s="3">
-        <v>1276000</v>
+        <v>1213400</v>
       </c>
       <c r="F61" s="3">
-        <v>1302800</v>
+        <v>1280100</v>
       </c>
       <c r="G61" s="3">
-        <v>1394500</v>
+        <v>1307100</v>
       </c>
       <c r="H61" s="3">
-        <v>1253100</v>
+        <v>1399000</v>
       </c>
       <c r="I61" s="3">
-        <v>1536900</v>
+        <v>1257200</v>
       </c>
       <c r="J61" s="3">
+        <v>1541900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1445800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1755400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1507900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>640300</v>
+        <v>626100</v>
       </c>
       <c r="E62" s="3">
-        <v>615500</v>
+        <v>642400</v>
       </c>
       <c r="F62" s="3">
-        <v>673400</v>
+        <v>617500</v>
       </c>
       <c r="G62" s="3">
-        <v>618100</v>
+        <v>675600</v>
       </c>
       <c r="H62" s="3">
-        <v>650300</v>
+        <v>620100</v>
       </c>
       <c r="I62" s="3">
-        <v>590400</v>
+        <v>652400</v>
       </c>
       <c r="J62" s="3">
+        <v>592300</v>
+      </c>
+      <c r="K62" s="3">
         <v>580800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>689700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>723500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5077700</v>
+        <v>5258300</v>
       </c>
       <c r="E66" s="3">
-        <v>5224500</v>
+        <v>5094300</v>
       </c>
       <c r="F66" s="3">
-        <v>5240600</v>
+        <v>5241600</v>
       </c>
       <c r="G66" s="3">
-        <v>4977700</v>
+        <v>5257700</v>
       </c>
       <c r="H66" s="3">
-        <v>4878300</v>
+        <v>4994000</v>
       </c>
       <c r="I66" s="3">
-        <v>4977400</v>
+        <v>4894200</v>
       </c>
       <c r="J66" s="3">
+        <v>4993700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4924500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5944500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5834500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1512300</v>
+        <v>1548900</v>
       </c>
       <c r="E72" s="3">
-        <v>1390000</v>
+        <v>1517300</v>
       </c>
       <c r="F72" s="3">
-        <v>1173700</v>
+        <v>1394500</v>
       </c>
       <c r="G72" s="3">
-        <v>952100</v>
+        <v>1177500</v>
       </c>
       <c r="H72" s="3">
-        <v>827300</v>
+        <v>955200</v>
       </c>
       <c r="I72" s="3">
-        <v>762700</v>
+        <v>830000</v>
       </c>
       <c r="J72" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K72" s="3">
         <v>725600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>692000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>655200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2201000</v>
+        <v>2388200</v>
       </c>
       <c r="E76" s="3">
-        <v>2268600</v>
+        <v>2208200</v>
       </c>
       <c r="F76" s="3">
-        <v>2166500</v>
+        <v>2276000</v>
       </c>
       <c r="G76" s="3">
-        <v>1893500</v>
+        <v>2173600</v>
       </c>
       <c r="H76" s="3">
-        <v>1586200</v>
+        <v>1899700</v>
       </c>
       <c r="I76" s="3">
-        <v>1747200</v>
+        <v>1591400</v>
       </c>
       <c r="J76" s="3">
+        <v>1752900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1623500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1506600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1308000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>161600</v>
+        <v>91900</v>
       </c>
       <c r="E81" s="3">
-        <v>266600</v>
+        <v>162100</v>
       </c>
       <c r="F81" s="3">
-        <v>261500</v>
+        <v>267500</v>
       </c>
       <c r="G81" s="3">
-        <v>160900</v>
+        <v>262300</v>
       </c>
       <c r="H81" s="3">
-        <v>91700</v>
+        <v>161500</v>
       </c>
       <c r="I81" s="3">
-        <v>67400</v>
+        <v>92000</v>
       </c>
       <c r="J81" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K81" s="3">
         <v>51400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269500</v>
+        <v>295600</v>
       </c>
       <c r="E83" s="3">
-        <v>240600</v>
+        <v>270400</v>
       </c>
       <c r="F83" s="3">
-        <v>230000</v>
+        <v>241400</v>
       </c>
       <c r="G83" s="3">
-        <v>214100</v>
+        <v>230700</v>
       </c>
       <c r="H83" s="3">
-        <v>212800</v>
+        <v>214800</v>
       </c>
       <c r="I83" s="3">
-        <v>206200</v>
+        <v>213500</v>
       </c>
       <c r="J83" s="3">
+        <v>206800</v>
+      </c>
+      <c r="K83" s="3">
         <v>257500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>321300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>354500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>388700</v>
+        <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>427600</v>
+        <v>390000</v>
       </c>
       <c r="F89" s="3">
-        <v>355700</v>
+        <v>429000</v>
       </c>
       <c r="G89" s="3">
-        <v>380500</v>
+        <v>356900</v>
       </c>
       <c r="H89" s="3">
-        <v>390100</v>
+        <v>381800</v>
       </c>
       <c r="I89" s="3">
-        <v>382600</v>
+        <v>391400</v>
       </c>
       <c r="J89" s="3">
+        <v>383900</v>
+      </c>
+      <c r="K89" s="3">
         <v>42400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>278200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433400</v>
+        <v>-306800</v>
       </c>
       <c r="E91" s="3">
-        <v>-394400</v>
+        <v>-434800</v>
       </c>
       <c r="F91" s="3">
-        <v>-314600</v>
+        <v>-395700</v>
       </c>
       <c r="G91" s="3">
-        <v>-260500</v>
+        <v>-315700</v>
       </c>
       <c r="H91" s="3">
-        <v>-234900</v>
+        <v>-261400</v>
       </c>
       <c r="I91" s="3">
-        <v>-253500</v>
+        <v>-235700</v>
       </c>
       <c r="J91" s="3">
+        <v>-254300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-360600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-415900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-277000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-303400</v>
+        <v>-17500</v>
       </c>
       <c r="E94" s="3">
-        <v>-284300</v>
+        <v>-304400</v>
       </c>
       <c r="F94" s="3">
-        <v>-314400</v>
+        <v>-285300</v>
       </c>
       <c r="G94" s="3">
-        <v>-333100</v>
+        <v>-315400</v>
       </c>
       <c r="H94" s="3">
-        <v>17800</v>
+        <v>-334200</v>
       </c>
       <c r="I94" s="3">
-        <v>-215600</v>
+        <v>17900</v>
       </c>
       <c r="J94" s="3">
+        <v>-216300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-369100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-408500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-183100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,25 +3524,26 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54900</v>
+        <v>-55100</v>
       </c>
       <c r="E96" s="3">
-        <v>-51700</v>
+        <v>-55100</v>
       </c>
       <c r="F96" s="3">
-        <v>-35600</v>
+        <v>-51900</v>
       </c>
       <c r="G96" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-25900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-19300</v>
       </c>
       <c r="I96" s="3">
         <v>-19400</v>
@@ -3319,14 +3552,17 @@
         <v>-19400</v>
       </c>
       <c r="K96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>322900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-177800</v>
-      </c>
       <c r="F100" s="3">
-        <v>-17800</v>
+        <v>-178400</v>
       </c>
       <c r="G100" s="3">
-        <v>-95100</v>
+        <v>-17900</v>
       </c>
       <c r="H100" s="3">
-        <v>-191800</v>
+        <v>-95400</v>
       </c>
       <c r="I100" s="3">
-        <v>-142300</v>
+        <v>-192500</v>
       </c>
       <c r="J100" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="K100" s="3">
         <v>274000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-103600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-206500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7800</v>
       </c>
-      <c r="F101" s="3">
-        <v>9500</v>
-      </c>
       <c r="G101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-13000</v>
-      </c>
       <c r="I101" s="3">
-        <v>13400</v>
+        <v>-13100</v>
       </c>
       <c r="J101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75300</v>
+        <v>295300</v>
       </c>
       <c r="E102" s="3">
-        <v>-26700</v>
+        <v>75500</v>
       </c>
       <c r="F102" s="3">
-        <v>33100</v>
+        <v>-26800</v>
       </c>
       <c r="G102" s="3">
-        <v>-50500</v>
+        <v>33200</v>
       </c>
       <c r="H102" s="3">
-        <v>203100</v>
+        <v>-50600</v>
       </c>
       <c r="I102" s="3">
-        <v>38200</v>
+        <v>203800</v>
       </c>
       <c r="J102" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-47200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-118500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7458600</v>
+        <v>7393700</v>
       </c>
       <c r="E8" s="3">
-        <v>8403700</v>
+        <v>8330500</v>
       </c>
       <c r="F8" s="3">
-        <v>9112700</v>
+        <v>9033400</v>
       </c>
       <c r="G8" s="3">
-        <v>8889800</v>
+        <v>8812400</v>
       </c>
       <c r="H8" s="3">
-        <v>7750300</v>
+        <v>7682900</v>
       </c>
       <c r="I8" s="3">
-        <v>8040100</v>
+        <v>7970100</v>
       </c>
       <c r="J8" s="3">
-        <v>7975200</v>
+        <v>7905800</v>
       </c>
       <c r="K8" s="3">
         <v>8535100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6270200</v>
+        <v>6215600</v>
       </c>
       <c r="E9" s="3">
-        <v>7023000</v>
+        <v>6961900</v>
       </c>
       <c r="F9" s="3">
-        <v>7577000</v>
+        <v>7511000</v>
       </c>
       <c r="G9" s="3">
-        <v>7365000</v>
+        <v>7300900</v>
       </c>
       <c r="H9" s="3">
-        <v>6333400</v>
+        <v>6278200</v>
       </c>
       <c r="I9" s="3">
-        <v>6744900</v>
+        <v>6686200</v>
       </c>
       <c r="J9" s="3">
-        <v>6838200</v>
+        <v>6778700</v>
       </c>
       <c r="K9" s="3">
         <v>7276800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1188400</v>
+        <v>1178000</v>
       </c>
       <c r="E10" s="3">
-        <v>1380700</v>
+        <v>1368700</v>
       </c>
       <c r="F10" s="3">
-        <v>1535700</v>
+        <v>1522400</v>
       </c>
       <c r="G10" s="3">
-        <v>1524800</v>
+        <v>1511500</v>
       </c>
       <c r="H10" s="3">
-        <v>1417000</v>
+        <v>1404600</v>
       </c>
       <c r="I10" s="3">
-        <v>1295200</v>
+        <v>1283900</v>
       </c>
       <c r="J10" s="3">
-        <v>1137000</v>
+        <v>1127100</v>
       </c>
       <c r="K10" s="3">
         <v>1258300</v>
@@ -843,17 +843,17 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>148800</v>
       </c>
       <c r="E12" s="3">
-        <v>157900</v>
+        <v>156500</v>
       </c>
       <c r="F12" s="3">
-        <v>158600</v>
+        <v>157200</v>
       </c>
       <c r="G12" s="3">
-        <v>142500</v>
+        <v>141200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>128500</v>
+        <v>127400</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>96200</v>
+        <v>95300</v>
       </c>
       <c r="E14" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="F14" s="3">
-        <v>85200</v>
+        <v>84500</v>
       </c>
       <c r="G14" s="3">
-        <v>136400</v>
+        <v>135200</v>
       </c>
       <c r="H14" s="3">
-        <v>124300</v>
+        <v>123200</v>
       </c>
       <c r="I14" s="3">
-        <v>164400</v>
+        <v>163000</v>
       </c>
       <c r="J14" s="3">
-        <v>88600</v>
+        <v>87800</v>
       </c>
       <c r="K14" s="3">
         <v>115400</v>
@@ -951,17 +951,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>39200</v>
       </c>
       <c r="E15" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="F15" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="G15" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7477300</v>
+        <v>7412200</v>
       </c>
       <c r="E17" s="3">
-        <v>8229100</v>
+        <v>8157400</v>
       </c>
       <c r="F17" s="3">
-        <v>8822600</v>
+        <v>8745800</v>
       </c>
       <c r="G17" s="3">
-        <v>8614400</v>
+        <v>8539400</v>
       </c>
       <c r="H17" s="3">
-        <v>7519700</v>
+        <v>7454300</v>
       </c>
       <c r="I17" s="3">
-        <v>7955300</v>
+        <v>7886100</v>
       </c>
       <c r="J17" s="3">
-        <v>7899500</v>
+        <v>7830800</v>
       </c>
       <c r="K17" s="3">
         <v>8417300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="E18" s="3">
-        <v>174600</v>
+        <v>173100</v>
       </c>
       <c r="F18" s="3">
-        <v>290100</v>
+        <v>287600</v>
       </c>
       <c r="G18" s="3">
-        <v>275400</v>
+        <v>273000</v>
       </c>
       <c r="H18" s="3">
-        <v>230600</v>
+        <v>228600</v>
       </c>
       <c r="I18" s="3">
-        <v>84800</v>
+        <v>84100</v>
       </c>
       <c r="J18" s="3">
-        <v>75700</v>
+        <v>75000</v>
       </c>
       <c r="K18" s="3">
         <v>117800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>247600</v>
+        <v>245400</v>
       </c>
       <c r="E20" s="3">
-        <v>147700</v>
+        <v>146400</v>
       </c>
       <c r="F20" s="3">
-        <v>75900</v>
+        <v>75300</v>
       </c>
       <c r="G20" s="3">
-        <v>133000</v>
+        <v>131900</v>
       </c>
       <c r="H20" s="3">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="I20" s="3">
-        <v>145800</v>
+        <v>144500</v>
       </c>
       <c r="J20" s="3">
-        <v>109600</v>
+        <v>108600</v>
       </c>
       <c r="K20" s="3">
         <v>82400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>524700</v>
+        <v>519900</v>
       </c>
       <c r="E21" s="3">
-        <v>593000</v>
+        <v>587600</v>
       </c>
       <c r="F21" s="3">
-        <v>607700</v>
+        <v>602200</v>
       </c>
       <c r="G21" s="3">
-        <v>639400</v>
+        <v>633600</v>
       </c>
       <c r="H21" s="3">
-        <v>504000</v>
+        <v>499400</v>
       </c>
       <c r="I21" s="3">
-        <v>444400</v>
+        <v>440300</v>
       </c>
       <c r="J21" s="3">
-        <v>392400</v>
+        <v>388700</v>
       </c>
       <c r="K21" s="3">
         <v>458800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="E22" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="F22" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="G22" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="H22" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="I22" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="J22" s="3">
-        <v>36700</v>
+        <v>36400</v>
       </c>
       <c r="K22" s="3">
         <v>41700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195900</v>
+        <v>194200</v>
       </c>
       <c r="E23" s="3">
-        <v>282600</v>
+        <v>280100</v>
       </c>
       <c r="F23" s="3">
-        <v>328600</v>
+        <v>325700</v>
       </c>
       <c r="G23" s="3">
-        <v>371900</v>
+        <v>368600</v>
       </c>
       <c r="H23" s="3">
-        <v>257000</v>
+        <v>254800</v>
       </c>
       <c r="I23" s="3">
-        <v>196500</v>
+        <v>194800</v>
       </c>
       <c r="J23" s="3">
-        <v>148600</v>
+        <v>147300</v>
       </c>
       <c r="K23" s="3">
         <v>158500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84700</v>
+        <v>84000</v>
       </c>
       <c r="E24" s="3">
-        <v>108000</v>
+        <v>107100</v>
       </c>
       <c r="F24" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="G24" s="3">
-        <v>74900</v>
+        <v>74300</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="I24" s="3">
-        <v>73000</v>
+        <v>72300</v>
       </c>
       <c r="J24" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="K24" s="3">
         <v>82800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>111200</v>
+        <v>110200</v>
       </c>
       <c r="E26" s="3">
-        <v>174600</v>
+        <v>173100</v>
       </c>
       <c r="F26" s="3">
-        <v>298200</v>
+        <v>295600</v>
       </c>
       <c r="G26" s="3">
-        <v>297000</v>
+        <v>294400</v>
       </c>
       <c r="H26" s="3">
-        <v>206100</v>
+        <v>204300</v>
       </c>
       <c r="I26" s="3">
-        <v>123500</v>
+        <v>122400</v>
       </c>
       <c r="J26" s="3">
-        <v>87100</v>
+        <v>86300</v>
       </c>
       <c r="K26" s="3">
         <v>75700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="E27" s="3">
-        <v>162100</v>
+        <v>160700</v>
       </c>
       <c r="F27" s="3">
-        <v>267500</v>
+        <v>265200</v>
       </c>
       <c r="G27" s="3">
-        <v>262300</v>
+        <v>260100</v>
       </c>
       <c r="H27" s="3">
-        <v>161500</v>
+        <v>160100</v>
       </c>
       <c r="I27" s="3">
-        <v>92000</v>
+        <v>91200</v>
       </c>
       <c r="J27" s="3">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="K27" s="3">
         <v>51400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-247600</v>
+        <v>-245400</v>
       </c>
       <c r="E32" s="3">
-        <v>-147700</v>
+        <v>-146400</v>
       </c>
       <c r="F32" s="3">
-        <v>-75900</v>
+        <v>-75300</v>
       </c>
       <c r="G32" s="3">
-        <v>-133000</v>
+        <v>-131900</v>
       </c>
       <c r="H32" s="3">
-        <v>-58400</v>
+        <v>-57900</v>
       </c>
       <c r="I32" s="3">
-        <v>-145800</v>
+        <v>-144500</v>
       </c>
       <c r="J32" s="3">
-        <v>-109600</v>
+        <v>-108600</v>
       </c>
       <c r="K32" s="3">
         <v>-82400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="E33" s="3">
-        <v>162100</v>
+        <v>160700</v>
       </c>
       <c r="F33" s="3">
-        <v>267500</v>
+        <v>265200</v>
       </c>
       <c r="G33" s="3">
-        <v>262300</v>
+        <v>260100</v>
       </c>
       <c r="H33" s="3">
-        <v>161500</v>
+        <v>160100</v>
       </c>
       <c r="I33" s="3">
-        <v>92000</v>
+        <v>91200</v>
       </c>
       <c r="J33" s="3">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="K33" s="3">
         <v>51400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="E35" s="3">
-        <v>162100</v>
+        <v>160700</v>
       </c>
       <c r="F35" s="3">
-        <v>267500</v>
+        <v>265200</v>
       </c>
       <c r="G35" s="3">
-        <v>262300</v>
+        <v>260100</v>
       </c>
       <c r="H35" s="3">
-        <v>161500</v>
+        <v>160100</v>
       </c>
       <c r="I35" s="3">
-        <v>92000</v>
+        <v>91200</v>
       </c>
       <c r="J35" s="3">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="K35" s="3">
         <v>51400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>775300</v>
+        <v>768500</v>
       </c>
       <c r="E41" s="3">
-        <v>499500</v>
+        <v>495200</v>
       </c>
       <c r="F41" s="3">
-        <v>410100</v>
+        <v>406600</v>
       </c>
       <c r="G41" s="3">
-        <v>465300</v>
+        <v>461300</v>
       </c>
       <c r="H41" s="3">
-        <v>433400</v>
+        <v>429700</v>
       </c>
       <c r="I41" s="3">
-        <v>482500</v>
+        <v>478300</v>
       </c>
       <c r="J41" s="3">
-        <v>275800</v>
+        <v>273400</v>
       </c>
       <c r="K41" s="3">
         <v>244700</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="E42" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F42" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1755600</v>
+        <v>1740300</v>
       </c>
       <c r="E43" s="3">
-        <v>1757700</v>
+        <v>1742400</v>
       </c>
       <c r="F43" s="3">
-        <v>2005800</v>
+        <v>1988300</v>
       </c>
       <c r="G43" s="3">
-        <v>2050500</v>
+        <v>2032600</v>
       </c>
       <c r="H43" s="3">
-        <v>1816200</v>
+        <v>1800400</v>
       </c>
       <c r="I43" s="3">
-        <v>1705800</v>
+        <v>1691000</v>
       </c>
       <c r="J43" s="3">
-        <v>1737600</v>
+        <v>1722400</v>
       </c>
       <c r="K43" s="3">
         <v>1812600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1110500</v>
+        <v>1100800</v>
       </c>
       <c r="E44" s="3">
-        <v>1064800</v>
+        <v>1055500</v>
       </c>
       <c r="F44" s="3">
-        <v>1129300</v>
+        <v>1119500</v>
       </c>
       <c r="G44" s="3">
-        <v>1045700</v>
+        <v>1036600</v>
       </c>
       <c r="H44" s="3">
-        <v>959000</v>
+        <v>950700</v>
       </c>
       <c r="I44" s="3">
-        <v>856200</v>
+        <v>848700</v>
       </c>
       <c r="J44" s="3">
-        <v>913900</v>
+        <v>905900</v>
       </c>
       <c r="K44" s="3">
         <v>858000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>281700</v>
+        <v>279300</v>
       </c>
       <c r="E45" s="3">
-        <v>218700</v>
+        <v>216800</v>
       </c>
       <c r="F45" s="3">
-        <v>297500</v>
+        <v>294900</v>
       </c>
       <c r="G45" s="3">
-        <v>354500</v>
+        <v>351400</v>
       </c>
       <c r="H45" s="3">
-        <v>305000</v>
+        <v>302400</v>
       </c>
       <c r="I45" s="3">
-        <v>300800</v>
+        <v>298200</v>
       </c>
       <c r="J45" s="3">
-        <v>462000</v>
+        <v>458000</v>
       </c>
       <c r="K45" s="3">
         <v>382100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3950000</v>
+        <v>3915600</v>
       </c>
       <c r="E46" s="3">
-        <v>3549000</v>
+        <v>3518100</v>
       </c>
       <c r="F46" s="3">
-        <v>3864500</v>
+        <v>3830900</v>
       </c>
       <c r="G46" s="3">
-        <v>3824800</v>
+        <v>3791500</v>
       </c>
       <c r="H46" s="3">
-        <v>3514200</v>
+        <v>3483600</v>
       </c>
       <c r="I46" s="3">
-        <v>3345400</v>
+        <v>3316300</v>
       </c>
       <c r="J46" s="3">
-        <v>3389400</v>
+        <v>3359900</v>
       </c>
       <c r="K46" s="3">
         <v>3297700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1007600</v>
+        <v>998800</v>
       </c>
       <c r="E47" s="3">
-        <v>977200</v>
+        <v>968700</v>
       </c>
       <c r="F47" s="3">
-        <v>1141500</v>
+        <v>1131600</v>
       </c>
       <c r="G47" s="3">
-        <v>1260200</v>
+        <v>1249200</v>
       </c>
       <c r="H47" s="3">
-        <v>1204400</v>
+        <v>1193900</v>
       </c>
       <c r="I47" s="3">
-        <v>1041000</v>
+        <v>1031900</v>
       </c>
       <c r="J47" s="3">
-        <v>1266900</v>
+        <v>1255900</v>
       </c>
       <c r="K47" s="3">
         <v>1246200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2267600</v>
+        <v>2247800</v>
       </c>
       <c r="E48" s="3">
-        <v>2336300</v>
+        <v>2315900</v>
       </c>
       <c r="F48" s="3">
-        <v>2107800</v>
+        <v>2089500</v>
       </c>
       <c r="G48" s="3">
-        <v>2215000</v>
+        <v>2195700</v>
       </c>
       <c r="H48" s="3">
-        <v>1888500</v>
+        <v>1872000</v>
       </c>
       <c r="I48" s="3">
-        <v>1806200</v>
+        <v>1790500</v>
       </c>
       <c r="J48" s="3">
-        <v>1830800</v>
+        <v>1814900</v>
       </c>
       <c r="K48" s="3">
         <v>1750200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>186100</v>
+        <v>184500</v>
       </c>
       <c r="E49" s="3">
-        <v>147900</v>
+        <v>146600</v>
       </c>
       <c r="F49" s="3">
-        <v>112200</v>
+        <v>111200</v>
       </c>
       <c r="G49" s="3">
-        <v>103900</v>
+        <v>103000</v>
       </c>
       <c r="H49" s="3">
-        <v>89500</v>
+        <v>88700</v>
       </c>
       <c r="I49" s="3">
-        <v>78300</v>
+        <v>77600</v>
       </c>
       <c r="J49" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="K49" s="3">
         <v>87900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235300</v>
+        <v>233200</v>
       </c>
       <c r="E52" s="3">
-        <v>292100</v>
+        <v>289600</v>
       </c>
       <c r="F52" s="3">
-        <v>291600</v>
+        <v>289100</v>
       </c>
       <c r="G52" s="3">
-        <v>306500</v>
+        <v>303800</v>
       </c>
       <c r="H52" s="3">
-        <v>197100</v>
+        <v>195400</v>
       </c>
       <c r="I52" s="3">
-        <v>214700</v>
+        <v>212900</v>
       </c>
       <c r="J52" s="3">
-        <v>176500</v>
+        <v>175000</v>
       </c>
       <c r="K52" s="3">
         <v>166000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7646500</v>
+        <v>7579900</v>
       </c>
       <c r="E54" s="3">
-        <v>7302500</v>
+        <v>7239000</v>
       </c>
       <c r="F54" s="3">
-        <v>7517600</v>
+        <v>7452200</v>
       </c>
       <c r="G54" s="3">
-        <v>7431300</v>
+        <v>7366600</v>
       </c>
       <c r="H54" s="3">
-        <v>6893700</v>
+        <v>6833600</v>
       </c>
       <c r="I54" s="3">
-        <v>6485600</v>
+        <v>6429200</v>
       </c>
       <c r="J54" s="3">
-        <v>6746600</v>
+        <v>6687900</v>
       </c>
       <c r="K54" s="3">
         <v>6548000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1061500</v>
+        <v>1052200</v>
       </c>
       <c r="E57" s="3">
-        <v>1025500</v>
+        <v>1016500</v>
       </c>
       <c r="F57" s="3">
-        <v>1207800</v>
+        <v>1197300</v>
       </c>
       <c r="G57" s="3">
-        <v>1143100</v>
+        <v>1133200</v>
       </c>
       <c r="H57" s="3">
-        <v>993300</v>
+        <v>984700</v>
       </c>
       <c r="I57" s="3">
-        <v>922700</v>
+        <v>914600</v>
       </c>
       <c r="J57" s="3">
-        <v>1014600</v>
+        <v>1005800</v>
       </c>
       <c r="K57" s="3">
         <v>956100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1227100</v>
+        <v>1230200</v>
       </c>
       <c r="E58" s="3">
-        <v>1167800</v>
+        <v>1157700</v>
       </c>
       <c r="F58" s="3">
-        <v>980700</v>
+        <v>972100</v>
       </c>
       <c r="G58" s="3">
-        <v>1068600</v>
+        <v>1059300</v>
       </c>
       <c r="H58" s="3">
-        <v>921800</v>
+        <v>913800</v>
       </c>
       <c r="I58" s="3">
-        <v>1137800</v>
+        <v>1127900</v>
       </c>
       <c r="J58" s="3">
-        <v>981000</v>
+        <v>972500</v>
       </c>
       <c r="K58" s="3">
         <v>1099300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>608200</v>
+        <v>589100</v>
       </c>
       <c r="E59" s="3">
-        <v>744300</v>
+        <v>737800</v>
       </c>
       <c r="F59" s="3">
-        <v>859200</v>
+        <v>851700</v>
       </c>
       <c r="G59" s="3">
-        <v>824100</v>
+        <v>816900</v>
       </c>
       <c r="H59" s="3">
-        <v>780800</v>
+        <v>774000</v>
       </c>
       <c r="I59" s="3">
-        <v>690500</v>
+        <v>684500</v>
       </c>
       <c r="J59" s="3">
-        <v>643300</v>
+        <v>637700</v>
       </c>
       <c r="K59" s="3">
         <v>636400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2896700</v>
+        <v>2871500</v>
       </c>
       <c r="E60" s="3">
-        <v>2937600</v>
+        <v>2912000</v>
       </c>
       <c r="F60" s="3">
-        <v>3047600</v>
+        <v>3021100</v>
       </c>
       <c r="G60" s="3">
-        <v>3035800</v>
+        <v>3009400</v>
       </c>
       <c r="H60" s="3">
-        <v>2696000</v>
+        <v>2672500</v>
       </c>
       <c r="I60" s="3">
-        <v>2750900</v>
+        <v>2727000</v>
       </c>
       <c r="J60" s="3">
-        <v>2638900</v>
+        <v>2615900</v>
       </c>
       <c r="K60" s="3">
         <v>2691800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1443700</v>
+        <v>1486600</v>
       </c>
       <c r="E61" s="3">
-        <v>1213400</v>
+        <v>1202800</v>
       </c>
       <c r="F61" s="3">
-        <v>1280100</v>
+        <v>1269000</v>
       </c>
       <c r="G61" s="3">
-        <v>1307100</v>
+        <v>1295700</v>
       </c>
       <c r="H61" s="3">
-        <v>1399000</v>
+        <v>1386900</v>
       </c>
       <c r="I61" s="3">
-        <v>1257200</v>
+        <v>1246300</v>
       </c>
       <c r="J61" s="3">
-        <v>1541900</v>
+        <v>1528500</v>
       </c>
       <c r="K61" s="3">
         <v>1445800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>626100</v>
+        <v>565200</v>
       </c>
       <c r="E62" s="3">
-        <v>642400</v>
+        <v>636800</v>
       </c>
       <c r="F62" s="3">
-        <v>617500</v>
+        <v>612100</v>
       </c>
       <c r="G62" s="3">
-        <v>675600</v>
+        <v>669700</v>
       </c>
       <c r="H62" s="3">
-        <v>620100</v>
+        <v>614700</v>
       </c>
       <c r="I62" s="3">
-        <v>652400</v>
+        <v>646800</v>
       </c>
       <c r="J62" s="3">
-        <v>592300</v>
+        <v>587100</v>
       </c>
       <c r="K62" s="3">
         <v>580800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5258300</v>
+        <v>5212500</v>
       </c>
       <c r="E66" s="3">
-        <v>5094300</v>
+        <v>5050000</v>
       </c>
       <c r="F66" s="3">
-        <v>5241600</v>
+        <v>5196000</v>
       </c>
       <c r="G66" s="3">
-        <v>5257700</v>
+        <v>5211900</v>
       </c>
       <c r="H66" s="3">
-        <v>4994000</v>
+        <v>4950500</v>
       </c>
       <c r="I66" s="3">
-        <v>4894200</v>
+        <v>4851600</v>
       </c>
       <c r="J66" s="3">
-        <v>4993700</v>
+        <v>4950200</v>
       </c>
       <c r="K66" s="3">
         <v>4924500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1548900</v>
+        <v>1535400</v>
       </c>
       <c r="E72" s="3">
-        <v>1517300</v>
+        <v>1504100</v>
       </c>
       <c r="F72" s="3">
-        <v>1394500</v>
+        <v>1382400</v>
       </c>
       <c r="G72" s="3">
-        <v>1177500</v>
+        <v>1167300</v>
       </c>
       <c r="H72" s="3">
-        <v>955200</v>
+        <v>946900</v>
       </c>
       <c r="I72" s="3">
-        <v>830000</v>
+        <v>822800</v>
       </c>
       <c r="J72" s="3">
-        <v>765200</v>
+        <v>758500</v>
       </c>
       <c r="K72" s="3">
         <v>725600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2388200</v>
+        <v>2367400</v>
       </c>
       <c r="E76" s="3">
-        <v>2208200</v>
+        <v>2189000</v>
       </c>
       <c r="F76" s="3">
-        <v>2276000</v>
+        <v>2256200</v>
       </c>
       <c r="G76" s="3">
-        <v>2173600</v>
+        <v>2154700</v>
       </c>
       <c r="H76" s="3">
-        <v>1899700</v>
+        <v>1883200</v>
       </c>
       <c r="I76" s="3">
-        <v>1591400</v>
+        <v>1577500</v>
       </c>
       <c r="J76" s="3">
-        <v>1752900</v>
+        <v>1737700</v>
       </c>
       <c r="K76" s="3">
         <v>1623500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="E81" s="3">
-        <v>162100</v>
+        <v>160700</v>
       </c>
       <c r="F81" s="3">
-        <v>267500</v>
+        <v>265200</v>
       </c>
       <c r="G81" s="3">
-        <v>262300</v>
+        <v>260100</v>
       </c>
       <c r="H81" s="3">
-        <v>161500</v>
+        <v>160100</v>
       </c>
       <c r="I81" s="3">
-        <v>92000</v>
+        <v>91200</v>
       </c>
       <c r="J81" s="3">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="K81" s="3">
         <v>51400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295600</v>
+        <v>293000</v>
       </c>
       <c r="E83" s="3">
-        <v>270400</v>
+        <v>268000</v>
       </c>
       <c r="F83" s="3">
-        <v>241400</v>
+        <v>239300</v>
       </c>
       <c r="G83" s="3">
-        <v>230700</v>
+        <v>228700</v>
       </c>
       <c r="H83" s="3">
-        <v>214800</v>
+        <v>212900</v>
       </c>
       <c r="I83" s="3">
-        <v>213500</v>
+        <v>211700</v>
       </c>
       <c r="J83" s="3">
-        <v>206800</v>
+        <v>205000</v>
       </c>
       <c r="K83" s="3">
         <v>257500</v>
@@ -3322,22 +3322,22 @@
         <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>390000</v>
+        <v>386600</v>
       </c>
       <c r="F89" s="3">
-        <v>429000</v>
+        <v>425300</v>
       </c>
       <c r="G89" s="3">
-        <v>356900</v>
+        <v>353800</v>
       </c>
       <c r="H89" s="3">
-        <v>381800</v>
+        <v>378400</v>
       </c>
       <c r="I89" s="3">
-        <v>391400</v>
+        <v>388000</v>
       </c>
       <c r="J89" s="3">
-        <v>383900</v>
+        <v>380500</v>
       </c>
       <c r="K89" s="3">
         <v>42400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-306800</v>
+        <v>-304100</v>
       </c>
       <c r="E91" s="3">
-        <v>-434800</v>
+        <v>-431000</v>
       </c>
       <c r="F91" s="3">
-        <v>-395700</v>
+        <v>-392200</v>
       </c>
       <c r="G91" s="3">
-        <v>-315700</v>
+        <v>-312900</v>
       </c>
       <c r="H91" s="3">
-        <v>-261400</v>
+        <v>-259100</v>
       </c>
       <c r="I91" s="3">
-        <v>-235700</v>
+        <v>-233600</v>
       </c>
       <c r="J91" s="3">
-        <v>-254300</v>
+        <v>-252100</v>
       </c>
       <c r="K91" s="3">
         <v>-360600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17500</v>
+        <v>-17400</v>
       </c>
       <c r="E94" s="3">
-        <v>-304400</v>
+        <v>-301700</v>
       </c>
       <c r="F94" s="3">
-        <v>-285300</v>
+        <v>-282800</v>
       </c>
       <c r="G94" s="3">
-        <v>-315400</v>
+        <v>-312600</v>
       </c>
       <c r="H94" s="3">
-        <v>-334200</v>
+        <v>-331200</v>
       </c>
       <c r="I94" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="J94" s="3">
-        <v>-216300</v>
+        <v>-214400</v>
       </c>
       <c r="K94" s="3">
         <v>-369100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55100</v>
+        <v>-54700</v>
       </c>
       <c r="E96" s="3">
-        <v>-55100</v>
+        <v>-54600</v>
       </c>
       <c r="F96" s="3">
-        <v>-51900</v>
+        <v>-51400</v>
       </c>
       <c r="G96" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="H96" s="3">
-        <v>-25900</v>
+        <v>-25700</v>
       </c>
       <c r="I96" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="J96" s="3">
-        <v>-19400</v>
+        <v>-19300</v>
       </c>
       <c r="K96" s="3">
         <v>-19400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>322900</v>
+        <v>320100</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
-        <v>-178400</v>
+        <v>-176900</v>
       </c>
       <c r="G100" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="H100" s="3">
-        <v>-95400</v>
+        <v>-94500</v>
       </c>
       <c r="I100" s="3">
-        <v>-192500</v>
+        <v>-190800</v>
       </c>
       <c r="J100" s="3">
-        <v>-142800</v>
+        <v>-141500</v>
       </c>
       <c r="K100" s="3">
         <v>274000</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="E101" s="3">
         <v>-8500</v>
@@ -3720,16 +3720,16 @@
         <v>7800</v>
       </c>
       <c r="G101" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H101" s="3">
         <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="J101" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>295300</v>
+        <v>292700</v>
       </c>
       <c r="E102" s="3">
-        <v>75500</v>
+        <v>74900</v>
       </c>
       <c r="F102" s="3">
-        <v>-26800</v>
+        <v>-26600</v>
       </c>
       <c r="G102" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="I102" s="3">
-        <v>203800</v>
+        <v>202000</v>
       </c>
       <c r="J102" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="K102" s="3">
         <v>-47200</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7393700</v>
+        <v>7150200</v>
       </c>
       <c r="E8" s="3">
-        <v>8330500</v>
+        <v>8056200</v>
       </c>
       <c r="F8" s="3">
-        <v>9033400</v>
+        <v>8735900</v>
       </c>
       <c r="G8" s="3">
-        <v>8812400</v>
+        <v>8522200</v>
       </c>
       <c r="H8" s="3">
-        <v>7682900</v>
+        <v>7429900</v>
       </c>
       <c r="I8" s="3">
-        <v>7970100</v>
+        <v>7707700</v>
       </c>
       <c r="J8" s="3">
-        <v>7905800</v>
+        <v>7645500</v>
       </c>
       <c r="K8" s="3">
         <v>8535100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6215600</v>
+        <v>6011000</v>
       </c>
       <c r="E9" s="3">
-        <v>6961900</v>
+        <v>6732600</v>
       </c>
       <c r="F9" s="3">
-        <v>7511000</v>
+        <v>7263700</v>
       </c>
       <c r="G9" s="3">
-        <v>7300900</v>
+        <v>7060400</v>
       </c>
       <c r="H9" s="3">
-        <v>6278200</v>
+        <v>6071500</v>
       </c>
       <c r="I9" s="3">
-        <v>6686200</v>
+        <v>6466000</v>
       </c>
       <c r="J9" s="3">
-        <v>6778700</v>
+        <v>6555500</v>
       </c>
       <c r="K9" s="3">
         <v>7276800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1178000</v>
+        <v>1139200</v>
       </c>
       <c r="E10" s="3">
-        <v>1368700</v>
+        <v>1323600</v>
       </c>
       <c r="F10" s="3">
-        <v>1522400</v>
+        <v>1472200</v>
       </c>
       <c r="G10" s="3">
-        <v>1511500</v>
+        <v>1461800</v>
       </c>
       <c r="H10" s="3">
-        <v>1404600</v>
+        <v>1358400</v>
       </c>
       <c r="I10" s="3">
-        <v>1283900</v>
+        <v>1241600</v>
       </c>
       <c r="J10" s="3">
-        <v>1127100</v>
+        <v>1090000</v>
       </c>
       <c r="K10" s="3">
         <v>1258300</v>
@@ -844,16 +844,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>148800</v>
+        <v>143900</v>
       </c>
       <c r="E12" s="3">
-        <v>156500</v>
+        <v>151300</v>
       </c>
       <c r="F12" s="3">
-        <v>157200</v>
+        <v>152000</v>
       </c>
       <c r="G12" s="3">
-        <v>141200</v>
+        <v>136600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>127400</v>
+        <v>123200</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>95300</v>
+        <v>92200</v>
       </c>
       <c r="E14" s="3">
-        <v>41600</v>
+        <v>40200</v>
       </c>
       <c r="F14" s="3">
-        <v>84500</v>
+        <v>81700</v>
       </c>
       <c r="G14" s="3">
-        <v>135200</v>
+        <v>130700</v>
       </c>
       <c r="H14" s="3">
-        <v>123200</v>
+        <v>119200</v>
       </c>
       <c r="I14" s="3">
-        <v>163000</v>
+        <v>157600</v>
       </c>
       <c r="J14" s="3">
-        <v>87800</v>
+        <v>84900</v>
       </c>
       <c r="K14" s="3">
         <v>115400</v>
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39200</v>
+        <v>37900</v>
       </c>
       <c r="E15" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="F15" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="G15" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7412200</v>
+        <v>7168100</v>
       </c>
       <c r="E17" s="3">
-        <v>8157400</v>
+        <v>7888800</v>
       </c>
       <c r="F17" s="3">
-        <v>8745800</v>
+        <v>8457800</v>
       </c>
       <c r="G17" s="3">
-        <v>8539400</v>
+        <v>8258200</v>
       </c>
       <c r="H17" s="3">
-        <v>7454300</v>
+        <v>7208800</v>
       </c>
       <c r="I17" s="3">
-        <v>7886100</v>
+        <v>7626400</v>
       </c>
       <c r="J17" s="3">
-        <v>7830800</v>
+        <v>7572900</v>
       </c>
       <c r="K17" s="3">
         <v>8417300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="E18" s="3">
-        <v>173100</v>
+        <v>167400</v>
       </c>
       <c r="F18" s="3">
-        <v>287600</v>
+        <v>278100</v>
       </c>
       <c r="G18" s="3">
-        <v>273000</v>
+        <v>264000</v>
       </c>
       <c r="H18" s="3">
-        <v>228600</v>
+        <v>221100</v>
       </c>
       <c r="I18" s="3">
-        <v>84100</v>
+        <v>81300</v>
       </c>
       <c r="J18" s="3">
-        <v>75000</v>
+        <v>72600</v>
       </c>
       <c r="K18" s="3">
         <v>117800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>245400</v>
+        <v>237300</v>
       </c>
       <c r="E20" s="3">
-        <v>146400</v>
+        <v>141600</v>
       </c>
       <c r="F20" s="3">
-        <v>75300</v>
+        <v>72800</v>
       </c>
       <c r="G20" s="3">
-        <v>131900</v>
+        <v>127500</v>
       </c>
       <c r="H20" s="3">
-        <v>57900</v>
+        <v>56000</v>
       </c>
       <c r="I20" s="3">
-        <v>144500</v>
+        <v>139800</v>
       </c>
       <c r="J20" s="3">
-        <v>108600</v>
+        <v>105100</v>
       </c>
       <c r="K20" s="3">
         <v>82400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>519900</v>
+        <v>503400</v>
       </c>
       <c r="E21" s="3">
-        <v>587600</v>
+        <v>568800</v>
       </c>
       <c r="F21" s="3">
-        <v>602200</v>
+        <v>582900</v>
       </c>
       <c r="G21" s="3">
-        <v>633600</v>
+        <v>613200</v>
       </c>
       <c r="H21" s="3">
-        <v>499400</v>
+        <v>483400</v>
       </c>
       <c r="I21" s="3">
-        <v>440300</v>
+        <v>426300</v>
       </c>
       <c r="J21" s="3">
-        <v>388700</v>
+        <v>376400</v>
       </c>
       <c r="K21" s="3">
         <v>458800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>35900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>30700</v>
+      </c>
+      <c r="I22" s="3">
         <v>32700</v>
       </c>
-      <c r="E22" s="3">
-        <v>39400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>37100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>36200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>31700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>33800</v>
-      </c>
       <c r="J22" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="K22" s="3">
         <v>41700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>194200</v>
+        <v>187800</v>
       </c>
       <c r="E23" s="3">
-        <v>280100</v>
+        <v>270900</v>
       </c>
       <c r="F23" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="G23" s="3">
-        <v>368600</v>
+        <v>356500</v>
       </c>
       <c r="H23" s="3">
-        <v>254800</v>
+        <v>246400</v>
       </c>
       <c r="I23" s="3">
-        <v>194800</v>
+        <v>188400</v>
       </c>
       <c r="J23" s="3">
-        <v>147300</v>
+        <v>142400</v>
       </c>
       <c r="K23" s="3">
         <v>158500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84000</v>
+        <v>81200</v>
       </c>
       <c r="E24" s="3">
-        <v>107100</v>
+        <v>103600</v>
       </c>
       <c r="F24" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="G24" s="3">
-        <v>74300</v>
+        <v>71800</v>
       </c>
       <c r="H24" s="3">
-        <v>50400</v>
+        <v>48800</v>
       </c>
       <c r="I24" s="3">
-        <v>72300</v>
+        <v>69900</v>
       </c>
       <c r="J24" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="K24" s="3">
         <v>82800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>110200</v>
+        <v>106600</v>
       </c>
       <c r="E26" s="3">
-        <v>173100</v>
+        <v>167400</v>
       </c>
       <c r="F26" s="3">
-        <v>295600</v>
+        <v>285900</v>
       </c>
       <c r="G26" s="3">
-        <v>294400</v>
+        <v>284700</v>
       </c>
       <c r="H26" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="I26" s="3">
-        <v>122400</v>
+        <v>118400</v>
       </c>
       <c r="J26" s="3">
-        <v>86300</v>
+        <v>83500</v>
       </c>
       <c r="K26" s="3">
         <v>75700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="E27" s="3">
-        <v>160700</v>
+        <v>155400</v>
       </c>
       <c r="F27" s="3">
-        <v>265200</v>
+        <v>256400</v>
       </c>
       <c r="G27" s="3">
-        <v>260100</v>
+        <v>251500</v>
       </c>
       <c r="H27" s="3">
-        <v>160100</v>
+        <v>154800</v>
       </c>
       <c r="I27" s="3">
-        <v>91200</v>
+        <v>88200</v>
       </c>
       <c r="J27" s="3">
-        <v>67000</v>
+        <v>64800</v>
       </c>
       <c r="K27" s="3">
         <v>51400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-245400</v>
+        <v>-237300</v>
       </c>
       <c r="E32" s="3">
-        <v>-146400</v>
+        <v>-141600</v>
       </c>
       <c r="F32" s="3">
-        <v>-75300</v>
+        <v>-72800</v>
       </c>
       <c r="G32" s="3">
-        <v>-131900</v>
+        <v>-127500</v>
       </c>
       <c r="H32" s="3">
-        <v>-57900</v>
+        <v>-56000</v>
       </c>
       <c r="I32" s="3">
-        <v>-144500</v>
+        <v>-139800</v>
       </c>
       <c r="J32" s="3">
-        <v>-108600</v>
+        <v>-105100</v>
       </c>
       <c r="K32" s="3">
         <v>-82400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="E33" s="3">
-        <v>160700</v>
+        <v>155400</v>
       </c>
       <c r="F33" s="3">
-        <v>265200</v>
+        <v>256400</v>
       </c>
       <c r="G33" s="3">
-        <v>260100</v>
+        <v>251500</v>
       </c>
       <c r="H33" s="3">
-        <v>160100</v>
+        <v>154800</v>
       </c>
       <c r="I33" s="3">
-        <v>91200</v>
+        <v>88200</v>
       </c>
       <c r="J33" s="3">
-        <v>67000</v>
+        <v>64800</v>
       </c>
       <c r="K33" s="3">
         <v>51400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="E35" s="3">
-        <v>160700</v>
+        <v>155400</v>
       </c>
       <c r="F35" s="3">
-        <v>265200</v>
+        <v>256400</v>
       </c>
       <c r="G35" s="3">
-        <v>260100</v>
+        <v>251500</v>
       </c>
       <c r="H35" s="3">
-        <v>160100</v>
+        <v>154800</v>
       </c>
       <c r="I35" s="3">
-        <v>91200</v>
+        <v>88200</v>
       </c>
       <c r="J35" s="3">
-        <v>67000</v>
+        <v>64800</v>
       </c>
       <c r="K35" s="3">
         <v>51400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>768500</v>
+        <v>743200</v>
       </c>
       <c r="E41" s="3">
-        <v>495200</v>
+        <v>478900</v>
       </c>
       <c r="F41" s="3">
-        <v>406600</v>
+        <v>393200</v>
       </c>
       <c r="G41" s="3">
-        <v>461300</v>
+        <v>446100</v>
       </c>
       <c r="H41" s="3">
-        <v>429700</v>
+        <v>415500</v>
       </c>
       <c r="I41" s="3">
-        <v>478300</v>
+        <v>462600</v>
       </c>
       <c r="J41" s="3">
-        <v>273400</v>
+        <v>264400</v>
       </c>
       <c r="K41" s="3">
         <v>244700</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="E42" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="F42" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1740300</v>
+        <v>1683000</v>
       </c>
       <c r="E43" s="3">
-        <v>1742400</v>
+        <v>1685000</v>
       </c>
       <c r="F43" s="3">
-        <v>1988300</v>
+        <v>1922800</v>
       </c>
       <c r="G43" s="3">
-        <v>2032600</v>
+        <v>1965700</v>
       </c>
       <c r="H43" s="3">
-        <v>1800400</v>
+        <v>1741100</v>
       </c>
       <c r="I43" s="3">
-        <v>1691000</v>
+        <v>1635300</v>
       </c>
       <c r="J43" s="3">
-        <v>1722400</v>
+        <v>1665700</v>
       </c>
       <c r="K43" s="3">
         <v>1812600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100800</v>
+        <v>1064600</v>
       </c>
       <c r="E44" s="3">
-        <v>1055500</v>
+        <v>1020700</v>
       </c>
       <c r="F44" s="3">
-        <v>1119500</v>
+        <v>1082700</v>
       </c>
       <c r="G44" s="3">
-        <v>1036600</v>
+        <v>1002500</v>
       </c>
       <c r="H44" s="3">
-        <v>950700</v>
+        <v>919400</v>
       </c>
       <c r="I44" s="3">
-        <v>848700</v>
+        <v>820800</v>
       </c>
       <c r="J44" s="3">
-        <v>905900</v>
+        <v>876100</v>
       </c>
       <c r="K44" s="3">
         <v>858000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279300</v>
+        <v>270100</v>
       </c>
       <c r="E45" s="3">
-        <v>216800</v>
+        <v>209700</v>
       </c>
       <c r="F45" s="3">
-        <v>294900</v>
+        <v>285200</v>
       </c>
       <c r="G45" s="3">
-        <v>351400</v>
+        <v>339900</v>
       </c>
       <c r="H45" s="3">
-        <v>302400</v>
+        <v>292400</v>
       </c>
       <c r="I45" s="3">
-        <v>298200</v>
+        <v>288300</v>
       </c>
       <c r="J45" s="3">
-        <v>458000</v>
+        <v>442900</v>
       </c>
       <c r="K45" s="3">
         <v>382100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3915600</v>
+        <v>3786600</v>
       </c>
       <c r="E46" s="3">
-        <v>3518100</v>
+        <v>3402200</v>
       </c>
       <c r="F46" s="3">
-        <v>3830900</v>
+        <v>3704700</v>
       </c>
       <c r="G46" s="3">
-        <v>3791500</v>
+        <v>3666600</v>
       </c>
       <c r="H46" s="3">
-        <v>3483600</v>
+        <v>3368900</v>
       </c>
       <c r="I46" s="3">
-        <v>3316300</v>
+        <v>3207100</v>
       </c>
       <c r="J46" s="3">
-        <v>3359900</v>
+        <v>3249300</v>
       </c>
       <c r="K46" s="3">
         <v>3297700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>998800</v>
+        <v>965900</v>
       </c>
       <c r="E47" s="3">
-        <v>968700</v>
+        <v>936800</v>
       </c>
       <c r="F47" s="3">
-        <v>1131600</v>
+        <v>1094300</v>
       </c>
       <c r="G47" s="3">
-        <v>1249200</v>
+        <v>1208100</v>
       </c>
       <c r="H47" s="3">
-        <v>1193900</v>
+        <v>1154600</v>
       </c>
       <c r="I47" s="3">
-        <v>1031900</v>
+        <v>997900</v>
       </c>
       <c r="J47" s="3">
-        <v>1255900</v>
+        <v>1214500</v>
       </c>
       <c r="K47" s="3">
         <v>1246200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2247800</v>
+        <v>2173800</v>
       </c>
       <c r="E48" s="3">
-        <v>2315900</v>
+        <v>2239700</v>
       </c>
       <c r="F48" s="3">
-        <v>2089500</v>
+        <v>2020700</v>
       </c>
       <c r="G48" s="3">
-        <v>2195700</v>
+        <v>2123400</v>
       </c>
       <c r="H48" s="3">
-        <v>1872000</v>
+        <v>1810400</v>
       </c>
       <c r="I48" s="3">
-        <v>1790500</v>
+        <v>1731600</v>
       </c>
       <c r="J48" s="3">
-        <v>1814900</v>
+        <v>1755100</v>
       </c>
       <c r="K48" s="3">
         <v>1750200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>184500</v>
+        <v>178400</v>
       </c>
       <c r="E49" s="3">
-        <v>146600</v>
+        <v>141800</v>
       </c>
       <c r="F49" s="3">
-        <v>111200</v>
+        <v>107500</v>
       </c>
       <c r="G49" s="3">
-        <v>103000</v>
+        <v>99600</v>
       </c>
       <c r="H49" s="3">
-        <v>88700</v>
+        <v>85800</v>
       </c>
       <c r="I49" s="3">
-        <v>77600</v>
+        <v>75000</v>
       </c>
       <c r="J49" s="3">
-        <v>82200</v>
+        <v>79500</v>
       </c>
       <c r="K49" s="3">
         <v>87900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>233200</v>
+        <v>225500</v>
       </c>
       <c r="E52" s="3">
-        <v>289600</v>
+        <v>280100</v>
       </c>
       <c r="F52" s="3">
-        <v>289100</v>
+        <v>279500</v>
       </c>
       <c r="G52" s="3">
-        <v>303800</v>
+        <v>293800</v>
       </c>
       <c r="H52" s="3">
-        <v>195400</v>
+        <v>188900</v>
       </c>
       <c r="I52" s="3">
-        <v>212900</v>
+        <v>205800</v>
       </c>
       <c r="J52" s="3">
-        <v>175000</v>
+        <v>169200</v>
       </c>
       <c r="K52" s="3">
         <v>166000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7579900</v>
+        <v>7330300</v>
       </c>
       <c r="E54" s="3">
-        <v>7239000</v>
+        <v>7000600</v>
       </c>
       <c r="F54" s="3">
-        <v>7452200</v>
+        <v>7206800</v>
       </c>
       <c r="G54" s="3">
-        <v>7366600</v>
+        <v>7124000</v>
       </c>
       <c r="H54" s="3">
-        <v>6833600</v>
+        <v>6608600</v>
       </c>
       <c r="I54" s="3">
-        <v>6429200</v>
+        <v>6217400</v>
       </c>
       <c r="J54" s="3">
-        <v>6687900</v>
+        <v>6467600</v>
       </c>
       <c r="K54" s="3">
         <v>6548000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1052200</v>
+        <v>1017600</v>
       </c>
       <c r="E57" s="3">
-        <v>1016500</v>
+        <v>983100</v>
       </c>
       <c r="F57" s="3">
-        <v>1197300</v>
+        <v>1157800</v>
       </c>
       <c r="G57" s="3">
-        <v>1133200</v>
+        <v>1095800</v>
       </c>
       <c r="H57" s="3">
-        <v>984700</v>
+        <v>952200</v>
       </c>
       <c r="I57" s="3">
-        <v>914600</v>
+        <v>884500</v>
       </c>
       <c r="J57" s="3">
-        <v>1005800</v>
+        <v>972700</v>
       </c>
       <c r="K57" s="3">
         <v>956100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1230200</v>
+        <v>1189700</v>
       </c>
       <c r="E58" s="3">
-        <v>1157700</v>
+        <v>1119500</v>
       </c>
       <c r="F58" s="3">
-        <v>972100</v>
+        <v>940100</v>
       </c>
       <c r="G58" s="3">
-        <v>1059300</v>
+        <v>1024400</v>
       </c>
       <c r="H58" s="3">
-        <v>913800</v>
+        <v>883700</v>
       </c>
       <c r="I58" s="3">
-        <v>1127900</v>
+        <v>1090800</v>
       </c>
       <c r="J58" s="3">
-        <v>972500</v>
+        <v>940500</v>
       </c>
       <c r="K58" s="3">
         <v>1099300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>589100</v>
+        <v>569700</v>
       </c>
       <c r="E59" s="3">
-        <v>737800</v>
+        <v>713500</v>
       </c>
       <c r="F59" s="3">
-        <v>851700</v>
+        <v>823600</v>
       </c>
       <c r="G59" s="3">
-        <v>816900</v>
+        <v>790000</v>
       </c>
       <c r="H59" s="3">
-        <v>774000</v>
+        <v>748600</v>
       </c>
       <c r="I59" s="3">
-        <v>684500</v>
+        <v>661900</v>
       </c>
       <c r="J59" s="3">
-        <v>637700</v>
+        <v>616700</v>
       </c>
       <c r="K59" s="3">
         <v>636400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2871500</v>
+        <v>2776900</v>
       </c>
       <c r="E60" s="3">
-        <v>2912000</v>
+        <v>2816100</v>
       </c>
       <c r="F60" s="3">
-        <v>3021100</v>
+        <v>2921600</v>
       </c>
       <c r="G60" s="3">
-        <v>3009400</v>
+        <v>2910300</v>
       </c>
       <c r="H60" s="3">
-        <v>2672500</v>
+        <v>2584500</v>
       </c>
       <c r="I60" s="3">
-        <v>2727000</v>
+        <v>2637200</v>
       </c>
       <c r="J60" s="3">
-        <v>2615900</v>
+        <v>2529800</v>
       </c>
       <c r="K60" s="3">
         <v>2691800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1486600</v>
+        <v>1437700</v>
       </c>
       <c r="E61" s="3">
-        <v>1202800</v>
+        <v>1163200</v>
       </c>
       <c r="F61" s="3">
-        <v>1269000</v>
+        <v>1227200</v>
       </c>
       <c r="G61" s="3">
-        <v>1295700</v>
+        <v>1253000</v>
       </c>
       <c r="H61" s="3">
-        <v>1386900</v>
+        <v>1341200</v>
       </c>
       <c r="I61" s="3">
-        <v>1246300</v>
+        <v>1205200</v>
       </c>
       <c r="J61" s="3">
-        <v>1528500</v>
+        <v>1478200</v>
       </c>
       <c r="K61" s="3">
         <v>1445800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>565200</v>
+        <v>546500</v>
       </c>
       <c r="E62" s="3">
-        <v>636800</v>
+        <v>615900</v>
       </c>
       <c r="F62" s="3">
-        <v>612100</v>
+        <v>592000</v>
       </c>
       <c r="G62" s="3">
-        <v>669700</v>
+        <v>647700</v>
       </c>
       <c r="H62" s="3">
-        <v>614700</v>
+        <v>594500</v>
       </c>
       <c r="I62" s="3">
-        <v>646800</v>
+        <v>625500</v>
       </c>
       <c r="J62" s="3">
-        <v>587100</v>
+        <v>567800</v>
       </c>
       <c r="K62" s="3">
         <v>580800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5212500</v>
+        <v>5040900</v>
       </c>
       <c r="E66" s="3">
-        <v>5050000</v>
+        <v>4883700</v>
       </c>
       <c r="F66" s="3">
-        <v>5196000</v>
+        <v>5024900</v>
       </c>
       <c r="G66" s="3">
-        <v>5211900</v>
+        <v>5040300</v>
       </c>
       <c r="H66" s="3">
-        <v>4950500</v>
+        <v>4787500</v>
       </c>
       <c r="I66" s="3">
-        <v>4851600</v>
+        <v>4691900</v>
       </c>
       <c r="J66" s="3">
-        <v>4950200</v>
+        <v>4787200</v>
       </c>
       <c r="K66" s="3">
         <v>4924500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1535400</v>
+        <v>1484900</v>
       </c>
       <c r="E72" s="3">
-        <v>1504100</v>
+        <v>1454500</v>
       </c>
       <c r="F72" s="3">
-        <v>1382400</v>
+        <v>1336900</v>
       </c>
       <c r="G72" s="3">
-        <v>1167300</v>
+        <v>1128800</v>
       </c>
       <c r="H72" s="3">
-        <v>946900</v>
+        <v>915700</v>
       </c>
       <c r="I72" s="3">
-        <v>822800</v>
+        <v>795700</v>
       </c>
       <c r="J72" s="3">
-        <v>758500</v>
+        <v>733600</v>
       </c>
       <c r="K72" s="3">
         <v>725600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2367400</v>
+        <v>2289500</v>
       </c>
       <c r="E76" s="3">
-        <v>2189000</v>
+        <v>2116900</v>
       </c>
       <c r="F76" s="3">
-        <v>2256200</v>
+        <v>2181900</v>
       </c>
       <c r="G76" s="3">
-        <v>2154700</v>
+        <v>2083700</v>
       </c>
       <c r="H76" s="3">
-        <v>1883200</v>
+        <v>1821100</v>
       </c>
       <c r="I76" s="3">
-        <v>1577500</v>
+        <v>1525600</v>
       </c>
       <c r="J76" s="3">
-        <v>1737700</v>
+        <v>1680400</v>
       </c>
       <c r="K76" s="3">
         <v>1623500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="E81" s="3">
-        <v>160700</v>
+        <v>155400</v>
       </c>
       <c r="F81" s="3">
-        <v>265200</v>
+        <v>256400</v>
       </c>
       <c r="G81" s="3">
-        <v>260100</v>
+        <v>251500</v>
       </c>
       <c r="H81" s="3">
-        <v>160100</v>
+        <v>154800</v>
       </c>
       <c r="I81" s="3">
-        <v>91200</v>
+        <v>88200</v>
       </c>
       <c r="J81" s="3">
-        <v>67000</v>
+        <v>64800</v>
       </c>
       <c r="K81" s="3">
         <v>51400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>293000</v>
+        <v>283400</v>
       </c>
       <c r="E83" s="3">
-        <v>268000</v>
+        <v>259200</v>
       </c>
       <c r="F83" s="3">
-        <v>239300</v>
+        <v>231400</v>
       </c>
       <c r="G83" s="3">
-        <v>228700</v>
+        <v>221200</v>
       </c>
       <c r="H83" s="3">
-        <v>212900</v>
+        <v>205900</v>
       </c>
       <c r="I83" s="3">
-        <v>211700</v>
+        <v>204700</v>
       </c>
       <c r="J83" s="3">
-        <v>205000</v>
+        <v>198300</v>
       </c>
       <c r="K83" s="3">
         <v>257500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="E89" s="3">
-        <v>386600</v>
+        <v>373900</v>
       </c>
       <c r="F89" s="3">
-        <v>425300</v>
+        <v>411300</v>
       </c>
       <c r="G89" s="3">
-        <v>353800</v>
+        <v>342100</v>
       </c>
       <c r="H89" s="3">
-        <v>378400</v>
+        <v>366000</v>
       </c>
       <c r="I89" s="3">
-        <v>388000</v>
+        <v>375200</v>
       </c>
       <c r="J89" s="3">
-        <v>380500</v>
+        <v>368000</v>
       </c>
       <c r="K89" s="3">
         <v>42400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304100</v>
+        <v>-294100</v>
       </c>
       <c r="E91" s="3">
-        <v>-431000</v>
+        <v>-416800</v>
       </c>
       <c r="F91" s="3">
-        <v>-392200</v>
+        <v>-379300</v>
       </c>
       <c r="G91" s="3">
-        <v>-312900</v>
+        <v>-302600</v>
       </c>
       <c r="H91" s="3">
-        <v>-259100</v>
+        <v>-250600</v>
       </c>
       <c r="I91" s="3">
-        <v>-233600</v>
+        <v>-225900</v>
       </c>
       <c r="J91" s="3">
-        <v>-252100</v>
+        <v>-243800</v>
       </c>
       <c r="K91" s="3">
         <v>-360600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17400</v>
+        <v>-16800</v>
       </c>
       <c r="E94" s="3">
-        <v>-301700</v>
+        <v>-291800</v>
       </c>
       <c r="F94" s="3">
-        <v>-282800</v>
+        <v>-273500</v>
       </c>
       <c r="G94" s="3">
-        <v>-312600</v>
+        <v>-302400</v>
       </c>
       <c r="H94" s="3">
-        <v>-331200</v>
+        <v>-320300</v>
       </c>
       <c r="I94" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="J94" s="3">
-        <v>-214400</v>
+        <v>-207300</v>
       </c>
       <c r="K94" s="3">
         <v>-369100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54700</v>
+        <v>-52900</v>
       </c>
       <c r="E96" s="3">
-        <v>-54600</v>
+        <v>-52800</v>
       </c>
       <c r="F96" s="3">
-        <v>-51400</v>
+        <v>-49800</v>
       </c>
       <c r="G96" s="3">
-        <v>-35400</v>
+        <v>-34200</v>
       </c>
       <c r="H96" s="3">
-        <v>-25700</v>
+        <v>-24900</v>
       </c>
       <c r="I96" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="J96" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="K96" s="3">
         <v>-19400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>320100</v>
+        <v>309600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-176900</v>
+        <v>-171000</v>
       </c>
       <c r="G100" s="3">
-        <v>-17700</v>
+        <v>-17100</v>
       </c>
       <c r="H100" s="3">
-        <v>-94500</v>
+        <v>-91400</v>
       </c>
       <c r="I100" s="3">
-        <v>-190800</v>
+        <v>-184500</v>
       </c>
       <c r="J100" s="3">
-        <v>-141500</v>
+        <v>-136900</v>
       </c>
       <c r="K100" s="3">
         <v>274000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13000</v>
+        <v>-12500</v>
       </c>
       <c r="J101" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>292700</v>
+        <v>283100</v>
       </c>
       <c r="E102" s="3">
-        <v>74900</v>
+        <v>72400</v>
       </c>
       <c r="F102" s="3">
-        <v>-26600</v>
+        <v>-25700</v>
       </c>
       <c r="G102" s="3">
-        <v>32900</v>
+        <v>31800</v>
       </c>
       <c r="H102" s="3">
-        <v>-50200</v>
+        <v>-48600</v>
       </c>
       <c r="I102" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="J102" s="3">
-        <v>38000</v>
+        <v>36700</v>
       </c>
       <c r="K102" s="3">
         <v>-47200</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7150200</v>
+        <v>6922900</v>
       </c>
       <c r="E8" s="3">
-        <v>8056200</v>
+        <v>7800200</v>
       </c>
       <c r="F8" s="3">
-        <v>8735900</v>
+        <v>8458300</v>
       </c>
       <c r="G8" s="3">
-        <v>8522200</v>
+        <v>8251400</v>
       </c>
       <c r="H8" s="3">
-        <v>7429900</v>
+        <v>7193700</v>
       </c>
       <c r="I8" s="3">
-        <v>7707700</v>
+        <v>7462700</v>
       </c>
       <c r="J8" s="3">
-        <v>7645500</v>
+        <v>7402500</v>
       </c>
       <c r="K8" s="3">
         <v>8535100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6011000</v>
+        <v>5819900</v>
       </c>
       <c r="E9" s="3">
-        <v>6732600</v>
+        <v>6518600</v>
       </c>
       <c r="F9" s="3">
-        <v>7263700</v>
+        <v>7032800</v>
       </c>
       <c r="G9" s="3">
-        <v>7060400</v>
+        <v>6836000</v>
       </c>
       <c r="H9" s="3">
-        <v>6071500</v>
+        <v>5878500</v>
       </c>
       <c r="I9" s="3">
-        <v>6466000</v>
+        <v>6260500</v>
       </c>
       <c r="J9" s="3">
-        <v>6555500</v>
+        <v>6347100</v>
       </c>
       <c r="K9" s="3">
         <v>7276800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1139200</v>
+        <v>1103000</v>
       </c>
       <c r="E10" s="3">
-        <v>1323600</v>
+        <v>1281500</v>
       </c>
       <c r="F10" s="3">
-        <v>1472200</v>
+        <v>1425400</v>
       </c>
       <c r="G10" s="3">
-        <v>1461800</v>
+        <v>1415300</v>
       </c>
       <c r="H10" s="3">
-        <v>1358400</v>
+        <v>1315200</v>
       </c>
       <c r="I10" s="3">
-        <v>1241600</v>
+        <v>1202200</v>
       </c>
       <c r="J10" s="3">
-        <v>1090000</v>
+        <v>1055300</v>
       </c>
       <c r="K10" s="3">
         <v>1258300</v>
@@ -844,16 +844,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>143900</v>
+        <v>139400</v>
       </c>
       <c r="E12" s="3">
-        <v>151300</v>
+        <v>146500</v>
       </c>
       <c r="F12" s="3">
-        <v>152000</v>
+        <v>147200</v>
       </c>
       <c r="G12" s="3">
-        <v>136600</v>
+        <v>132200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>123200</v>
+        <v>119300</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>92200</v>
+        <v>89300</v>
       </c>
       <c r="E14" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="F14" s="3">
-        <v>81700</v>
+        <v>79100</v>
       </c>
       <c r="G14" s="3">
-        <v>130700</v>
+        <v>126600</v>
       </c>
       <c r="H14" s="3">
-        <v>119200</v>
+        <v>115400</v>
       </c>
       <c r="I14" s="3">
-        <v>157600</v>
+        <v>152600</v>
       </c>
       <c r="J14" s="3">
-        <v>84900</v>
+        <v>82200</v>
       </c>
       <c r="K14" s="3">
         <v>115400</v>
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37900</v>
+        <v>36700</v>
       </c>
       <c r="E15" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="F15" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="G15" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7168100</v>
+        <v>6940300</v>
       </c>
       <c r="E17" s="3">
-        <v>7888800</v>
+        <v>7638100</v>
       </c>
       <c r="F17" s="3">
-        <v>8457800</v>
+        <v>8189000</v>
       </c>
       <c r="G17" s="3">
-        <v>8258200</v>
+        <v>7995700</v>
       </c>
       <c r="H17" s="3">
-        <v>7208800</v>
+        <v>6979700</v>
       </c>
       <c r="I17" s="3">
-        <v>7626400</v>
+        <v>7384000</v>
       </c>
       <c r="J17" s="3">
-        <v>7572900</v>
+        <v>7332200</v>
       </c>
       <c r="K17" s="3">
         <v>8417300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17900</v>
+        <v>-17400</v>
       </c>
       <c r="E18" s="3">
-        <v>167400</v>
+        <v>162100</v>
       </c>
       <c r="F18" s="3">
-        <v>278100</v>
+        <v>269300</v>
       </c>
       <c r="G18" s="3">
-        <v>264000</v>
+        <v>255600</v>
       </c>
       <c r="H18" s="3">
-        <v>221100</v>
+        <v>214100</v>
       </c>
       <c r="I18" s="3">
-        <v>81300</v>
+        <v>78700</v>
       </c>
       <c r="J18" s="3">
-        <v>72600</v>
+        <v>70300</v>
       </c>
       <c r="K18" s="3">
         <v>117800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>237300</v>
+        <v>229800</v>
       </c>
       <c r="E20" s="3">
-        <v>141600</v>
+        <v>137100</v>
       </c>
       <c r="F20" s="3">
-        <v>72800</v>
+        <v>70500</v>
       </c>
       <c r="G20" s="3">
-        <v>127500</v>
+        <v>123500</v>
       </c>
       <c r="H20" s="3">
-        <v>56000</v>
+        <v>54200</v>
       </c>
       <c r="I20" s="3">
-        <v>139800</v>
+        <v>135300</v>
       </c>
       <c r="J20" s="3">
-        <v>105100</v>
+        <v>101700</v>
       </c>
       <c r="K20" s="3">
         <v>82400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>503400</v>
+        <v>490000</v>
       </c>
       <c r="E21" s="3">
-        <v>568800</v>
+        <v>553100</v>
       </c>
       <c r="F21" s="3">
-        <v>582900</v>
+        <v>566500</v>
       </c>
       <c r="G21" s="3">
-        <v>613200</v>
+        <v>595800</v>
       </c>
       <c r="H21" s="3">
-        <v>483400</v>
+        <v>469900</v>
       </c>
       <c r="I21" s="3">
-        <v>426300</v>
+        <v>414600</v>
       </c>
       <c r="J21" s="3">
-        <v>376400</v>
+        <v>366200</v>
       </c>
       <c r="K21" s="3">
         <v>458800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="E22" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="F22" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="G22" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="H22" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="I22" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="J22" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="K22" s="3">
         <v>41700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187800</v>
+        <v>181800</v>
       </c>
       <c r="E23" s="3">
-        <v>270900</v>
+        <v>262300</v>
       </c>
       <c r="F23" s="3">
-        <v>315000</v>
+        <v>305000</v>
       </c>
       <c r="G23" s="3">
-        <v>356500</v>
+        <v>345200</v>
       </c>
       <c r="H23" s="3">
-        <v>246400</v>
+        <v>238500</v>
       </c>
       <c r="I23" s="3">
-        <v>188400</v>
+        <v>182400</v>
       </c>
       <c r="J23" s="3">
-        <v>142400</v>
+        <v>137900</v>
       </c>
       <c r="K23" s="3">
         <v>158500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81200</v>
+        <v>78600</v>
       </c>
       <c r="E24" s="3">
-        <v>103600</v>
+        <v>100300</v>
       </c>
       <c r="F24" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="G24" s="3">
-        <v>71800</v>
+        <v>69500</v>
       </c>
       <c r="H24" s="3">
-        <v>48800</v>
+        <v>47200</v>
       </c>
       <c r="I24" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="J24" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="K24" s="3">
         <v>82800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>106600</v>
+        <v>103200</v>
       </c>
       <c r="E26" s="3">
-        <v>167400</v>
+        <v>162000</v>
       </c>
       <c r="F26" s="3">
-        <v>285900</v>
+        <v>276800</v>
       </c>
       <c r="G26" s="3">
-        <v>284700</v>
+        <v>275600</v>
       </c>
       <c r="H26" s="3">
-        <v>197600</v>
+        <v>191300</v>
       </c>
       <c r="I26" s="3">
-        <v>118400</v>
+        <v>114700</v>
       </c>
       <c r="J26" s="3">
-        <v>83500</v>
+        <v>80800</v>
       </c>
       <c r="K26" s="3">
         <v>75700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="E27" s="3">
-        <v>155400</v>
+        <v>150500</v>
       </c>
       <c r="F27" s="3">
-        <v>256400</v>
+        <v>248300</v>
       </c>
       <c r="G27" s="3">
-        <v>251500</v>
+        <v>243500</v>
       </c>
       <c r="H27" s="3">
-        <v>154800</v>
+        <v>149900</v>
       </c>
       <c r="I27" s="3">
-        <v>88200</v>
+        <v>85400</v>
       </c>
       <c r="J27" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="K27" s="3">
         <v>51400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-237300</v>
+        <v>-229800</v>
       </c>
       <c r="E32" s="3">
-        <v>-141600</v>
+        <v>-137100</v>
       </c>
       <c r="F32" s="3">
-        <v>-72800</v>
+        <v>-70500</v>
       </c>
       <c r="G32" s="3">
-        <v>-127500</v>
+        <v>-123500</v>
       </c>
       <c r="H32" s="3">
-        <v>-56000</v>
+        <v>-54200</v>
       </c>
       <c r="I32" s="3">
-        <v>-139800</v>
+        <v>-135300</v>
       </c>
       <c r="J32" s="3">
-        <v>-105100</v>
+        <v>-101700</v>
       </c>
       <c r="K32" s="3">
         <v>-82400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="E33" s="3">
-        <v>155400</v>
+        <v>150500</v>
       </c>
       <c r="F33" s="3">
-        <v>256400</v>
+        <v>248300</v>
       </c>
       <c r="G33" s="3">
-        <v>251500</v>
+        <v>243500</v>
       </c>
       <c r="H33" s="3">
-        <v>154800</v>
+        <v>149900</v>
       </c>
       <c r="I33" s="3">
-        <v>88200</v>
+        <v>85400</v>
       </c>
       <c r="J33" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="K33" s="3">
         <v>51400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="E35" s="3">
-        <v>155400</v>
+        <v>150500</v>
       </c>
       <c r="F35" s="3">
-        <v>256400</v>
+        <v>248300</v>
       </c>
       <c r="G35" s="3">
-        <v>251500</v>
+        <v>243500</v>
       </c>
       <c r="H35" s="3">
-        <v>154800</v>
+        <v>149900</v>
       </c>
       <c r="I35" s="3">
-        <v>88200</v>
+        <v>85400</v>
       </c>
       <c r="J35" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="K35" s="3">
         <v>51400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>743200</v>
+        <v>719600</v>
       </c>
       <c r="E41" s="3">
-        <v>478900</v>
+        <v>463700</v>
       </c>
       <c r="F41" s="3">
-        <v>393200</v>
+        <v>380700</v>
       </c>
       <c r="G41" s="3">
-        <v>446100</v>
+        <v>431900</v>
       </c>
       <c r="H41" s="3">
-        <v>415500</v>
+        <v>402300</v>
       </c>
       <c r="I41" s="3">
-        <v>462600</v>
+        <v>447900</v>
       </c>
       <c r="J41" s="3">
-        <v>264400</v>
+        <v>256000</v>
       </c>
       <c r="K41" s="3">
         <v>244700</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="E42" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F42" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1683000</v>
+        <v>1629500</v>
       </c>
       <c r="E43" s="3">
-        <v>1685000</v>
+        <v>1631400</v>
       </c>
       <c r="F43" s="3">
-        <v>1922800</v>
+        <v>1861700</v>
       </c>
       <c r="G43" s="3">
-        <v>1965700</v>
+        <v>1903200</v>
       </c>
       <c r="H43" s="3">
-        <v>1741100</v>
+        <v>1685800</v>
       </c>
       <c r="I43" s="3">
-        <v>1635300</v>
+        <v>1583300</v>
       </c>
       <c r="J43" s="3">
-        <v>1665700</v>
+        <v>1612800</v>
       </c>
       <c r="K43" s="3">
         <v>1812600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1064600</v>
+        <v>1030700</v>
       </c>
       <c r="E44" s="3">
-        <v>1020700</v>
+        <v>988300</v>
       </c>
       <c r="F44" s="3">
-        <v>1082700</v>
+        <v>1048200</v>
       </c>
       <c r="G44" s="3">
-        <v>1002500</v>
+        <v>970600</v>
       </c>
       <c r="H44" s="3">
-        <v>919400</v>
+        <v>890100</v>
       </c>
       <c r="I44" s="3">
-        <v>820800</v>
+        <v>794700</v>
       </c>
       <c r="J44" s="3">
-        <v>876100</v>
+        <v>848200</v>
       </c>
       <c r="K44" s="3">
         <v>858000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>270100</v>
+        <v>261500</v>
       </c>
       <c r="E45" s="3">
-        <v>209700</v>
+        <v>203000</v>
       </c>
       <c r="F45" s="3">
-        <v>285200</v>
+        <v>276100</v>
       </c>
       <c r="G45" s="3">
-        <v>339900</v>
+        <v>329100</v>
       </c>
       <c r="H45" s="3">
-        <v>292400</v>
+        <v>283100</v>
       </c>
       <c r="I45" s="3">
-        <v>288300</v>
+        <v>279200</v>
       </c>
       <c r="J45" s="3">
-        <v>442900</v>
+        <v>428800</v>
       </c>
       <c r="K45" s="3">
         <v>382100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3786600</v>
+        <v>3666300</v>
       </c>
       <c r="E46" s="3">
-        <v>3402200</v>
+        <v>3294100</v>
       </c>
       <c r="F46" s="3">
-        <v>3704700</v>
+        <v>3587000</v>
       </c>
       <c r="G46" s="3">
-        <v>3666600</v>
+        <v>3550100</v>
       </c>
       <c r="H46" s="3">
-        <v>3368900</v>
+        <v>3261900</v>
       </c>
       <c r="I46" s="3">
-        <v>3207100</v>
+        <v>3105200</v>
       </c>
       <c r="J46" s="3">
-        <v>3249300</v>
+        <v>3146000</v>
       </c>
       <c r="K46" s="3">
         <v>3297700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>965900</v>
+        <v>935200</v>
       </c>
       <c r="E47" s="3">
-        <v>936800</v>
+        <v>907000</v>
       </c>
       <c r="F47" s="3">
-        <v>1094300</v>
+        <v>1059600</v>
       </c>
       <c r="G47" s="3">
-        <v>1208100</v>
+        <v>1169700</v>
       </c>
       <c r="H47" s="3">
-        <v>1154600</v>
+        <v>1117900</v>
       </c>
       <c r="I47" s="3">
-        <v>997900</v>
+        <v>966200</v>
       </c>
       <c r="J47" s="3">
-        <v>1214500</v>
+        <v>1175900</v>
       </c>
       <c r="K47" s="3">
         <v>1246200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2173800</v>
+        <v>2104700</v>
       </c>
       <c r="E48" s="3">
-        <v>2239700</v>
+        <v>2168500</v>
       </c>
       <c r="F48" s="3">
-        <v>2020700</v>
+        <v>1956400</v>
       </c>
       <c r="G48" s="3">
-        <v>2123400</v>
+        <v>2055900</v>
       </c>
       <c r="H48" s="3">
-        <v>1810400</v>
+        <v>1752800</v>
       </c>
       <c r="I48" s="3">
-        <v>1731600</v>
+        <v>1676500</v>
       </c>
       <c r="J48" s="3">
-        <v>1755100</v>
+        <v>1699300</v>
       </c>
       <c r="K48" s="3">
         <v>1750200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>178400</v>
+        <v>172700</v>
       </c>
       <c r="E49" s="3">
-        <v>141800</v>
+        <v>137300</v>
       </c>
       <c r="F49" s="3">
-        <v>107500</v>
+        <v>104100</v>
       </c>
       <c r="G49" s="3">
-        <v>99600</v>
+        <v>96400</v>
       </c>
       <c r="H49" s="3">
-        <v>85800</v>
+        <v>83100</v>
       </c>
       <c r="I49" s="3">
-        <v>75000</v>
+        <v>72600</v>
       </c>
       <c r="J49" s="3">
-        <v>79500</v>
+        <v>77000</v>
       </c>
       <c r="K49" s="3">
         <v>87900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225500</v>
+        <v>218400</v>
       </c>
       <c r="E52" s="3">
-        <v>280100</v>
+        <v>271200</v>
       </c>
       <c r="F52" s="3">
-        <v>279500</v>
+        <v>270600</v>
       </c>
       <c r="G52" s="3">
-        <v>293800</v>
+        <v>284500</v>
       </c>
       <c r="H52" s="3">
-        <v>188900</v>
+        <v>182900</v>
       </c>
       <c r="I52" s="3">
-        <v>205800</v>
+        <v>199300</v>
       </c>
       <c r="J52" s="3">
-        <v>169200</v>
+        <v>163800</v>
       </c>
       <c r="K52" s="3">
         <v>166000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7330300</v>
+        <v>7097300</v>
       </c>
       <c r="E54" s="3">
-        <v>7000600</v>
+        <v>6778100</v>
       </c>
       <c r="F54" s="3">
-        <v>7206800</v>
+        <v>6977700</v>
       </c>
       <c r="G54" s="3">
-        <v>7124000</v>
+        <v>6897600</v>
       </c>
       <c r="H54" s="3">
-        <v>6608600</v>
+        <v>6398600</v>
       </c>
       <c r="I54" s="3">
-        <v>6217400</v>
+        <v>6019800</v>
       </c>
       <c r="J54" s="3">
-        <v>6467600</v>
+        <v>6262100</v>
       </c>
       <c r="K54" s="3">
         <v>6548000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1017600</v>
+        <v>985200</v>
       </c>
       <c r="E57" s="3">
-        <v>983100</v>
+        <v>951800</v>
       </c>
       <c r="F57" s="3">
-        <v>1157800</v>
+        <v>1121000</v>
       </c>
       <c r="G57" s="3">
-        <v>1095800</v>
+        <v>1061000</v>
       </c>
       <c r="H57" s="3">
-        <v>952200</v>
+        <v>922000</v>
       </c>
       <c r="I57" s="3">
-        <v>884500</v>
+        <v>856400</v>
       </c>
       <c r="J57" s="3">
-        <v>972700</v>
+        <v>941700</v>
       </c>
       <c r="K57" s="3">
         <v>956100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1189700</v>
+        <v>1151900</v>
       </c>
       <c r="E58" s="3">
-        <v>1119500</v>
+        <v>1084000</v>
       </c>
       <c r="F58" s="3">
-        <v>940100</v>
+        <v>910200</v>
       </c>
       <c r="G58" s="3">
-        <v>1024400</v>
+        <v>991900</v>
       </c>
       <c r="H58" s="3">
-        <v>883700</v>
+        <v>855600</v>
       </c>
       <c r="I58" s="3">
-        <v>1090800</v>
+        <v>1056100</v>
       </c>
       <c r="J58" s="3">
-        <v>940500</v>
+        <v>910600</v>
       </c>
       <c r="K58" s="3">
         <v>1099300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>569700</v>
+        <v>551600</v>
       </c>
       <c r="E59" s="3">
-        <v>713500</v>
+        <v>690800</v>
       </c>
       <c r="F59" s="3">
-        <v>823600</v>
+        <v>797500</v>
       </c>
       <c r="G59" s="3">
-        <v>790000</v>
+        <v>764900</v>
       </c>
       <c r="H59" s="3">
-        <v>748600</v>
+        <v>724800</v>
       </c>
       <c r="I59" s="3">
-        <v>661900</v>
+        <v>640900</v>
       </c>
       <c r="J59" s="3">
-        <v>616700</v>
+        <v>597100</v>
       </c>
       <c r="K59" s="3">
         <v>636400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2776900</v>
+        <v>2688700</v>
       </c>
       <c r="E60" s="3">
-        <v>2816100</v>
+        <v>2726600</v>
       </c>
       <c r="F60" s="3">
-        <v>2921600</v>
+        <v>2828700</v>
       </c>
       <c r="G60" s="3">
-        <v>2910300</v>
+        <v>2817800</v>
       </c>
       <c r="H60" s="3">
-        <v>2584500</v>
+        <v>2502400</v>
       </c>
       <c r="I60" s="3">
-        <v>2637200</v>
+        <v>2553400</v>
       </c>
       <c r="J60" s="3">
-        <v>2529800</v>
+        <v>2449400</v>
       </c>
       <c r="K60" s="3">
         <v>2691800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1437700</v>
+        <v>1392000</v>
       </c>
       <c r="E61" s="3">
-        <v>1163200</v>
+        <v>1126200</v>
       </c>
       <c r="F61" s="3">
-        <v>1227200</v>
+        <v>1188200</v>
       </c>
       <c r="G61" s="3">
-        <v>1253000</v>
+        <v>1213200</v>
       </c>
       <c r="H61" s="3">
-        <v>1341200</v>
+        <v>1298600</v>
       </c>
       <c r="I61" s="3">
-        <v>1205200</v>
+        <v>1166900</v>
       </c>
       <c r="J61" s="3">
-        <v>1478200</v>
+        <v>1431200</v>
       </c>
       <c r="K61" s="3">
         <v>1445800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>546500</v>
+        <v>529200</v>
       </c>
       <c r="E62" s="3">
-        <v>615900</v>
+        <v>596300</v>
       </c>
       <c r="F62" s="3">
-        <v>592000</v>
+        <v>573100</v>
       </c>
       <c r="G62" s="3">
-        <v>647700</v>
+        <v>627100</v>
       </c>
       <c r="H62" s="3">
-        <v>594500</v>
+        <v>575600</v>
       </c>
       <c r="I62" s="3">
-        <v>625500</v>
+        <v>605600</v>
       </c>
       <c r="J62" s="3">
-        <v>567800</v>
+        <v>549800</v>
       </c>
       <c r="K62" s="3">
         <v>580800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5040900</v>
+        <v>4880600</v>
       </c>
       <c r="E66" s="3">
-        <v>4883700</v>
+        <v>4728500</v>
       </c>
       <c r="F66" s="3">
-        <v>5024900</v>
+        <v>4865200</v>
       </c>
       <c r="G66" s="3">
-        <v>5040300</v>
+        <v>4880100</v>
       </c>
       <c r="H66" s="3">
-        <v>4787500</v>
+        <v>4635300</v>
       </c>
       <c r="I66" s="3">
-        <v>4691900</v>
+        <v>4542800</v>
       </c>
       <c r="J66" s="3">
-        <v>4787200</v>
+        <v>4635100</v>
       </c>
       <c r="K66" s="3">
         <v>4924500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1484900</v>
+        <v>1437700</v>
       </c>
       <c r="E72" s="3">
-        <v>1454500</v>
+        <v>1408300</v>
       </c>
       <c r="F72" s="3">
-        <v>1336900</v>
+        <v>1294400</v>
       </c>
       <c r="G72" s="3">
-        <v>1128800</v>
+        <v>1092900</v>
       </c>
       <c r="H72" s="3">
-        <v>915700</v>
+        <v>886600</v>
       </c>
       <c r="I72" s="3">
-        <v>795700</v>
+        <v>770400</v>
       </c>
       <c r="J72" s="3">
-        <v>733600</v>
+        <v>710300</v>
       </c>
       <c r="K72" s="3">
         <v>725600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2289500</v>
+        <v>2216700</v>
       </c>
       <c r="E76" s="3">
-        <v>2116900</v>
+        <v>2049600</v>
       </c>
       <c r="F76" s="3">
-        <v>2181900</v>
+        <v>2112500</v>
       </c>
       <c r="G76" s="3">
-        <v>2083700</v>
+        <v>2017500</v>
       </c>
       <c r="H76" s="3">
-        <v>1821100</v>
+        <v>1763300</v>
       </c>
       <c r="I76" s="3">
-        <v>1525600</v>
+        <v>1477100</v>
       </c>
       <c r="J76" s="3">
-        <v>1680400</v>
+        <v>1627000</v>
       </c>
       <c r="K76" s="3">
         <v>1623500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="E81" s="3">
-        <v>155400</v>
+        <v>150500</v>
       </c>
       <c r="F81" s="3">
-        <v>256400</v>
+        <v>248300</v>
       </c>
       <c r="G81" s="3">
-        <v>251500</v>
+        <v>243500</v>
       </c>
       <c r="H81" s="3">
-        <v>154800</v>
+        <v>149900</v>
       </c>
       <c r="I81" s="3">
-        <v>88200</v>
+        <v>85400</v>
       </c>
       <c r="J81" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="K81" s="3">
         <v>51400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>283400</v>
+        <v>274400</v>
       </c>
       <c r="E83" s="3">
-        <v>259200</v>
+        <v>251000</v>
       </c>
       <c r="F83" s="3">
-        <v>231400</v>
+        <v>224100</v>
       </c>
       <c r="G83" s="3">
-        <v>221200</v>
+        <v>214200</v>
       </c>
       <c r="H83" s="3">
-        <v>205900</v>
+        <v>199300</v>
       </c>
       <c r="I83" s="3">
-        <v>204700</v>
+        <v>198200</v>
       </c>
       <c r="J83" s="3">
-        <v>198300</v>
+        <v>192000</v>
       </c>
       <c r="K83" s="3">
         <v>257500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="E89" s="3">
-        <v>373900</v>
+        <v>362000</v>
       </c>
       <c r="F89" s="3">
-        <v>411300</v>
+        <v>398200</v>
       </c>
       <c r="G89" s="3">
-        <v>342100</v>
+        <v>331200</v>
       </c>
       <c r="H89" s="3">
-        <v>366000</v>
+        <v>354400</v>
       </c>
       <c r="I89" s="3">
-        <v>375200</v>
+        <v>363300</v>
       </c>
       <c r="J89" s="3">
-        <v>368000</v>
+        <v>356300</v>
       </c>
       <c r="K89" s="3">
         <v>42400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294100</v>
+        <v>-284800</v>
       </c>
       <c r="E91" s="3">
-        <v>-416800</v>
+        <v>-403600</v>
       </c>
       <c r="F91" s="3">
-        <v>-379300</v>
+        <v>-367200</v>
       </c>
       <c r="G91" s="3">
-        <v>-302600</v>
+        <v>-293000</v>
       </c>
       <c r="H91" s="3">
-        <v>-250600</v>
+        <v>-242600</v>
       </c>
       <c r="I91" s="3">
-        <v>-225900</v>
+        <v>-218800</v>
       </c>
       <c r="J91" s="3">
-        <v>-243800</v>
+        <v>-236100</v>
       </c>
       <c r="K91" s="3">
         <v>-360600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16800</v>
+        <v>-16300</v>
       </c>
       <c r="E94" s="3">
-        <v>-291800</v>
+        <v>-282500</v>
       </c>
       <c r="F94" s="3">
-        <v>-273500</v>
+        <v>-264800</v>
       </c>
       <c r="G94" s="3">
-        <v>-302400</v>
+        <v>-292700</v>
       </c>
       <c r="H94" s="3">
-        <v>-320300</v>
+        <v>-310200</v>
       </c>
       <c r="I94" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="J94" s="3">
-        <v>-207300</v>
+        <v>-200700</v>
       </c>
       <c r="K94" s="3">
         <v>-369100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-52900</v>
+        <v>-51200</v>
       </c>
       <c r="E96" s="3">
-        <v>-52800</v>
+        <v>-51200</v>
       </c>
       <c r="F96" s="3">
-        <v>-49800</v>
+        <v>-48200</v>
       </c>
       <c r="G96" s="3">
-        <v>-34200</v>
+        <v>-33100</v>
       </c>
       <c r="H96" s="3">
-        <v>-24900</v>
+        <v>-24100</v>
       </c>
       <c r="I96" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="J96" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="K96" s="3">
         <v>-19400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>309600</v>
+        <v>299700</v>
       </c>
       <c r="E100" s="3">
         <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-171000</v>
+        <v>-165600</v>
       </c>
       <c r="G100" s="3">
-        <v>-17100</v>
+        <v>-16600</v>
       </c>
       <c r="H100" s="3">
-        <v>-91400</v>
+        <v>-88500</v>
       </c>
       <c r="I100" s="3">
-        <v>-184500</v>
+        <v>-178600</v>
       </c>
       <c r="J100" s="3">
-        <v>-136900</v>
+        <v>-132500</v>
       </c>
       <c r="K100" s="3">
         <v>274000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="F101" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="G101" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="J101" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>283100</v>
+        <v>274100</v>
       </c>
       <c r="E102" s="3">
-        <v>72400</v>
+        <v>70100</v>
       </c>
       <c r="F102" s="3">
-        <v>-25700</v>
+        <v>-24900</v>
       </c>
       <c r="G102" s="3">
-        <v>31800</v>
+        <v>30800</v>
       </c>
       <c r="H102" s="3">
-        <v>-48600</v>
+        <v>-47000</v>
       </c>
       <c r="I102" s="3">
-        <v>195300</v>
+        <v>189100</v>
       </c>
       <c r="J102" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="K102" s="3">
         <v>-47200</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6922900</v>
+        <v>7248600</v>
       </c>
       <c r="E8" s="3">
-        <v>7800200</v>
+        <v>6322400</v>
       </c>
       <c r="F8" s="3">
-        <v>8458300</v>
+        <v>7123500</v>
       </c>
       <c r="G8" s="3">
-        <v>8251400</v>
+        <v>7724500</v>
       </c>
       <c r="H8" s="3">
-        <v>7193700</v>
+        <v>7535500</v>
       </c>
       <c r="I8" s="3">
-        <v>7462700</v>
+        <v>6569600</v>
       </c>
       <c r="J8" s="3">
+        <v>6815300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7402500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8535100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8405700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8306000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5819900</v>
+        <v>6168200</v>
       </c>
       <c r="E9" s="3">
-        <v>6518600</v>
+        <v>5315000</v>
       </c>
       <c r="F9" s="3">
-        <v>7032800</v>
+        <v>5953100</v>
       </c>
       <c r="G9" s="3">
-        <v>6836000</v>
+        <v>6422700</v>
       </c>
       <c r="H9" s="3">
-        <v>5878500</v>
+        <v>6243000</v>
       </c>
       <c r="I9" s="3">
-        <v>6260500</v>
+        <v>5368600</v>
       </c>
       <c r="J9" s="3">
+        <v>5717400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6347100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7276800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7152200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7114000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1103000</v>
+        <v>1080400</v>
       </c>
       <c r="E10" s="3">
-        <v>1281500</v>
+        <v>1007300</v>
       </c>
       <c r="F10" s="3">
-        <v>1425400</v>
+        <v>1170400</v>
       </c>
       <c r="G10" s="3">
-        <v>1415300</v>
+        <v>1301800</v>
       </c>
       <c r="H10" s="3">
-        <v>1315200</v>
+        <v>1292500</v>
       </c>
       <c r="I10" s="3">
-        <v>1202200</v>
+        <v>1201100</v>
       </c>
       <c r="J10" s="3">
+        <v>1097900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1055300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1258300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1253400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1192000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>139400</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>146500</v>
+        <v>127300</v>
       </c>
       <c r="F12" s="3">
-        <v>147200</v>
+        <v>133800</v>
       </c>
       <c r="G12" s="3">
-        <v>132200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>134400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>120800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>119300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>130100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>148600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>133600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,62 +925,68 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>89300</v>
+        <v>13700</v>
       </c>
       <c r="E14" s="3">
-        <v>38900</v>
+        <v>81500</v>
       </c>
       <c r="F14" s="3">
-        <v>79100</v>
+        <v>35500</v>
       </c>
       <c r="G14" s="3">
-        <v>126600</v>
+        <v>72200</v>
       </c>
       <c r="H14" s="3">
+        <v>115600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>105400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>82200</v>
+      </c>
+      <c r="L14" s="3">
         <v>115400</v>
       </c>
-      <c r="I14" s="3">
-        <v>152600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>82200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>115400</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>212800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>36700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>28700</v>
+        <v>33500</v>
       </c>
       <c r="F15" s="3">
-        <v>22700</v>
+        <v>26200</v>
       </c>
       <c r="G15" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>20800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -975,15 +997,18 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>36500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>31600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6940300</v>
+        <v>7173300</v>
       </c>
       <c r="E17" s="3">
-        <v>7638100</v>
+        <v>6338200</v>
       </c>
       <c r="F17" s="3">
-        <v>8189000</v>
+        <v>6975500</v>
       </c>
       <c r="G17" s="3">
-        <v>7995700</v>
+        <v>7478600</v>
       </c>
       <c r="H17" s="3">
-        <v>6979700</v>
+        <v>7302100</v>
       </c>
       <c r="I17" s="3">
-        <v>7384000</v>
+        <v>6374200</v>
       </c>
       <c r="J17" s="3">
+        <v>6743400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7332200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8417300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8281600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8374700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17400</v>
+        <v>75300</v>
       </c>
       <c r="E18" s="3">
-        <v>162100</v>
+        <v>-15900</v>
       </c>
       <c r="F18" s="3">
-        <v>269300</v>
+        <v>148000</v>
       </c>
       <c r="G18" s="3">
-        <v>255600</v>
+        <v>245900</v>
       </c>
       <c r="H18" s="3">
-        <v>214100</v>
+        <v>233400</v>
       </c>
       <c r="I18" s="3">
-        <v>78700</v>
+        <v>195500</v>
       </c>
       <c r="J18" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K18" s="3">
         <v>70300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>124100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-68700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>229800</v>
+        <v>110100</v>
       </c>
       <c r="E20" s="3">
-        <v>137100</v>
+        <v>209800</v>
       </c>
       <c r="F20" s="3">
-        <v>70500</v>
+        <v>125200</v>
       </c>
       <c r="G20" s="3">
-        <v>123500</v>
+        <v>64400</v>
       </c>
       <c r="H20" s="3">
-        <v>54200</v>
+        <v>112800</v>
       </c>
       <c r="I20" s="3">
-        <v>135300</v>
+        <v>49500</v>
       </c>
       <c r="J20" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K20" s="3">
         <v>101700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>82400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>133500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>490000</v>
+        <v>444800</v>
       </c>
       <c r="E21" s="3">
-        <v>553100</v>
+        <v>441300</v>
       </c>
       <c r="F21" s="3">
-        <v>566500</v>
+        <v>499500</v>
       </c>
       <c r="G21" s="3">
-        <v>595800</v>
+        <v>512300</v>
       </c>
       <c r="H21" s="3">
-        <v>469900</v>
+        <v>539300</v>
       </c>
       <c r="I21" s="3">
-        <v>414600</v>
+        <v>424700</v>
       </c>
       <c r="J21" s="3">
+        <v>374200</v>
+      </c>
+      <c r="K21" s="3">
         <v>366200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>458800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>484700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>419800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30600</v>
+        <v>26300</v>
       </c>
       <c r="E22" s="3">
-        <v>36900</v>
+        <v>27900</v>
       </c>
       <c r="F22" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="G22" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="H22" s="3">
-        <v>29700</v>
+        <v>31000</v>
       </c>
       <c r="I22" s="3">
-        <v>31700</v>
+        <v>27100</v>
       </c>
       <c r="J22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K22" s="3">
         <v>34100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181800</v>
+        <v>159100</v>
       </c>
       <c r="E23" s="3">
-        <v>262300</v>
+        <v>166100</v>
       </c>
       <c r="F23" s="3">
-        <v>305000</v>
+        <v>239600</v>
       </c>
       <c r="G23" s="3">
-        <v>345200</v>
+        <v>278500</v>
       </c>
       <c r="H23" s="3">
-        <v>238500</v>
+        <v>315200</v>
       </c>
       <c r="I23" s="3">
-        <v>182400</v>
+        <v>217800</v>
       </c>
       <c r="J23" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K23" s="3">
         <v>137900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>158500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>116600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78600</v>
+        <v>56000</v>
       </c>
       <c r="E24" s="3">
-        <v>100300</v>
+        <v>71800</v>
       </c>
       <c r="F24" s="3">
-        <v>28200</v>
+        <v>91600</v>
       </c>
       <c r="G24" s="3">
-        <v>69500</v>
+        <v>25800</v>
       </c>
       <c r="H24" s="3">
-        <v>47200</v>
+        <v>63500</v>
       </c>
       <c r="I24" s="3">
-        <v>67700</v>
+        <v>43100</v>
       </c>
       <c r="J24" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K24" s="3">
         <v>57100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103200</v>
+        <v>103100</v>
       </c>
       <c r="E26" s="3">
-        <v>162000</v>
+        <v>94200</v>
       </c>
       <c r="F26" s="3">
-        <v>276800</v>
+        <v>148000</v>
       </c>
       <c r="G26" s="3">
-        <v>275600</v>
+        <v>252800</v>
       </c>
       <c r="H26" s="3">
-        <v>191300</v>
+        <v>251700</v>
       </c>
       <c r="I26" s="3">
-        <v>114700</v>
+        <v>174700</v>
       </c>
       <c r="J26" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K26" s="3">
         <v>80800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-86400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85300</v>
+        <v>78600</v>
       </c>
       <c r="E27" s="3">
-        <v>150500</v>
+        <v>77900</v>
       </c>
       <c r="F27" s="3">
-        <v>248300</v>
+        <v>137400</v>
       </c>
       <c r="G27" s="3">
-        <v>243500</v>
+        <v>226800</v>
       </c>
       <c r="H27" s="3">
-        <v>149900</v>
+        <v>222400</v>
       </c>
       <c r="I27" s="3">
-        <v>85400</v>
+        <v>136900</v>
       </c>
       <c r="J27" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K27" s="3">
         <v>62700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-229800</v>
+        <v>-110100</v>
       </c>
       <c r="E32" s="3">
-        <v>-137100</v>
+        <v>-209800</v>
       </c>
       <c r="F32" s="3">
-        <v>-70500</v>
+        <v>-125200</v>
       </c>
       <c r="G32" s="3">
-        <v>-123500</v>
+        <v>-64400</v>
       </c>
       <c r="H32" s="3">
-        <v>-54200</v>
+        <v>-112800</v>
       </c>
       <c r="I32" s="3">
-        <v>-135300</v>
+        <v>-49500</v>
       </c>
       <c r="J32" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-101700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-82400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-133500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85300</v>
+        <v>78600</v>
       </c>
       <c r="E33" s="3">
-        <v>150500</v>
+        <v>77900</v>
       </c>
       <c r="F33" s="3">
-        <v>248300</v>
+        <v>137400</v>
       </c>
       <c r="G33" s="3">
-        <v>243500</v>
+        <v>226800</v>
       </c>
       <c r="H33" s="3">
-        <v>149900</v>
+        <v>222400</v>
       </c>
       <c r="I33" s="3">
-        <v>85400</v>
+        <v>136900</v>
       </c>
       <c r="J33" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K33" s="3">
         <v>62700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85300</v>
+        <v>78600</v>
       </c>
       <c r="E35" s="3">
-        <v>150500</v>
+        <v>77900</v>
       </c>
       <c r="F35" s="3">
-        <v>248300</v>
+        <v>137400</v>
       </c>
       <c r="G35" s="3">
-        <v>243500</v>
+        <v>226800</v>
       </c>
       <c r="H35" s="3">
-        <v>149900</v>
+        <v>222400</v>
       </c>
       <c r="I35" s="3">
-        <v>85400</v>
+        <v>136900</v>
       </c>
       <c r="J35" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K35" s="3">
         <v>62700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,67 +1817,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>719600</v>
+        <v>507500</v>
       </c>
       <c r="E41" s="3">
-        <v>463700</v>
+        <v>657200</v>
       </c>
       <c r="F41" s="3">
-        <v>380700</v>
+        <v>423400</v>
       </c>
       <c r="G41" s="3">
-        <v>431900</v>
+        <v>347700</v>
       </c>
       <c r="H41" s="3">
-        <v>402300</v>
+        <v>394400</v>
       </c>
       <c r="I41" s="3">
-        <v>447900</v>
+        <v>367400</v>
       </c>
       <c r="J41" s="3">
+        <v>409000</v>
+      </c>
+      <c r="K41" s="3">
         <v>256000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>244700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>284500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E42" s="3">
-        <v>7700</v>
+        <v>22800</v>
       </c>
       <c r="F42" s="3">
-        <v>20200</v>
+        <v>7000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>400</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>200</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -1801,263 +1890,287 @@
         <v>200</v>
       </c>
       <c r="M42" s="3">
+        <v>200</v>
+      </c>
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1629500</v>
+        <v>1786100</v>
       </c>
       <c r="E43" s="3">
-        <v>1631400</v>
+        <v>1488200</v>
       </c>
       <c r="F43" s="3">
-        <v>1861700</v>
+        <v>1489900</v>
       </c>
       <c r="G43" s="3">
-        <v>1903200</v>
+        <v>1700200</v>
       </c>
       <c r="H43" s="3">
-        <v>1685800</v>
+        <v>1738100</v>
       </c>
       <c r="I43" s="3">
-        <v>1583300</v>
+        <v>1539600</v>
       </c>
       <c r="J43" s="3">
+        <v>1445900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1612800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1812600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2010800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1998800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1030700</v>
+        <v>1278500</v>
       </c>
       <c r="E44" s="3">
-        <v>988300</v>
+        <v>941300</v>
       </c>
       <c r="F44" s="3">
-        <v>1048200</v>
+        <v>902600</v>
       </c>
       <c r="G44" s="3">
-        <v>970600</v>
+        <v>957300</v>
       </c>
       <c r="H44" s="3">
-        <v>890100</v>
+        <v>886400</v>
       </c>
       <c r="I44" s="3">
-        <v>794700</v>
+        <v>812900</v>
       </c>
       <c r="J44" s="3">
+        <v>725800</v>
+      </c>
+      <c r="K44" s="3">
         <v>848200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>858000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>947600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>857800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261500</v>
+        <v>320600</v>
       </c>
       <c r="E45" s="3">
-        <v>203000</v>
+        <v>238800</v>
       </c>
       <c r="F45" s="3">
-        <v>276100</v>
+        <v>185400</v>
       </c>
       <c r="G45" s="3">
-        <v>329100</v>
+        <v>252100</v>
       </c>
       <c r="H45" s="3">
-        <v>283100</v>
+        <v>300500</v>
       </c>
       <c r="I45" s="3">
-        <v>279200</v>
+        <v>258600</v>
       </c>
       <c r="J45" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K45" s="3">
         <v>428800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>382100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>326100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>368300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3666300</v>
+        <v>3918100</v>
       </c>
       <c r="E46" s="3">
-        <v>3294100</v>
+        <v>3348200</v>
       </c>
       <c r="F46" s="3">
-        <v>3587000</v>
+        <v>3008300</v>
       </c>
       <c r="G46" s="3">
-        <v>3550100</v>
+        <v>3275800</v>
       </c>
       <c r="H46" s="3">
-        <v>3261900</v>
+        <v>3242100</v>
       </c>
       <c r="I46" s="3">
-        <v>3105200</v>
+        <v>2978900</v>
       </c>
       <c r="J46" s="3">
+        <v>2835800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3146000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3297700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3569100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3526400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>935200</v>
+        <v>949900</v>
       </c>
       <c r="E47" s="3">
-        <v>907000</v>
+        <v>854100</v>
       </c>
       <c r="F47" s="3">
-        <v>1059600</v>
+        <v>828300</v>
       </c>
       <c r="G47" s="3">
-        <v>1169700</v>
+        <v>967600</v>
       </c>
       <c r="H47" s="3">
-        <v>1117900</v>
+        <v>1068200</v>
       </c>
       <c r="I47" s="3">
-        <v>966200</v>
+        <v>1020900</v>
       </c>
       <c r="J47" s="3">
+        <v>882400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1175900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1246200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1047700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>934400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2104700</v>
+        <v>2026700</v>
       </c>
       <c r="E48" s="3">
-        <v>2168500</v>
+        <v>1922100</v>
       </c>
       <c r="F48" s="3">
-        <v>1956400</v>
+        <v>1980400</v>
       </c>
       <c r="G48" s="3">
-        <v>2055900</v>
+        <v>1786700</v>
       </c>
       <c r="H48" s="3">
-        <v>1752800</v>
+        <v>1877500</v>
       </c>
       <c r="I48" s="3">
-        <v>1676500</v>
+        <v>1600800</v>
       </c>
       <c r="J48" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1699300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1750200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2546000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2369600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>172700</v>
+        <v>159900</v>
       </c>
       <c r="E49" s="3">
-        <v>137300</v>
+        <v>157700</v>
       </c>
       <c r="F49" s="3">
-        <v>104100</v>
+        <v>125400</v>
       </c>
       <c r="G49" s="3">
-        <v>96400</v>
+        <v>95100</v>
       </c>
       <c r="H49" s="3">
-        <v>83100</v>
+        <v>88100</v>
       </c>
       <c r="I49" s="3">
-        <v>72600</v>
+        <v>75900</v>
       </c>
       <c r="J49" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K49" s="3">
         <v>77000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>87900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>114700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>126300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>218400</v>
+        <v>236000</v>
       </c>
       <c r="E52" s="3">
-        <v>271200</v>
+        <v>199400</v>
       </c>
       <c r="F52" s="3">
-        <v>270600</v>
+        <v>247600</v>
       </c>
       <c r="G52" s="3">
-        <v>284500</v>
+        <v>247200</v>
       </c>
       <c r="H52" s="3">
-        <v>182900</v>
+        <v>259800</v>
       </c>
       <c r="I52" s="3">
-        <v>199300</v>
+        <v>167000</v>
       </c>
       <c r="J52" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K52" s="3">
         <v>163800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>166000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>173600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7097300</v>
+        <v>7290500</v>
       </c>
       <c r="E54" s="3">
-        <v>6778100</v>
+        <v>6481600</v>
       </c>
       <c r="F54" s="3">
-        <v>6977700</v>
+        <v>6190100</v>
       </c>
       <c r="G54" s="3">
-        <v>6897600</v>
+        <v>6372400</v>
       </c>
       <c r="H54" s="3">
-        <v>6398600</v>
+        <v>6299200</v>
       </c>
       <c r="I54" s="3">
-        <v>6019800</v>
+        <v>5843500</v>
       </c>
       <c r="J54" s="3">
+        <v>5497600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6262100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6548000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7451100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7142600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>985200</v>
+        <v>997000</v>
       </c>
       <c r="E57" s="3">
-        <v>951800</v>
+        <v>899800</v>
       </c>
       <c r="F57" s="3">
-        <v>1121000</v>
+        <v>869300</v>
       </c>
       <c r="G57" s="3">
-        <v>1061000</v>
+        <v>1023800</v>
       </c>
       <c r="H57" s="3">
-        <v>922000</v>
+        <v>969000</v>
       </c>
       <c r="I57" s="3">
-        <v>856400</v>
+        <v>842000</v>
       </c>
       <c r="J57" s="3">
+        <v>782100</v>
+      </c>
+      <c r="K57" s="3">
         <v>941700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>956100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1210100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1102900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1151900</v>
+        <v>1316500</v>
       </c>
       <c r="E58" s="3">
-        <v>1084000</v>
+        <v>1051900</v>
       </c>
       <c r="F58" s="3">
-        <v>910200</v>
+        <v>989900</v>
       </c>
       <c r="G58" s="3">
-        <v>991900</v>
+        <v>831300</v>
       </c>
       <c r="H58" s="3">
-        <v>855600</v>
+        <v>905800</v>
       </c>
       <c r="I58" s="3">
-        <v>1056100</v>
+        <v>781400</v>
       </c>
       <c r="J58" s="3">
+        <v>964500</v>
+      </c>
+      <c r="K58" s="3">
         <v>910600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1099300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1157900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1432100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>551600</v>
+        <v>644500</v>
       </c>
       <c r="E59" s="3">
-        <v>690800</v>
+        <v>503700</v>
       </c>
       <c r="F59" s="3">
-        <v>797500</v>
+        <v>630900</v>
       </c>
       <c r="G59" s="3">
-        <v>764900</v>
+        <v>728300</v>
       </c>
       <c r="H59" s="3">
-        <v>724800</v>
+        <v>698500</v>
       </c>
       <c r="I59" s="3">
-        <v>640900</v>
+        <v>661900</v>
       </c>
       <c r="J59" s="3">
+        <v>585300</v>
+      </c>
+      <c r="K59" s="3">
         <v>597100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>636400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>612300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>590100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2688700</v>
+        <v>2958000</v>
       </c>
       <c r="E60" s="3">
-        <v>2726600</v>
+        <v>2455400</v>
       </c>
       <c r="F60" s="3">
-        <v>2828700</v>
+        <v>2490100</v>
       </c>
       <c r="G60" s="3">
-        <v>2817800</v>
+        <v>2583300</v>
       </c>
       <c r="H60" s="3">
-        <v>2502400</v>
+        <v>2573300</v>
       </c>
       <c r="I60" s="3">
-        <v>2553400</v>
+        <v>2285300</v>
       </c>
       <c r="J60" s="3">
+        <v>2331900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2449400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2691800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2980300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3125100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1392000</v>
+        <v>1348600</v>
       </c>
       <c r="E61" s="3">
-        <v>1126200</v>
+        <v>1271200</v>
       </c>
       <c r="F61" s="3">
-        <v>1188200</v>
+        <v>1028500</v>
       </c>
       <c r="G61" s="3">
-        <v>1213200</v>
+        <v>1085100</v>
       </c>
       <c r="H61" s="3">
-        <v>1298600</v>
+        <v>1107900</v>
       </c>
       <c r="I61" s="3">
-        <v>1166900</v>
+        <v>1185900</v>
       </c>
       <c r="J61" s="3">
+        <v>1065700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1431200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1445800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1755400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1507900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>529200</v>
+        <v>537300</v>
       </c>
       <c r="E62" s="3">
-        <v>596300</v>
+        <v>483300</v>
       </c>
       <c r="F62" s="3">
-        <v>573100</v>
+        <v>544600</v>
       </c>
       <c r="G62" s="3">
-        <v>627100</v>
+        <v>523400</v>
       </c>
       <c r="H62" s="3">
-        <v>575600</v>
+        <v>572700</v>
       </c>
       <c r="I62" s="3">
-        <v>605600</v>
+        <v>525600</v>
       </c>
       <c r="J62" s="3">
+        <v>553100</v>
+      </c>
+      <c r="K62" s="3">
         <v>549800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>580800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>689700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>723500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4880600</v>
+        <v>5115400</v>
       </c>
       <c r="E66" s="3">
-        <v>4728500</v>
+        <v>4457200</v>
       </c>
       <c r="F66" s="3">
-        <v>4865200</v>
+        <v>4318300</v>
       </c>
       <c r="G66" s="3">
-        <v>4880100</v>
+        <v>4443100</v>
       </c>
       <c r="H66" s="3">
-        <v>4635300</v>
+        <v>4456800</v>
       </c>
       <c r="I66" s="3">
-        <v>4542800</v>
+        <v>4233200</v>
       </c>
       <c r="J66" s="3">
+        <v>4148700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4635100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4924500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5944500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5834500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1437700</v>
+        <v>1358200</v>
       </c>
       <c r="E72" s="3">
-        <v>1408300</v>
+        <v>1312900</v>
       </c>
       <c r="F72" s="3">
-        <v>1294400</v>
+        <v>1286100</v>
       </c>
       <c r="G72" s="3">
-        <v>1092900</v>
+        <v>1182100</v>
       </c>
       <c r="H72" s="3">
-        <v>886600</v>
+        <v>998100</v>
       </c>
       <c r="I72" s="3">
-        <v>770400</v>
+        <v>809700</v>
       </c>
       <c r="J72" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K72" s="3">
         <v>710300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>725600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>692000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>655200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2216700</v>
+        <v>2175100</v>
       </c>
       <c r="E76" s="3">
-        <v>2049600</v>
+        <v>2024400</v>
       </c>
       <c r="F76" s="3">
-        <v>2112500</v>
+        <v>1871800</v>
       </c>
       <c r="G76" s="3">
-        <v>2017500</v>
+        <v>1929300</v>
       </c>
       <c r="H76" s="3">
-        <v>1763300</v>
+        <v>1842500</v>
       </c>
       <c r="I76" s="3">
-        <v>1477100</v>
+        <v>1610300</v>
       </c>
       <c r="J76" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1627000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1623500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1506600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1308000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85300</v>
+        <v>78600</v>
       </c>
       <c r="E81" s="3">
-        <v>150500</v>
+        <v>77900</v>
       </c>
       <c r="F81" s="3">
-        <v>248300</v>
+        <v>137400</v>
       </c>
       <c r="G81" s="3">
-        <v>243500</v>
+        <v>226800</v>
       </c>
       <c r="H81" s="3">
-        <v>149900</v>
+        <v>222400</v>
       </c>
       <c r="I81" s="3">
-        <v>85400</v>
+        <v>136900</v>
       </c>
       <c r="J81" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K81" s="3">
         <v>62700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274400</v>
+        <v>262700</v>
       </c>
       <c r="E83" s="3">
-        <v>251000</v>
+        <v>250500</v>
       </c>
       <c r="F83" s="3">
-        <v>224100</v>
+        <v>229200</v>
       </c>
       <c r="G83" s="3">
-        <v>214200</v>
+        <v>204700</v>
       </c>
       <c r="H83" s="3">
-        <v>199300</v>
+        <v>195600</v>
       </c>
       <c r="I83" s="3">
-        <v>198200</v>
+        <v>182100</v>
       </c>
       <c r="J83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K83" s="3">
         <v>192000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>257500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>321300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>354500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4300</v>
+        <v>-98800</v>
       </c>
       <c r="E89" s="3">
-        <v>362000</v>
+        <v>-3900</v>
       </c>
       <c r="F89" s="3">
-        <v>398200</v>
+        <v>330600</v>
       </c>
       <c r="G89" s="3">
-        <v>331200</v>
+        <v>363700</v>
       </c>
       <c r="H89" s="3">
-        <v>354400</v>
+        <v>302500</v>
       </c>
       <c r="I89" s="3">
-        <v>363300</v>
+        <v>323600</v>
       </c>
       <c r="J89" s="3">
+        <v>331800</v>
+      </c>
+      <c r="K89" s="3">
         <v>356300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>278200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284800</v>
+        <v>-284300</v>
       </c>
       <c r="E91" s="3">
-        <v>-403600</v>
+        <v>-260100</v>
       </c>
       <c r="F91" s="3">
-        <v>-367200</v>
+        <v>-368600</v>
       </c>
       <c r="G91" s="3">
-        <v>-293000</v>
+        <v>-335400</v>
       </c>
       <c r="H91" s="3">
-        <v>-242600</v>
+        <v>-267600</v>
       </c>
       <c r="I91" s="3">
-        <v>-218800</v>
+        <v>-221600</v>
       </c>
       <c r="J91" s="3">
+        <v>-199800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-236100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-360600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-415900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-277000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16300</v>
+        <v>-312200</v>
       </c>
       <c r="E94" s="3">
-        <v>-282500</v>
+        <v>-14900</v>
       </c>
       <c r="F94" s="3">
-        <v>-264800</v>
+        <v>-258000</v>
       </c>
       <c r="G94" s="3">
-        <v>-292700</v>
+        <v>-241800</v>
       </c>
       <c r="H94" s="3">
-        <v>-310200</v>
+        <v>-267300</v>
       </c>
       <c r="I94" s="3">
-        <v>16600</v>
+        <v>-283300</v>
       </c>
       <c r="J94" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-369100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-183100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51200</v>
+        <v>-33000</v>
       </c>
       <c r="E96" s="3">
-        <v>-51200</v>
+        <v>-46700</v>
       </c>
       <c r="F96" s="3">
-        <v>-48200</v>
+        <v>-46700</v>
       </c>
       <c r="G96" s="3">
-        <v>-33100</v>
+        <v>-44000</v>
       </c>
       <c r="H96" s="3">
-        <v>-24100</v>
+        <v>-30300</v>
       </c>
       <c r="I96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-18000</v>
       </c>
-      <c r="J96" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>299700</v>
+        <v>272800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1500</v>
+        <v>273700</v>
       </c>
       <c r="F100" s="3">
-        <v>-165600</v>
+        <v>-1300</v>
       </c>
       <c r="G100" s="3">
-        <v>-16600</v>
+        <v>-151200</v>
       </c>
       <c r="H100" s="3">
-        <v>-88500</v>
+        <v>-15100</v>
       </c>
       <c r="I100" s="3">
-        <v>-178600</v>
+        <v>-80800</v>
       </c>
       <c r="J100" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-132500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>274000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-103600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-206500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-14100</v>
       </c>
       <c r="E101" s="3">
-        <v>-7900</v>
+        <v>-4600</v>
       </c>
       <c r="F101" s="3">
-        <v>7300</v>
+        <v>-7200</v>
       </c>
       <c r="G101" s="3">
-        <v>8900</v>
+        <v>6600</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>8100</v>
       </c>
       <c r="I101" s="3">
-        <v>-12100</v>
+        <v>-2400</v>
       </c>
       <c r="J101" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K101" s="3">
         <v>12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>274100</v>
+        <v>-152300</v>
       </c>
       <c r="E102" s="3">
-        <v>70100</v>
+        <v>250300</v>
       </c>
       <c r="F102" s="3">
-        <v>-24900</v>
+        <v>64000</v>
       </c>
       <c r="G102" s="3">
-        <v>30800</v>
+        <v>-22700</v>
       </c>
       <c r="H102" s="3">
-        <v>-47000</v>
+        <v>28100</v>
       </c>
       <c r="I102" s="3">
-        <v>189100</v>
+        <v>-42900</v>
       </c>
       <c r="J102" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K102" s="3">
         <v>35600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-118500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7248600</v>
+        <v>6820500</v>
       </c>
       <c r="E8" s="3">
-        <v>6322400</v>
+        <v>5949000</v>
       </c>
       <c r="F8" s="3">
-        <v>7123500</v>
+        <v>6702800</v>
       </c>
       <c r="G8" s="3">
-        <v>7724500</v>
+        <v>7268400</v>
       </c>
       <c r="H8" s="3">
-        <v>7535500</v>
+        <v>7090600</v>
       </c>
       <c r="I8" s="3">
-        <v>6569600</v>
+        <v>6181700</v>
       </c>
       <c r="J8" s="3">
-        <v>6815300</v>
+        <v>6412900</v>
       </c>
       <c r="K8" s="3">
         <v>7402500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6168200</v>
+        <v>5803900</v>
       </c>
       <c r="E9" s="3">
-        <v>5315000</v>
+        <v>5001200</v>
       </c>
       <c r="F9" s="3">
-        <v>5953100</v>
+        <v>5601600</v>
       </c>
       <c r="G9" s="3">
-        <v>6422700</v>
+        <v>6043400</v>
       </c>
       <c r="H9" s="3">
-        <v>6243000</v>
+        <v>5874300</v>
       </c>
       <c r="I9" s="3">
-        <v>5368600</v>
+        <v>5051500</v>
       </c>
       <c r="J9" s="3">
-        <v>5717400</v>
+        <v>5379800</v>
       </c>
       <c r="K9" s="3">
         <v>6347100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1080400</v>
+        <v>1016600</v>
       </c>
       <c r="E10" s="3">
-        <v>1007300</v>
+        <v>947900</v>
       </c>
       <c r="F10" s="3">
-        <v>1170400</v>
+        <v>1101300</v>
       </c>
       <c r="G10" s="3">
-        <v>1301800</v>
+        <v>1224900</v>
       </c>
       <c r="H10" s="3">
-        <v>1292500</v>
+        <v>1216200</v>
       </c>
       <c r="I10" s="3">
-        <v>1201100</v>
+        <v>1130200</v>
       </c>
       <c r="J10" s="3">
-        <v>1097900</v>
+        <v>1033100</v>
       </c>
       <c r="K10" s="3">
         <v>1055300</v>
@@ -856,20 +856,20 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>126200</v>
       </c>
       <c r="E12" s="3">
-        <v>127300</v>
+        <v>119800</v>
       </c>
       <c r="F12" s="3">
-        <v>133800</v>
+        <v>125900</v>
       </c>
       <c r="G12" s="3">
-        <v>134400</v>
+        <v>126500</v>
       </c>
       <c r="H12" s="3">
-        <v>120800</v>
+        <v>113600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13700</v>
+        <v>12900</v>
       </c>
       <c r="E14" s="3">
-        <v>81500</v>
+        <v>76700</v>
       </c>
       <c r="F14" s="3">
-        <v>35500</v>
+        <v>33400</v>
       </c>
       <c r="G14" s="3">
-        <v>72200</v>
+        <v>68000</v>
       </c>
       <c r="H14" s="3">
-        <v>115600</v>
+        <v>108800</v>
       </c>
       <c r="I14" s="3">
-        <v>105400</v>
+        <v>99200</v>
       </c>
       <c r="J14" s="3">
-        <v>139300</v>
+        <v>131100</v>
       </c>
       <c r="K14" s="3">
         <v>82200</v>
@@ -973,20 +973,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>27600</v>
       </c>
       <c r="E15" s="3">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="F15" s="3">
-        <v>26200</v>
+        <v>24600</v>
       </c>
       <c r="G15" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="H15" s="3">
-        <v>20200</v>
+        <v>19000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7173300</v>
+        <v>6749700</v>
       </c>
       <c r="E17" s="3">
-        <v>6338200</v>
+        <v>5964000</v>
       </c>
       <c r="F17" s="3">
-        <v>6975500</v>
+        <v>6563600</v>
       </c>
       <c r="G17" s="3">
-        <v>7478600</v>
+        <v>7037000</v>
       </c>
       <c r="H17" s="3">
-        <v>7302100</v>
+        <v>6870900</v>
       </c>
       <c r="I17" s="3">
-        <v>6374200</v>
+        <v>5997800</v>
       </c>
       <c r="J17" s="3">
-        <v>6743400</v>
+        <v>6345200</v>
       </c>
       <c r="K17" s="3">
         <v>7332200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>75300</v>
+        <v>70900</v>
       </c>
       <c r="E18" s="3">
-        <v>-15900</v>
+        <v>-14900</v>
       </c>
       <c r="F18" s="3">
-        <v>148000</v>
+        <v>139300</v>
       </c>
       <c r="G18" s="3">
-        <v>245900</v>
+        <v>231400</v>
       </c>
       <c r="H18" s="3">
-        <v>233400</v>
+        <v>219700</v>
       </c>
       <c r="I18" s="3">
-        <v>195500</v>
+        <v>183900</v>
       </c>
       <c r="J18" s="3">
-        <v>71900</v>
+        <v>67600</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>110100</v>
+        <v>103600</v>
       </c>
       <c r="E20" s="3">
-        <v>209800</v>
+        <v>197500</v>
       </c>
       <c r="F20" s="3">
-        <v>125200</v>
+        <v>117800</v>
       </c>
       <c r="G20" s="3">
-        <v>64400</v>
+        <v>60600</v>
       </c>
       <c r="H20" s="3">
-        <v>112800</v>
+        <v>106100</v>
       </c>
       <c r="I20" s="3">
-        <v>49500</v>
+        <v>46600</v>
       </c>
       <c r="J20" s="3">
-        <v>123600</v>
+        <v>116300</v>
       </c>
       <c r="K20" s="3">
         <v>101700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>444800</v>
+        <v>420300</v>
       </c>
       <c r="E21" s="3">
-        <v>441300</v>
+        <v>417000</v>
       </c>
       <c r="F21" s="3">
-        <v>499500</v>
+        <v>471600</v>
       </c>
       <c r="G21" s="3">
-        <v>512300</v>
+        <v>483500</v>
       </c>
       <c r="H21" s="3">
-        <v>539300</v>
+        <v>508800</v>
       </c>
       <c r="I21" s="3">
-        <v>424700</v>
+        <v>400900</v>
       </c>
       <c r="J21" s="3">
-        <v>374200</v>
+        <v>353300</v>
       </c>
       <c r="K21" s="3">
         <v>366200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E22" s="3">
         <v>26300</v>
       </c>
-      <c r="E22" s="3">
-        <v>27900</v>
-      </c>
       <c r="F22" s="3">
-        <v>33700</v>
+        <v>31700</v>
       </c>
       <c r="G22" s="3">
-        <v>31700</v>
+        <v>29900</v>
       </c>
       <c r="H22" s="3">
-        <v>31000</v>
+        <v>29200</v>
       </c>
       <c r="I22" s="3">
-        <v>27100</v>
+        <v>25500</v>
       </c>
       <c r="J22" s="3">
-        <v>28900</v>
+        <v>27200</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>159100</v>
+        <v>149800</v>
       </c>
       <c r="E23" s="3">
-        <v>166100</v>
+        <v>156200</v>
       </c>
       <c r="F23" s="3">
-        <v>239600</v>
+        <v>225400</v>
       </c>
       <c r="G23" s="3">
-        <v>278500</v>
+        <v>262100</v>
       </c>
       <c r="H23" s="3">
-        <v>315200</v>
+        <v>296600</v>
       </c>
       <c r="I23" s="3">
-        <v>217800</v>
+        <v>205000</v>
       </c>
       <c r="J23" s="3">
-        <v>166600</v>
+        <v>156700</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>52700</v>
       </c>
       <c r="E24" s="3">
-        <v>71800</v>
+        <v>67600</v>
       </c>
       <c r="F24" s="3">
-        <v>91600</v>
+        <v>86200</v>
       </c>
       <c r="G24" s="3">
-        <v>25800</v>
+        <v>24300</v>
       </c>
       <c r="H24" s="3">
-        <v>63500</v>
+        <v>59700</v>
       </c>
       <c r="I24" s="3">
-        <v>43100</v>
+        <v>40600</v>
       </c>
       <c r="J24" s="3">
-        <v>61800</v>
+        <v>58200</v>
       </c>
       <c r="K24" s="3">
         <v>57100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103100</v>
+        <v>97000</v>
       </c>
       <c r="E26" s="3">
-        <v>94200</v>
+        <v>88700</v>
       </c>
       <c r="F26" s="3">
-        <v>148000</v>
+        <v>139200</v>
       </c>
       <c r="G26" s="3">
-        <v>252800</v>
+        <v>237800</v>
       </c>
       <c r="H26" s="3">
-        <v>251700</v>
+        <v>236900</v>
       </c>
       <c r="I26" s="3">
-        <v>174700</v>
+        <v>164400</v>
       </c>
       <c r="J26" s="3">
-        <v>104700</v>
+        <v>98500</v>
       </c>
       <c r="K26" s="3">
         <v>80800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="E27" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="F27" s="3">
-        <v>137400</v>
+        <v>129300</v>
       </c>
       <c r="G27" s="3">
-        <v>226800</v>
+        <v>213400</v>
       </c>
       <c r="H27" s="3">
-        <v>222400</v>
+        <v>209200</v>
       </c>
       <c r="I27" s="3">
-        <v>136900</v>
+        <v>128800</v>
       </c>
       <c r="J27" s="3">
-        <v>78000</v>
+        <v>73400</v>
       </c>
       <c r="K27" s="3">
         <v>62700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-110100</v>
+        <v>-103600</v>
       </c>
       <c r="E32" s="3">
-        <v>-209800</v>
+        <v>-197500</v>
       </c>
       <c r="F32" s="3">
-        <v>-125200</v>
+        <v>-117800</v>
       </c>
       <c r="G32" s="3">
-        <v>-64400</v>
+        <v>-60600</v>
       </c>
       <c r="H32" s="3">
-        <v>-112800</v>
+        <v>-106100</v>
       </c>
       <c r="I32" s="3">
-        <v>-49500</v>
+        <v>-46600</v>
       </c>
       <c r="J32" s="3">
-        <v>-123600</v>
+        <v>-116300</v>
       </c>
       <c r="K32" s="3">
         <v>-101700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="E33" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="F33" s="3">
-        <v>137400</v>
+        <v>129300</v>
       </c>
       <c r="G33" s="3">
-        <v>226800</v>
+        <v>213400</v>
       </c>
       <c r="H33" s="3">
-        <v>222400</v>
+        <v>209200</v>
       </c>
       <c r="I33" s="3">
-        <v>136900</v>
+        <v>128800</v>
       </c>
       <c r="J33" s="3">
-        <v>78000</v>
+        <v>73400</v>
       </c>
       <c r="K33" s="3">
         <v>62700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="E35" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="F35" s="3">
-        <v>137400</v>
+        <v>129300</v>
       </c>
       <c r="G35" s="3">
-        <v>226800</v>
+        <v>213400</v>
       </c>
       <c r="H35" s="3">
-        <v>222400</v>
+        <v>209200</v>
       </c>
       <c r="I35" s="3">
-        <v>136900</v>
+        <v>128800</v>
       </c>
       <c r="J35" s="3">
-        <v>78000</v>
+        <v>73400</v>
       </c>
       <c r="K35" s="3">
         <v>62700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>507500</v>
+        <v>477600</v>
       </c>
       <c r="E41" s="3">
-        <v>657200</v>
+        <v>618400</v>
       </c>
       <c r="F41" s="3">
-        <v>423400</v>
+        <v>398400</v>
       </c>
       <c r="G41" s="3">
-        <v>347700</v>
+        <v>327100</v>
       </c>
       <c r="H41" s="3">
-        <v>394400</v>
+        <v>371200</v>
       </c>
       <c r="I41" s="3">
-        <v>367400</v>
+        <v>345700</v>
       </c>
       <c r="J41" s="3">
-        <v>409000</v>
+        <v>384900</v>
       </c>
       <c r="K41" s="3">
         <v>256000</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25400</v>
+        <v>23900</v>
       </c>
       <c r="E42" s="3">
-        <v>22800</v>
+        <v>21400</v>
       </c>
       <c r="F42" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1786100</v>
+        <v>1680600</v>
       </c>
       <c r="E43" s="3">
-        <v>1488200</v>
+        <v>1400300</v>
       </c>
       <c r="F43" s="3">
-        <v>1489900</v>
+        <v>1401900</v>
       </c>
       <c r="G43" s="3">
-        <v>1700200</v>
+        <v>1599800</v>
       </c>
       <c r="H43" s="3">
-        <v>1738100</v>
+        <v>1635500</v>
       </c>
       <c r="I43" s="3">
-        <v>1539600</v>
+        <v>1448600</v>
       </c>
       <c r="J43" s="3">
-        <v>1445900</v>
+        <v>1360600</v>
       </c>
       <c r="K43" s="3">
         <v>1612800</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1278500</v>
+        <v>1203000</v>
       </c>
       <c r="E44" s="3">
-        <v>941300</v>
+        <v>885700</v>
       </c>
       <c r="F44" s="3">
-        <v>902600</v>
+        <v>849300</v>
       </c>
       <c r="G44" s="3">
-        <v>957300</v>
+        <v>900800</v>
       </c>
       <c r="H44" s="3">
-        <v>886400</v>
+        <v>834100</v>
       </c>
       <c r="I44" s="3">
-        <v>812900</v>
+        <v>764900</v>
       </c>
       <c r="J44" s="3">
-        <v>725800</v>
+        <v>682900</v>
       </c>
       <c r="K44" s="3">
         <v>848200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>320600</v>
+        <v>301700</v>
       </c>
       <c r="E45" s="3">
-        <v>238800</v>
+        <v>224700</v>
       </c>
       <c r="F45" s="3">
-        <v>185400</v>
+        <v>174500</v>
       </c>
       <c r="G45" s="3">
-        <v>252100</v>
+        <v>237300</v>
       </c>
       <c r="H45" s="3">
-        <v>300500</v>
+        <v>282800</v>
       </c>
       <c r="I45" s="3">
-        <v>258600</v>
+        <v>243300</v>
       </c>
       <c r="J45" s="3">
-        <v>255000</v>
+        <v>239900</v>
       </c>
       <c r="K45" s="3">
         <v>428800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3918100</v>
+        <v>3686700</v>
       </c>
       <c r="E46" s="3">
-        <v>3348200</v>
+        <v>3150500</v>
       </c>
       <c r="F46" s="3">
-        <v>3008300</v>
+        <v>2830700</v>
       </c>
       <c r="G46" s="3">
-        <v>3275800</v>
+        <v>3082400</v>
       </c>
       <c r="H46" s="3">
-        <v>3242100</v>
+        <v>3050700</v>
       </c>
       <c r="I46" s="3">
-        <v>2978900</v>
+        <v>2803000</v>
       </c>
       <c r="J46" s="3">
-        <v>2835800</v>
+        <v>2668300</v>
       </c>
       <c r="K46" s="3">
         <v>3146000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>949900</v>
+        <v>893800</v>
       </c>
       <c r="E47" s="3">
-        <v>854100</v>
+        <v>803700</v>
       </c>
       <c r="F47" s="3">
-        <v>828300</v>
+        <v>779400</v>
       </c>
       <c r="G47" s="3">
-        <v>967600</v>
+        <v>910500</v>
       </c>
       <c r="H47" s="3">
-        <v>1068200</v>
+        <v>1005100</v>
       </c>
       <c r="I47" s="3">
-        <v>1020900</v>
+        <v>960600</v>
       </c>
       <c r="J47" s="3">
-        <v>882400</v>
+        <v>830300</v>
       </c>
       <c r="K47" s="3">
         <v>1175900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2026700</v>
+        <v>1907000</v>
       </c>
       <c r="E48" s="3">
-        <v>1922100</v>
+        <v>1808600</v>
       </c>
       <c r="F48" s="3">
-        <v>1980400</v>
+        <v>1863400</v>
       </c>
       <c r="G48" s="3">
-        <v>1786700</v>
+        <v>1681200</v>
       </c>
       <c r="H48" s="3">
-        <v>1877500</v>
+        <v>1766700</v>
       </c>
       <c r="I48" s="3">
-        <v>1600800</v>
+        <v>1506200</v>
       </c>
       <c r="J48" s="3">
-        <v>1531100</v>
+        <v>1440700</v>
       </c>
       <c r="K48" s="3">
         <v>1699300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>159900</v>
+        <v>150400</v>
       </c>
       <c r="E49" s="3">
-        <v>157700</v>
+        <v>148400</v>
       </c>
       <c r="F49" s="3">
-        <v>125400</v>
+        <v>118000</v>
       </c>
       <c r="G49" s="3">
-        <v>95100</v>
+        <v>89500</v>
       </c>
       <c r="H49" s="3">
-        <v>88100</v>
+        <v>82900</v>
       </c>
       <c r="I49" s="3">
-        <v>75900</v>
+        <v>71400</v>
       </c>
       <c r="J49" s="3">
-        <v>66300</v>
+        <v>62400</v>
       </c>
       <c r="K49" s="3">
         <v>77000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>236000</v>
+        <v>222000</v>
       </c>
       <c r="E52" s="3">
-        <v>199400</v>
+        <v>187600</v>
       </c>
       <c r="F52" s="3">
-        <v>247600</v>
+        <v>233000</v>
       </c>
       <c r="G52" s="3">
-        <v>247200</v>
+        <v>232600</v>
       </c>
       <c r="H52" s="3">
-        <v>259800</v>
+        <v>244400</v>
       </c>
       <c r="I52" s="3">
-        <v>167000</v>
+        <v>157200</v>
       </c>
       <c r="J52" s="3">
-        <v>182000</v>
+        <v>171300</v>
       </c>
       <c r="K52" s="3">
         <v>163800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7290500</v>
+        <v>6860000</v>
       </c>
       <c r="E54" s="3">
-        <v>6481600</v>
+        <v>6098900</v>
       </c>
       <c r="F54" s="3">
-        <v>6190100</v>
+        <v>5824500</v>
       </c>
       <c r="G54" s="3">
-        <v>6372400</v>
+        <v>5996100</v>
       </c>
       <c r="H54" s="3">
-        <v>6299200</v>
+        <v>5927300</v>
       </c>
       <c r="I54" s="3">
-        <v>5843500</v>
+        <v>5498400</v>
       </c>
       <c r="J54" s="3">
-        <v>5497600</v>
+        <v>5173000</v>
       </c>
       <c r="K54" s="3">
         <v>6262100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>997000</v>
+        <v>938200</v>
       </c>
       <c r="E57" s="3">
-        <v>899800</v>
+        <v>846600</v>
       </c>
       <c r="F57" s="3">
-        <v>869300</v>
+        <v>817900</v>
       </c>
       <c r="G57" s="3">
-        <v>1023800</v>
+        <v>963300</v>
       </c>
       <c r="H57" s="3">
-        <v>969000</v>
+        <v>911800</v>
       </c>
       <c r="I57" s="3">
-        <v>842000</v>
+        <v>792300</v>
       </c>
       <c r="J57" s="3">
-        <v>782100</v>
+        <v>735900</v>
       </c>
       <c r="K57" s="3">
         <v>941700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1316500</v>
+        <v>1250100</v>
       </c>
       <c r="E58" s="3">
-        <v>1051900</v>
+        <v>989800</v>
       </c>
       <c r="F58" s="3">
-        <v>989900</v>
+        <v>931500</v>
       </c>
       <c r="G58" s="3">
-        <v>831300</v>
+        <v>782200</v>
       </c>
       <c r="H58" s="3">
-        <v>905800</v>
+        <v>852300</v>
       </c>
       <c r="I58" s="3">
-        <v>781400</v>
+        <v>735300</v>
       </c>
       <c r="J58" s="3">
-        <v>964500</v>
+        <v>907500</v>
       </c>
       <c r="K58" s="3">
         <v>910600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>644500</v>
+        <v>595000</v>
       </c>
       <c r="E59" s="3">
-        <v>503700</v>
+        <v>474000</v>
       </c>
       <c r="F59" s="3">
-        <v>630900</v>
+        <v>593600</v>
       </c>
       <c r="G59" s="3">
-        <v>728300</v>
+        <v>685300</v>
       </c>
       <c r="H59" s="3">
-        <v>698500</v>
+        <v>657300</v>
       </c>
       <c r="I59" s="3">
-        <v>661900</v>
+        <v>622800</v>
       </c>
       <c r="J59" s="3">
-        <v>585300</v>
+        <v>550700</v>
       </c>
       <c r="K59" s="3">
         <v>597100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2958000</v>
+        <v>2783300</v>
       </c>
       <c r="E60" s="3">
-        <v>2455400</v>
+        <v>2310400</v>
       </c>
       <c r="F60" s="3">
-        <v>2490100</v>
+        <v>2343000</v>
       </c>
       <c r="G60" s="3">
-        <v>2583300</v>
+        <v>2430800</v>
       </c>
       <c r="H60" s="3">
-        <v>2573300</v>
+        <v>2421400</v>
       </c>
       <c r="I60" s="3">
-        <v>2285300</v>
+        <v>2150400</v>
       </c>
       <c r="J60" s="3">
-        <v>2331900</v>
+        <v>2194200</v>
       </c>
       <c r="K60" s="3">
         <v>2449400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1348600</v>
+        <v>1324600</v>
       </c>
       <c r="E61" s="3">
-        <v>1271200</v>
+        <v>1196200</v>
       </c>
       <c r="F61" s="3">
-        <v>1028500</v>
+        <v>967800</v>
       </c>
       <c r="G61" s="3">
-        <v>1085100</v>
+        <v>1021100</v>
       </c>
       <c r="H61" s="3">
-        <v>1107900</v>
+        <v>1042500</v>
       </c>
       <c r="I61" s="3">
-        <v>1185900</v>
+        <v>1115900</v>
       </c>
       <c r="J61" s="3">
-        <v>1065700</v>
+        <v>1002800</v>
       </c>
       <c r="K61" s="3">
         <v>1431200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>537300</v>
+        <v>450000</v>
       </c>
       <c r="E62" s="3">
-        <v>483300</v>
+        <v>454700</v>
       </c>
       <c r="F62" s="3">
-        <v>544600</v>
+        <v>512400</v>
       </c>
       <c r="G62" s="3">
-        <v>523400</v>
+        <v>492500</v>
       </c>
       <c r="H62" s="3">
-        <v>572700</v>
+        <v>538900</v>
       </c>
       <c r="I62" s="3">
-        <v>525600</v>
+        <v>494600</v>
       </c>
       <c r="J62" s="3">
-        <v>553100</v>
+        <v>520400</v>
       </c>
       <c r="K62" s="3">
         <v>549800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5115400</v>
+        <v>4813300</v>
       </c>
       <c r="E66" s="3">
-        <v>4457200</v>
+        <v>4194000</v>
       </c>
       <c r="F66" s="3">
-        <v>4318300</v>
+        <v>4063300</v>
       </c>
       <c r="G66" s="3">
-        <v>4443100</v>
+        <v>4180800</v>
       </c>
       <c r="H66" s="3">
-        <v>4456800</v>
+        <v>4193600</v>
       </c>
       <c r="I66" s="3">
-        <v>4233200</v>
+        <v>3983200</v>
       </c>
       <c r="J66" s="3">
-        <v>4148700</v>
+        <v>3903700</v>
       </c>
       <c r="K66" s="3">
         <v>4635100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1358200</v>
+        <v>1278000</v>
       </c>
       <c r="E72" s="3">
-        <v>1312900</v>
+        <v>1235400</v>
       </c>
       <c r="F72" s="3">
-        <v>1286100</v>
+        <v>1210200</v>
       </c>
       <c r="G72" s="3">
-        <v>1182100</v>
+        <v>1112300</v>
       </c>
       <c r="H72" s="3">
-        <v>998100</v>
+        <v>939200</v>
       </c>
       <c r="I72" s="3">
-        <v>809700</v>
+        <v>761900</v>
       </c>
       <c r="J72" s="3">
-        <v>703500</v>
+        <v>662000</v>
       </c>
       <c r="K72" s="3">
         <v>710300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2175100</v>
+        <v>2046700</v>
       </c>
       <c r="E76" s="3">
-        <v>2024400</v>
+        <v>1904800</v>
       </c>
       <c r="F76" s="3">
-        <v>1871800</v>
+        <v>1761300</v>
       </c>
       <c r="G76" s="3">
-        <v>1929300</v>
+        <v>1815300</v>
       </c>
       <c r="H76" s="3">
-        <v>1842500</v>
+        <v>1733700</v>
       </c>
       <c r="I76" s="3">
-        <v>1610300</v>
+        <v>1515200</v>
       </c>
       <c r="J76" s="3">
-        <v>1348900</v>
+        <v>1269300</v>
       </c>
       <c r="K76" s="3">
         <v>1627000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="E81" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="F81" s="3">
-        <v>137400</v>
+        <v>129300</v>
       </c>
       <c r="G81" s="3">
-        <v>226800</v>
+        <v>213400</v>
       </c>
       <c r="H81" s="3">
-        <v>222400</v>
+        <v>209200</v>
       </c>
       <c r="I81" s="3">
-        <v>136900</v>
+        <v>128800</v>
       </c>
       <c r="J81" s="3">
-        <v>78000</v>
+        <v>73400</v>
       </c>
       <c r="K81" s="3">
         <v>62700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>262700</v>
+        <v>247200</v>
       </c>
       <c r="E83" s="3">
-        <v>250500</v>
+        <v>235800</v>
       </c>
       <c r="F83" s="3">
-        <v>229200</v>
+        <v>215700</v>
       </c>
       <c r="G83" s="3">
-        <v>204700</v>
+        <v>192600</v>
       </c>
       <c r="H83" s="3">
-        <v>195600</v>
+        <v>184000</v>
       </c>
       <c r="I83" s="3">
-        <v>182100</v>
+        <v>171300</v>
       </c>
       <c r="J83" s="3">
-        <v>181000</v>
+        <v>170300</v>
       </c>
       <c r="K83" s="3">
         <v>192000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-98800</v>
+        <v>-93000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F89" s="3">
-        <v>330600</v>
+        <v>311100</v>
       </c>
       <c r="G89" s="3">
-        <v>363700</v>
+        <v>342200</v>
       </c>
       <c r="H89" s="3">
-        <v>302500</v>
+        <v>284600</v>
       </c>
       <c r="I89" s="3">
-        <v>323600</v>
+        <v>304500</v>
       </c>
       <c r="J89" s="3">
-        <v>331800</v>
+        <v>312200</v>
       </c>
       <c r="K89" s="3">
         <v>356300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284300</v>
+        <v>-267500</v>
       </c>
       <c r="E91" s="3">
-        <v>-260100</v>
+        <v>-244700</v>
       </c>
       <c r="F91" s="3">
-        <v>-368600</v>
+        <v>-346800</v>
       </c>
       <c r="G91" s="3">
-        <v>-335400</v>
+        <v>-315600</v>
       </c>
       <c r="H91" s="3">
-        <v>-267600</v>
+        <v>-251800</v>
       </c>
       <c r="I91" s="3">
-        <v>-221600</v>
+        <v>-208500</v>
       </c>
       <c r="J91" s="3">
-        <v>-199800</v>
+        <v>-188000</v>
       </c>
       <c r="K91" s="3">
         <v>-236100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312200</v>
+        <v>-293700</v>
       </c>
       <c r="E94" s="3">
-        <v>-14900</v>
+        <v>-14000</v>
       </c>
       <c r="F94" s="3">
-        <v>-258000</v>
+        <v>-242800</v>
       </c>
       <c r="G94" s="3">
-        <v>-241800</v>
+        <v>-227500</v>
       </c>
       <c r="H94" s="3">
-        <v>-267300</v>
+        <v>-251600</v>
       </c>
       <c r="I94" s="3">
-        <v>-283300</v>
+        <v>-266500</v>
       </c>
       <c r="J94" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="K94" s="3">
         <v>-200700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33000</v>
+        <v>-31100</v>
       </c>
       <c r="E96" s="3">
-        <v>-46700</v>
+        <v>-44000</v>
       </c>
       <c r="F96" s="3">
-        <v>-46700</v>
+        <v>-44000</v>
       </c>
       <c r="G96" s="3">
-        <v>-44000</v>
+        <v>-41400</v>
       </c>
       <c r="H96" s="3">
-        <v>-30300</v>
+        <v>-28500</v>
       </c>
       <c r="I96" s="3">
-        <v>-22000</v>
+        <v>-20700</v>
       </c>
       <c r="J96" s="3">
-        <v>-16500</v>
+        <v>-15500</v>
       </c>
       <c r="K96" s="3">
         <v>-18000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>272800</v>
+        <v>256700</v>
       </c>
       <c r="E100" s="3">
-        <v>273700</v>
+        <v>257600</v>
       </c>
       <c r="F100" s="3">
         <v>-1300</v>
       </c>
       <c r="G100" s="3">
-        <v>-151200</v>
+        <v>-142300</v>
       </c>
       <c r="H100" s="3">
-        <v>-15100</v>
+        <v>-14200</v>
       </c>
       <c r="I100" s="3">
-        <v>-80800</v>
+        <v>-76100</v>
       </c>
       <c r="J100" s="3">
-        <v>-163100</v>
+        <v>-153500</v>
       </c>
       <c r="K100" s="3">
         <v>-132500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14100</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="G101" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H101" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152300</v>
+        <v>-143300</v>
       </c>
       <c r="E102" s="3">
-        <v>250300</v>
+        <v>235500</v>
       </c>
       <c r="F102" s="3">
-        <v>64000</v>
+        <v>60200</v>
       </c>
       <c r="G102" s="3">
-        <v>-22700</v>
+        <v>-21400</v>
       </c>
       <c r="H102" s="3">
-        <v>28100</v>
+        <v>26500</v>
       </c>
       <c r="I102" s="3">
-        <v>-42900</v>
+        <v>-40400</v>
       </c>
       <c r="J102" s="3">
-        <v>172700</v>
+        <v>162500</v>
       </c>
       <c r="K102" s="3">
         <v>35600</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6820500</v>
+        <v>6597200</v>
       </c>
       <c r="E8" s="3">
-        <v>5949000</v>
+        <v>5754200</v>
       </c>
       <c r="F8" s="3">
-        <v>6702800</v>
+        <v>6483400</v>
       </c>
       <c r="G8" s="3">
-        <v>7268400</v>
+        <v>7030400</v>
       </c>
       <c r="H8" s="3">
-        <v>7090600</v>
+        <v>6858400</v>
       </c>
       <c r="I8" s="3">
-        <v>6181700</v>
+        <v>5979300</v>
       </c>
       <c r="J8" s="3">
-        <v>6412900</v>
+        <v>6202900</v>
       </c>
       <c r="K8" s="3">
         <v>7402500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5803900</v>
+        <v>5613900</v>
       </c>
       <c r="E9" s="3">
-        <v>5001200</v>
+        <v>4837400</v>
       </c>
       <c r="F9" s="3">
-        <v>5601600</v>
+        <v>5418200</v>
       </c>
       <c r="G9" s="3">
-        <v>6043400</v>
+        <v>5845600</v>
       </c>
       <c r="H9" s="3">
-        <v>5874300</v>
+        <v>5682000</v>
       </c>
       <c r="I9" s="3">
-        <v>5051500</v>
+        <v>4886100</v>
       </c>
       <c r="J9" s="3">
-        <v>5379800</v>
+        <v>5203700</v>
       </c>
       <c r="K9" s="3">
         <v>6347100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1016600</v>
+        <v>983300</v>
       </c>
       <c r="E10" s="3">
-        <v>947900</v>
+        <v>916800</v>
       </c>
       <c r="F10" s="3">
-        <v>1101300</v>
+        <v>1065200</v>
       </c>
       <c r="G10" s="3">
-        <v>1224900</v>
+        <v>1184800</v>
       </c>
       <c r="H10" s="3">
-        <v>1216200</v>
+        <v>1176400</v>
       </c>
       <c r="I10" s="3">
-        <v>1130200</v>
+        <v>1093200</v>
       </c>
       <c r="J10" s="3">
-        <v>1033100</v>
+        <v>999200</v>
       </c>
       <c r="K10" s="3">
         <v>1055300</v>
@@ -857,19 +857,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>126200</v>
+        <v>122000</v>
       </c>
       <c r="E12" s="3">
-        <v>119800</v>
+        <v>115800</v>
       </c>
       <c r="F12" s="3">
-        <v>125900</v>
+        <v>121800</v>
       </c>
       <c r="G12" s="3">
-        <v>126500</v>
+        <v>122400</v>
       </c>
       <c r="H12" s="3">
-        <v>113600</v>
+        <v>109900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="E14" s="3">
-        <v>76700</v>
+        <v>74200</v>
       </c>
       <c r="F14" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="G14" s="3">
-        <v>68000</v>
+        <v>65700</v>
       </c>
       <c r="H14" s="3">
-        <v>108800</v>
+        <v>105200</v>
       </c>
       <c r="I14" s="3">
-        <v>99200</v>
+        <v>95900</v>
       </c>
       <c r="J14" s="3">
-        <v>131100</v>
+        <v>126800</v>
       </c>
       <c r="K14" s="3">
         <v>82200</v>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="E15" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="F15" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="G15" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="H15" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6749700</v>
+        <v>6528700</v>
       </c>
       <c r="E17" s="3">
-        <v>5964000</v>
+        <v>5768700</v>
       </c>
       <c r="F17" s="3">
-        <v>6563600</v>
+        <v>6348600</v>
       </c>
       <c r="G17" s="3">
-        <v>7037000</v>
+        <v>6806500</v>
       </c>
       <c r="H17" s="3">
-        <v>6870900</v>
+        <v>6645900</v>
       </c>
       <c r="I17" s="3">
-        <v>5997800</v>
+        <v>5801400</v>
       </c>
       <c r="J17" s="3">
-        <v>6345200</v>
+        <v>6137500</v>
       </c>
       <c r="K17" s="3">
         <v>7332200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70900</v>
+        <v>68500</v>
       </c>
       <c r="E18" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
-        <v>139300</v>
+        <v>134700</v>
       </c>
       <c r="G18" s="3">
-        <v>231400</v>
+        <v>223800</v>
       </c>
       <c r="H18" s="3">
-        <v>219700</v>
+        <v>212500</v>
       </c>
       <c r="I18" s="3">
-        <v>183900</v>
+        <v>177900</v>
       </c>
       <c r="J18" s="3">
-        <v>67600</v>
+        <v>65400</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>103600</v>
+        <v>100200</v>
       </c>
       <c r="E20" s="3">
-        <v>197500</v>
+        <v>191000</v>
       </c>
       <c r="F20" s="3">
-        <v>117800</v>
+        <v>114000</v>
       </c>
       <c r="G20" s="3">
-        <v>60600</v>
+        <v>58600</v>
       </c>
       <c r="H20" s="3">
-        <v>106100</v>
+        <v>102600</v>
       </c>
       <c r="I20" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="J20" s="3">
-        <v>116300</v>
+        <v>112500</v>
       </c>
       <c r="K20" s="3">
         <v>101700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>420300</v>
+        <v>399100</v>
       </c>
       <c r="E21" s="3">
-        <v>417000</v>
+        <v>396200</v>
       </c>
       <c r="F21" s="3">
-        <v>471600</v>
+        <v>449700</v>
       </c>
       <c r="G21" s="3">
-        <v>483500</v>
+        <v>461800</v>
       </c>
       <c r="H21" s="3">
-        <v>508800</v>
+        <v>486600</v>
       </c>
       <c r="I21" s="3">
-        <v>400900</v>
+        <v>382600</v>
       </c>
       <c r="J21" s="3">
-        <v>353300</v>
+        <v>336600</v>
       </c>
       <c r="K21" s="3">
         <v>366200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="I22" s="3">
         <v>24700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="J22" s="3">
         <v>26300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>31700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>29200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>27200</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>149800</v>
+        <v>144800</v>
       </c>
       <c r="E23" s="3">
-        <v>156200</v>
+        <v>151100</v>
       </c>
       <c r="F23" s="3">
-        <v>225400</v>
+        <v>218000</v>
       </c>
       <c r="G23" s="3">
-        <v>262100</v>
+        <v>253500</v>
       </c>
       <c r="H23" s="3">
-        <v>296600</v>
+        <v>286900</v>
       </c>
       <c r="I23" s="3">
-        <v>205000</v>
+        <v>198300</v>
       </c>
       <c r="J23" s="3">
-        <v>156700</v>
+        <v>151600</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52700</v>
+        <v>51000</v>
       </c>
       <c r="E24" s="3">
-        <v>67600</v>
+        <v>65400</v>
       </c>
       <c r="F24" s="3">
-        <v>86200</v>
+        <v>83300</v>
       </c>
       <c r="G24" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="H24" s="3">
-        <v>59700</v>
+        <v>57800</v>
       </c>
       <c r="I24" s="3">
-        <v>40600</v>
+        <v>39200</v>
       </c>
       <c r="J24" s="3">
-        <v>58200</v>
+        <v>56300</v>
       </c>
       <c r="K24" s="3">
         <v>57100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>97000</v>
+        <v>93900</v>
       </c>
       <c r="E26" s="3">
-        <v>88700</v>
+        <v>85800</v>
       </c>
       <c r="F26" s="3">
-        <v>139200</v>
+        <v>134700</v>
       </c>
       <c r="G26" s="3">
-        <v>237800</v>
+        <v>230000</v>
       </c>
       <c r="H26" s="3">
-        <v>236900</v>
+        <v>229100</v>
       </c>
       <c r="I26" s="3">
-        <v>164400</v>
+        <v>159000</v>
       </c>
       <c r="J26" s="3">
-        <v>98500</v>
+        <v>95300</v>
       </c>
       <c r="K26" s="3">
         <v>80800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74000</v>
+        <v>71600</v>
       </c>
       <c r="E27" s="3">
-        <v>73300</v>
+        <v>70900</v>
       </c>
       <c r="F27" s="3">
-        <v>129300</v>
+        <v>125100</v>
       </c>
       <c r="G27" s="3">
-        <v>213400</v>
+        <v>206400</v>
       </c>
       <c r="H27" s="3">
-        <v>209200</v>
+        <v>202400</v>
       </c>
       <c r="I27" s="3">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="J27" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="K27" s="3">
         <v>62700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-103600</v>
+        <v>-100200</v>
       </c>
       <c r="E32" s="3">
-        <v>-197500</v>
+        <v>-191000</v>
       </c>
       <c r="F32" s="3">
-        <v>-117800</v>
+        <v>-114000</v>
       </c>
       <c r="G32" s="3">
-        <v>-60600</v>
+        <v>-58600</v>
       </c>
       <c r="H32" s="3">
-        <v>-106100</v>
+        <v>-102600</v>
       </c>
       <c r="I32" s="3">
-        <v>-46600</v>
+        <v>-45100</v>
       </c>
       <c r="J32" s="3">
-        <v>-116300</v>
+        <v>-112500</v>
       </c>
       <c r="K32" s="3">
         <v>-101700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74000</v>
+        <v>71600</v>
       </c>
       <c r="E33" s="3">
-        <v>73300</v>
+        <v>70900</v>
       </c>
       <c r="F33" s="3">
-        <v>129300</v>
+        <v>125100</v>
       </c>
       <c r="G33" s="3">
-        <v>213400</v>
+        <v>206400</v>
       </c>
       <c r="H33" s="3">
-        <v>209200</v>
+        <v>202400</v>
       </c>
       <c r="I33" s="3">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="J33" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="K33" s="3">
         <v>62700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74000</v>
+        <v>71600</v>
       </c>
       <c r="E35" s="3">
-        <v>73300</v>
+        <v>70900</v>
       </c>
       <c r="F35" s="3">
-        <v>129300</v>
+        <v>125100</v>
       </c>
       <c r="G35" s="3">
-        <v>213400</v>
+        <v>206400</v>
       </c>
       <c r="H35" s="3">
-        <v>209200</v>
+        <v>202400</v>
       </c>
       <c r="I35" s="3">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="J35" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="K35" s="3">
         <v>62700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>477600</v>
+        <v>461900</v>
       </c>
       <c r="E41" s="3">
-        <v>618400</v>
+        <v>598100</v>
       </c>
       <c r="F41" s="3">
-        <v>398400</v>
+        <v>385400</v>
       </c>
       <c r="G41" s="3">
-        <v>327100</v>
+        <v>316400</v>
       </c>
       <c r="H41" s="3">
-        <v>371200</v>
+        <v>359000</v>
       </c>
       <c r="I41" s="3">
-        <v>345700</v>
+        <v>334400</v>
       </c>
       <c r="J41" s="3">
-        <v>384900</v>
+        <v>372300</v>
       </c>
       <c r="K41" s="3">
         <v>256000</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="E42" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="F42" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G42" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1680600</v>
+        <v>1625600</v>
       </c>
       <c r="E43" s="3">
-        <v>1400300</v>
+        <v>1354400</v>
       </c>
       <c r="F43" s="3">
-        <v>1401900</v>
+        <v>1356000</v>
       </c>
       <c r="G43" s="3">
-        <v>1599800</v>
+        <v>1547400</v>
       </c>
       <c r="H43" s="3">
-        <v>1635500</v>
+        <v>1581900</v>
       </c>
       <c r="I43" s="3">
-        <v>1448600</v>
+        <v>1401200</v>
       </c>
       <c r="J43" s="3">
-        <v>1360600</v>
+        <v>1316000</v>
       </c>
       <c r="K43" s="3">
         <v>1612800</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1203000</v>
+        <v>1163600</v>
       </c>
       <c r="E44" s="3">
-        <v>885700</v>
+        <v>856700</v>
       </c>
       <c r="F44" s="3">
-        <v>849300</v>
+        <v>821500</v>
       </c>
       <c r="G44" s="3">
-        <v>900800</v>
+        <v>871300</v>
       </c>
       <c r="H44" s="3">
-        <v>834100</v>
+        <v>806800</v>
       </c>
       <c r="I44" s="3">
-        <v>764900</v>
+        <v>739900</v>
       </c>
       <c r="J44" s="3">
-        <v>682900</v>
+        <v>660500</v>
       </c>
       <c r="K44" s="3">
         <v>848200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>301700</v>
+        <v>291800</v>
       </c>
       <c r="E45" s="3">
-        <v>224700</v>
+        <v>217300</v>
       </c>
       <c r="F45" s="3">
-        <v>174500</v>
+        <v>168800</v>
       </c>
       <c r="G45" s="3">
-        <v>237300</v>
+        <v>229500</v>
       </c>
       <c r="H45" s="3">
-        <v>282800</v>
+        <v>273500</v>
       </c>
       <c r="I45" s="3">
-        <v>243300</v>
+        <v>235300</v>
       </c>
       <c r="J45" s="3">
-        <v>239900</v>
+        <v>232000</v>
       </c>
       <c r="K45" s="3">
         <v>428800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3686700</v>
+        <v>3566000</v>
       </c>
       <c r="E46" s="3">
-        <v>3150500</v>
+        <v>3047400</v>
       </c>
       <c r="F46" s="3">
-        <v>2830700</v>
+        <v>2738000</v>
       </c>
       <c r="G46" s="3">
-        <v>3082400</v>
+        <v>2981400</v>
       </c>
       <c r="H46" s="3">
-        <v>3050700</v>
+        <v>2950800</v>
       </c>
       <c r="I46" s="3">
-        <v>2803000</v>
+        <v>2711200</v>
       </c>
       <c r="J46" s="3">
-        <v>2668300</v>
+        <v>2581000</v>
       </c>
       <c r="K46" s="3">
         <v>3146000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>893800</v>
+        <v>864500</v>
       </c>
       <c r="E47" s="3">
-        <v>803700</v>
+        <v>777300</v>
       </c>
       <c r="F47" s="3">
-        <v>779400</v>
+        <v>753900</v>
       </c>
       <c r="G47" s="3">
-        <v>910500</v>
+        <v>880700</v>
       </c>
       <c r="H47" s="3">
-        <v>1005100</v>
+        <v>972200</v>
       </c>
       <c r="I47" s="3">
-        <v>960600</v>
+        <v>929200</v>
       </c>
       <c r="J47" s="3">
-        <v>830300</v>
+        <v>803100</v>
       </c>
       <c r="K47" s="3">
         <v>1175900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1907000</v>
+        <v>1844600</v>
       </c>
       <c r="E48" s="3">
-        <v>1808600</v>
+        <v>1749400</v>
       </c>
       <c r="F48" s="3">
-        <v>1863400</v>
+        <v>1802400</v>
       </c>
       <c r="G48" s="3">
-        <v>1681200</v>
+        <v>1626200</v>
       </c>
       <c r="H48" s="3">
-        <v>1766700</v>
+        <v>1708800</v>
       </c>
       <c r="I48" s="3">
-        <v>1506200</v>
+        <v>1456900</v>
       </c>
       <c r="J48" s="3">
-        <v>1440700</v>
+        <v>1393500</v>
       </c>
       <c r="K48" s="3">
         <v>1699300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150400</v>
+        <v>145500</v>
       </c>
       <c r="E49" s="3">
-        <v>148400</v>
+        <v>143600</v>
       </c>
       <c r="F49" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="G49" s="3">
-        <v>89500</v>
+        <v>86500</v>
       </c>
       <c r="H49" s="3">
-        <v>82900</v>
+        <v>80100</v>
       </c>
       <c r="I49" s="3">
-        <v>71400</v>
+        <v>69100</v>
       </c>
       <c r="J49" s="3">
-        <v>62400</v>
+        <v>60400</v>
       </c>
       <c r="K49" s="3">
         <v>77000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222000</v>
+        <v>214800</v>
       </c>
       <c r="E52" s="3">
-        <v>187600</v>
+        <v>181500</v>
       </c>
       <c r="F52" s="3">
-        <v>233000</v>
+        <v>225400</v>
       </c>
       <c r="G52" s="3">
-        <v>232600</v>
+        <v>225000</v>
       </c>
       <c r="H52" s="3">
-        <v>244400</v>
+        <v>236400</v>
       </c>
       <c r="I52" s="3">
-        <v>157200</v>
+        <v>152000</v>
       </c>
       <c r="J52" s="3">
-        <v>171300</v>
+        <v>165700</v>
       </c>
       <c r="K52" s="3">
         <v>163800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6860000</v>
+        <v>6635400</v>
       </c>
       <c r="E54" s="3">
-        <v>6098900</v>
+        <v>5899200</v>
       </c>
       <c r="F54" s="3">
-        <v>5824500</v>
+        <v>5633800</v>
       </c>
       <c r="G54" s="3">
-        <v>5996100</v>
+        <v>5799800</v>
       </c>
       <c r="H54" s="3">
-        <v>5927300</v>
+        <v>5733200</v>
       </c>
       <c r="I54" s="3">
-        <v>5498400</v>
+        <v>5318400</v>
       </c>
       <c r="J54" s="3">
-        <v>5173000</v>
+        <v>5003600</v>
       </c>
       <c r="K54" s="3">
         <v>6262100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>938200</v>
+        <v>907400</v>
       </c>
       <c r="E57" s="3">
-        <v>846600</v>
+        <v>818900</v>
       </c>
       <c r="F57" s="3">
-        <v>817900</v>
+        <v>791100</v>
       </c>
       <c r="G57" s="3">
-        <v>963300</v>
+        <v>931800</v>
       </c>
       <c r="H57" s="3">
-        <v>911800</v>
+        <v>881900</v>
       </c>
       <c r="I57" s="3">
-        <v>792300</v>
+        <v>766300</v>
       </c>
       <c r="J57" s="3">
-        <v>735900</v>
+        <v>711800</v>
       </c>
       <c r="K57" s="3">
         <v>941700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1250100</v>
+        <v>1209200</v>
       </c>
       <c r="E58" s="3">
-        <v>989800</v>
+        <v>957400</v>
       </c>
       <c r="F58" s="3">
-        <v>931500</v>
+        <v>901000</v>
       </c>
       <c r="G58" s="3">
-        <v>782200</v>
+        <v>756600</v>
       </c>
       <c r="H58" s="3">
-        <v>852300</v>
+        <v>824400</v>
       </c>
       <c r="I58" s="3">
-        <v>735300</v>
+        <v>711200</v>
       </c>
       <c r="J58" s="3">
-        <v>907500</v>
+        <v>877800</v>
       </c>
       <c r="K58" s="3">
         <v>910600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>595000</v>
+        <v>575500</v>
       </c>
       <c r="E59" s="3">
-        <v>474000</v>
+        <v>458500</v>
       </c>
       <c r="F59" s="3">
-        <v>593600</v>
+        <v>574200</v>
       </c>
       <c r="G59" s="3">
-        <v>685300</v>
+        <v>662800</v>
       </c>
       <c r="H59" s="3">
-        <v>657300</v>
+        <v>635800</v>
       </c>
       <c r="I59" s="3">
-        <v>622800</v>
+        <v>602400</v>
       </c>
       <c r="J59" s="3">
-        <v>550700</v>
+        <v>532700</v>
       </c>
       <c r="K59" s="3">
         <v>597100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2783300</v>
+        <v>2692200</v>
       </c>
       <c r="E60" s="3">
-        <v>2310400</v>
+        <v>2234800</v>
       </c>
       <c r="F60" s="3">
-        <v>2343000</v>
+        <v>2266300</v>
       </c>
       <c r="G60" s="3">
-        <v>2430800</v>
+        <v>2351200</v>
       </c>
       <c r="H60" s="3">
-        <v>2421400</v>
+        <v>2342100</v>
       </c>
       <c r="I60" s="3">
-        <v>2150400</v>
+        <v>2080000</v>
       </c>
       <c r="J60" s="3">
-        <v>2194200</v>
+        <v>2122300</v>
       </c>
       <c r="K60" s="3">
         <v>2449400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1324600</v>
+        <v>1281200</v>
       </c>
       <c r="E61" s="3">
-        <v>1196200</v>
+        <v>1157000</v>
       </c>
       <c r="F61" s="3">
-        <v>967800</v>
+        <v>936100</v>
       </c>
       <c r="G61" s="3">
-        <v>1021100</v>
+        <v>987600</v>
       </c>
       <c r="H61" s="3">
-        <v>1042500</v>
+        <v>1008400</v>
       </c>
       <c r="I61" s="3">
-        <v>1115900</v>
+        <v>1079300</v>
       </c>
       <c r="J61" s="3">
-        <v>1002800</v>
+        <v>969900</v>
       </c>
       <c r="K61" s="3">
         <v>1431200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>450000</v>
+        <v>435200</v>
       </c>
       <c r="E62" s="3">
-        <v>454700</v>
+        <v>439800</v>
       </c>
       <c r="F62" s="3">
-        <v>512400</v>
+        <v>495600</v>
       </c>
       <c r="G62" s="3">
-        <v>492500</v>
+        <v>476400</v>
       </c>
       <c r="H62" s="3">
-        <v>538900</v>
+        <v>521200</v>
       </c>
       <c r="I62" s="3">
-        <v>494600</v>
+        <v>478400</v>
       </c>
       <c r="J62" s="3">
-        <v>520400</v>
+        <v>503400</v>
       </c>
       <c r="K62" s="3">
         <v>549800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4813300</v>
+        <v>4655700</v>
       </c>
       <c r="E66" s="3">
-        <v>4194000</v>
+        <v>4056700</v>
       </c>
       <c r="F66" s="3">
-        <v>4063300</v>
+        <v>3930200</v>
       </c>
       <c r="G66" s="3">
-        <v>4180800</v>
+        <v>4043900</v>
       </c>
       <c r="H66" s="3">
-        <v>4193600</v>
+        <v>4056300</v>
       </c>
       <c r="I66" s="3">
-        <v>3983200</v>
+        <v>3852800</v>
       </c>
       <c r="J66" s="3">
-        <v>3903700</v>
+        <v>3775900</v>
       </c>
       <c r="K66" s="3">
         <v>4635100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1278000</v>
+        <v>1236100</v>
       </c>
       <c r="E72" s="3">
-        <v>1235400</v>
+        <v>1195000</v>
       </c>
       <c r="F72" s="3">
-        <v>1210200</v>
+        <v>1170600</v>
       </c>
       <c r="G72" s="3">
-        <v>1112300</v>
+        <v>1075900</v>
       </c>
       <c r="H72" s="3">
-        <v>939200</v>
+        <v>908400</v>
       </c>
       <c r="I72" s="3">
-        <v>761900</v>
+        <v>736900</v>
       </c>
       <c r="J72" s="3">
-        <v>662000</v>
+        <v>640300</v>
       </c>
       <c r="K72" s="3">
         <v>710300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2046700</v>
+        <v>1979700</v>
       </c>
       <c r="E76" s="3">
-        <v>1904800</v>
+        <v>1842500</v>
       </c>
       <c r="F76" s="3">
-        <v>1761300</v>
+        <v>1703600</v>
       </c>
       <c r="G76" s="3">
-        <v>1815300</v>
+        <v>1755900</v>
       </c>
       <c r="H76" s="3">
-        <v>1733700</v>
+        <v>1676900</v>
       </c>
       <c r="I76" s="3">
-        <v>1515200</v>
+        <v>1465600</v>
       </c>
       <c r="J76" s="3">
-        <v>1269300</v>
+        <v>1227700</v>
       </c>
       <c r="K76" s="3">
         <v>1627000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74000</v>
+        <v>71600</v>
       </c>
       <c r="E81" s="3">
-        <v>73300</v>
+        <v>70900</v>
       </c>
       <c r="F81" s="3">
-        <v>129300</v>
+        <v>125100</v>
       </c>
       <c r="G81" s="3">
-        <v>213400</v>
+        <v>206400</v>
       </c>
       <c r="H81" s="3">
-        <v>209200</v>
+        <v>202400</v>
       </c>
       <c r="I81" s="3">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="J81" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="K81" s="3">
         <v>62700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247200</v>
+        <v>239100</v>
       </c>
       <c r="E83" s="3">
-        <v>235800</v>
+        <v>228000</v>
       </c>
       <c r="F83" s="3">
-        <v>215700</v>
+        <v>208600</v>
       </c>
       <c r="G83" s="3">
-        <v>192600</v>
+        <v>186300</v>
       </c>
       <c r="H83" s="3">
-        <v>184000</v>
+        <v>178000</v>
       </c>
       <c r="I83" s="3">
-        <v>171300</v>
+        <v>165700</v>
       </c>
       <c r="J83" s="3">
-        <v>170300</v>
+        <v>164700</v>
       </c>
       <c r="K83" s="3">
         <v>192000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-93000</v>
+        <v>-90000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="F89" s="3">
-        <v>311100</v>
+        <v>300900</v>
       </c>
       <c r="G89" s="3">
-        <v>342200</v>
+        <v>331000</v>
       </c>
       <c r="H89" s="3">
-        <v>284600</v>
+        <v>275300</v>
       </c>
       <c r="I89" s="3">
-        <v>304500</v>
+        <v>294500</v>
       </c>
       <c r="J89" s="3">
-        <v>312200</v>
+        <v>301900</v>
       </c>
       <c r="K89" s="3">
         <v>356300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-267500</v>
+        <v>-258700</v>
       </c>
       <c r="E91" s="3">
-        <v>-244700</v>
+        <v>-236700</v>
       </c>
       <c r="F91" s="3">
-        <v>-346800</v>
+        <v>-335400</v>
       </c>
       <c r="G91" s="3">
-        <v>-315600</v>
+        <v>-305200</v>
       </c>
       <c r="H91" s="3">
-        <v>-251800</v>
+        <v>-243500</v>
       </c>
       <c r="I91" s="3">
-        <v>-208500</v>
+        <v>-201700</v>
       </c>
       <c r="J91" s="3">
-        <v>-188000</v>
+        <v>-181800</v>
       </c>
       <c r="K91" s="3">
         <v>-236100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-293700</v>
+        <v>-284100</v>
       </c>
       <c r="E94" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="F94" s="3">
-        <v>-242800</v>
+        <v>-234800</v>
       </c>
       <c r="G94" s="3">
-        <v>-227500</v>
+        <v>-220100</v>
       </c>
       <c r="H94" s="3">
-        <v>-251600</v>
+        <v>-243300</v>
       </c>
       <c r="I94" s="3">
-        <v>-266500</v>
+        <v>-257800</v>
       </c>
       <c r="J94" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="K94" s="3">
         <v>-200700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31100</v>
+        <v>-30100</v>
       </c>
       <c r="E96" s="3">
-        <v>-44000</v>
+        <v>-42500</v>
       </c>
       <c r="F96" s="3">
-        <v>-44000</v>
+        <v>-42500</v>
       </c>
       <c r="G96" s="3">
-        <v>-41400</v>
+        <v>-40000</v>
       </c>
       <c r="H96" s="3">
-        <v>-28500</v>
+        <v>-27500</v>
       </c>
       <c r="I96" s="3">
-        <v>-20700</v>
+        <v>-20000</v>
       </c>
       <c r="J96" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="K96" s="3">
         <v>-18000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>256700</v>
+        <v>248300</v>
       </c>
       <c r="E100" s="3">
-        <v>257600</v>
+        <v>249100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G100" s="3">
-        <v>-142300</v>
+        <v>-137600</v>
       </c>
       <c r="H100" s="3">
-        <v>-14200</v>
+        <v>-13800</v>
       </c>
       <c r="I100" s="3">
-        <v>-76100</v>
+        <v>-73600</v>
       </c>
       <c r="J100" s="3">
-        <v>-153500</v>
+        <v>-148500</v>
       </c>
       <c r="K100" s="3">
         <v>-132500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="G101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-143300</v>
+        <v>-138700</v>
       </c>
       <c r="E102" s="3">
-        <v>235500</v>
+        <v>227800</v>
       </c>
       <c r="F102" s="3">
-        <v>60200</v>
+        <v>58300</v>
       </c>
       <c r="G102" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="H102" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="I102" s="3">
-        <v>-40400</v>
+        <v>-39100</v>
       </c>
       <c r="J102" s="3">
-        <v>162500</v>
+        <v>157200</v>
       </c>
       <c r="K102" s="3">
         <v>35600</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6597200</v>
+        <v>6839100</v>
       </c>
       <c r="E8" s="3">
-        <v>5754200</v>
+        <v>5965300</v>
       </c>
       <c r="F8" s="3">
-        <v>6483400</v>
+        <v>6721100</v>
       </c>
       <c r="G8" s="3">
-        <v>7030400</v>
+        <v>7288200</v>
       </c>
       <c r="H8" s="3">
-        <v>6858400</v>
+        <v>7109900</v>
       </c>
       <c r="I8" s="3">
-        <v>5979300</v>
+        <v>6198600</v>
       </c>
       <c r="J8" s="3">
-        <v>6202900</v>
+        <v>6430400</v>
       </c>
       <c r="K8" s="3">
         <v>7402500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5613900</v>
+        <v>5819800</v>
       </c>
       <c r="E9" s="3">
-        <v>4837400</v>
+        <v>5014800</v>
       </c>
       <c r="F9" s="3">
-        <v>5418200</v>
+        <v>5616900</v>
       </c>
       <c r="G9" s="3">
-        <v>5845600</v>
+        <v>6059900</v>
       </c>
       <c r="H9" s="3">
-        <v>5682000</v>
+        <v>5890400</v>
       </c>
       <c r="I9" s="3">
-        <v>4886100</v>
+        <v>5065300</v>
       </c>
       <c r="J9" s="3">
-        <v>5203700</v>
+        <v>5394500</v>
       </c>
       <c r="K9" s="3">
         <v>6347100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>983300</v>
+        <v>1019400</v>
       </c>
       <c r="E10" s="3">
-        <v>916800</v>
+        <v>950400</v>
       </c>
       <c r="F10" s="3">
-        <v>1065200</v>
+        <v>1104300</v>
       </c>
       <c r="G10" s="3">
-        <v>1184800</v>
+        <v>1228300</v>
       </c>
       <c r="H10" s="3">
-        <v>1176400</v>
+        <v>1219500</v>
       </c>
       <c r="I10" s="3">
-        <v>1093200</v>
+        <v>1133300</v>
       </c>
       <c r="J10" s="3">
-        <v>999200</v>
+        <v>1035900</v>
       </c>
       <c r="K10" s="3">
         <v>1055300</v>
@@ -857,19 +857,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>122000</v>
+        <v>126500</v>
       </c>
       <c r="E12" s="3">
-        <v>115800</v>
+        <v>120100</v>
       </c>
       <c r="F12" s="3">
-        <v>121800</v>
+        <v>126300</v>
       </c>
       <c r="G12" s="3">
-        <v>122400</v>
+        <v>126800</v>
       </c>
       <c r="H12" s="3">
-        <v>109900</v>
+        <v>114000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="E14" s="3">
-        <v>74200</v>
+        <v>76900</v>
       </c>
       <c r="F14" s="3">
-        <v>32400</v>
+        <v>33500</v>
       </c>
       <c r="G14" s="3">
-        <v>65700</v>
+        <v>68200</v>
       </c>
       <c r="H14" s="3">
-        <v>105200</v>
+        <v>109100</v>
       </c>
       <c r="I14" s="3">
-        <v>95900</v>
+        <v>99400</v>
       </c>
       <c r="J14" s="3">
-        <v>126800</v>
+        <v>131500</v>
       </c>
       <c r="K14" s="3">
         <v>82200</v>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="E15" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="F15" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="G15" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="H15" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6528700</v>
+        <v>6768100</v>
       </c>
       <c r="E17" s="3">
-        <v>5768700</v>
+        <v>5980200</v>
       </c>
       <c r="F17" s="3">
-        <v>6348600</v>
+        <v>6581500</v>
       </c>
       <c r="G17" s="3">
-        <v>6806500</v>
+        <v>7056200</v>
       </c>
       <c r="H17" s="3">
-        <v>6645900</v>
+        <v>6889600</v>
       </c>
       <c r="I17" s="3">
-        <v>5801400</v>
+        <v>6014100</v>
       </c>
       <c r="J17" s="3">
-        <v>6137500</v>
+        <v>6362500</v>
       </c>
       <c r="K17" s="3">
         <v>7332200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>68500</v>
+        <v>71100</v>
       </c>
       <c r="E18" s="3">
-        <v>-14400</v>
+        <v>-15000</v>
       </c>
       <c r="F18" s="3">
-        <v>134700</v>
+        <v>139700</v>
       </c>
       <c r="G18" s="3">
-        <v>223800</v>
+        <v>232000</v>
       </c>
       <c r="H18" s="3">
-        <v>212500</v>
+        <v>220300</v>
       </c>
       <c r="I18" s="3">
-        <v>177900</v>
+        <v>184400</v>
       </c>
       <c r="J18" s="3">
-        <v>65400</v>
+        <v>67800</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100200</v>
+        <v>103900</v>
       </c>
       <c r="E20" s="3">
-        <v>191000</v>
+        <v>198000</v>
       </c>
       <c r="F20" s="3">
-        <v>114000</v>
+        <v>118200</v>
       </c>
       <c r="G20" s="3">
-        <v>58600</v>
+        <v>60700</v>
       </c>
       <c r="H20" s="3">
-        <v>102600</v>
+        <v>106400</v>
       </c>
       <c r="I20" s="3">
-        <v>45100</v>
+        <v>46700</v>
       </c>
       <c r="J20" s="3">
-        <v>112500</v>
+        <v>116600</v>
       </c>
       <c r="K20" s="3">
         <v>101700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>399100</v>
+        <v>420500</v>
       </c>
       <c r="E21" s="3">
-        <v>396200</v>
+        <v>417200</v>
       </c>
       <c r="F21" s="3">
-        <v>449700</v>
+        <v>472000</v>
       </c>
       <c r="G21" s="3">
-        <v>461800</v>
+        <v>484000</v>
       </c>
       <c r="H21" s="3">
-        <v>486600</v>
+        <v>509400</v>
       </c>
       <c r="I21" s="3">
-        <v>382600</v>
+        <v>401300</v>
       </c>
       <c r="J21" s="3">
-        <v>336600</v>
+        <v>353600</v>
       </c>
       <c r="K21" s="3">
         <v>366200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="E22" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="F22" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="G22" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="H22" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="I22" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="J22" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="K22" s="3">
         <v>34100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144800</v>
+        <v>150200</v>
       </c>
       <c r="E23" s="3">
-        <v>151100</v>
+        <v>156700</v>
       </c>
       <c r="F23" s="3">
-        <v>218000</v>
+        <v>226000</v>
       </c>
       <c r="G23" s="3">
-        <v>253500</v>
+        <v>262800</v>
       </c>
       <c r="H23" s="3">
-        <v>286900</v>
+        <v>297400</v>
       </c>
       <c r="I23" s="3">
-        <v>198300</v>
+        <v>205500</v>
       </c>
       <c r="J23" s="3">
-        <v>151600</v>
+        <v>157100</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51000</v>
+        <v>52800</v>
       </c>
       <c r="E24" s="3">
-        <v>65400</v>
+        <v>67800</v>
       </c>
       <c r="F24" s="3">
-        <v>83300</v>
+        <v>86400</v>
       </c>
       <c r="G24" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="H24" s="3">
-        <v>57800</v>
+        <v>59900</v>
       </c>
       <c r="I24" s="3">
-        <v>39200</v>
+        <v>40700</v>
       </c>
       <c r="J24" s="3">
-        <v>56300</v>
+        <v>58400</v>
       </c>
       <c r="K24" s="3">
         <v>57100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93900</v>
+        <v>97300</v>
       </c>
       <c r="E26" s="3">
-        <v>85800</v>
+        <v>88900</v>
       </c>
       <c r="F26" s="3">
-        <v>134700</v>
+        <v>139600</v>
       </c>
       <c r="G26" s="3">
-        <v>230000</v>
+        <v>238500</v>
       </c>
       <c r="H26" s="3">
-        <v>229100</v>
+        <v>237500</v>
       </c>
       <c r="I26" s="3">
-        <v>159000</v>
+        <v>164900</v>
       </c>
       <c r="J26" s="3">
-        <v>95300</v>
+        <v>98800</v>
       </c>
       <c r="K26" s="3">
         <v>80800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="E27" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="F27" s="3">
-        <v>125100</v>
+        <v>129600</v>
       </c>
       <c r="G27" s="3">
-        <v>206400</v>
+        <v>213900</v>
       </c>
       <c r="H27" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="I27" s="3">
-        <v>124600</v>
+        <v>129100</v>
       </c>
       <c r="J27" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="K27" s="3">
         <v>62700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100200</v>
+        <v>-103900</v>
       </c>
       <c r="E32" s="3">
-        <v>-191000</v>
+        <v>-198000</v>
       </c>
       <c r="F32" s="3">
-        <v>-114000</v>
+        <v>-118200</v>
       </c>
       <c r="G32" s="3">
-        <v>-58600</v>
+        <v>-60700</v>
       </c>
       <c r="H32" s="3">
-        <v>-102600</v>
+        <v>-106400</v>
       </c>
       <c r="I32" s="3">
-        <v>-45100</v>
+        <v>-46700</v>
       </c>
       <c r="J32" s="3">
-        <v>-112500</v>
+        <v>-116600</v>
       </c>
       <c r="K32" s="3">
         <v>-101700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="E33" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="F33" s="3">
-        <v>125100</v>
+        <v>129600</v>
       </c>
       <c r="G33" s="3">
-        <v>206400</v>
+        <v>213900</v>
       </c>
       <c r="H33" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="I33" s="3">
-        <v>124600</v>
+        <v>129100</v>
       </c>
       <c r="J33" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="K33" s="3">
         <v>62700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="E35" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="F35" s="3">
-        <v>125100</v>
+        <v>129600</v>
       </c>
       <c r="G35" s="3">
-        <v>206400</v>
+        <v>213900</v>
       </c>
       <c r="H35" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="I35" s="3">
-        <v>124600</v>
+        <v>129100</v>
       </c>
       <c r="J35" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="K35" s="3">
         <v>62700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>461900</v>
+        <v>478900</v>
       </c>
       <c r="E41" s="3">
-        <v>598100</v>
+        <v>620100</v>
       </c>
       <c r="F41" s="3">
-        <v>385400</v>
+        <v>399500</v>
       </c>
       <c r="G41" s="3">
-        <v>316400</v>
+        <v>328000</v>
       </c>
       <c r="H41" s="3">
-        <v>359000</v>
+        <v>372200</v>
       </c>
       <c r="I41" s="3">
-        <v>334400</v>
+        <v>346700</v>
       </c>
       <c r="J41" s="3">
-        <v>372300</v>
+        <v>385900</v>
       </c>
       <c r="K41" s="3">
         <v>256000</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="E42" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="F42" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G42" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1625600</v>
+        <v>1685200</v>
       </c>
       <c r="E43" s="3">
-        <v>1354400</v>
+        <v>1404100</v>
       </c>
       <c r="F43" s="3">
-        <v>1356000</v>
+        <v>1405800</v>
       </c>
       <c r="G43" s="3">
-        <v>1547400</v>
+        <v>1604200</v>
       </c>
       <c r="H43" s="3">
-        <v>1581900</v>
+        <v>1639900</v>
       </c>
       <c r="I43" s="3">
-        <v>1401200</v>
+        <v>1452600</v>
       </c>
       <c r="J43" s="3">
-        <v>1316000</v>
+        <v>1364300</v>
       </c>
       <c r="K43" s="3">
         <v>1612800</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1163600</v>
+        <v>1206200</v>
       </c>
       <c r="E44" s="3">
-        <v>856700</v>
+        <v>888100</v>
       </c>
       <c r="F44" s="3">
-        <v>821500</v>
+        <v>851600</v>
       </c>
       <c r="G44" s="3">
-        <v>871300</v>
+        <v>903200</v>
       </c>
       <c r="H44" s="3">
-        <v>806800</v>
+        <v>836400</v>
       </c>
       <c r="I44" s="3">
-        <v>739900</v>
+        <v>767000</v>
       </c>
       <c r="J44" s="3">
-        <v>660500</v>
+        <v>684800</v>
       </c>
       <c r="K44" s="3">
         <v>848200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>291800</v>
+        <v>302500</v>
       </c>
       <c r="E45" s="3">
-        <v>217300</v>
+        <v>225300</v>
       </c>
       <c r="F45" s="3">
-        <v>168800</v>
+        <v>175000</v>
       </c>
       <c r="G45" s="3">
-        <v>229500</v>
+        <v>237900</v>
       </c>
       <c r="H45" s="3">
-        <v>273500</v>
+        <v>283500</v>
       </c>
       <c r="I45" s="3">
-        <v>235300</v>
+        <v>244000</v>
       </c>
       <c r="J45" s="3">
-        <v>232000</v>
+        <v>240600</v>
       </c>
       <c r="K45" s="3">
         <v>428800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3566000</v>
+        <v>3696800</v>
       </c>
       <c r="E46" s="3">
-        <v>3047400</v>
+        <v>3159100</v>
       </c>
       <c r="F46" s="3">
-        <v>2738000</v>
+        <v>2838400</v>
       </c>
       <c r="G46" s="3">
-        <v>2981400</v>
+        <v>3090800</v>
       </c>
       <c r="H46" s="3">
-        <v>2950800</v>
+        <v>3059000</v>
       </c>
       <c r="I46" s="3">
-        <v>2711200</v>
+        <v>2810600</v>
       </c>
       <c r="J46" s="3">
-        <v>2581000</v>
+        <v>2675600</v>
       </c>
       <c r="K46" s="3">
         <v>3146000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>864500</v>
+        <v>896200</v>
       </c>
       <c r="E47" s="3">
-        <v>777300</v>
+        <v>805800</v>
       </c>
       <c r="F47" s="3">
-        <v>753900</v>
+        <v>781600</v>
       </c>
       <c r="G47" s="3">
-        <v>880700</v>
+        <v>913000</v>
       </c>
       <c r="H47" s="3">
-        <v>972200</v>
+        <v>1007900</v>
       </c>
       <c r="I47" s="3">
-        <v>929200</v>
+        <v>963200</v>
       </c>
       <c r="J47" s="3">
-        <v>803100</v>
+        <v>832500</v>
       </c>
       <c r="K47" s="3">
         <v>1175900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1844600</v>
+        <v>1912200</v>
       </c>
       <c r="E48" s="3">
-        <v>1749400</v>
+        <v>1813600</v>
       </c>
       <c r="F48" s="3">
-        <v>1802400</v>
+        <v>1868500</v>
       </c>
       <c r="G48" s="3">
-        <v>1626200</v>
+        <v>1685800</v>
       </c>
       <c r="H48" s="3">
-        <v>1708800</v>
+        <v>1771500</v>
       </c>
       <c r="I48" s="3">
-        <v>1456900</v>
+        <v>1510400</v>
       </c>
       <c r="J48" s="3">
-        <v>1393500</v>
+        <v>1444600</v>
       </c>
       <c r="K48" s="3">
         <v>1699300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145500</v>
+        <v>150800</v>
       </c>
       <c r="E49" s="3">
-        <v>143600</v>
+        <v>148800</v>
       </c>
       <c r="F49" s="3">
-        <v>114100</v>
+        <v>118300</v>
       </c>
       <c r="G49" s="3">
-        <v>86500</v>
+        <v>89700</v>
       </c>
       <c r="H49" s="3">
-        <v>80100</v>
+        <v>83100</v>
       </c>
       <c r="I49" s="3">
-        <v>69100</v>
+        <v>71600</v>
       </c>
       <c r="J49" s="3">
-        <v>60400</v>
+        <v>62600</v>
       </c>
       <c r="K49" s="3">
         <v>77000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>214800</v>
+        <v>222700</v>
       </c>
       <c r="E52" s="3">
-        <v>181500</v>
+        <v>188200</v>
       </c>
       <c r="F52" s="3">
-        <v>225400</v>
+        <v>233600</v>
       </c>
       <c r="G52" s="3">
-        <v>225000</v>
+        <v>233200</v>
       </c>
       <c r="H52" s="3">
-        <v>236400</v>
+        <v>245100</v>
       </c>
       <c r="I52" s="3">
-        <v>152000</v>
+        <v>157600</v>
       </c>
       <c r="J52" s="3">
-        <v>165700</v>
+        <v>171700</v>
       </c>
       <c r="K52" s="3">
         <v>163800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6635400</v>
+        <v>6878700</v>
       </c>
       <c r="E54" s="3">
-        <v>5899200</v>
+        <v>6115500</v>
       </c>
       <c r="F54" s="3">
-        <v>5633800</v>
+        <v>5840400</v>
       </c>
       <c r="G54" s="3">
-        <v>5799800</v>
+        <v>6012500</v>
       </c>
       <c r="H54" s="3">
-        <v>5733200</v>
+        <v>5943400</v>
       </c>
       <c r="I54" s="3">
-        <v>5318400</v>
+        <v>5513400</v>
       </c>
       <c r="J54" s="3">
-        <v>5003600</v>
+        <v>5187100</v>
       </c>
       <c r="K54" s="3">
         <v>6262100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>907400</v>
+        <v>940700</v>
       </c>
       <c r="E57" s="3">
-        <v>818900</v>
+        <v>848900</v>
       </c>
       <c r="F57" s="3">
-        <v>791100</v>
+        <v>820200</v>
       </c>
       <c r="G57" s="3">
-        <v>931800</v>
+        <v>966000</v>
       </c>
       <c r="H57" s="3">
-        <v>881900</v>
+        <v>914200</v>
       </c>
       <c r="I57" s="3">
-        <v>766300</v>
+        <v>794400</v>
       </c>
       <c r="J57" s="3">
-        <v>711800</v>
+        <v>737900</v>
       </c>
       <c r="K57" s="3">
         <v>941700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1209200</v>
+        <v>1253600</v>
       </c>
       <c r="E58" s="3">
-        <v>957400</v>
+        <v>992500</v>
       </c>
       <c r="F58" s="3">
-        <v>901000</v>
+        <v>934000</v>
       </c>
       <c r="G58" s="3">
-        <v>756600</v>
+        <v>784300</v>
       </c>
       <c r="H58" s="3">
-        <v>824400</v>
+        <v>854700</v>
       </c>
       <c r="I58" s="3">
-        <v>711200</v>
+        <v>737300</v>
       </c>
       <c r="J58" s="3">
-        <v>877800</v>
+        <v>910000</v>
       </c>
       <c r="K58" s="3">
         <v>910600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>575500</v>
+        <v>596600</v>
       </c>
       <c r="E59" s="3">
-        <v>458500</v>
+        <v>475300</v>
       </c>
       <c r="F59" s="3">
-        <v>574200</v>
+        <v>595200</v>
       </c>
       <c r="G59" s="3">
-        <v>662800</v>
+        <v>687100</v>
       </c>
       <c r="H59" s="3">
-        <v>635800</v>
+        <v>659100</v>
       </c>
       <c r="I59" s="3">
-        <v>602400</v>
+        <v>624500</v>
       </c>
       <c r="J59" s="3">
-        <v>532700</v>
+        <v>552200</v>
       </c>
       <c r="K59" s="3">
         <v>597100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2692200</v>
+        <v>2790900</v>
       </c>
       <c r="E60" s="3">
-        <v>2234800</v>
+        <v>2316700</v>
       </c>
       <c r="F60" s="3">
-        <v>2266300</v>
+        <v>2349400</v>
       </c>
       <c r="G60" s="3">
-        <v>2351200</v>
+        <v>2437400</v>
       </c>
       <c r="H60" s="3">
-        <v>2342100</v>
+        <v>2428000</v>
       </c>
       <c r="I60" s="3">
-        <v>2080000</v>
+        <v>2156200</v>
       </c>
       <c r="J60" s="3">
-        <v>2122300</v>
+        <v>2200200</v>
       </c>
       <c r="K60" s="3">
         <v>2449400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1281200</v>
+        <v>1328200</v>
       </c>
       <c r="E61" s="3">
-        <v>1157000</v>
+        <v>1199400</v>
       </c>
       <c r="F61" s="3">
-        <v>936100</v>
+        <v>970400</v>
       </c>
       <c r="G61" s="3">
-        <v>987600</v>
+        <v>1023800</v>
       </c>
       <c r="H61" s="3">
-        <v>1008400</v>
+        <v>1045400</v>
       </c>
       <c r="I61" s="3">
-        <v>1079300</v>
+        <v>1118900</v>
       </c>
       <c r="J61" s="3">
-        <v>969900</v>
+        <v>1005500</v>
       </c>
       <c r="K61" s="3">
         <v>1431200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>435200</v>
+        <v>451200</v>
       </c>
       <c r="E62" s="3">
-        <v>439800</v>
+        <v>456000</v>
       </c>
       <c r="F62" s="3">
-        <v>495600</v>
+        <v>513800</v>
       </c>
       <c r="G62" s="3">
-        <v>476400</v>
+        <v>493900</v>
       </c>
       <c r="H62" s="3">
-        <v>521200</v>
+        <v>540300</v>
       </c>
       <c r="I62" s="3">
-        <v>478400</v>
+        <v>496000</v>
       </c>
       <c r="J62" s="3">
-        <v>503400</v>
+        <v>521800</v>
       </c>
       <c r="K62" s="3">
         <v>549800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4655700</v>
+        <v>4826400</v>
       </c>
       <c r="E66" s="3">
-        <v>4056700</v>
+        <v>4205500</v>
       </c>
       <c r="F66" s="3">
-        <v>3930200</v>
+        <v>4074400</v>
       </c>
       <c r="G66" s="3">
-        <v>4043900</v>
+        <v>4192200</v>
       </c>
       <c r="H66" s="3">
-        <v>4056300</v>
+        <v>4205000</v>
       </c>
       <c r="I66" s="3">
-        <v>3852800</v>
+        <v>3994100</v>
       </c>
       <c r="J66" s="3">
-        <v>3775900</v>
+        <v>3914300</v>
       </c>
       <c r="K66" s="3">
         <v>4635100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1236100</v>
+        <v>1281400</v>
       </c>
       <c r="E72" s="3">
-        <v>1195000</v>
+        <v>1238800</v>
       </c>
       <c r="F72" s="3">
-        <v>1170600</v>
+        <v>1213500</v>
       </c>
       <c r="G72" s="3">
-        <v>1075900</v>
+        <v>1115300</v>
       </c>
       <c r="H72" s="3">
-        <v>908400</v>
+        <v>941800</v>
       </c>
       <c r="I72" s="3">
-        <v>736900</v>
+        <v>764000</v>
       </c>
       <c r="J72" s="3">
-        <v>640300</v>
+        <v>663800</v>
       </c>
       <c r="K72" s="3">
         <v>710300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1979700</v>
+        <v>2052300</v>
       </c>
       <c r="E76" s="3">
-        <v>1842500</v>
+        <v>1910000</v>
       </c>
       <c r="F76" s="3">
-        <v>1703600</v>
+        <v>1766100</v>
       </c>
       <c r="G76" s="3">
-        <v>1755900</v>
+        <v>1820300</v>
       </c>
       <c r="H76" s="3">
-        <v>1676900</v>
+        <v>1738400</v>
       </c>
       <c r="I76" s="3">
-        <v>1465600</v>
+        <v>1519300</v>
       </c>
       <c r="J76" s="3">
-        <v>1227700</v>
+        <v>1272700</v>
       </c>
       <c r="K76" s="3">
         <v>1627000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="E81" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="F81" s="3">
-        <v>125100</v>
+        <v>129600</v>
       </c>
       <c r="G81" s="3">
-        <v>206400</v>
+        <v>213900</v>
       </c>
       <c r="H81" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="I81" s="3">
-        <v>124600</v>
+        <v>129100</v>
       </c>
       <c r="J81" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="K81" s="3">
         <v>62700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>239100</v>
+        <v>247800</v>
       </c>
       <c r="E83" s="3">
-        <v>228000</v>
+        <v>236400</v>
       </c>
       <c r="F83" s="3">
-        <v>208600</v>
+        <v>216300</v>
       </c>
       <c r="G83" s="3">
-        <v>186300</v>
+        <v>193100</v>
       </c>
       <c r="H83" s="3">
-        <v>178000</v>
+        <v>184500</v>
       </c>
       <c r="I83" s="3">
-        <v>165700</v>
+        <v>171800</v>
       </c>
       <c r="J83" s="3">
-        <v>164700</v>
+        <v>170800</v>
       </c>
       <c r="K83" s="3">
         <v>192000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-90000</v>
+        <v>-93200</v>
       </c>
       <c r="E89" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F89" s="3">
-        <v>300900</v>
+        <v>311900</v>
       </c>
       <c r="G89" s="3">
-        <v>331000</v>
+        <v>343100</v>
       </c>
       <c r="H89" s="3">
-        <v>275300</v>
+        <v>285400</v>
       </c>
       <c r="I89" s="3">
-        <v>294500</v>
+        <v>305300</v>
       </c>
       <c r="J89" s="3">
-        <v>301900</v>
+        <v>313000</v>
       </c>
       <c r="K89" s="3">
         <v>356300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-258700</v>
+        <v>-268200</v>
       </c>
       <c r="E91" s="3">
-        <v>-236700</v>
+        <v>-245400</v>
       </c>
       <c r="F91" s="3">
-        <v>-335400</v>
+        <v>-347700</v>
       </c>
       <c r="G91" s="3">
-        <v>-305200</v>
+        <v>-316400</v>
       </c>
       <c r="H91" s="3">
-        <v>-243500</v>
+        <v>-252500</v>
       </c>
       <c r="I91" s="3">
-        <v>-201700</v>
+        <v>-209100</v>
       </c>
       <c r="J91" s="3">
-        <v>-181800</v>
+        <v>-188500</v>
       </c>
       <c r="K91" s="3">
         <v>-236100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-284100</v>
+        <v>-294500</v>
       </c>
       <c r="E94" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="F94" s="3">
-        <v>-234800</v>
+        <v>-243400</v>
       </c>
       <c r="G94" s="3">
-        <v>-220100</v>
+        <v>-228200</v>
       </c>
       <c r="H94" s="3">
-        <v>-243300</v>
+        <v>-252200</v>
       </c>
       <c r="I94" s="3">
-        <v>-257800</v>
+        <v>-267300</v>
       </c>
       <c r="J94" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K94" s="3">
         <v>-200700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30100</v>
+        <v>-31200</v>
       </c>
       <c r="E96" s="3">
-        <v>-42500</v>
+        <v>-44100</v>
       </c>
       <c r="F96" s="3">
-        <v>-42500</v>
+        <v>-44100</v>
       </c>
       <c r="G96" s="3">
-        <v>-40000</v>
+        <v>-41500</v>
       </c>
       <c r="H96" s="3">
-        <v>-27500</v>
+        <v>-28600</v>
       </c>
       <c r="I96" s="3">
-        <v>-20000</v>
+        <v>-20700</v>
       </c>
       <c r="J96" s="3">
-        <v>-15000</v>
+        <v>-15500</v>
       </c>
       <c r="K96" s="3">
         <v>-18000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>248300</v>
+        <v>257400</v>
       </c>
       <c r="E100" s="3">
-        <v>249100</v>
+        <v>258300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G100" s="3">
-        <v>-137600</v>
+        <v>-142700</v>
       </c>
       <c r="H100" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="I100" s="3">
-        <v>-73600</v>
+        <v>-76300</v>
       </c>
       <c r="J100" s="3">
-        <v>-148500</v>
+        <v>-153900</v>
       </c>
       <c r="K100" s="3">
         <v>-132500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-138700</v>
+        <v>-143700</v>
       </c>
       <c r="E102" s="3">
-        <v>227800</v>
+        <v>236200</v>
       </c>
       <c r="F102" s="3">
-        <v>58300</v>
+        <v>60400</v>
       </c>
       <c r="G102" s="3">
-        <v>-20700</v>
+        <v>-21500</v>
       </c>
       <c r="H102" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="I102" s="3">
-        <v>-39100</v>
+        <v>-40500</v>
       </c>
       <c r="J102" s="3">
-        <v>157200</v>
+        <v>163000</v>
       </c>
       <c r="K102" s="3">
         <v>35600</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6839100</v>
+        <v>7688200</v>
       </c>
       <c r="E8" s="3">
-        <v>5965300</v>
+        <v>6708900</v>
       </c>
       <c r="F8" s="3">
-        <v>6721100</v>
+        <v>5851600</v>
       </c>
       <c r="G8" s="3">
-        <v>7288200</v>
+        <v>6593100</v>
       </c>
       <c r="H8" s="3">
-        <v>7109900</v>
+        <v>7149400</v>
       </c>
       <c r="I8" s="3">
-        <v>6198600</v>
+        <v>6974500</v>
       </c>
       <c r="J8" s="3">
+        <v>6080500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6430400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7402500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8535100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8405700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8306000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5819800</v>
+        <v>6558400</v>
       </c>
       <c r="E9" s="3">
-        <v>5014800</v>
+        <v>5708900</v>
       </c>
       <c r="F9" s="3">
-        <v>5616900</v>
+        <v>4919300</v>
       </c>
       <c r="G9" s="3">
-        <v>6059900</v>
+        <v>5509900</v>
       </c>
       <c r="H9" s="3">
-        <v>5890400</v>
+        <v>5944500</v>
       </c>
       <c r="I9" s="3">
-        <v>5065300</v>
+        <v>5778200</v>
       </c>
       <c r="J9" s="3">
+        <v>4968800</v>
+      </c>
+      <c r="K9" s="3">
         <v>5394500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6347100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7276800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7152200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7114000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1019400</v>
+        <v>1129800</v>
       </c>
       <c r="E10" s="3">
-        <v>950400</v>
+        <v>1000000</v>
       </c>
       <c r="F10" s="3">
-        <v>1104300</v>
+        <v>932300</v>
       </c>
       <c r="G10" s="3">
-        <v>1228300</v>
+        <v>1083200</v>
       </c>
       <c r="H10" s="3">
-        <v>1219500</v>
+        <v>1204900</v>
       </c>
       <c r="I10" s="3">
-        <v>1133300</v>
+        <v>1196300</v>
       </c>
       <c r="J10" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1035900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1055300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1258300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1253400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1192000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>126500</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>120100</v>
+        <v>124100</v>
       </c>
       <c r="F12" s="3">
-        <v>126300</v>
+        <v>117800</v>
       </c>
       <c r="G12" s="3">
-        <v>126800</v>
+        <v>123900</v>
       </c>
       <c r="H12" s="3">
-        <v>114000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>124400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>111800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>119300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>148600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>133600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,68 +944,74 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12900</v>
+        <v>33100</v>
       </c>
       <c r="E14" s="3">
-        <v>76900</v>
+        <v>12700</v>
       </c>
       <c r="F14" s="3">
-        <v>33500</v>
+        <v>75500</v>
       </c>
       <c r="G14" s="3">
-        <v>68200</v>
+        <v>32900</v>
       </c>
       <c r="H14" s="3">
-        <v>109100</v>
+        <v>66900</v>
       </c>
       <c r="I14" s="3">
-        <v>99400</v>
+        <v>107000</v>
       </c>
       <c r="J14" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K14" s="3">
         <v>131500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>82200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>115400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>212800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>27700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>31600</v>
+        <v>27200</v>
       </c>
       <c r="F15" s="3">
-        <v>24700</v>
+        <v>31000</v>
       </c>
       <c r="G15" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="H15" s="3">
-        <v>19000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>19200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>18700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>36500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6768100</v>
+        <v>7610000</v>
       </c>
       <c r="E17" s="3">
-        <v>5980200</v>
+        <v>6639200</v>
       </c>
       <c r="F17" s="3">
-        <v>6581500</v>
+        <v>5866300</v>
       </c>
       <c r="G17" s="3">
-        <v>7056200</v>
+        <v>6456100</v>
       </c>
       <c r="H17" s="3">
-        <v>6889600</v>
+        <v>6921800</v>
       </c>
       <c r="I17" s="3">
-        <v>6014100</v>
+        <v>6758400</v>
       </c>
       <c r="J17" s="3">
+        <v>5899600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6362500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7332200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8417300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8281600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8374700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71100</v>
+        <v>78300</v>
       </c>
       <c r="E18" s="3">
-        <v>-15000</v>
+        <v>69700</v>
       </c>
       <c r="F18" s="3">
-        <v>139700</v>
+        <v>-14700</v>
       </c>
       <c r="G18" s="3">
-        <v>232000</v>
+        <v>137000</v>
       </c>
       <c r="H18" s="3">
-        <v>220300</v>
+        <v>227600</v>
       </c>
       <c r="I18" s="3">
-        <v>184400</v>
+        <v>216100</v>
       </c>
       <c r="J18" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K18" s="3">
         <v>67800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>124100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-68700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>103900</v>
+        <v>185900</v>
       </c>
       <c r="E20" s="3">
-        <v>198000</v>
+        <v>101900</v>
       </c>
       <c r="F20" s="3">
-        <v>118200</v>
+        <v>194200</v>
       </c>
       <c r="G20" s="3">
-        <v>60700</v>
+        <v>115900</v>
       </c>
       <c r="H20" s="3">
-        <v>106400</v>
+        <v>59600</v>
       </c>
       <c r="I20" s="3">
-        <v>46700</v>
+        <v>104400</v>
       </c>
       <c r="J20" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K20" s="3">
         <v>116600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>101700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>133500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>420500</v>
+        <v>548000</v>
       </c>
       <c r="E21" s="3">
-        <v>417200</v>
+        <v>416400</v>
       </c>
       <c r="F21" s="3">
-        <v>472000</v>
+        <v>413000</v>
       </c>
       <c r="G21" s="3">
-        <v>484000</v>
+        <v>466500</v>
       </c>
       <c r="H21" s="3">
-        <v>509400</v>
+        <v>477900</v>
       </c>
       <c r="I21" s="3">
-        <v>401300</v>
+        <v>502700</v>
       </c>
       <c r="J21" s="3">
+        <v>396400</v>
+      </c>
+      <c r="K21" s="3">
         <v>353600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>366200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>458800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>484700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>419800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24800</v>
+        <v>45700</v>
       </c>
       <c r="E22" s="3">
-        <v>26400</v>
+        <v>24300</v>
       </c>
       <c r="F22" s="3">
-        <v>31800</v>
+        <v>25900</v>
       </c>
       <c r="G22" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="H22" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="I22" s="3">
-        <v>25600</v>
+        <v>28700</v>
       </c>
       <c r="J22" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K22" s="3">
         <v>27300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>150200</v>
+        <v>218500</v>
       </c>
       <c r="E23" s="3">
-        <v>156700</v>
+        <v>147300</v>
       </c>
       <c r="F23" s="3">
-        <v>226000</v>
+        <v>153700</v>
       </c>
       <c r="G23" s="3">
-        <v>262800</v>
+        <v>221700</v>
       </c>
       <c r="H23" s="3">
-        <v>297400</v>
+        <v>257800</v>
       </c>
       <c r="I23" s="3">
-        <v>205500</v>
+        <v>291800</v>
       </c>
       <c r="J23" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K23" s="3">
         <v>157100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>158500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>116600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52800</v>
+        <v>76800</v>
       </c>
       <c r="E24" s="3">
-        <v>67800</v>
+        <v>51800</v>
       </c>
       <c r="F24" s="3">
-        <v>86400</v>
+        <v>66500</v>
       </c>
       <c r="G24" s="3">
-        <v>24300</v>
+        <v>84700</v>
       </c>
       <c r="H24" s="3">
-        <v>59900</v>
+        <v>23900</v>
       </c>
       <c r="I24" s="3">
-        <v>40700</v>
+        <v>58800</v>
       </c>
       <c r="J24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K24" s="3">
         <v>58400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>97300</v>
+        <v>141700</v>
       </c>
       <c r="E26" s="3">
-        <v>88900</v>
+        <v>95500</v>
       </c>
       <c r="F26" s="3">
-        <v>139600</v>
+        <v>87200</v>
       </c>
       <c r="G26" s="3">
-        <v>238500</v>
+        <v>137000</v>
       </c>
       <c r="H26" s="3">
-        <v>237500</v>
+        <v>233900</v>
       </c>
       <c r="I26" s="3">
-        <v>164900</v>
+        <v>233000</v>
       </c>
       <c r="J26" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K26" s="3">
         <v>98800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-86400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74200</v>
+        <v>129100</v>
       </c>
       <c r="E27" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="F27" s="3">
-        <v>129600</v>
+        <v>72100</v>
       </c>
       <c r="G27" s="3">
-        <v>213900</v>
+        <v>127200</v>
       </c>
       <c r="H27" s="3">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="I27" s="3">
-        <v>129100</v>
+        <v>205800</v>
       </c>
       <c r="J27" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K27" s="3">
         <v>73600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-103900</v>
+        <v>-185900</v>
       </c>
       <c r="E32" s="3">
-        <v>-198000</v>
+        <v>-101900</v>
       </c>
       <c r="F32" s="3">
-        <v>-118200</v>
+        <v>-194200</v>
       </c>
       <c r="G32" s="3">
-        <v>-60700</v>
+        <v>-115900</v>
       </c>
       <c r="H32" s="3">
-        <v>-106400</v>
+        <v>-59600</v>
       </c>
       <c r="I32" s="3">
-        <v>-46700</v>
+        <v>-104400</v>
       </c>
       <c r="J32" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-116600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-101700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-133500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74200</v>
+        <v>129100</v>
       </c>
       <c r="E33" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="F33" s="3">
-        <v>129600</v>
+        <v>72100</v>
       </c>
       <c r="G33" s="3">
-        <v>213900</v>
+        <v>127200</v>
       </c>
       <c r="H33" s="3">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="I33" s="3">
-        <v>129100</v>
+        <v>205800</v>
       </c>
       <c r="J33" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K33" s="3">
         <v>73600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74200</v>
+        <v>129100</v>
       </c>
       <c r="E35" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="F35" s="3">
-        <v>129600</v>
+        <v>72100</v>
       </c>
       <c r="G35" s="3">
-        <v>213900</v>
+        <v>127200</v>
       </c>
       <c r="H35" s="3">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="I35" s="3">
-        <v>129100</v>
+        <v>205800</v>
       </c>
       <c r="J35" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K35" s="3">
         <v>73600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,73 +1903,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>478900</v>
+        <v>342000</v>
       </c>
       <c r="E41" s="3">
-        <v>620100</v>
+        <v>469800</v>
       </c>
       <c r="F41" s="3">
-        <v>399500</v>
+        <v>608300</v>
       </c>
       <c r="G41" s="3">
-        <v>328000</v>
+        <v>391900</v>
       </c>
       <c r="H41" s="3">
-        <v>372200</v>
+        <v>321800</v>
       </c>
       <c r="I41" s="3">
-        <v>346700</v>
+        <v>365100</v>
       </c>
       <c r="J41" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K41" s="3">
         <v>385900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>244700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>284500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23900</v>
+        <v>37000</v>
       </c>
       <c r="E42" s="3">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="F42" s="3">
-        <v>6600</v>
+        <v>21100</v>
       </c>
       <c r="G42" s="3">
-        <v>17400</v>
+        <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>200</v>
       </c>
       <c r="L42" s="3">
         <v>200</v>
@@ -1893,284 +1982,308 @@
         <v>200</v>
       </c>
       <c r="N42" s="3">
+        <v>200</v>
+      </c>
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1685200</v>
+        <v>1645000</v>
       </c>
       <c r="E43" s="3">
-        <v>1404100</v>
+        <v>1653100</v>
       </c>
       <c r="F43" s="3">
-        <v>1405800</v>
+        <v>1377400</v>
       </c>
       <c r="G43" s="3">
-        <v>1604200</v>
+        <v>1379000</v>
       </c>
       <c r="H43" s="3">
-        <v>1639900</v>
+        <v>1573600</v>
       </c>
       <c r="I43" s="3">
-        <v>1452600</v>
+        <v>1608700</v>
       </c>
       <c r="J43" s="3">
+        <v>1424900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1364300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1612800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1812600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2010800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1998800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1206200</v>
+        <v>1242300</v>
       </c>
       <c r="E44" s="3">
-        <v>888100</v>
+        <v>1183300</v>
       </c>
       <c r="F44" s="3">
-        <v>851600</v>
+        <v>871200</v>
       </c>
       <c r="G44" s="3">
-        <v>903200</v>
+        <v>835400</v>
       </c>
       <c r="H44" s="3">
-        <v>836400</v>
+        <v>886000</v>
       </c>
       <c r="I44" s="3">
-        <v>767000</v>
+        <v>820400</v>
       </c>
       <c r="J44" s="3">
+        <v>752400</v>
+      </c>
+      <c r="K44" s="3">
         <v>684800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>848200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>858000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>947600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>857800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>302500</v>
+        <v>243700</v>
       </c>
       <c r="E45" s="3">
-        <v>225300</v>
+        <v>296800</v>
       </c>
       <c r="F45" s="3">
-        <v>175000</v>
+        <v>221000</v>
       </c>
       <c r="G45" s="3">
-        <v>237900</v>
+        <v>171600</v>
       </c>
       <c r="H45" s="3">
-        <v>283500</v>
+        <v>233400</v>
       </c>
       <c r="I45" s="3">
-        <v>244000</v>
+        <v>278100</v>
       </c>
       <c r="J45" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K45" s="3">
         <v>240600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>428800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>382100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>326100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>368300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3696800</v>
+        <v>3510000</v>
       </c>
       <c r="E46" s="3">
-        <v>3159100</v>
+        <v>3626400</v>
       </c>
       <c r="F46" s="3">
-        <v>2838400</v>
+        <v>3098900</v>
       </c>
       <c r="G46" s="3">
-        <v>3090800</v>
+        <v>2784400</v>
       </c>
       <c r="H46" s="3">
-        <v>3059000</v>
+        <v>3031900</v>
       </c>
       <c r="I46" s="3">
-        <v>2810600</v>
+        <v>3000700</v>
       </c>
       <c r="J46" s="3">
+        <v>2757100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2675600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3146000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3297700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3569100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3526400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>896200</v>
+        <v>896000</v>
       </c>
       <c r="E47" s="3">
-        <v>805800</v>
+        <v>879200</v>
       </c>
       <c r="F47" s="3">
-        <v>781600</v>
+        <v>790500</v>
       </c>
       <c r="G47" s="3">
-        <v>913000</v>
+        <v>766700</v>
       </c>
       <c r="H47" s="3">
-        <v>1007900</v>
+        <v>895600</v>
       </c>
       <c r="I47" s="3">
-        <v>963200</v>
+        <v>988700</v>
       </c>
       <c r="J47" s="3">
+        <v>944900</v>
+      </c>
+      <c r="K47" s="3">
         <v>832500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1175900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1246200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1047700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>934400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1912200</v>
+        <v>1941600</v>
       </c>
       <c r="E48" s="3">
-        <v>1813600</v>
+        <v>1875800</v>
       </c>
       <c r="F48" s="3">
-        <v>1868500</v>
+        <v>1779000</v>
       </c>
       <c r="G48" s="3">
-        <v>1685800</v>
+        <v>1832900</v>
       </c>
       <c r="H48" s="3">
-        <v>1771500</v>
+        <v>1653700</v>
       </c>
       <c r="I48" s="3">
-        <v>1510400</v>
+        <v>1737800</v>
       </c>
       <c r="J48" s="3">
+        <v>1481600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1444600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1699300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1750200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2546000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2369600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150800</v>
+        <v>145900</v>
       </c>
       <c r="E49" s="3">
-        <v>148800</v>
+        <v>147900</v>
       </c>
       <c r="F49" s="3">
-        <v>118300</v>
+        <v>146000</v>
       </c>
       <c r="G49" s="3">
-        <v>89700</v>
+        <v>116000</v>
       </c>
       <c r="H49" s="3">
-        <v>83100</v>
+        <v>88000</v>
       </c>
       <c r="I49" s="3">
-        <v>71600</v>
+        <v>81500</v>
       </c>
       <c r="J49" s="3">
+        <v>70200</v>
+      </c>
+      <c r="K49" s="3">
         <v>62600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>77000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>87900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>114700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222700</v>
+        <v>246800</v>
       </c>
       <c r="E52" s="3">
-        <v>188200</v>
+        <v>218400</v>
       </c>
       <c r="F52" s="3">
-        <v>233600</v>
+        <v>184600</v>
       </c>
       <c r="G52" s="3">
-        <v>233200</v>
+        <v>229200</v>
       </c>
       <c r="H52" s="3">
-        <v>245100</v>
+        <v>228800</v>
       </c>
       <c r="I52" s="3">
-        <v>157600</v>
+        <v>240400</v>
       </c>
       <c r="J52" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K52" s="3">
         <v>171700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>166000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>173600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>185800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6878700</v>
+        <v>6740200</v>
       </c>
       <c r="E54" s="3">
-        <v>6115500</v>
+        <v>6747700</v>
       </c>
       <c r="F54" s="3">
-        <v>5840400</v>
+        <v>5999000</v>
       </c>
       <c r="G54" s="3">
-        <v>6012500</v>
+        <v>5729200</v>
       </c>
       <c r="H54" s="3">
-        <v>5943400</v>
+        <v>5897900</v>
       </c>
       <c r="I54" s="3">
-        <v>5513400</v>
+        <v>5830200</v>
       </c>
       <c r="J54" s="3">
+        <v>5408400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5187100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6262100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6548000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7451100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7142600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>940700</v>
+        <v>904200</v>
       </c>
       <c r="E57" s="3">
-        <v>848900</v>
+        <v>922800</v>
       </c>
       <c r="F57" s="3">
-        <v>820200</v>
+        <v>832800</v>
       </c>
       <c r="G57" s="3">
-        <v>966000</v>
+        <v>804500</v>
       </c>
       <c r="H57" s="3">
-        <v>914200</v>
+        <v>947600</v>
       </c>
       <c r="I57" s="3">
-        <v>794400</v>
+        <v>896800</v>
       </c>
       <c r="J57" s="3">
+        <v>779300</v>
+      </c>
+      <c r="K57" s="3">
         <v>737900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>941700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>956100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1210100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1102900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1253600</v>
+        <v>1220500</v>
       </c>
       <c r="E58" s="3">
-        <v>992500</v>
+        <v>1229700</v>
       </c>
       <c r="F58" s="3">
-        <v>934000</v>
+        <v>973600</v>
       </c>
       <c r="G58" s="3">
-        <v>784300</v>
+        <v>916200</v>
       </c>
       <c r="H58" s="3">
-        <v>854700</v>
+        <v>769400</v>
       </c>
       <c r="I58" s="3">
-        <v>737300</v>
+        <v>838400</v>
       </c>
       <c r="J58" s="3">
+        <v>723200</v>
+      </c>
+      <c r="K58" s="3">
         <v>910000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>910600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1099300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1157900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1432100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>596600</v>
+        <v>622500</v>
       </c>
       <c r="E59" s="3">
-        <v>475300</v>
+        <v>585300</v>
       </c>
       <c r="F59" s="3">
-        <v>595200</v>
+        <v>466200</v>
       </c>
       <c r="G59" s="3">
-        <v>687100</v>
+        <v>583900</v>
       </c>
       <c r="H59" s="3">
-        <v>659100</v>
+        <v>674100</v>
       </c>
       <c r="I59" s="3">
-        <v>624500</v>
+        <v>646500</v>
       </c>
       <c r="J59" s="3">
+        <v>612600</v>
+      </c>
+      <c r="K59" s="3">
         <v>552200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>597100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>636400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>612300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>590100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2790900</v>
+        <v>2747200</v>
       </c>
       <c r="E60" s="3">
-        <v>2316700</v>
+        <v>2737800</v>
       </c>
       <c r="F60" s="3">
-        <v>2349400</v>
+        <v>2272600</v>
       </c>
       <c r="G60" s="3">
-        <v>2437400</v>
+        <v>2304700</v>
       </c>
       <c r="H60" s="3">
-        <v>2428000</v>
+        <v>2391000</v>
       </c>
       <c r="I60" s="3">
-        <v>2156200</v>
+        <v>2381700</v>
       </c>
       <c r="J60" s="3">
+        <v>2115200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2449400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2691800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2980300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3125100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1328200</v>
+        <v>1114300</v>
       </c>
       <c r="E61" s="3">
-        <v>1199400</v>
+        <v>1302900</v>
       </c>
       <c r="F61" s="3">
-        <v>970400</v>
+        <v>1176600</v>
       </c>
       <c r="G61" s="3">
-        <v>1023800</v>
+        <v>952000</v>
       </c>
       <c r="H61" s="3">
-        <v>1045400</v>
+        <v>1004300</v>
       </c>
       <c r="I61" s="3">
-        <v>1118900</v>
+        <v>1025500</v>
       </c>
       <c r="J61" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1005500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1431200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1445800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1755400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1507900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>451200</v>
+        <v>492300</v>
       </c>
       <c r="E62" s="3">
-        <v>456000</v>
+        <v>442600</v>
       </c>
       <c r="F62" s="3">
-        <v>513800</v>
+        <v>447300</v>
       </c>
       <c r="G62" s="3">
-        <v>493900</v>
+        <v>504000</v>
       </c>
       <c r="H62" s="3">
-        <v>540300</v>
+        <v>484400</v>
       </c>
       <c r="I62" s="3">
-        <v>496000</v>
+        <v>530100</v>
       </c>
       <c r="J62" s="3">
+        <v>486500</v>
+      </c>
+      <c r="K62" s="3">
         <v>521800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>549800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>580800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>689700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>723500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4826400</v>
+        <v>4551600</v>
       </c>
       <c r="E66" s="3">
-        <v>4205500</v>
+        <v>4734500</v>
       </c>
       <c r="F66" s="3">
-        <v>4074400</v>
+        <v>4125400</v>
       </c>
       <c r="G66" s="3">
-        <v>4192200</v>
+        <v>3996800</v>
       </c>
       <c r="H66" s="3">
-        <v>4205000</v>
+        <v>4112300</v>
       </c>
       <c r="I66" s="3">
-        <v>3994100</v>
+        <v>4124900</v>
       </c>
       <c r="J66" s="3">
+        <v>3918000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3914300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4635100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4924500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5944500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5834500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1281400</v>
+        <v>1361600</v>
       </c>
       <c r="E72" s="3">
-        <v>1238800</v>
+        <v>1257000</v>
       </c>
       <c r="F72" s="3">
-        <v>1213500</v>
+        <v>1215200</v>
       </c>
       <c r="G72" s="3">
-        <v>1115300</v>
+        <v>1190400</v>
       </c>
       <c r="H72" s="3">
-        <v>941800</v>
+        <v>1094100</v>
       </c>
       <c r="I72" s="3">
-        <v>764000</v>
+        <v>923800</v>
       </c>
       <c r="J72" s="3">
+        <v>749400</v>
+      </c>
+      <c r="K72" s="3">
         <v>663800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>710300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>725600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>692000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>655200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2052300</v>
+        <v>2188600</v>
       </c>
       <c r="E76" s="3">
-        <v>1910000</v>
+        <v>2013200</v>
       </c>
       <c r="F76" s="3">
-        <v>1766100</v>
+        <v>1873700</v>
       </c>
       <c r="G76" s="3">
-        <v>1820300</v>
+        <v>1732400</v>
       </c>
       <c r="H76" s="3">
-        <v>1738400</v>
+        <v>1785600</v>
       </c>
       <c r="I76" s="3">
-        <v>1519300</v>
+        <v>1705300</v>
       </c>
       <c r="J76" s="3">
+        <v>1490400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1272700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1627000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1623500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1506600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1308000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74200</v>
+        <v>129100</v>
       </c>
       <c r="E81" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="F81" s="3">
-        <v>129600</v>
+        <v>72100</v>
       </c>
       <c r="G81" s="3">
-        <v>213900</v>
+        <v>127200</v>
       </c>
       <c r="H81" s="3">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="I81" s="3">
-        <v>129100</v>
+        <v>205800</v>
       </c>
       <c r="J81" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K81" s="3">
         <v>73600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247800</v>
+        <v>281900</v>
       </c>
       <c r="E83" s="3">
-        <v>236400</v>
+        <v>243100</v>
       </c>
       <c r="F83" s="3">
-        <v>216300</v>
+        <v>231900</v>
       </c>
       <c r="G83" s="3">
-        <v>193100</v>
+        <v>212100</v>
       </c>
       <c r="H83" s="3">
-        <v>184500</v>
+        <v>189400</v>
       </c>
       <c r="I83" s="3">
-        <v>171800</v>
+        <v>181000</v>
       </c>
       <c r="J83" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K83" s="3">
         <v>170800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>192000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>257500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>321300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>354500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-93200</v>
+        <v>272000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3700</v>
+        <v>-91500</v>
       </c>
       <c r="F89" s="3">
-        <v>311900</v>
+        <v>-3600</v>
       </c>
       <c r="G89" s="3">
-        <v>343100</v>
+        <v>306000</v>
       </c>
       <c r="H89" s="3">
-        <v>285400</v>
+        <v>336600</v>
       </c>
       <c r="I89" s="3">
-        <v>305300</v>
+        <v>280000</v>
       </c>
       <c r="J89" s="3">
+        <v>299500</v>
+      </c>
+      <c r="K89" s="3">
         <v>313000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>356300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>278200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-268200</v>
+        <v>-258700</v>
       </c>
       <c r="E91" s="3">
-        <v>-245400</v>
+        <v>-263100</v>
       </c>
       <c r="F91" s="3">
-        <v>-347700</v>
+        <v>-240700</v>
       </c>
       <c r="G91" s="3">
-        <v>-316400</v>
+        <v>-341100</v>
       </c>
       <c r="H91" s="3">
-        <v>-252500</v>
+        <v>-310400</v>
       </c>
       <c r="I91" s="3">
-        <v>-209100</v>
+        <v>-247700</v>
       </c>
       <c r="J91" s="3">
+        <v>-205100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-188500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-236100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-360600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-415900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-277000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-294500</v>
+        <v>-156300</v>
       </c>
       <c r="E94" s="3">
-        <v>-14000</v>
+        <v>-288900</v>
       </c>
       <c r="F94" s="3">
-        <v>-243400</v>
+        <v>-13800</v>
       </c>
       <c r="G94" s="3">
-        <v>-228200</v>
+        <v>-238800</v>
       </c>
       <c r="H94" s="3">
-        <v>-252200</v>
+        <v>-223800</v>
       </c>
       <c r="I94" s="3">
-        <v>-267300</v>
+        <v>-247400</v>
       </c>
       <c r="J94" s="3">
+        <v>-262200</v>
+      </c>
+      <c r="K94" s="3">
         <v>14300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-369100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-408500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31200</v>
+        <v>-30500</v>
       </c>
       <c r="E96" s="3">
-        <v>-44100</v>
+        <v>-30600</v>
       </c>
       <c r="F96" s="3">
-        <v>-44100</v>
+        <v>-43300</v>
       </c>
       <c r="G96" s="3">
-        <v>-41500</v>
+        <v>-43200</v>
       </c>
       <c r="H96" s="3">
-        <v>-28600</v>
+        <v>-40700</v>
       </c>
       <c r="I96" s="3">
-        <v>-20700</v>
+        <v>-28000</v>
       </c>
       <c r="J96" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-35100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>257400</v>
+        <v>-248600</v>
       </c>
       <c r="E100" s="3">
-        <v>258300</v>
+        <v>252500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1300</v>
+        <v>253400</v>
       </c>
       <c r="G100" s="3">
-        <v>-142700</v>
+        <v>-1200</v>
       </c>
       <c r="H100" s="3">
-        <v>-14300</v>
+        <v>-140000</v>
       </c>
       <c r="I100" s="3">
-        <v>-76300</v>
+        <v>-14000</v>
       </c>
       <c r="J100" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-153900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-132500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>274000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-103600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-206500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>19800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-13100</v>
       </c>
       <c r="F101" s="3">
-        <v>-6800</v>
+        <v>-4300</v>
       </c>
       <c r="G101" s="3">
-        <v>6300</v>
+        <v>-6700</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="I101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-143700</v>
+        <v>-113100</v>
       </c>
       <c r="E102" s="3">
-        <v>236200</v>
+        <v>-141000</v>
       </c>
       <c r="F102" s="3">
-        <v>60400</v>
+        <v>231700</v>
       </c>
       <c r="G102" s="3">
-        <v>-21500</v>
+        <v>59300</v>
       </c>
       <c r="H102" s="3">
-        <v>26500</v>
+        <v>-21100</v>
       </c>
       <c r="I102" s="3">
-        <v>-40500</v>
+        <v>26000</v>
       </c>
       <c r="J102" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K102" s="3">
         <v>163000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-118500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>FUWAY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7688200</v>
+        <v>7325700</v>
       </c>
       <c r="E8" s="3">
-        <v>6708900</v>
+        <v>6392500</v>
       </c>
       <c r="F8" s="3">
-        <v>5851600</v>
+        <v>5575700</v>
       </c>
       <c r="G8" s="3">
-        <v>6593100</v>
+        <v>6282200</v>
       </c>
       <c r="H8" s="3">
-        <v>7149400</v>
+        <v>6812200</v>
       </c>
       <c r="I8" s="3">
-        <v>6974500</v>
+        <v>6645600</v>
       </c>
       <c r="J8" s="3">
-        <v>6080500</v>
+        <v>5793800</v>
       </c>
       <c r="K8" s="3">
         <v>6430400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6558400</v>
+        <v>6249100</v>
       </c>
       <c r="E9" s="3">
-        <v>5708900</v>
+        <v>5439700</v>
       </c>
       <c r="F9" s="3">
-        <v>4919300</v>
+        <v>4687300</v>
       </c>
       <c r="G9" s="3">
-        <v>5509900</v>
+        <v>5250100</v>
       </c>
       <c r="H9" s="3">
-        <v>5944500</v>
+        <v>5664200</v>
       </c>
       <c r="I9" s="3">
-        <v>5778200</v>
+        <v>5505700</v>
       </c>
       <c r="J9" s="3">
-        <v>4968800</v>
+        <v>4734500</v>
       </c>
       <c r="K9" s="3">
         <v>5394500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1129800</v>
+        <v>1076600</v>
       </c>
       <c r="E10" s="3">
-        <v>1000000</v>
+        <v>952800</v>
       </c>
       <c r="F10" s="3">
-        <v>932300</v>
+        <v>888400</v>
       </c>
       <c r="G10" s="3">
-        <v>1083200</v>
+        <v>1032100</v>
       </c>
       <c r="H10" s="3">
-        <v>1204900</v>
+        <v>1148000</v>
       </c>
       <c r="I10" s="3">
-        <v>1196300</v>
+        <v>1139900</v>
       </c>
       <c r="J10" s="3">
-        <v>1111700</v>
+        <v>1059200</v>
       </c>
       <c r="K10" s="3">
         <v>1035900</v>
@@ -869,23 +869,23 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>132600</v>
       </c>
       <c r="E12" s="3">
-        <v>124100</v>
+        <v>118300</v>
       </c>
       <c r="F12" s="3">
-        <v>117800</v>
+        <v>112200</v>
       </c>
       <c r="G12" s="3">
-        <v>123900</v>
+        <v>118000</v>
       </c>
       <c r="H12" s="3">
-        <v>124400</v>
+        <v>118600</v>
       </c>
       <c r="I12" s="3">
-        <v>111800</v>
+        <v>106500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33100</v>
+        <v>31500</v>
       </c>
       <c r="E14" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="F14" s="3">
-        <v>75500</v>
+        <v>71900</v>
       </c>
       <c r="G14" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="H14" s="3">
-        <v>66900</v>
+        <v>63700</v>
       </c>
       <c r="I14" s="3">
-        <v>107000</v>
+        <v>101900</v>
       </c>
       <c r="J14" s="3">
-        <v>97500</v>
+        <v>92900</v>
       </c>
       <c r="K14" s="3">
         <v>131500</v>
@@ -995,23 +995,23 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>35500</v>
       </c>
       <c r="E15" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="F15" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="G15" s="3">
-        <v>24200</v>
+        <v>23100</v>
       </c>
       <c r="H15" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="I15" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7610000</v>
+        <v>7251100</v>
       </c>
       <c r="E17" s="3">
-        <v>6639200</v>
+        <v>6326100</v>
       </c>
       <c r="F17" s="3">
-        <v>5866300</v>
+        <v>5589700</v>
       </c>
       <c r="G17" s="3">
-        <v>6456100</v>
+        <v>6151700</v>
       </c>
       <c r="H17" s="3">
-        <v>6921800</v>
+        <v>6595300</v>
       </c>
       <c r="I17" s="3">
-        <v>6758400</v>
+        <v>6439700</v>
       </c>
       <c r="J17" s="3">
-        <v>5899600</v>
+        <v>5621400</v>
       </c>
       <c r="K17" s="3">
         <v>6362500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>78300</v>
+        <v>74600</v>
       </c>
       <c r="E18" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="F18" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="G18" s="3">
-        <v>137000</v>
+        <v>130500</v>
       </c>
       <c r="H18" s="3">
-        <v>227600</v>
+        <v>216900</v>
       </c>
       <c r="I18" s="3">
-        <v>216100</v>
+        <v>205900</v>
       </c>
       <c r="J18" s="3">
-        <v>180900</v>
+        <v>172400</v>
       </c>
       <c r="K18" s="3">
         <v>67800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>185900</v>
+        <v>177100</v>
       </c>
       <c r="E20" s="3">
-        <v>101900</v>
+        <v>97100</v>
       </c>
       <c r="F20" s="3">
-        <v>194200</v>
+        <v>185100</v>
       </c>
       <c r="G20" s="3">
-        <v>115900</v>
+        <v>110400</v>
       </c>
       <c r="H20" s="3">
-        <v>59600</v>
+        <v>56800</v>
       </c>
       <c r="I20" s="3">
-        <v>104400</v>
+        <v>99500</v>
       </c>
       <c r="J20" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="K20" s="3">
         <v>116600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>548000</v>
+        <v>520300</v>
       </c>
       <c r="E21" s="3">
-        <v>416400</v>
+        <v>395200</v>
       </c>
       <c r="F21" s="3">
-        <v>413000</v>
+        <v>392000</v>
       </c>
       <c r="G21" s="3">
-        <v>466500</v>
+        <v>443100</v>
       </c>
       <c r="H21" s="3">
-        <v>477900</v>
+        <v>454100</v>
       </c>
       <c r="I21" s="3">
-        <v>502700</v>
+        <v>477800</v>
       </c>
       <c r="J21" s="3">
-        <v>396400</v>
+        <v>376600</v>
       </c>
       <c r="K21" s="3">
         <v>353600</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45700</v>
+        <v>43500</v>
       </c>
       <c r="E22" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="F22" s="3">
-        <v>25900</v>
+        <v>24600</v>
       </c>
       <c r="G22" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="H22" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="I22" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="J22" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="K22" s="3">
         <v>27300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>218500</v>
+        <v>208200</v>
       </c>
       <c r="E23" s="3">
-        <v>147300</v>
+        <v>140400</v>
       </c>
       <c r="F23" s="3">
-        <v>153700</v>
+        <v>146400</v>
       </c>
       <c r="G23" s="3">
-        <v>221700</v>
+        <v>211300</v>
       </c>
       <c r="H23" s="3">
-        <v>257800</v>
+        <v>245700</v>
       </c>
       <c r="I23" s="3">
-        <v>291800</v>
+        <v>278000</v>
       </c>
       <c r="J23" s="3">
-        <v>201600</v>
+        <v>192100</v>
       </c>
       <c r="K23" s="3">
         <v>157100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76800</v>
+        <v>73200</v>
       </c>
       <c r="E24" s="3">
-        <v>51800</v>
+        <v>49400</v>
       </c>
       <c r="F24" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="G24" s="3">
-        <v>84700</v>
+        <v>80700</v>
       </c>
       <c r="H24" s="3">
-        <v>23900</v>
+        <v>22700</v>
       </c>
       <c r="I24" s="3">
-        <v>58800</v>
+        <v>56000</v>
       </c>
       <c r="J24" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="K24" s="3">
         <v>58400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141700</v>
+        <v>135000</v>
       </c>
       <c r="E26" s="3">
-        <v>95500</v>
+        <v>91000</v>
       </c>
       <c r="F26" s="3">
-        <v>87200</v>
+        <v>83100</v>
       </c>
       <c r="G26" s="3">
-        <v>137000</v>
+        <v>130500</v>
       </c>
       <c r="H26" s="3">
-        <v>233900</v>
+        <v>222900</v>
       </c>
       <c r="I26" s="3">
-        <v>233000</v>
+        <v>222000</v>
       </c>
       <c r="J26" s="3">
-        <v>161700</v>
+        <v>154100</v>
       </c>
       <c r="K26" s="3">
         <v>98800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="E27" s="3">
-        <v>72800</v>
+        <v>69300</v>
       </c>
       <c r="F27" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="G27" s="3">
-        <v>127200</v>
+        <v>121200</v>
       </c>
       <c r="H27" s="3">
-        <v>209900</v>
+        <v>200000</v>
       </c>
       <c r="I27" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="J27" s="3">
-        <v>126700</v>
+        <v>120700</v>
       </c>
       <c r="K27" s="3">
         <v>73600</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-185900</v>
+        <v>-177100</v>
       </c>
       <c r="E32" s="3">
-        <v>-101900</v>
+        <v>-97100</v>
       </c>
       <c r="F32" s="3">
-        <v>-194200</v>
+        <v>-185100</v>
       </c>
       <c r="G32" s="3">
-        <v>-115900</v>
+        <v>-110400</v>
       </c>
       <c r="H32" s="3">
-        <v>-59600</v>
+        <v>-56800</v>
       </c>
       <c r="I32" s="3">
-        <v>-104400</v>
+        <v>-99500</v>
       </c>
       <c r="J32" s="3">
-        <v>-45800</v>
+        <v>-43700</v>
       </c>
       <c r="K32" s="3">
         <v>-116600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="E33" s="3">
-        <v>72800</v>
+        <v>69300</v>
       </c>
       <c r="F33" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="G33" s="3">
-        <v>127200</v>
+        <v>121200</v>
       </c>
       <c r="H33" s="3">
-        <v>209900</v>
+        <v>200000</v>
       </c>
       <c r="I33" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="J33" s="3">
-        <v>126700</v>
+        <v>120700</v>
       </c>
       <c r="K33" s="3">
         <v>73600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="E35" s="3">
-        <v>72800</v>
+        <v>69300</v>
       </c>
       <c r="F35" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="G35" s="3">
-        <v>127200</v>
+        <v>121200</v>
       </c>
       <c r="H35" s="3">
-        <v>209900</v>
+        <v>200000</v>
       </c>
       <c r="I35" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="J35" s="3">
-        <v>126700</v>
+        <v>120700</v>
       </c>
       <c r="K35" s="3">
         <v>73600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>342000</v>
+        <v>325900</v>
       </c>
       <c r="E41" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="F41" s="3">
-        <v>608300</v>
+        <v>579600</v>
       </c>
       <c r="G41" s="3">
-        <v>391900</v>
+        <v>373400</v>
       </c>
       <c r="H41" s="3">
-        <v>321800</v>
+        <v>306600</v>
       </c>
       <c r="I41" s="3">
-        <v>365100</v>
+        <v>347900</v>
       </c>
       <c r="J41" s="3">
-        <v>340100</v>
+        <v>324000</v>
       </c>
       <c r="K41" s="3">
         <v>385900</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="E42" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="F42" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="G42" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H42" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1645000</v>
+        <v>1567500</v>
       </c>
       <c r="E43" s="3">
-        <v>1653100</v>
+        <v>1575100</v>
       </c>
       <c r="F43" s="3">
-        <v>1377400</v>
+        <v>1312400</v>
       </c>
       <c r="G43" s="3">
-        <v>1379000</v>
+        <v>1313900</v>
       </c>
       <c r="H43" s="3">
-        <v>1573600</v>
+        <v>1499400</v>
       </c>
       <c r="I43" s="3">
-        <v>1608700</v>
+        <v>1532800</v>
       </c>
       <c r="J43" s="3">
-        <v>1424900</v>
+        <v>1357700</v>
       </c>
       <c r="K43" s="3">
         <v>1364300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1242300</v>
+        <v>1183700</v>
       </c>
       <c r="E44" s="3">
-        <v>1183300</v>
+        <v>1127500</v>
       </c>
       <c r="F44" s="3">
-        <v>871200</v>
+        <v>830100</v>
       </c>
       <c r="G44" s="3">
-        <v>835400</v>
+        <v>796000</v>
       </c>
       <c r="H44" s="3">
-        <v>886000</v>
+        <v>844200</v>
       </c>
       <c r="I44" s="3">
-        <v>820400</v>
+        <v>781700</v>
       </c>
       <c r="J44" s="3">
-        <v>752400</v>
+        <v>716900</v>
       </c>
       <c r="K44" s="3">
         <v>684800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243700</v>
+        <v>232200</v>
       </c>
       <c r="E45" s="3">
-        <v>296800</v>
+        <v>282800</v>
       </c>
       <c r="F45" s="3">
-        <v>221000</v>
+        <v>210600</v>
       </c>
       <c r="G45" s="3">
-        <v>171600</v>
+        <v>163500</v>
       </c>
       <c r="H45" s="3">
-        <v>233400</v>
+        <v>222400</v>
       </c>
       <c r="I45" s="3">
-        <v>278100</v>
+        <v>265000</v>
       </c>
       <c r="J45" s="3">
-        <v>239300</v>
+        <v>228000</v>
       </c>
       <c r="K45" s="3">
         <v>240600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3510000</v>
+        <v>3344500</v>
       </c>
       <c r="E46" s="3">
-        <v>3626400</v>
+        <v>3455400</v>
       </c>
       <c r="F46" s="3">
-        <v>3098900</v>
+        <v>2952800</v>
       </c>
       <c r="G46" s="3">
-        <v>2784400</v>
+        <v>2653000</v>
       </c>
       <c r="H46" s="3">
-        <v>3031900</v>
+        <v>2888900</v>
       </c>
       <c r="I46" s="3">
-        <v>3000700</v>
+        <v>2859200</v>
       </c>
       <c r="J46" s="3">
-        <v>2757100</v>
+        <v>2627100</v>
       </c>
       <c r="K46" s="3">
         <v>2675600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>896000</v>
+        <v>1675000</v>
       </c>
       <c r="E47" s="3">
-        <v>879200</v>
+        <v>837700</v>
       </c>
       <c r="F47" s="3">
-        <v>790500</v>
+        <v>753200</v>
       </c>
       <c r="G47" s="3">
-        <v>766700</v>
+        <v>730500</v>
       </c>
       <c r="H47" s="3">
-        <v>895600</v>
+        <v>853400</v>
       </c>
       <c r="I47" s="3">
-        <v>988700</v>
+        <v>942100</v>
       </c>
       <c r="J47" s="3">
-        <v>944900</v>
+        <v>900300</v>
       </c>
       <c r="K47" s="3">
         <v>832500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1941600</v>
+        <v>2175200</v>
       </c>
       <c r="E48" s="3">
-        <v>1875800</v>
+        <v>1787300</v>
       </c>
       <c r="F48" s="3">
-        <v>1779000</v>
+        <v>1695100</v>
       </c>
       <c r="G48" s="3">
-        <v>1832900</v>
+        <v>1746500</v>
       </c>
       <c r="H48" s="3">
-        <v>1653700</v>
+        <v>1575700</v>
       </c>
       <c r="I48" s="3">
-        <v>1737800</v>
+        <v>1655800</v>
       </c>
       <c r="J48" s="3">
-        <v>1481600</v>
+        <v>1411700</v>
       </c>
       <c r="K48" s="3">
         <v>1444600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145900</v>
+        <v>139000</v>
       </c>
       <c r="E49" s="3">
-        <v>147900</v>
+        <v>141000</v>
       </c>
       <c r="F49" s="3">
-        <v>146000</v>
+        <v>139100</v>
       </c>
       <c r="G49" s="3">
-        <v>116000</v>
+        <v>110600</v>
       </c>
       <c r="H49" s="3">
-        <v>88000</v>
+        <v>83800</v>
       </c>
       <c r="I49" s="3">
-        <v>81500</v>
+        <v>77700</v>
       </c>
       <c r="J49" s="3">
-        <v>70200</v>
+        <v>66900</v>
       </c>
       <c r="K49" s="3">
         <v>62600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246800</v>
+        <v>264400</v>
       </c>
       <c r="E52" s="3">
+        <v>208100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>175900</v>
+      </c>
+      <c r="G52" s="3">
         <v>218400</v>
       </c>
-      <c r="F52" s="3">
-        <v>184600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>229200</v>
-      </c>
       <c r="H52" s="3">
-        <v>228800</v>
+        <v>218000</v>
       </c>
       <c r="I52" s="3">
-        <v>240400</v>
+        <v>229100</v>
       </c>
       <c r="J52" s="3">
-        <v>154600</v>
+        <v>147300</v>
       </c>
       <c r="K52" s="3">
         <v>171700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6740200</v>
+        <v>6412900</v>
       </c>
       <c r="E54" s="3">
-        <v>6747700</v>
+        <v>6429500</v>
       </c>
       <c r="F54" s="3">
-        <v>5999000</v>
+        <v>5716100</v>
       </c>
       <c r="G54" s="3">
-        <v>5729200</v>
+        <v>5459000</v>
       </c>
       <c r="H54" s="3">
-        <v>5897900</v>
+        <v>5619800</v>
       </c>
       <c r="I54" s="3">
-        <v>5830200</v>
+        <v>5555300</v>
       </c>
       <c r="J54" s="3">
-        <v>5408400</v>
+        <v>5153400</v>
       </c>
       <c r="K54" s="3">
         <v>5187100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>904200</v>
+        <v>861600</v>
       </c>
       <c r="E57" s="3">
-        <v>922800</v>
+        <v>879300</v>
       </c>
       <c r="F57" s="3">
-        <v>832800</v>
+        <v>793500</v>
       </c>
       <c r="G57" s="3">
-        <v>804500</v>
+        <v>766600</v>
       </c>
       <c r="H57" s="3">
-        <v>947600</v>
+        <v>902900</v>
       </c>
       <c r="I57" s="3">
-        <v>896800</v>
+        <v>854500</v>
       </c>
       <c r="J57" s="3">
-        <v>779300</v>
+        <v>742600</v>
       </c>
       <c r="K57" s="3">
         <v>737900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1220500</v>
+        <v>2151700</v>
       </c>
       <c r="E58" s="3">
-        <v>1229700</v>
+        <v>1171700</v>
       </c>
       <c r="F58" s="3">
-        <v>973600</v>
+        <v>927700</v>
       </c>
       <c r="G58" s="3">
-        <v>916200</v>
+        <v>873000</v>
       </c>
       <c r="H58" s="3">
-        <v>769400</v>
+        <v>733100</v>
       </c>
       <c r="I58" s="3">
-        <v>838400</v>
+        <v>798800</v>
       </c>
       <c r="J58" s="3">
-        <v>723200</v>
+        <v>689100</v>
       </c>
       <c r="K58" s="3">
         <v>910000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622500</v>
+        <v>1120200</v>
       </c>
       <c r="E59" s="3">
-        <v>585300</v>
+        <v>557700</v>
       </c>
       <c r="F59" s="3">
-        <v>466200</v>
+        <v>444300</v>
       </c>
       <c r="G59" s="3">
-        <v>583900</v>
+        <v>556400</v>
       </c>
       <c r="H59" s="3">
-        <v>674100</v>
+        <v>642300</v>
       </c>
       <c r="I59" s="3">
-        <v>646500</v>
+        <v>616000</v>
       </c>
       <c r="J59" s="3">
-        <v>612600</v>
+        <v>583700</v>
       </c>
       <c r="K59" s="3">
         <v>552200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2747200</v>
+        <v>2617600</v>
       </c>
       <c r="E60" s="3">
-        <v>2737800</v>
+        <v>2608600</v>
       </c>
       <c r="F60" s="3">
-        <v>2272600</v>
+        <v>2165500</v>
       </c>
       <c r="G60" s="3">
-        <v>2304700</v>
+        <v>2196000</v>
       </c>
       <c r="H60" s="3">
-        <v>2391000</v>
+        <v>2278200</v>
       </c>
       <c r="I60" s="3">
-        <v>2381700</v>
+        <v>2269400</v>
       </c>
       <c r="J60" s="3">
-        <v>2115200</v>
+        <v>2015400</v>
       </c>
       <c r="K60" s="3">
         <v>2200200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1114300</v>
+        <v>1061700</v>
       </c>
       <c r="E61" s="3">
-        <v>1302900</v>
+        <v>1241500</v>
       </c>
       <c r="F61" s="3">
-        <v>1176600</v>
+        <v>1121100</v>
       </c>
       <c r="G61" s="3">
-        <v>952000</v>
+        <v>907100</v>
       </c>
       <c r="H61" s="3">
-        <v>1004300</v>
+        <v>957000</v>
       </c>
       <c r="I61" s="3">
-        <v>1025500</v>
+        <v>977100</v>
       </c>
       <c r="J61" s="3">
-        <v>1097600</v>
+        <v>1045800</v>
       </c>
       <c r="K61" s="3">
         <v>1005500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>492300</v>
+        <v>518100</v>
       </c>
       <c r="E62" s="3">
-        <v>442600</v>
+        <v>421700</v>
       </c>
       <c r="F62" s="3">
-        <v>447300</v>
+        <v>426200</v>
       </c>
       <c r="G62" s="3">
-        <v>504000</v>
+        <v>480300</v>
       </c>
       <c r="H62" s="3">
-        <v>484400</v>
+        <v>461600</v>
       </c>
       <c r="I62" s="3">
-        <v>530100</v>
+        <v>505100</v>
       </c>
       <c r="J62" s="3">
-        <v>486500</v>
+        <v>463600</v>
       </c>
       <c r="K62" s="3">
         <v>521800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4551600</v>
+        <v>4340600</v>
       </c>
       <c r="E66" s="3">
-        <v>4734500</v>
+        <v>4511200</v>
       </c>
       <c r="F66" s="3">
-        <v>4125400</v>
+        <v>3930800</v>
       </c>
       <c r="G66" s="3">
-        <v>3996800</v>
+        <v>3808300</v>
       </c>
       <c r="H66" s="3">
-        <v>4112300</v>
+        <v>3918400</v>
       </c>
       <c r="I66" s="3">
-        <v>4124900</v>
+        <v>3930400</v>
       </c>
       <c r="J66" s="3">
-        <v>3918000</v>
+        <v>3733200</v>
       </c>
       <c r="K66" s="3">
         <v>3914300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1361600</v>
+        <v>1317400</v>
       </c>
       <c r="E72" s="3">
-        <v>1257000</v>
+        <v>1197800</v>
       </c>
       <c r="F72" s="3">
-        <v>1215200</v>
+        <v>1157900</v>
       </c>
       <c r="G72" s="3">
-        <v>1190400</v>
+        <v>1134200</v>
       </c>
       <c r="H72" s="3">
-        <v>1094100</v>
+        <v>1042500</v>
       </c>
       <c r="I72" s="3">
-        <v>923800</v>
+        <v>880300</v>
       </c>
       <c r="J72" s="3">
-        <v>749400</v>
+        <v>714100</v>
       </c>
       <c r="K72" s="3">
         <v>663800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2188600</v>
+        <v>2072400</v>
       </c>
       <c r="E76" s="3">
-        <v>2013200</v>
+        <v>1918200</v>
       </c>
       <c r="F76" s="3">
-        <v>1873700</v>
+        <v>1785300</v>
       </c>
       <c r="G76" s="3">
-        <v>1732400</v>
+        <v>1650700</v>
       </c>
       <c r="H76" s="3">
-        <v>1785600</v>
+        <v>1701400</v>
       </c>
       <c r="I76" s="3">
-        <v>1705300</v>
+        <v>1624900</v>
       </c>
       <c r="J76" s="3">
-        <v>1490400</v>
+        <v>1420100</v>
       </c>
       <c r="K76" s="3">
         <v>1272700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="E81" s="3">
-        <v>72800</v>
+        <v>69300</v>
       </c>
       <c r="F81" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="G81" s="3">
-        <v>127200</v>
+        <v>121200</v>
       </c>
       <c r="H81" s="3">
-        <v>209900</v>
+        <v>200000</v>
       </c>
       <c r="I81" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="J81" s="3">
-        <v>126700</v>
+        <v>120700</v>
       </c>
       <c r="K81" s="3">
         <v>73600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281900</v>
+        <v>268600</v>
       </c>
       <c r="E83" s="3">
-        <v>243100</v>
+        <v>231700</v>
       </c>
       <c r="F83" s="3">
-        <v>231900</v>
+        <v>221000</v>
       </c>
       <c r="G83" s="3">
-        <v>212100</v>
+        <v>202100</v>
       </c>
       <c r="H83" s="3">
-        <v>189400</v>
+        <v>180500</v>
       </c>
       <c r="I83" s="3">
-        <v>181000</v>
+        <v>172500</v>
       </c>
       <c r="J83" s="3">
-        <v>168500</v>
+        <v>160600</v>
       </c>
       <c r="K83" s="3">
         <v>170800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>272000</v>
+        <v>259100</v>
       </c>
       <c r="E89" s="3">
-        <v>-91500</v>
+        <v>-87200</v>
       </c>
       <c r="F89" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="G89" s="3">
-        <v>306000</v>
+        <v>291500</v>
       </c>
       <c r="H89" s="3">
-        <v>336600</v>
+        <v>320700</v>
       </c>
       <c r="I89" s="3">
-        <v>280000</v>
+        <v>266800</v>
       </c>
       <c r="J89" s="3">
-        <v>299500</v>
+        <v>285400</v>
       </c>
       <c r="K89" s="3">
         <v>313000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-258700</v>
+        <v>-246500</v>
       </c>
       <c r="E91" s="3">
-        <v>-263100</v>
+        <v>-250700</v>
       </c>
       <c r="F91" s="3">
-        <v>-240700</v>
+        <v>-229400</v>
       </c>
       <c r="G91" s="3">
-        <v>-341100</v>
+        <v>-325000</v>
       </c>
       <c r="H91" s="3">
-        <v>-310400</v>
+        <v>-295800</v>
       </c>
       <c r="I91" s="3">
-        <v>-247700</v>
+        <v>-236000</v>
       </c>
       <c r="J91" s="3">
-        <v>-205100</v>
+        <v>-195400</v>
       </c>
       <c r="K91" s="3">
         <v>-188500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156300</v>
+        <v>-148900</v>
       </c>
       <c r="E94" s="3">
-        <v>-288900</v>
+        <v>-275300</v>
       </c>
       <c r="F94" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="G94" s="3">
-        <v>-238800</v>
+        <v>-227500</v>
       </c>
       <c r="H94" s="3">
-        <v>-223800</v>
+        <v>-213300</v>
       </c>
       <c r="I94" s="3">
-        <v>-247400</v>
+        <v>-235800</v>
       </c>
       <c r="J94" s="3">
-        <v>-262200</v>
+        <v>-249800</v>
       </c>
       <c r="K94" s="3">
         <v>14300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30500</v>
+        <v>-29100</v>
       </c>
       <c r="E96" s="3">
-        <v>-30600</v>
+        <v>-29100</v>
       </c>
       <c r="F96" s="3">
-        <v>-43300</v>
+        <v>-41200</v>
       </c>
       <c r="G96" s="3">
-        <v>-43200</v>
+        <v>-41200</v>
       </c>
       <c r="H96" s="3">
-        <v>-40700</v>
+        <v>-38800</v>
       </c>
       <c r="I96" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="J96" s="3">
-        <v>-20400</v>
+        <v>-19400</v>
       </c>
       <c r="K96" s="3">
         <v>-15500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-248600</v>
+        <v>-236800</v>
       </c>
       <c r="E100" s="3">
-        <v>252500</v>
+        <v>240600</v>
       </c>
       <c r="F100" s="3">
-        <v>253400</v>
+        <v>241400</v>
       </c>
       <c r="G100" s="3">
         <v>-1200</v>
       </c>
       <c r="H100" s="3">
-        <v>-140000</v>
+        <v>-133400</v>
       </c>
       <c r="I100" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="J100" s="3">
-        <v>-74800</v>
+        <v>-71300</v>
       </c>
       <c r="K100" s="3">
         <v>-153900</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="E101" s="3">
-        <v>-13100</v>
+        <v>-12500</v>
       </c>
       <c r="F101" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="H101" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="I101" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K101" s="3">
         <v>-10500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-113100</v>
+        <v>-107700</v>
       </c>
       <c r="E102" s="3">
-        <v>-141000</v>
+        <v>-134300</v>
       </c>
       <c r="F102" s="3">
-        <v>231700</v>
+        <v>220800</v>
       </c>
       <c r="G102" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="H102" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="I102" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="J102" s="3">
-        <v>-39700</v>
+        <v>-37900</v>
       </c>
       <c r="K102" s="3">
         <v>163000</v>

--- a/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUWAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7325700</v>
+        <v>7080400</v>
       </c>
       <c r="E8" s="3">
-        <v>6392500</v>
+        <v>6178500</v>
       </c>
       <c r="F8" s="3">
-        <v>5575700</v>
+        <v>5389000</v>
       </c>
       <c r="G8" s="3">
-        <v>6282200</v>
+        <v>6071900</v>
       </c>
       <c r="H8" s="3">
-        <v>6812200</v>
+        <v>6584200</v>
       </c>
       <c r="I8" s="3">
-        <v>6645600</v>
+        <v>6423100</v>
       </c>
       <c r="J8" s="3">
-        <v>5793800</v>
+        <v>5599800</v>
       </c>
       <c r="K8" s="3">
         <v>6430400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6249100</v>
+        <v>6039900</v>
       </c>
       <c r="E9" s="3">
-        <v>5439700</v>
+        <v>5257600</v>
       </c>
       <c r="F9" s="3">
-        <v>4687300</v>
+        <v>4530400</v>
       </c>
       <c r="G9" s="3">
-        <v>5250100</v>
+        <v>5074300</v>
       </c>
       <c r="H9" s="3">
-        <v>5664200</v>
+        <v>5474600</v>
       </c>
       <c r="I9" s="3">
-        <v>5505700</v>
+        <v>5321400</v>
       </c>
       <c r="J9" s="3">
-        <v>4734500</v>
+        <v>4576000</v>
       </c>
       <c r="K9" s="3">
         <v>5394500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1076600</v>
+        <v>1040500</v>
       </c>
       <c r="E10" s="3">
-        <v>952800</v>
+        <v>920900</v>
       </c>
       <c r="F10" s="3">
-        <v>888400</v>
+        <v>858600</v>
       </c>
       <c r="G10" s="3">
-        <v>1032100</v>
+        <v>997600</v>
       </c>
       <c r="H10" s="3">
-        <v>1148000</v>
+        <v>1109600</v>
       </c>
       <c r="I10" s="3">
-        <v>1139900</v>
+        <v>1101700</v>
       </c>
       <c r="J10" s="3">
-        <v>1059200</v>
+        <v>1023800</v>
       </c>
       <c r="K10" s="3">
         <v>1035900</v>
@@ -870,22 +870,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>132600</v>
+        <v>128200</v>
       </c>
       <c r="E12" s="3">
-        <v>118300</v>
+        <v>114300</v>
       </c>
       <c r="F12" s="3">
-        <v>112200</v>
+        <v>108500</v>
       </c>
       <c r="G12" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="H12" s="3">
-        <v>118600</v>
+        <v>114600</v>
       </c>
       <c r="I12" s="3">
-        <v>106500</v>
+        <v>102900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="E14" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="F14" s="3">
-        <v>71900</v>
+        <v>69500</v>
       </c>
       <c r="G14" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="H14" s="3">
-        <v>63700</v>
+        <v>61600</v>
       </c>
       <c r="I14" s="3">
-        <v>101900</v>
+        <v>98500</v>
       </c>
       <c r="J14" s="3">
-        <v>92900</v>
+        <v>89800</v>
       </c>
       <c r="K14" s="3">
         <v>131500</v>
@@ -996,22 +996,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35500</v>
+        <v>34300</v>
       </c>
       <c r="E15" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="F15" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="G15" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="H15" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I15" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7251100</v>
+        <v>7008300</v>
       </c>
       <c r="E17" s="3">
-        <v>6326100</v>
+        <v>6114300</v>
       </c>
       <c r="F17" s="3">
-        <v>5589700</v>
+        <v>5402500</v>
       </c>
       <c r="G17" s="3">
-        <v>6151700</v>
+        <v>5945700</v>
       </c>
       <c r="H17" s="3">
-        <v>6595300</v>
+        <v>6374500</v>
       </c>
       <c r="I17" s="3">
-        <v>6439700</v>
+        <v>6224100</v>
       </c>
       <c r="J17" s="3">
-        <v>5621400</v>
+        <v>5433200</v>
       </c>
       <c r="K17" s="3">
         <v>6362500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74600</v>
+        <v>72100</v>
       </c>
       <c r="E18" s="3">
-        <v>66400</v>
+        <v>64200</v>
       </c>
       <c r="F18" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="G18" s="3">
-        <v>130500</v>
+        <v>126200</v>
       </c>
       <c r="H18" s="3">
-        <v>216900</v>
+        <v>209600</v>
       </c>
       <c r="I18" s="3">
-        <v>205900</v>
+        <v>199000</v>
       </c>
       <c r="J18" s="3">
-        <v>172400</v>
+        <v>166600</v>
       </c>
       <c r="K18" s="3">
         <v>67800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>177100</v>
+        <v>171200</v>
       </c>
       <c r="E20" s="3">
-        <v>97100</v>
+        <v>93900</v>
       </c>
       <c r="F20" s="3">
-        <v>185100</v>
+        <v>178900</v>
       </c>
       <c r="G20" s="3">
-        <v>110400</v>
+        <v>106700</v>
       </c>
       <c r="H20" s="3">
-        <v>56800</v>
+        <v>54900</v>
       </c>
       <c r="I20" s="3">
-        <v>99500</v>
+        <v>96100</v>
       </c>
       <c r="J20" s="3">
-        <v>43700</v>
+        <v>42200</v>
       </c>
       <c r="K20" s="3">
         <v>116600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>520300</v>
+        <v>501700</v>
       </c>
       <c r="E21" s="3">
-        <v>395200</v>
+        <v>381000</v>
       </c>
       <c r="F21" s="3">
-        <v>392000</v>
+        <v>377900</v>
       </c>
       <c r="G21" s="3">
-        <v>443100</v>
+        <v>427400</v>
       </c>
       <c r="H21" s="3">
-        <v>454100</v>
+        <v>438100</v>
       </c>
       <c r="I21" s="3">
-        <v>477800</v>
+        <v>461100</v>
       </c>
       <c r="J21" s="3">
-        <v>376600</v>
+        <v>363300</v>
       </c>
       <c r="K21" s="3">
         <v>353600</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43500</v>
+        <v>42100</v>
       </c>
       <c r="E22" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="F22" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="G22" s="3">
-        <v>29700</v>
+        <v>28700</v>
       </c>
       <c r="H22" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="I22" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="J22" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="K22" s="3">
         <v>27300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>208200</v>
+        <v>201200</v>
       </c>
       <c r="E23" s="3">
-        <v>140400</v>
+        <v>135700</v>
       </c>
       <c r="F23" s="3">
-        <v>146400</v>
+        <v>141500</v>
       </c>
       <c r="G23" s="3">
-        <v>211300</v>
+        <v>204200</v>
       </c>
       <c r="H23" s="3">
-        <v>245700</v>
+        <v>237400</v>
       </c>
       <c r="I23" s="3">
-        <v>278000</v>
+        <v>268700</v>
       </c>
       <c r="J23" s="3">
-        <v>192100</v>
+        <v>185700</v>
       </c>
       <c r="K23" s="3">
         <v>157100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73200</v>
+        <v>70700</v>
       </c>
       <c r="E24" s="3">
-        <v>49400</v>
+        <v>47700</v>
       </c>
       <c r="F24" s="3">
-        <v>63300</v>
+        <v>61200</v>
       </c>
       <c r="G24" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="H24" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="I24" s="3">
-        <v>56000</v>
+        <v>54100</v>
       </c>
       <c r="J24" s="3">
-        <v>38000</v>
+        <v>36700</v>
       </c>
       <c r="K24" s="3">
         <v>58400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>135000</v>
+        <v>130500</v>
       </c>
       <c r="E26" s="3">
-        <v>91000</v>
+        <v>87900</v>
       </c>
       <c r="F26" s="3">
-        <v>83100</v>
+        <v>80300</v>
       </c>
       <c r="G26" s="3">
-        <v>130500</v>
+        <v>126100</v>
       </c>
       <c r="H26" s="3">
-        <v>222900</v>
+        <v>215400</v>
       </c>
       <c r="I26" s="3">
-        <v>222000</v>
+        <v>214600</v>
       </c>
       <c r="J26" s="3">
-        <v>154100</v>
+        <v>148900</v>
       </c>
       <c r="K26" s="3">
         <v>98800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>123000</v>
+        <v>118900</v>
       </c>
       <c r="E27" s="3">
-        <v>69300</v>
+        <v>67000</v>
       </c>
       <c r="F27" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="G27" s="3">
-        <v>121200</v>
+        <v>117100</v>
       </c>
       <c r="H27" s="3">
-        <v>200000</v>
+        <v>193300</v>
       </c>
       <c r="I27" s="3">
-        <v>196100</v>
+        <v>189600</v>
       </c>
       <c r="J27" s="3">
-        <v>120700</v>
+        <v>116700</v>
       </c>
       <c r="K27" s="3">
         <v>73600</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177100</v>
+        <v>-171200</v>
       </c>
       <c r="E32" s="3">
-        <v>-97100</v>
+        <v>-93900</v>
       </c>
       <c r="F32" s="3">
-        <v>-185100</v>
+        <v>-178900</v>
       </c>
       <c r="G32" s="3">
-        <v>-110400</v>
+        <v>-106700</v>
       </c>
       <c r="H32" s="3">
-        <v>-56800</v>
+        <v>-54900</v>
       </c>
       <c r="I32" s="3">
-        <v>-99500</v>
+        <v>-96100</v>
       </c>
       <c r="J32" s="3">
-        <v>-43700</v>
+        <v>-42200</v>
       </c>
       <c r="K32" s="3">
         <v>-116600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>123000</v>
+        <v>118900</v>
       </c>
       <c r="E33" s="3">
-        <v>69300</v>
+        <v>67000</v>
       </c>
       <c r="F33" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="G33" s="3">
-        <v>121200</v>
+        <v>117100</v>
       </c>
       <c r="H33" s="3">
-        <v>200000</v>
+        <v>193300</v>
       </c>
       <c r="I33" s="3">
-        <v>196100</v>
+        <v>189600</v>
       </c>
       <c r="J33" s="3">
-        <v>120700</v>
+        <v>116700</v>
       </c>
       <c r="K33" s="3">
         <v>73600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>123000</v>
+        <v>118900</v>
       </c>
       <c r="E35" s="3">
-        <v>69300</v>
+        <v>67000</v>
       </c>
       <c r="F35" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="G35" s="3">
-        <v>121200</v>
+        <v>117100</v>
       </c>
       <c r="H35" s="3">
-        <v>200000</v>
+        <v>193300</v>
       </c>
       <c r="I35" s="3">
-        <v>196100</v>
+        <v>189600</v>
       </c>
       <c r="J35" s="3">
-        <v>120700</v>
+        <v>116700</v>
       </c>
       <c r="K35" s="3">
         <v>73600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325900</v>
+        <v>314900</v>
       </c>
       <c r="E41" s="3">
-        <v>447600</v>
+        <v>432600</v>
       </c>
       <c r="F41" s="3">
-        <v>579600</v>
+        <v>560200</v>
       </c>
       <c r="G41" s="3">
-        <v>373400</v>
+        <v>360900</v>
       </c>
       <c r="H41" s="3">
-        <v>306600</v>
+        <v>296300</v>
       </c>
       <c r="I41" s="3">
-        <v>347900</v>
+        <v>336200</v>
       </c>
       <c r="J41" s="3">
-        <v>324000</v>
+        <v>313200</v>
       </c>
       <c r="K41" s="3">
         <v>385900</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="E42" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="F42" s="3">
-        <v>20100</v>
+        <v>19400</v>
       </c>
       <c r="G42" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1567500</v>
+        <v>1515000</v>
       </c>
       <c r="E43" s="3">
-        <v>1575100</v>
+        <v>1522400</v>
       </c>
       <c r="F43" s="3">
-        <v>1312400</v>
+        <v>1268500</v>
       </c>
       <c r="G43" s="3">
-        <v>1313900</v>
+        <v>1270000</v>
       </c>
       <c r="H43" s="3">
-        <v>1499400</v>
+        <v>1449200</v>
       </c>
       <c r="I43" s="3">
-        <v>1532800</v>
+        <v>1481500</v>
       </c>
       <c r="J43" s="3">
-        <v>1357700</v>
+        <v>1312300</v>
       </c>
       <c r="K43" s="3">
         <v>1364300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1183700</v>
+        <v>1144000</v>
       </c>
       <c r="E44" s="3">
-        <v>1127500</v>
+        <v>1089700</v>
       </c>
       <c r="F44" s="3">
-        <v>830100</v>
+        <v>802400</v>
       </c>
       <c r="G44" s="3">
-        <v>796000</v>
+        <v>769300</v>
       </c>
       <c r="H44" s="3">
-        <v>844200</v>
+        <v>816000</v>
       </c>
       <c r="I44" s="3">
-        <v>781700</v>
+        <v>755600</v>
       </c>
       <c r="J44" s="3">
-        <v>716900</v>
+        <v>692900</v>
       </c>
       <c r="K44" s="3">
         <v>684800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>232200</v>
+        <v>224500</v>
       </c>
       <c r="E45" s="3">
-        <v>282800</v>
+        <v>273300</v>
       </c>
       <c r="F45" s="3">
-        <v>210600</v>
+        <v>203500</v>
       </c>
       <c r="G45" s="3">
-        <v>163500</v>
+        <v>158100</v>
       </c>
       <c r="H45" s="3">
-        <v>222400</v>
+        <v>214900</v>
       </c>
       <c r="I45" s="3">
-        <v>265000</v>
+        <v>256200</v>
       </c>
       <c r="J45" s="3">
-        <v>228000</v>
+        <v>220400</v>
       </c>
       <c r="K45" s="3">
         <v>240600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3344500</v>
+        <v>3232500</v>
       </c>
       <c r="E46" s="3">
-        <v>3455400</v>
+        <v>3339700</v>
       </c>
       <c r="F46" s="3">
-        <v>2952800</v>
+        <v>2854000</v>
       </c>
       <c r="G46" s="3">
-        <v>2653000</v>
+        <v>2564200</v>
       </c>
       <c r="H46" s="3">
-        <v>2888900</v>
+        <v>2792200</v>
       </c>
       <c r="I46" s="3">
-        <v>2859200</v>
+        <v>2763500</v>
       </c>
       <c r="J46" s="3">
-        <v>2627100</v>
+        <v>2539100</v>
       </c>
       <c r="K46" s="3">
         <v>2675600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1675000</v>
+        <v>1619000</v>
       </c>
       <c r="E47" s="3">
-        <v>837700</v>
+        <v>809700</v>
       </c>
       <c r="F47" s="3">
-        <v>753200</v>
+        <v>728000</v>
       </c>
       <c r="G47" s="3">
-        <v>730500</v>
+        <v>706100</v>
       </c>
       <c r="H47" s="3">
-        <v>853400</v>
+        <v>824800</v>
       </c>
       <c r="I47" s="3">
-        <v>942100</v>
+        <v>910500</v>
       </c>
       <c r="J47" s="3">
-        <v>900300</v>
+        <v>870200</v>
       </c>
       <c r="K47" s="3">
         <v>832500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2175200</v>
+        <v>2102400</v>
       </c>
       <c r="E48" s="3">
-        <v>1787300</v>
+        <v>1727500</v>
       </c>
       <c r="F48" s="3">
-        <v>1695100</v>
+        <v>1638400</v>
       </c>
       <c r="G48" s="3">
-        <v>1746500</v>
+        <v>1688000</v>
       </c>
       <c r="H48" s="3">
-        <v>1575700</v>
+        <v>1523000</v>
       </c>
       <c r="I48" s="3">
-        <v>1655800</v>
+        <v>1600400</v>
       </c>
       <c r="J48" s="3">
-        <v>1411700</v>
+        <v>1364500</v>
       </c>
       <c r="K48" s="3">
         <v>1444600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>139000</v>
+        <v>134400</v>
       </c>
       <c r="E49" s="3">
-        <v>141000</v>
+        <v>136300</v>
       </c>
       <c r="F49" s="3">
-        <v>139100</v>
+        <v>134500</v>
       </c>
       <c r="G49" s="3">
-        <v>110600</v>
+        <v>106900</v>
       </c>
       <c r="H49" s="3">
-        <v>83800</v>
+        <v>81000</v>
       </c>
       <c r="I49" s="3">
-        <v>77700</v>
+        <v>75100</v>
       </c>
       <c r="J49" s="3">
-        <v>66900</v>
+        <v>64700</v>
       </c>
       <c r="K49" s="3">
         <v>62600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>264400</v>
+        <v>255600</v>
       </c>
       <c r="E52" s="3">
-        <v>208100</v>
+        <v>201100</v>
       </c>
       <c r="F52" s="3">
-        <v>175900</v>
+        <v>170000</v>
       </c>
       <c r="G52" s="3">
-        <v>218400</v>
+        <v>211100</v>
       </c>
       <c r="H52" s="3">
-        <v>218000</v>
+        <v>210700</v>
       </c>
       <c r="I52" s="3">
-        <v>229100</v>
+        <v>221400</v>
       </c>
       <c r="J52" s="3">
-        <v>147300</v>
+        <v>142400</v>
       </c>
       <c r="K52" s="3">
         <v>171700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6412900</v>
+        <v>6198200</v>
       </c>
       <c r="E54" s="3">
-        <v>6429500</v>
+        <v>6214200</v>
       </c>
       <c r="F54" s="3">
-        <v>5716100</v>
+        <v>5524800</v>
       </c>
       <c r="G54" s="3">
-        <v>5459000</v>
+        <v>5276300</v>
       </c>
       <c r="H54" s="3">
-        <v>5619800</v>
+        <v>5431700</v>
       </c>
       <c r="I54" s="3">
-        <v>5555300</v>
+        <v>5369300</v>
       </c>
       <c r="J54" s="3">
-        <v>5153400</v>
+        <v>4980800</v>
       </c>
       <c r="K54" s="3">
         <v>5187100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>861600</v>
+        <v>832700</v>
       </c>
       <c r="E57" s="3">
-        <v>879300</v>
+        <v>849800</v>
       </c>
       <c r="F57" s="3">
-        <v>793500</v>
+        <v>766900</v>
       </c>
       <c r="G57" s="3">
-        <v>766600</v>
+        <v>740900</v>
       </c>
       <c r="H57" s="3">
-        <v>902900</v>
+        <v>872600</v>
       </c>
       <c r="I57" s="3">
-        <v>854500</v>
+        <v>825900</v>
       </c>
       <c r="J57" s="3">
-        <v>742600</v>
+        <v>717700</v>
       </c>
       <c r="K57" s="3">
         <v>737900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2151700</v>
+        <v>2079700</v>
       </c>
       <c r="E58" s="3">
-        <v>1171700</v>
+        <v>1132500</v>
       </c>
       <c r="F58" s="3">
-        <v>927700</v>
+        <v>896600</v>
       </c>
       <c r="G58" s="3">
-        <v>873000</v>
+        <v>843800</v>
       </c>
       <c r="H58" s="3">
-        <v>733100</v>
+        <v>708600</v>
       </c>
       <c r="I58" s="3">
-        <v>798800</v>
+        <v>772100</v>
       </c>
       <c r="J58" s="3">
-        <v>689100</v>
+        <v>666100</v>
       </c>
       <c r="K58" s="3">
         <v>910000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1120200</v>
+        <v>1082700</v>
       </c>
       <c r="E59" s="3">
-        <v>557700</v>
+        <v>539000</v>
       </c>
       <c r="F59" s="3">
-        <v>444300</v>
+        <v>429400</v>
       </c>
       <c r="G59" s="3">
-        <v>556400</v>
+        <v>537700</v>
       </c>
       <c r="H59" s="3">
-        <v>642300</v>
+        <v>620800</v>
       </c>
       <c r="I59" s="3">
-        <v>616000</v>
+        <v>595400</v>
       </c>
       <c r="J59" s="3">
-        <v>583700</v>
+        <v>564200</v>
       </c>
       <c r="K59" s="3">
         <v>552200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2617600</v>
+        <v>2530000</v>
       </c>
       <c r="E60" s="3">
-        <v>2608600</v>
+        <v>2521300</v>
       </c>
       <c r="F60" s="3">
-        <v>2165500</v>
+        <v>2093000</v>
       </c>
       <c r="G60" s="3">
-        <v>2196000</v>
+        <v>2122500</v>
       </c>
       <c r="H60" s="3">
-        <v>2278200</v>
+        <v>2202000</v>
       </c>
       <c r="I60" s="3">
-        <v>2269400</v>
+        <v>2193400</v>
       </c>
       <c r="J60" s="3">
-        <v>2015400</v>
+        <v>1947900</v>
       </c>
       <c r="K60" s="3">
         <v>2200200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1061700</v>
+        <v>1026200</v>
       </c>
       <c r="E61" s="3">
-        <v>1241500</v>
+        <v>1199900</v>
       </c>
       <c r="F61" s="3">
-        <v>1121100</v>
+        <v>1083600</v>
       </c>
       <c r="G61" s="3">
-        <v>907100</v>
+        <v>876700</v>
       </c>
       <c r="H61" s="3">
-        <v>957000</v>
+        <v>924900</v>
       </c>
       <c r="I61" s="3">
-        <v>977100</v>
+        <v>944400</v>
       </c>
       <c r="J61" s="3">
-        <v>1045800</v>
+        <v>1010800</v>
       </c>
       <c r="K61" s="3">
         <v>1005500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>518100</v>
+        <v>500800</v>
       </c>
       <c r="E62" s="3">
-        <v>421700</v>
+        <v>407600</v>
       </c>
       <c r="F62" s="3">
-        <v>426200</v>
+        <v>411900</v>
       </c>
       <c r="G62" s="3">
-        <v>480300</v>
+        <v>464200</v>
       </c>
       <c r="H62" s="3">
-        <v>461600</v>
+        <v>446100</v>
       </c>
       <c r="I62" s="3">
-        <v>505100</v>
+        <v>488100</v>
       </c>
       <c r="J62" s="3">
-        <v>463600</v>
+        <v>448000</v>
       </c>
       <c r="K62" s="3">
         <v>521800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4340600</v>
+        <v>4195300</v>
       </c>
       <c r="E66" s="3">
-        <v>4511200</v>
+        <v>4360200</v>
       </c>
       <c r="F66" s="3">
-        <v>3930800</v>
+        <v>3799200</v>
       </c>
       <c r="G66" s="3">
-        <v>3808300</v>
+        <v>3680800</v>
       </c>
       <c r="H66" s="3">
-        <v>3918400</v>
+        <v>3787200</v>
       </c>
       <c r="I66" s="3">
-        <v>3930400</v>
+        <v>3798800</v>
       </c>
       <c r="J66" s="3">
-        <v>3733200</v>
+        <v>3608300</v>
       </c>
       <c r="K66" s="3">
         <v>3914300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1317400</v>
+        <v>1273300</v>
       </c>
       <c r="E72" s="3">
-        <v>1197800</v>
+        <v>1157700</v>
       </c>
       <c r="F72" s="3">
-        <v>1157900</v>
+        <v>1119100</v>
       </c>
       <c r="G72" s="3">
-        <v>1134200</v>
+        <v>1096300</v>
       </c>
       <c r="H72" s="3">
-        <v>1042500</v>
+        <v>1007600</v>
       </c>
       <c r="I72" s="3">
-        <v>880300</v>
+        <v>850800</v>
       </c>
       <c r="J72" s="3">
-        <v>714100</v>
+        <v>690200</v>
       </c>
       <c r="K72" s="3">
         <v>663800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2072400</v>
+        <v>2003000</v>
       </c>
       <c r="E76" s="3">
-        <v>1918200</v>
+        <v>1854000</v>
       </c>
       <c r="F76" s="3">
-        <v>1785300</v>
+        <v>1725500</v>
       </c>
       <c r="G76" s="3">
-        <v>1650700</v>
+        <v>1595500</v>
       </c>
       <c r="H76" s="3">
-        <v>1701400</v>
+        <v>1644500</v>
       </c>
       <c r="I76" s="3">
-        <v>1624900</v>
+        <v>1570500</v>
       </c>
       <c r="J76" s="3">
-        <v>1420100</v>
+        <v>1372600</v>
       </c>
       <c r="K76" s="3">
         <v>1272700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>123000</v>
+        <v>118900</v>
       </c>
       <c r="E81" s="3">
-        <v>69300</v>
+        <v>67000</v>
       </c>
       <c r="F81" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="G81" s="3">
-        <v>121200</v>
+        <v>117100</v>
       </c>
       <c r="H81" s="3">
-        <v>200000</v>
+        <v>193300</v>
       </c>
       <c r="I81" s="3">
-        <v>196100</v>
+        <v>189600</v>
       </c>
       <c r="J81" s="3">
-        <v>120700</v>
+        <v>116700</v>
       </c>
       <c r="K81" s="3">
         <v>73600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>268600</v>
+        <v>259600</v>
       </c>
       <c r="E83" s="3">
-        <v>231700</v>
+        <v>223900</v>
       </c>
       <c r="F83" s="3">
-        <v>221000</v>
+        <v>213600</v>
       </c>
       <c r="G83" s="3">
-        <v>202100</v>
+        <v>195400</v>
       </c>
       <c r="H83" s="3">
-        <v>180500</v>
+        <v>174400</v>
       </c>
       <c r="I83" s="3">
-        <v>172500</v>
+        <v>166700</v>
       </c>
       <c r="J83" s="3">
-        <v>160600</v>
+        <v>155200</v>
       </c>
       <c r="K83" s="3">
         <v>170800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>259100</v>
+        <v>250500</v>
       </c>
       <c r="E89" s="3">
-        <v>-87200</v>
+        <v>-84200</v>
       </c>
       <c r="F89" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G89" s="3">
-        <v>291500</v>
+        <v>281800</v>
       </c>
       <c r="H89" s="3">
-        <v>320700</v>
+        <v>310000</v>
       </c>
       <c r="I89" s="3">
-        <v>266800</v>
+        <v>257900</v>
       </c>
       <c r="J89" s="3">
-        <v>285400</v>
+        <v>275800</v>
       </c>
       <c r="K89" s="3">
         <v>313000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246500</v>
+        <v>-238200</v>
       </c>
       <c r="E91" s="3">
-        <v>-250700</v>
+        <v>-242300</v>
       </c>
       <c r="F91" s="3">
-        <v>-229400</v>
+        <v>-221700</v>
       </c>
       <c r="G91" s="3">
-        <v>-325000</v>
+        <v>-314200</v>
       </c>
       <c r="H91" s="3">
-        <v>-295800</v>
+        <v>-285900</v>
       </c>
       <c r="I91" s="3">
-        <v>-236000</v>
+        <v>-228100</v>
       </c>
       <c r="J91" s="3">
-        <v>-195400</v>
+        <v>-188900</v>
       </c>
       <c r="K91" s="3">
         <v>-188500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-148900</v>
+        <v>-143900</v>
       </c>
       <c r="E94" s="3">
-        <v>-275300</v>
+        <v>-266100</v>
       </c>
       <c r="F94" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="G94" s="3">
-        <v>-227500</v>
+        <v>-219900</v>
       </c>
       <c r="H94" s="3">
-        <v>-213300</v>
+        <v>-206100</v>
       </c>
       <c r="I94" s="3">
-        <v>-235800</v>
+        <v>-227900</v>
       </c>
       <c r="J94" s="3">
-        <v>-249800</v>
+        <v>-241400</v>
       </c>
       <c r="K94" s="3">
         <v>14300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29100</v>
+        <v>-28100</v>
       </c>
       <c r="E96" s="3">
-        <v>-29100</v>
+        <v>-28200</v>
       </c>
       <c r="F96" s="3">
-        <v>-41200</v>
+        <v>-39800</v>
       </c>
       <c r="G96" s="3">
-        <v>-41200</v>
+        <v>-39800</v>
       </c>
       <c r="H96" s="3">
-        <v>-38800</v>
+        <v>-37500</v>
       </c>
       <c r="I96" s="3">
-        <v>-26700</v>
+        <v>-25800</v>
       </c>
       <c r="J96" s="3">
-        <v>-19400</v>
+        <v>-18700</v>
       </c>
       <c r="K96" s="3">
         <v>-15500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-236800</v>
+        <v>-228900</v>
       </c>
       <c r="E100" s="3">
-        <v>240600</v>
+        <v>232500</v>
       </c>
       <c r="F100" s="3">
-        <v>241400</v>
+        <v>233300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H100" s="3">
-        <v>-133400</v>
+        <v>-128900</v>
       </c>
       <c r="I100" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="J100" s="3">
-        <v>-71300</v>
+        <v>-68900</v>
       </c>
       <c r="K100" s="3">
         <v>-153900</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="F101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K101" s="3">
         <v>-10500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-107700</v>
+        <v>-104100</v>
       </c>
       <c r="E102" s="3">
-        <v>-134300</v>
+        <v>-129900</v>
       </c>
       <c r="F102" s="3">
-        <v>220800</v>
+        <v>213400</v>
       </c>
       <c r="G102" s="3">
-        <v>56500</v>
+        <v>54600</v>
       </c>
       <c r="H102" s="3">
-        <v>-20100</v>
+        <v>-19400</v>
       </c>
       <c r="I102" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="J102" s="3">
-        <v>-37900</v>
+        <v>-36600</v>
       </c>
       <c r="K102" s="3">
         <v>163000</v>
